--- a/AAII_Financials/Yearly/JSAIY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/JSAIY_YR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="92">
   <si>
     <t>JSAIY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,142 +665,154 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43897</v>
+      </c>
+      <c r="E7" s="2">
         <v>43533</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43169</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42805</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42441</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42077</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41713</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41349</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>40985</v>
       </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>37500500</v>
+        <v>35707800</v>
       </c>
       <c r="E8" s="3">
-        <v>36788200</v>
+        <v>35725000</v>
       </c>
       <c r="F8" s="3">
-        <v>33902600</v>
+        <v>35046400</v>
       </c>
       <c r="G8" s="3">
-        <v>30388800</v>
+        <v>32297500</v>
       </c>
       <c r="H8" s="3">
-        <v>30736600</v>
+        <v>28950000</v>
       </c>
       <c r="I8" s="3">
-        <v>30961500</v>
+        <v>29281300</v>
       </c>
       <c r="J8" s="3">
+        <v>29495600</v>
+      </c>
+      <c r="K8" s="3">
         <v>30126400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>29078300</v>
       </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>34542600</v>
+        <v>33224900</v>
       </c>
       <c r="E9" s="3">
-        <v>34355100</v>
+        <v>32907100</v>
       </c>
       <c r="F9" s="3">
-        <v>31790200</v>
+        <v>32728500</v>
       </c>
       <c r="G9" s="3">
-        <v>28506500</v>
+        <v>30285000</v>
       </c>
       <c r="H9" s="3">
-        <v>29174800</v>
+        <v>27156800</v>
       </c>
       <c r="I9" s="3">
-        <v>29168400</v>
+        <v>27793500</v>
       </c>
       <c r="J9" s="3">
+        <v>27787400</v>
+      </c>
+      <c r="K9" s="3">
         <v>28475400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>27498800</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2957900</v>
+        <v>2482900</v>
       </c>
       <c r="E10" s="3">
-        <v>2433100</v>
+        <v>2817900</v>
       </c>
       <c r="F10" s="3">
-        <v>2112500</v>
+        <v>2317900</v>
       </c>
       <c r="G10" s="3">
-        <v>1882300</v>
+        <v>2012400</v>
       </c>
       <c r="H10" s="3">
-        <v>1561700</v>
+        <v>1793200</v>
       </c>
       <c r="I10" s="3">
-        <v>1793100</v>
+        <v>1487800</v>
       </c>
       <c r="J10" s="3">
+        <v>1708200</v>
+      </c>
+      <c r="K10" s="3">
         <v>1650900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1579500</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -813,8 +825,9 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -842,9 +855,12 @@
       <c r="K12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -872,23 +888,26 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>11600</v>
-      </c>
-      <c r="E14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>11100</v>
+      </c>
+      <c r="F14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="3">
-        <v>-126700</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>8</v>
+      <c r="G14" s="3">
+        <v>-120700</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>8</v>
@@ -902,9 +921,12 @@
       <c r="K14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -932,9 +954,12 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -944,68 +969,75 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>36735200</v>
+        <v>34907200</v>
       </c>
       <c r="E17" s="3">
-        <v>36118500</v>
+        <v>34995900</v>
       </c>
       <c r="F17" s="3">
-        <v>33072700</v>
+        <v>34408400</v>
       </c>
       <c r="G17" s="3">
-        <v>29474800</v>
+        <v>31506800</v>
       </c>
       <c r="H17" s="3">
-        <v>30631800</v>
+        <v>28079200</v>
       </c>
       <c r="I17" s="3">
-        <v>29657100</v>
+        <v>29181500</v>
       </c>
       <c r="J17" s="3">
+        <v>28252900</v>
+      </c>
+      <c r="K17" s="3">
         <v>28986100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>27938300</v>
       </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>765300</v>
+        <v>800500</v>
       </c>
       <c r="E18" s="3">
-        <v>669700</v>
+        <v>729100</v>
       </c>
       <c r="F18" s="3">
-        <v>830000</v>
+        <v>638000</v>
       </c>
       <c r="G18" s="3">
-        <v>914000</v>
+        <v>790700</v>
       </c>
       <c r="H18" s="3">
-        <v>104700</v>
+        <v>870700</v>
       </c>
       <c r="I18" s="3">
-        <v>1304400</v>
+        <v>99800</v>
       </c>
       <c r="J18" s="3">
+        <v>1242700</v>
+      </c>
+      <c r="K18" s="3">
         <v>1140300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1140000</v>
       </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1018,158 +1050,174 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>34900</v>
+        <v>-6200</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>33300</v>
       </c>
       <c r="F20" s="3">
-        <v>-32300</v>
+        <v>0</v>
       </c>
       <c r="G20" s="3">
-        <v>-50400</v>
+        <v>-30800</v>
       </c>
       <c r="H20" s="3">
-        <v>-38800</v>
+        <v>-48000</v>
       </c>
       <c r="I20" s="3">
+        <v>-36900</v>
+      </c>
+      <c r="J20" s="3">
+        <v>22200</v>
+      </c>
+      <c r="K20" s="3">
         <v>23300</v>
       </c>
-      <c r="J20" s="3">
-        <v>23300</v>
-      </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>63900</v>
       </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2440800</v>
+        <v>2340300</v>
       </c>
       <c r="E21" s="3">
-        <v>1620000</v>
+        <v>1657800</v>
       </c>
       <c r="F21" s="3">
-        <v>1614100</v>
+        <v>1407300</v>
       </c>
       <c r="G21" s="3">
-        <v>1622800</v>
+        <v>1475300</v>
       </c>
       <c r="H21" s="3">
-        <v>818600</v>
+        <v>1532000</v>
       </c>
       <c r="I21" s="3">
-        <v>2044000</v>
-      </c>
-      <c r="J21" s="3">
+        <v>737800</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K21" s="3">
         <v>1835600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1862000</v>
       </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>539100</v>
+        <v>480300</v>
       </c>
       <c r="E22" s="3">
-        <v>140900</v>
+        <v>513600</v>
       </c>
       <c r="F22" s="3">
-        <v>147400</v>
+        <v>134200</v>
       </c>
       <c r="G22" s="3">
-        <v>155100</v>
+        <v>140400</v>
       </c>
       <c r="H22" s="3">
-        <v>159000</v>
+        <v>147800</v>
       </c>
       <c r="I22" s="3">
-        <v>166800</v>
+        <v>151500</v>
       </c>
       <c r="J22" s="3">
+        <v>158900</v>
+      </c>
+      <c r="K22" s="3">
         <v>165500</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>161700</v>
       </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>261100</v>
+        <v>314100</v>
       </c>
       <c r="E23" s="3">
-        <v>528800</v>
+        <v>248800</v>
       </c>
       <c r="F23" s="3">
-        <v>650300</v>
+        <v>503700</v>
       </c>
       <c r="G23" s="3">
-        <v>708500</v>
+        <v>619500</v>
       </c>
       <c r="H23" s="3">
-        <v>-93100</v>
+        <v>674900</v>
       </c>
       <c r="I23" s="3">
-        <v>1160900</v>
+        <v>-88700</v>
       </c>
       <c r="J23" s="3">
+        <v>1106000</v>
+      </c>
+      <c r="K23" s="3">
         <v>998000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1042100</v>
       </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>20700</v>
+        <v>126900</v>
       </c>
       <c r="E24" s="3">
-        <v>129300</v>
+        <v>19700</v>
       </c>
       <c r="F24" s="3">
-        <v>162900</v>
+        <v>123200</v>
       </c>
       <c r="G24" s="3">
-        <v>99500</v>
+        <v>155200</v>
       </c>
       <c r="H24" s="3">
-        <v>121500</v>
+        <v>94800</v>
       </c>
       <c r="I24" s="3">
-        <v>235300</v>
+        <v>115800</v>
       </c>
       <c r="J24" s="3">
+        <v>224200</v>
+      </c>
+      <c r="K24" s="3">
         <v>219800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>262200</v>
       </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1197,69 +1245,78 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>240500</v>
+        <v>187200</v>
       </c>
       <c r="E26" s="3">
-        <v>399500</v>
+        <v>229100</v>
       </c>
       <c r="F26" s="3">
-        <v>487400</v>
+        <v>380600</v>
       </c>
       <c r="G26" s="3">
-        <v>608900</v>
+        <v>464300</v>
       </c>
       <c r="H26" s="3">
-        <v>-214600</v>
+        <v>580100</v>
       </c>
       <c r="I26" s="3">
-        <v>925700</v>
+        <v>-204400</v>
       </c>
       <c r="J26" s="3">
+        <v>881800</v>
+      </c>
+      <c r="K26" s="3">
         <v>778300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>780000</v>
       </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>217200</v>
+        <v>158900</v>
       </c>
       <c r="E27" s="3">
-        <v>376200</v>
+        <v>206900</v>
       </c>
       <c r="F27" s="3">
-        <v>464100</v>
+        <v>358400</v>
       </c>
       <c r="G27" s="3">
-        <v>593400</v>
+        <v>442100</v>
       </c>
       <c r="H27" s="3">
-        <v>-214600</v>
+        <v>565300</v>
       </c>
       <c r="I27" s="3">
-        <v>925700</v>
+        <v>-204400</v>
       </c>
       <c r="J27" s="3">
+        <v>881800</v>
+      </c>
+      <c r="K27" s="3">
         <v>778300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>780000</v>
       </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1287,9 +1344,12 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1317,9 +1377,12 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1347,9 +1410,12 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1377,69 +1443,78 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-34900</v>
+        <v>6200</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>-33300</v>
       </c>
       <c r="F32" s="3">
-        <v>32300</v>
+        <v>0</v>
       </c>
       <c r="G32" s="3">
-        <v>50400</v>
+        <v>30800</v>
       </c>
       <c r="H32" s="3">
-        <v>38800</v>
+        <v>48000</v>
       </c>
       <c r="I32" s="3">
+        <v>36900</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-22200</v>
+      </c>
+      <c r="K32" s="3">
         <v>-23300</v>
       </c>
-      <c r="J32" s="3">
-        <v>-23300</v>
-      </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-63900</v>
       </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>217200</v>
+        <v>158900</v>
       </c>
       <c r="E33" s="3">
-        <v>376200</v>
+        <v>206900</v>
       </c>
       <c r="F33" s="3">
-        <v>464100</v>
+        <v>358400</v>
       </c>
       <c r="G33" s="3">
-        <v>593400</v>
+        <v>442100</v>
       </c>
       <c r="H33" s="3">
-        <v>-214600</v>
+        <v>565300</v>
       </c>
       <c r="I33" s="3">
-        <v>925700</v>
+        <v>-204400</v>
       </c>
       <c r="J33" s="3">
+        <v>881800</v>
+      </c>
+      <c r="K33" s="3">
         <v>778300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>780000</v>
       </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1467,74 +1542,83 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>217200</v>
+        <v>158900</v>
       </c>
       <c r="E35" s="3">
-        <v>376200</v>
+        <v>206900</v>
       </c>
       <c r="F35" s="3">
-        <v>464100</v>
+        <v>358400</v>
       </c>
       <c r="G35" s="3">
-        <v>593400</v>
+        <v>442100</v>
       </c>
       <c r="H35" s="3">
-        <v>-214600</v>
+        <v>565300</v>
       </c>
       <c r="I35" s="3">
-        <v>925700</v>
+        <v>-204400</v>
       </c>
       <c r="J35" s="3">
+        <v>881800</v>
+      </c>
+      <c r="K35" s="3">
         <v>778300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>780000</v>
       </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43897</v>
+      </c>
+      <c r="E38" s="2">
         <v>43533</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43169</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42805</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42441</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42077</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41713</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41349</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>40985</v>
       </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1547,8 +1631,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1561,55 +1646,59 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1051100</v>
+        <v>1227000</v>
       </c>
       <c r="E41" s="3">
-        <v>1353600</v>
+        <v>2387300</v>
       </c>
       <c r="F41" s="3">
-        <v>1088500</v>
+        <v>1292400</v>
       </c>
       <c r="G41" s="3">
-        <v>1104100</v>
+        <v>1039400</v>
       </c>
       <c r="H41" s="3">
-        <v>1661300</v>
+        <v>1054200</v>
       </c>
       <c r="I41" s="3">
-        <v>2058200</v>
+        <v>1586200</v>
       </c>
       <c r="J41" s="3">
+        <v>1965200</v>
+      </c>
+      <c r="K41" s="3">
         <v>668400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>963900</v>
       </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>671000</v>
+        <v>101200</v>
       </c>
       <c r="E42" s="3">
-        <v>1145400</v>
+        <v>640700</v>
       </c>
       <c r="F42" s="3">
-        <v>440800</v>
+        <v>1093700</v>
       </c>
       <c r="G42" s="3">
-        <v>435700</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>8</v>
+        <v>420900</v>
+      </c>
+      <c r="H42" s="3">
+        <v>416000</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>8</v>
@@ -1620,219 +1709,243 @@
       <c r="K42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>10823400</v>
+        <v>5878200</v>
       </c>
       <c r="E43" s="3">
-        <v>5102700</v>
+        <v>10334400</v>
       </c>
       <c r="F43" s="3">
-        <v>8227400</v>
+        <v>4872200</v>
       </c>
       <c r="G43" s="3">
-        <v>2709700</v>
+        <v>7855700</v>
       </c>
       <c r="H43" s="3">
-        <v>2548100</v>
+        <v>2587300</v>
       </c>
       <c r="I43" s="3">
-        <v>2139600</v>
+        <v>2433000</v>
       </c>
       <c r="J43" s="3">
+        <v>2042900</v>
+      </c>
+      <c r="K43" s="3">
         <v>729100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>523000</v>
       </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>4987700</v>
+        <v>2138000</v>
       </c>
       <c r="E44" s="3">
-        <v>2340000</v>
+        <v>4762300</v>
       </c>
       <c r="F44" s="3">
-        <v>4589500</v>
+        <v>2234300</v>
       </c>
       <c r="G44" s="3">
-        <v>1251400</v>
+        <v>4382100</v>
       </c>
       <c r="H44" s="3">
-        <v>1288900</v>
+        <v>1194900</v>
       </c>
       <c r="I44" s="3">
-        <v>1299300</v>
+        <v>1230700</v>
       </c>
       <c r="J44" s="3">
+        <v>1240600</v>
+      </c>
+      <c r="K44" s="3">
         <v>2552000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>2446900</v>
       </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>279200</v>
+        <v>14800</v>
       </c>
       <c r="E45" s="3">
-        <v>215900</v>
+        <v>266600</v>
       </c>
       <c r="F45" s="3">
-        <v>323200</v>
+        <v>206100</v>
       </c>
       <c r="G45" s="3">
-        <v>204300</v>
+        <v>308600</v>
       </c>
       <c r="H45" s="3">
-        <v>217200</v>
+        <v>195000</v>
       </c>
       <c r="I45" s="3">
-        <v>142200</v>
+        <v>207400</v>
       </c>
       <c r="J45" s="3">
+        <v>135800</v>
+      </c>
+      <c r="K45" s="3">
         <v>196500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>169600</v>
       </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>9760700</v>
+        <v>9359200</v>
       </c>
       <c r="E46" s="3">
-        <v>10157600</v>
+        <v>9319700</v>
       </c>
       <c r="F46" s="3">
-        <v>8160200</v>
+        <v>9698700</v>
       </c>
       <c r="G46" s="3">
-        <v>5705200</v>
+        <v>7791500</v>
       </c>
       <c r="H46" s="3">
-        <v>5715500</v>
+        <v>5447400</v>
       </c>
       <c r="I46" s="3">
-        <v>5639200</v>
+        <v>5457300</v>
       </c>
       <c r="J46" s="3">
+        <v>5384500</v>
+      </c>
+      <c r="K46" s="3">
         <v>2457600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2650400</v>
       </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>9864100</v>
+        <v>5526400</v>
       </c>
       <c r="E47" s="3">
-        <v>4058100</v>
+        <v>9418500</v>
       </c>
       <c r="F47" s="3">
-        <v>5988300</v>
+        <v>3874800</v>
       </c>
       <c r="G47" s="3">
-        <v>3113100</v>
+        <v>5717700</v>
       </c>
       <c r="H47" s="3">
-        <v>2634700</v>
+        <v>2972400</v>
       </c>
       <c r="I47" s="3">
-        <v>2555900</v>
+        <v>2515700</v>
       </c>
       <c r="J47" s="3">
+        <v>2440400</v>
+      </c>
+      <c r="K47" s="3">
         <v>981200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1020000</v>
       </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>30890400</v>
+        <v>16957000</v>
       </c>
       <c r="E48" s="3">
-        <v>12796200</v>
+        <v>29494800</v>
       </c>
       <c r="F48" s="3">
-        <v>25871700</v>
+        <v>12218100</v>
       </c>
       <c r="G48" s="3">
-        <v>12623000</v>
+        <v>24702800</v>
       </c>
       <c r="H48" s="3">
-        <v>12473000</v>
+        <v>12052700</v>
       </c>
       <c r="I48" s="3">
-        <v>12773000</v>
+        <v>11909500</v>
       </c>
       <c r="J48" s="3">
+        <v>12195900</v>
+      </c>
+      <c r="K48" s="3">
         <v>18666900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>24335800</v>
       </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2698100</v>
+        <v>1249200</v>
       </c>
       <c r="E49" s="3">
-        <v>1385900</v>
+        <v>2576200</v>
       </c>
       <c r="F49" s="3">
-        <v>1997400</v>
+        <v>1323300</v>
       </c>
       <c r="G49" s="3">
-        <v>425300</v>
+        <v>1907100</v>
       </c>
       <c r="H49" s="3">
+        <v>406100</v>
+      </c>
+      <c r="I49" s="3">
+        <v>401200</v>
+      </c>
+      <c r="J49" s="3">
+        <v>353000</v>
+      </c>
+      <c r="K49" s="3">
         <v>420200</v>
       </c>
-      <c r="I49" s="3">
-        <v>369700</v>
-      </c>
-      <c r="J49" s="3">
-        <v>420200</v>
-      </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>417400</v>
       </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1860,9 +1973,12 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1890,39 +2006,45 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1272100</v>
+        <v>1393600</v>
       </c>
       <c r="E52" s="3">
-        <v>45200</v>
+        <v>1214600</v>
       </c>
       <c r="F52" s="3">
-        <v>38800</v>
+        <v>43200</v>
       </c>
       <c r="G52" s="3">
-        <v>76300</v>
+        <v>37000</v>
       </c>
       <c r="H52" s="3">
-        <v>135700</v>
+        <v>72800</v>
       </c>
       <c r="I52" s="3">
-        <v>45200</v>
+        <v>129600</v>
       </c>
       <c r="J52" s="3">
+        <v>43200</v>
+      </c>
+      <c r="K52" s="3">
         <v>77600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>48300</v>
       </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1950,39 +2072,45 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>36212900</v>
+        <v>34485400</v>
       </c>
       <c r="E54" s="3">
-        <v>28443100</v>
+        <v>34576800</v>
       </c>
       <c r="F54" s="3">
-        <v>25595100</v>
+        <v>27158000</v>
       </c>
       <c r="G54" s="3">
-        <v>21942900</v>
+        <v>24438700</v>
       </c>
       <c r="H54" s="3">
-        <v>21379200</v>
+        <v>20951500</v>
       </c>
       <c r="I54" s="3">
-        <v>21383100</v>
+        <v>20413300</v>
       </c>
       <c r="J54" s="3">
+        <v>20417000</v>
+      </c>
+      <c r="K54" s="3">
         <v>16412200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>16095200</v>
       </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1995,8 +2123,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2009,188 +2138,207 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>9588800</v>
+        <v>5277100</v>
       </c>
       <c r="E57" s="3">
-        <v>3687100</v>
+        <v>9155500</v>
       </c>
       <c r="F57" s="3">
-        <v>8307600</v>
+        <v>3520500</v>
       </c>
       <c r="G57" s="3">
-        <v>2691600</v>
+        <v>7932300</v>
       </c>
       <c r="H57" s="3">
-        <v>2700700</v>
+        <v>2570000</v>
       </c>
       <c r="I57" s="3">
-        <v>2386500</v>
+        <v>2578700</v>
       </c>
       <c r="J57" s="3">
+        <v>2278700</v>
+      </c>
+      <c r="K57" s="3">
         <v>5990900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3573800</v>
       </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2969600</v>
+        <v>688800</v>
       </c>
       <c r="E58" s="3">
-        <v>986400</v>
+        <v>2835400</v>
       </c>
       <c r="F58" s="3">
-        <v>601200</v>
+        <v>941800</v>
       </c>
       <c r="G58" s="3">
-        <v>440800</v>
+        <v>574000</v>
       </c>
       <c r="H58" s="3">
-        <v>426600</v>
+        <v>420900</v>
       </c>
       <c r="I58" s="3">
-        <v>690400</v>
+        <v>407400</v>
       </c>
       <c r="J58" s="3">
+        <v>659200</v>
+      </c>
+      <c r="K58" s="3">
         <v>240500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>391300</v>
       </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>17075400</v>
+        <v>8905000</v>
       </c>
       <c r="E59" s="3">
-        <v>8645000</v>
+        <v>16304000</v>
       </c>
       <c r="F59" s="3">
-        <v>12788500</v>
+        <v>8254400</v>
       </c>
       <c r="G59" s="3">
-        <v>5555200</v>
+        <v>12210700</v>
       </c>
       <c r="H59" s="3">
-        <v>5822800</v>
+        <v>5304200</v>
       </c>
       <c r="I59" s="3">
-        <v>5669000</v>
+        <v>5559700</v>
       </c>
       <c r="J59" s="3">
+        <v>5412800</v>
+      </c>
+      <c r="K59" s="3">
         <v>1347100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1412600</v>
       </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>15318500</v>
+        <v>14870800</v>
       </c>
       <c r="E60" s="3">
-        <v>13318500</v>
+        <v>14626400</v>
       </c>
       <c r="F60" s="3">
-        <v>11100100</v>
+        <v>12716800</v>
       </c>
       <c r="G60" s="3">
-        <v>8687700</v>
+        <v>10598600</v>
       </c>
       <c r="H60" s="3">
-        <v>8950100</v>
+        <v>8295200</v>
       </c>
       <c r="I60" s="3">
-        <v>8745900</v>
+        <v>8545800</v>
       </c>
       <c r="J60" s="3">
+        <v>8350700</v>
+      </c>
+      <c r="K60" s="3">
         <v>4027100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>4090300</v>
       </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>7940400</v>
+        <v>8038400</v>
       </c>
       <c r="E61" s="3">
-        <v>2312800</v>
+        <v>7581700</v>
       </c>
       <c r="F61" s="3">
-        <v>2636000</v>
+        <v>2208300</v>
       </c>
       <c r="G61" s="3">
-        <v>3065300</v>
+        <v>2516900</v>
       </c>
       <c r="H61" s="3">
-        <v>3340600</v>
+        <v>2926800</v>
       </c>
       <c r="I61" s="3">
-        <v>2908800</v>
+        <v>3189700</v>
       </c>
       <c r="J61" s="3">
+        <v>2777400</v>
+      </c>
+      <c r="K61" s="3">
         <v>3383300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>3413400</v>
       </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>5459500</v>
+        <v>1981200</v>
       </c>
       <c r="E62" s="3">
-        <v>3230700</v>
+        <v>5212900</v>
       </c>
       <c r="F62" s="3">
-        <v>3945700</v>
+        <v>3084800</v>
       </c>
       <c r="G62" s="3">
-        <v>1956000</v>
+        <v>3767400</v>
       </c>
       <c r="H62" s="3">
-        <v>1927600</v>
+        <v>1867600</v>
       </c>
       <c r="I62" s="3">
-        <v>1965100</v>
+        <v>1840500</v>
       </c>
       <c r="J62" s="3">
+        <v>1876300</v>
+      </c>
+      <c r="K62" s="3">
         <v>1678100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1129500</v>
       </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2218,9 +2366,12 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2248,9 +2399,12 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2278,39 +2432,45 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>26152300</v>
+        <v>24890400</v>
       </c>
       <c r="E66" s="3">
-        <v>18862100</v>
+        <v>24970700</v>
       </c>
       <c r="F66" s="3">
-        <v>16710900</v>
+        <v>18009900</v>
       </c>
       <c r="G66" s="3">
-        <v>13714100</v>
+        <v>15955900</v>
       </c>
       <c r="H66" s="3">
-        <v>14218300</v>
+        <v>13094500</v>
       </c>
       <c r="I66" s="3">
-        <v>13622300</v>
+        <v>13575900</v>
       </c>
       <c r="J66" s="3">
+        <v>13006900</v>
+      </c>
+      <c r="K66" s="3">
         <v>8866100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>8633200</v>
       </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2323,8 +2483,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2352,9 +2513,12 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2382,9 +2546,12 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2412,9 +2579,12 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2442,39 +2612,45 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>7128600</v>
+        <v>6769400</v>
       </c>
       <c r="E72" s="3">
-        <v>6528700</v>
+        <v>6806500</v>
       </c>
       <c r="F72" s="3">
-        <v>6014200</v>
+        <v>6233700</v>
       </c>
       <c r="G72" s="3">
-        <v>5273400</v>
+        <v>5742400</v>
       </c>
       <c r="H72" s="3">
-        <v>4877800</v>
+        <v>5035100</v>
       </c>
       <c r="I72" s="3">
-        <v>5484100</v>
+        <v>4657400</v>
       </c>
       <c r="J72" s="3">
+        <v>5236300</v>
+      </c>
+      <c r="K72" s="3">
         <v>4479600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>4771200</v>
       </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2502,9 +2678,12 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2532,9 +2711,12 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2562,39 +2744,45 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>10060600</v>
+        <v>9595000</v>
       </c>
       <c r="E76" s="3">
-        <v>9581000</v>
+        <v>9606100</v>
       </c>
       <c r="F76" s="3">
-        <v>8884200</v>
+        <v>9148100</v>
       </c>
       <c r="G76" s="3">
-        <v>8228700</v>
+        <v>8482800</v>
       </c>
       <c r="H76" s="3">
-        <v>7160900</v>
+        <v>7857000</v>
       </c>
       <c r="I76" s="3">
-        <v>7760700</v>
+        <v>6837300</v>
       </c>
       <c r="J76" s="3">
+        <v>7410100</v>
+      </c>
+      <c r="K76" s="3">
         <v>7546100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>7462000</v>
       </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2622,74 +2810,83 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43897</v>
+      </c>
+      <c r="E80" s="2">
         <v>43533</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43169</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42805</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42441</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42077</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41713</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41349</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>40985</v>
       </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>217200</v>
+        <v>158900</v>
       </c>
       <c r="E81" s="3">
-        <v>376200</v>
+        <v>206900</v>
       </c>
       <c r="F81" s="3">
-        <v>464100</v>
+        <v>358400</v>
       </c>
       <c r="G81" s="3">
-        <v>593400</v>
+        <v>442100</v>
       </c>
       <c r="H81" s="3">
-        <v>-214600</v>
+        <v>565300</v>
       </c>
       <c r="I81" s="3">
-        <v>925700</v>
+        <v>-204400</v>
       </c>
       <c r="J81" s="3">
+        <v>881800</v>
+      </c>
+      <c r="K81" s="3">
         <v>778300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>780000</v>
       </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2702,38 +2899,42 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1631500</v>
+        <v>1546900</v>
       </c>
       <c r="E83" s="3">
-        <v>945000</v>
+        <v>1554300</v>
       </c>
       <c r="F83" s="3">
-        <v>811900</v>
+        <v>900300</v>
       </c>
       <c r="G83" s="3">
-        <v>755000</v>
+        <v>773400</v>
       </c>
       <c r="H83" s="3">
-        <v>748500</v>
+        <v>719300</v>
       </c>
       <c r="I83" s="3">
-        <v>712300</v>
+        <v>713100</v>
       </c>
       <c r="J83" s="3">
+        <v>678600</v>
+      </c>
+      <c r="K83" s="3">
         <v>668400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>650900</v>
       </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2761,9 +2962,12 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2791,9 +2995,12 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2821,9 +3028,12 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2851,9 +3061,12 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2881,39 +3094,45 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1348400</v>
+        <v>1689800</v>
       </c>
       <c r="E89" s="3">
-        <v>1764700</v>
+        <v>1284600</v>
       </c>
       <c r="F89" s="3">
-        <v>1490600</v>
+        <v>1681100</v>
       </c>
       <c r="G89" s="3">
-        <v>506800</v>
+        <v>1420000</v>
       </c>
       <c r="H89" s="3">
-        <v>1177700</v>
+        <v>482800</v>
       </c>
       <c r="I89" s="3">
-        <v>1213900</v>
+        <v>1122000</v>
       </c>
       <c r="J89" s="3">
+        <v>1156500</v>
+      </c>
+      <c r="K89" s="3">
         <v>1268200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1391700</v>
       </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2926,38 +3145,42 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-612800</v>
+        <v>-639200</v>
       </c>
       <c r="E91" s="3">
-        <v>-725300</v>
+        <v>-583800</v>
       </c>
       <c r="F91" s="3">
-        <v>-819600</v>
+        <v>-690900</v>
       </c>
       <c r="G91" s="3">
-        <v>-835200</v>
+        <v>-780800</v>
       </c>
       <c r="H91" s="3">
-        <v>-1229500</v>
+        <v>-795600</v>
       </c>
       <c r="I91" s="3">
-        <v>-1184200</v>
+        <v>-1171300</v>
       </c>
       <c r="J91" s="3">
+        <v>-1128100</v>
+      </c>
+      <c r="K91" s="3">
         <v>-1379400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1600400</v>
       </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2985,9 +3208,12 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3015,39 +3241,45 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-621800</v>
+        <v>-524700</v>
       </c>
       <c r="E94" s="3">
-        <v>-607600</v>
+        <v>-592400</v>
       </c>
       <c r="F94" s="3">
-        <v>-969600</v>
+        <v>-578900</v>
       </c>
       <c r="G94" s="3">
-        <v>-517100</v>
+        <v>-923700</v>
       </c>
       <c r="H94" s="3">
-        <v>-1163500</v>
+        <v>-492600</v>
       </c>
       <c r="I94" s="3">
-        <v>550700</v>
+        <v>-1108400</v>
       </c>
       <c r="J94" s="3">
+        <v>524700</v>
+      </c>
+      <c r="K94" s="3">
         <v>-1114400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1151700</v>
       </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3060,38 +3292,42 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-319300</v>
+        <v>-332500</v>
       </c>
       <c r="E96" s="3">
-        <v>-303800</v>
+        <v>-304200</v>
       </c>
       <c r="F96" s="3">
-        <v>-327100</v>
+        <v>-289400</v>
       </c>
       <c r="G96" s="3">
-        <v>-307700</v>
+        <v>-311600</v>
       </c>
       <c r="H96" s="3">
-        <v>-426600</v>
+        <v>-293100</v>
       </c>
       <c r="I96" s="3">
-        <v>-413700</v>
+        <v>-406400</v>
       </c>
       <c r="J96" s="3">
+        <v>-394100</v>
+      </c>
+      <c r="K96" s="3">
         <v>-398200</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-371700</v>
       </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3119,9 +3355,12 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3149,9 +3388,12 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3179,39 +3421,45 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1512600</v>
+        <v>-1320300</v>
       </c>
       <c r="E100" s="3">
-        <v>-315400</v>
+        <v>-1441000</v>
       </c>
       <c r="F100" s="3">
-        <v>-602400</v>
+        <v>-300500</v>
       </c>
       <c r="G100" s="3">
-        <v>-165500</v>
+        <v>-573900</v>
       </c>
       <c r="H100" s="3">
-        <v>-405900</v>
+        <v>-157600</v>
       </c>
       <c r="I100" s="3">
-        <v>-374900</v>
+        <v>-386700</v>
       </c>
       <c r="J100" s="3">
+        <v>-357200</v>
+      </c>
+      <c r="K100" s="3">
         <v>-457700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>71700</v>
       </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3239,37 +3487,43 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-786000</v>
+        <v>-155200</v>
       </c>
       <c r="E102" s="3">
-        <v>841600</v>
+        <v>-748800</v>
       </c>
       <c r="F102" s="3">
-        <v>-81400</v>
+        <v>801800</v>
       </c>
       <c r="G102" s="3">
-        <v>-175800</v>
+        <v>-77600</v>
       </c>
       <c r="H102" s="3">
-        <v>-391700</v>
+        <v>-167500</v>
       </c>
       <c r="I102" s="3">
-        <v>1389800</v>
+        <v>-373200</v>
       </c>
       <c r="J102" s="3">
+        <v>1324000</v>
+      </c>
+      <c r="K102" s="3">
         <v>-303800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>311700</v>
       </c>
-      <c r="L102" s="3"/>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/JSAIY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/JSAIY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
   <si>
     <t>JSAIY</t>
   </si>
@@ -718,25 +718,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>35707800</v>
+        <v>38293700</v>
       </c>
       <c r="E8" s="3">
-        <v>35725000</v>
+        <v>38312200</v>
       </c>
       <c r="F8" s="3">
-        <v>35046400</v>
+        <v>37584400</v>
       </c>
       <c r="G8" s="3">
-        <v>32297500</v>
+        <v>34636400</v>
       </c>
       <c r="H8" s="3">
-        <v>28950000</v>
+        <v>31046500</v>
       </c>
       <c r="I8" s="3">
-        <v>29281300</v>
+        <v>31401800</v>
       </c>
       <c r="J8" s="3">
-        <v>29495600</v>
+        <v>31631600</v>
       </c>
       <c r="K8" s="3">
         <v>30126400</v>
@@ -751,25 +751,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>33224900</v>
+        <v>35263800</v>
       </c>
       <c r="E9" s="3">
-        <v>32907100</v>
+        <v>35290200</v>
       </c>
       <c r="F9" s="3">
-        <v>32728500</v>
+        <v>35098700</v>
       </c>
       <c r="G9" s="3">
-        <v>30285000</v>
+        <v>32478200</v>
       </c>
       <c r="H9" s="3">
-        <v>27156800</v>
+        <v>29123400</v>
       </c>
       <c r="I9" s="3">
-        <v>27793500</v>
+        <v>29806300</v>
       </c>
       <c r="J9" s="3">
-        <v>27787400</v>
+        <v>29799700</v>
       </c>
       <c r="K9" s="3">
         <v>28475400</v>
@@ -784,25 +784,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2482900</v>
+        <v>3029900</v>
       </c>
       <c r="E10" s="3">
-        <v>2817900</v>
+        <v>3022000</v>
       </c>
       <c r="F10" s="3">
-        <v>2317900</v>
+        <v>2485700</v>
       </c>
       <c r="G10" s="3">
-        <v>2012400</v>
+        <v>2158200</v>
       </c>
       <c r="H10" s="3">
-        <v>1793200</v>
+        <v>1923100</v>
       </c>
       <c r="I10" s="3">
-        <v>1487800</v>
+        <v>1595500</v>
       </c>
       <c r="J10" s="3">
-        <v>1708200</v>
+        <v>1831900</v>
       </c>
       <c r="K10" s="3">
         <v>1650900</v>
@@ -898,16 +898,16 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>467600</v>
       </c>
       <c r="E14" s="3">
-        <v>11100</v>
+        <v>0</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G14" s="3">
-        <v>-120700</v>
+        <v>-129400</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>8</v>
@@ -976,25 +976,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>34907200</v>
+        <v>37396800</v>
       </c>
       <c r="E17" s="3">
-        <v>34995900</v>
+        <v>37530200</v>
       </c>
       <c r="F17" s="3">
-        <v>34408400</v>
+        <v>36900200</v>
       </c>
       <c r="G17" s="3">
-        <v>31506800</v>
+        <v>33788400</v>
       </c>
       <c r="H17" s="3">
-        <v>28079200</v>
+        <v>30112700</v>
       </c>
       <c r="I17" s="3">
-        <v>29181500</v>
+        <v>31294800</v>
       </c>
       <c r="J17" s="3">
-        <v>28252900</v>
+        <v>30298900</v>
       </c>
       <c r="K17" s="3">
         <v>28986100</v>
@@ -1009,25 +1009,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>800500</v>
+        <v>896800</v>
       </c>
       <c r="E18" s="3">
-        <v>729100</v>
+        <v>781900</v>
       </c>
       <c r="F18" s="3">
-        <v>638000</v>
+        <v>684200</v>
       </c>
       <c r="G18" s="3">
-        <v>790700</v>
+        <v>847900</v>
       </c>
       <c r="H18" s="3">
-        <v>870700</v>
+        <v>933800</v>
       </c>
       <c r="I18" s="3">
-        <v>99800</v>
+        <v>107000</v>
       </c>
       <c r="J18" s="3">
-        <v>1242700</v>
+        <v>1332700</v>
       </c>
       <c r="K18" s="3">
         <v>1140300</v>
@@ -1057,25 +1057,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-6200</v>
+        <v>-56800</v>
       </c>
       <c r="E20" s="3">
-        <v>33300</v>
+        <v>23800</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
       </c>
       <c r="G20" s="3">
-        <v>-30800</v>
+        <v>-33000</v>
       </c>
       <c r="H20" s="3">
-        <v>-48000</v>
+        <v>-51500</v>
       </c>
       <c r="I20" s="3">
-        <v>-36900</v>
+        <v>-39600</v>
       </c>
       <c r="J20" s="3">
-        <v>22200</v>
+        <v>23800</v>
       </c>
       <c r="K20" s="3">
         <v>23300</v>
@@ -1090,25 +1090,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2340300</v>
+        <v>2491600</v>
       </c>
       <c r="E21" s="3">
-        <v>1657800</v>
+        <v>2465200</v>
       </c>
       <c r="F21" s="3">
-        <v>1407300</v>
+        <v>1645400</v>
       </c>
       <c r="G21" s="3">
-        <v>1475300</v>
+        <v>1640700</v>
       </c>
       <c r="H21" s="3">
-        <v>1532000</v>
+        <v>1650200</v>
       </c>
       <c r="I21" s="3">
-        <v>737800</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>8</v>
+        <v>828700</v>
+      </c>
+      <c r="J21" s="3">
+        <v>2081000</v>
       </c>
       <c r="K21" s="3">
         <v>1835600</v>
@@ -1123,25 +1123,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>480300</v>
+        <v>503200</v>
       </c>
       <c r="E22" s="3">
-        <v>513600</v>
+        <v>538900</v>
       </c>
       <c r="F22" s="3">
-        <v>134200</v>
+        <v>144000</v>
       </c>
       <c r="G22" s="3">
-        <v>140400</v>
+        <v>150600</v>
       </c>
       <c r="H22" s="3">
-        <v>147800</v>
+        <v>158500</v>
       </c>
       <c r="I22" s="3">
-        <v>151500</v>
+        <v>162500</v>
       </c>
       <c r="J22" s="3">
-        <v>158900</v>
+        <v>170400</v>
       </c>
       <c r="K22" s="3">
         <v>165500</v>
@@ -1156,25 +1156,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>314100</v>
+        <v>336800</v>
       </c>
       <c r="E23" s="3">
-        <v>248800</v>
+        <v>266800</v>
       </c>
       <c r="F23" s="3">
-        <v>503700</v>
+        <v>540200</v>
       </c>
       <c r="G23" s="3">
-        <v>619500</v>
+        <v>664400</v>
       </c>
       <c r="H23" s="3">
-        <v>674900</v>
+        <v>723800</v>
       </c>
       <c r="I23" s="3">
-        <v>-88700</v>
+        <v>-95100</v>
       </c>
       <c r="J23" s="3">
-        <v>1106000</v>
+        <v>1186100</v>
       </c>
       <c r="K23" s="3">
         <v>998000</v>
@@ -1189,25 +1189,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>126900</v>
+        <v>136000</v>
       </c>
       <c r="E24" s="3">
-        <v>19700</v>
+        <v>21100</v>
       </c>
       <c r="F24" s="3">
-        <v>123200</v>
+        <v>132100</v>
       </c>
       <c r="G24" s="3">
-        <v>155200</v>
+        <v>166400</v>
       </c>
       <c r="H24" s="3">
-        <v>94800</v>
+        <v>101700</v>
       </c>
       <c r="I24" s="3">
-        <v>115800</v>
+        <v>124200</v>
       </c>
       <c r="J24" s="3">
-        <v>224200</v>
+        <v>240400</v>
       </c>
       <c r="K24" s="3">
         <v>219800</v>
@@ -1255,25 +1255,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>187200</v>
+        <v>200800</v>
       </c>
       <c r="E26" s="3">
-        <v>229100</v>
+        <v>245700</v>
       </c>
       <c r="F26" s="3">
-        <v>380600</v>
+        <v>408100</v>
       </c>
       <c r="G26" s="3">
-        <v>464300</v>
+        <v>497900</v>
       </c>
       <c r="H26" s="3">
-        <v>580100</v>
+        <v>622100</v>
       </c>
       <c r="I26" s="3">
-        <v>-204400</v>
+        <v>-219300</v>
       </c>
       <c r="J26" s="3">
-        <v>881800</v>
+        <v>945700</v>
       </c>
       <c r="K26" s="3">
         <v>778300</v>
@@ -1288,25 +1288,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>158900</v>
+        <v>170400</v>
       </c>
       <c r="E27" s="3">
-        <v>206900</v>
+        <v>221900</v>
       </c>
       <c r="F27" s="3">
-        <v>358400</v>
+        <v>384300</v>
       </c>
       <c r="G27" s="3">
-        <v>442100</v>
+        <v>474200</v>
       </c>
       <c r="H27" s="3">
-        <v>565300</v>
+        <v>606200</v>
       </c>
       <c r="I27" s="3">
-        <v>-204400</v>
+        <v>-219300</v>
       </c>
       <c r="J27" s="3">
-        <v>881800</v>
+        <v>945700</v>
       </c>
       <c r="K27" s="3">
         <v>778300</v>
@@ -1453,25 +1453,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>6200</v>
+        <v>56800</v>
       </c>
       <c r="E32" s="3">
-        <v>-33300</v>
+        <v>-23800</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
       </c>
       <c r="G32" s="3">
-        <v>30800</v>
+        <v>33000</v>
       </c>
       <c r="H32" s="3">
-        <v>48000</v>
+        <v>51500</v>
       </c>
       <c r="I32" s="3">
-        <v>36900</v>
+        <v>39600</v>
       </c>
       <c r="J32" s="3">
-        <v>-22200</v>
+        <v>-23800</v>
       </c>
       <c r="K32" s="3">
         <v>-23300</v>
@@ -1486,25 +1486,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>158900</v>
+        <v>170400</v>
       </c>
       <c r="E33" s="3">
-        <v>206900</v>
+        <v>221900</v>
       </c>
       <c r="F33" s="3">
-        <v>358400</v>
+        <v>384300</v>
       </c>
       <c r="G33" s="3">
-        <v>442100</v>
+        <v>474200</v>
       </c>
       <c r="H33" s="3">
-        <v>565300</v>
+        <v>606200</v>
       </c>
       <c r="I33" s="3">
-        <v>-204400</v>
+        <v>-219300</v>
       </c>
       <c r="J33" s="3">
-        <v>881800</v>
+        <v>945700</v>
       </c>
       <c r="K33" s="3">
         <v>778300</v>
@@ -1552,25 +1552,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>158900</v>
+        <v>170400</v>
       </c>
       <c r="E35" s="3">
-        <v>206900</v>
+        <v>221900</v>
       </c>
       <c r="F35" s="3">
-        <v>358400</v>
+        <v>384300</v>
       </c>
       <c r="G35" s="3">
-        <v>442100</v>
+        <v>474200</v>
       </c>
       <c r="H35" s="3">
-        <v>565300</v>
+        <v>606200</v>
       </c>
       <c r="I35" s="3">
-        <v>-204400</v>
+        <v>-219300</v>
       </c>
       <c r="J35" s="3">
-        <v>881800</v>
+        <v>945700</v>
       </c>
       <c r="K35" s="3">
         <v>778300</v>
@@ -1653,25 +1653,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1227000</v>
+        <v>952300</v>
       </c>
       <c r="E41" s="3">
-        <v>2387300</v>
+        <v>1073800</v>
       </c>
       <c r="F41" s="3">
-        <v>1292400</v>
+        <v>1382900</v>
       </c>
       <c r="G41" s="3">
-        <v>1039400</v>
+        <v>1112100</v>
       </c>
       <c r="H41" s="3">
-        <v>1054200</v>
+        <v>1128000</v>
       </c>
       <c r="I41" s="3">
-        <v>1586200</v>
+        <v>1697200</v>
       </c>
       <c r="J41" s="3">
-        <v>1965200</v>
+        <v>2102700</v>
       </c>
       <c r="K41" s="3">
         <v>668400</v>
@@ -1686,19 +1686,19 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>101200</v>
+        <v>468900</v>
       </c>
       <c r="E42" s="3">
-        <v>640700</v>
+        <v>685500</v>
       </c>
       <c r="F42" s="3">
-        <v>1093700</v>
+        <v>1170200</v>
       </c>
       <c r="G42" s="3">
-        <v>420900</v>
+        <v>450400</v>
       </c>
       <c r="H42" s="3">
-        <v>416000</v>
+        <v>445100</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>8</v>
@@ -1719,25 +1719,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>5878200</v>
+        <v>6062400</v>
       </c>
       <c r="E43" s="3">
-        <v>10334400</v>
+        <v>5420500</v>
       </c>
       <c r="F43" s="3">
-        <v>4872200</v>
+        <v>5213200</v>
       </c>
       <c r="G43" s="3">
-        <v>7855700</v>
+        <v>8405500</v>
       </c>
       <c r="H43" s="3">
-        <v>2587300</v>
+        <v>2768400</v>
       </c>
       <c r="I43" s="3">
-        <v>2433000</v>
+        <v>2603300</v>
       </c>
       <c r="J43" s="3">
-        <v>2042900</v>
+        <v>2185900</v>
       </c>
       <c r="K43" s="3">
         <v>729100</v>
@@ -1752,25 +1752,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>2138000</v>
+        <v>2287600</v>
       </c>
       <c r="E44" s="3">
-        <v>4762300</v>
+        <v>2547800</v>
       </c>
       <c r="F44" s="3">
-        <v>2234300</v>
+        <v>2390600</v>
       </c>
       <c r="G44" s="3">
-        <v>4382100</v>
+        <v>4688800</v>
       </c>
       <c r="H44" s="3">
-        <v>1194900</v>
+        <v>1278500</v>
       </c>
       <c r="I44" s="3">
-        <v>1230700</v>
+        <v>1316800</v>
       </c>
       <c r="J44" s="3">
-        <v>1240600</v>
+        <v>1327400</v>
       </c>
       <c r="K44" s="3">
         <v>2552000</v>
@@ -1785,25 +1785,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>14800</v>
+        <v>243000</v>
       </c>
       <c r="E45" s="3">
-        <v>266600</v>
+        <v>244300</v>
       </c>
       <c r="F45" s="3">
-        <v>206100</v>
+        <v>220600</v>
       </c>
       <c r="G45" s="3">
-        <v>308600</v>
+        <v>330200</v>
       </c>
       <c r="H45" s="3">
-        <v>195000</v>
+        <v>208700</v>
       </c>
       <c r="I45" s="3">
-        <v>207400</v>
+        <v>221900</v>
       </c>
       <c r="J45" s="3">
-        <v>135800</v>
+        <v>145300</v>
       </c>
       <c r="K45" s="3">
         <v>196500</v>
@@ -1818,25 +1818,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>9359200</v>
+        <v>10014200</v>
       </c>
       <c r="E46" s="3">
-        <v>9319700</v>
+        <v>9972000</v>
       </c>
       <c r="F46" s="3">
-        <v>9698700</v>
+        <v>10377400</v>
       </c>
       <c r="G46" s="3">
-        <v>7791500</v>
+        <v>8336800</v>
       </c>
       <c r="H46" s="3">
-        <v>5447400</v>
+        <v>5828600</v>
       </c>
       <c r="I46" s="3">
-        <v>5457300</v>
+        <v>5839200</v>
       </c>
       <c r="J46" s="3">
-        <v>5384500</v>
+        <v>5761300</v>
       </c>
       <c r="K46" s="3">
         <v>2457600</v>
@@ -1851,25 +1851,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>5526400</v>
+        <v>5903900</v>
       </c>
       <c r="E47" s="3">
-        <v>9418500</v>
+        <v>5610700</v>
       </c>
       <c r="F47" s="3">
-        <v>3874800</v>
+        <v>4146000</v>
       </c>
       <c r="G47" s="3">
-        <v>5717700</v>
+        <v>6117900</v>
       </c>
       <c r="H47" s="3">
-        <v>2972400</v>
+        <v>3180500</v>
       </c>
       <c r="I47" s="3">
-        <v>2515700</v>
+        <v>2691800</v>
       </c>
       <c r="J47" s="3">
-        <v>2440400</v>
+        <v>2611200</v>
       </c>
       <c r="K47" s="3">
         <v>981200</v>
@@ -1884,25 +1884,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>16957000</v>
+        <v>18143700</v>
       </c>
       <c r="E48" s="3">
-        <v>29494800</v>
+        <v>18736700</v>
       </c>
       <c r="F48" s="3">
-        <v>12218100</v>
+        <v>13073200</v>
       </c>
       <c r="G48" s="3">
-        <v>24702800</v>
+        <v>26431600</v>
       </c>
       <c r="H48" s="3">
-        <v>12052700</v>
+        <v>12896200</v>
       </c>
       <c r="I48" s="3">
-        <v>11909500</v>
+        <v>12743000</v>
       </c>
       <c r="J48" s="3">
-        <v>12195900</v>
+        <v>13049400</v>
       </c>
       <c r="K48" s="3">
         <v>18666900</v>
@@ -1917,25 +1917,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1249200</v>
+        <v>1336600</v>
       </c>
       <c r="E49" s="3">
-        <v>2576200</v>
+        <v>1377600</v>
       </c>
       <c r="F49" s="3">
-        <v>1323300</v>
+        <v>1415900</v>
       </c>
       <c r="G49" s="3">
-        <v>1907100</v>
+        <v>2040600</v>
       </c>
       <c r="H49" s="3">
-        <v>406100</v>
+        <v>434500</v>
       </c>
       <c r="I49" s="3">
-        <v>401200</v>
+        <v>429300</v>
       </c>
       <c r="J49" s="3">
-        <v>353000</v>
+        <v>377700</v>
       </c>
       <c r="K49" s="3">
         <v>420200</v>
@@ -2016,25 +2016,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1393600</v>
+        <v>1500400</v>
       </c>
       <c r="E52" s="3">
-        <v>1214600</v>
+        <v>1299700</v>
       </c>
       <c r="F52" s="3">
-        <v>43200</v>
+        <v>46200</v>
       </c>
       <c r="G52" s="3">
-        <v>37000</v>
+        <v>39600</v>
       </c>
       <c r="H52" s="3">
-        <v>72800</v>
+        <v>77900</v>
       </c>
       <c r="I52" s="3">
-        <v>129600</v>
+        <v>138700</v>
       </c>
       <c r="J52" s="3">
-        <v>43200</v>
+        <v>46200</v>
       </c>
       <c r="K52" s="3">
         <v>77600</v>
@@ -2082,25 +2082,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>34485400</v>
+        <v>36898900</v>
       </c>
       <c r="E54" s="3">
-        <v>34576800</v>
+        <v>36996600</v>
       </c>
       <c r="F54" s="3">
-        <v>27158000</v>
+        <v>29058700</v>
       </c>
       <c r="G54" s="3">
-        <v>24438700</v>
+        <v>26149000</v>
       </c>
       <c r="H54" s="3">
-        <v>20951500</v>
+        <v>22417800</v>
       </c>
       <c r="I54" s="3">
-        <v>20413300</v>
+        <v>21841900</v>
       </c>
       <c r="J54" s="3">
-        <v>20417000</v>
+        <v>21845900</v>
       </c>
       <c r="K54" s="3">
         <v>16412200</v>
@@ -2145,25 +2145,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>5277100</v>
+        <v>3909500</v>
       </c>
       <c r="E57" s="3">
-        <v>9155500</v>
+        <v>4020500</v>
       </c>
       <c r="F57" s="3">
-        <v>3520500</v>
+        <v>3766900</v>
       </c>
       <c r="G57" s="3">
-        <v>7932300</v>
+        <v>8487400</v>
       </c>
       <c r="H57" s="3">
-        <v>2570000</v>
+        <v>2749900</v>
       </c>
       <c r="I57" s="3">
-        <v>2578700</v>
+        <v>2759100</v>
       </c>
       <c r="J57" s="3">
-        <v>2278700</v>
+        <v>2438200</v>
       </c>
       <c r="K57" s="3">
         <v>5990900</v>
@@ -2178,25 +2178,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>688800</v>
+        <v>870400</v>
       </c>
       <c r="E58" s="3">
-        <v>2835400</v>
+        <v>1956100</v>
       </c>
       <c r="F58" s="3">
-        <v>941800</v>
+        <v>1007800</v>
       </c>
       <c r="G58" s="3">
-        <v>574000</v>
+        <v>614200</v>
       </c>
       <c r="H58" s="3">
-        <v>420900</v>
+        <v>450400</v>
       </c>
       <c r="I58" s="3">
-        <v>407400</v>
+        <v>435900</v>
       </c>
       <c r="J58" s="3">
-        <v>659200</v>
+        <v>705300</v>
       </c>
       <c r="K58" s="3">
         <v>240500</v>
@@ -2211,25 +2211,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>8905000</v>
+        <v>11131600</v>
       </c>
       <c r="E59" s="3">
-        <v>16304000</v>
+        <v>9694600</v>
       </c>
       <c r="F59" s="3">
-        <v>8254400</v>
+        <v>8832100</v>
       </c>
       <c r="G59" s="3">
-        <v>12210700</v>
+        <v>13065300</v>
       </c>
       <c r="H59" s="3">
-        <v>5304200</v>
+        <v>5675400</v>
       </c>
       <c r="I59" s="3">
-        <v>5559700</v>
+        <v>5948800</v>
       </c>
       <c r="J59" s="3">
-        <v>5412800</v>
+        <v>5791700</v>
       </c>
       <c r="K59" s="3">
         <v>1347100</v>
@@ -2244,25 +2244,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>14870800</v>
+        <v>15911600</v>
       </c>
       <c r="E60" s="3">
-        <v>14626400</v>
+        <v>15650000</v>
       </c>
       <c r="F60" s="3">
-        <v>12716800</v>
+        <v>13606800</v>
       </c>
       <c r="G60" s="3">
-        <v>10598600</v>
+        <v>11340300</v>
       </c>
       <c r="H60" s="3">
-        <v>8295200</v>
+        <v>8875700</v>
       </c>
       <c r="I60" s="3">
-        <v>8545800</v>
+        <v>9143800</v>
       </c>
       <c r="J60" s="3">
-        <v>8350700</v>
+        <v>8935100</v>
       </c>
       <c r="K60" s="3">
         <v>4027100</v>
@@ -2277,25 +2277,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>8038400</v>
+        <v>8601000</v>
       </c>
       <c r="E61" s="3">
-        <v>7581700</v>
+        <v>8322300</v>
       </c>
       <c r="F61" s="3">
-        <v>2208300</v>
+        <v>2362900</v>
       </c>
       <c r="G61" s="3">
-        <v>2516900</v>
+        <v>2693100</v>
       </c>
       <c r="H61" s="3">
-        <v>2926800</v>
+        <v>3131600</v>
       </c>
       <c r="I61" s="3">
-        <v>3189700</v>
+        <v>3412900</v>
       </c>
       <c r="J61" s="3">
-        <v>2777400</v>
+        <v>2971800</v>
       </c>
       <c r="K61" s="3">
         <v>3383300</v>
@@ -2310,25 +2310,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1981200</v>
+        <v>2119900</v>
       </c>
       <c r="E62" s="3">
-        <v>5212900</v>
+        <v>2745900</v>
       </c>
       <c r="F62" s="3">
-        <v>3084800</v>
+        <v>3300700</v>
       </c>
       <c r="G62" s="3">
-        <v>3767400</v>
+        <v>4031100</v>
       </c>
       <c r="H62" s="3">
-        <v>1867600</v>
+        <v>1998400</v>
       </c>
       <c r="I62" s="3">
-        <v>1840500</v>
+        <v>1969300</v>
       </c>
       <c r="J62" s="3">
-        <v>1876300</v>
+        <v>2007600</v>
       </c>
       <c r="K62" s="3">
         <v>1678100</v>
@@ -2442,25 +2442,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>24890400</v>
+        <v>26632400</v>
       </c>
       <c r="E66" s="3">
-        <v>24970700</v>
+        <v>26718300</v>
       </c>
       <c r="F66" s="3">
-        <v>18009900</v>
+        <v>19270300</v>
       </c>
       <c r="G66" s="3">
-        <v>15955900</v>
+        <v>17072500</v>
       </c>
       <c r="H66" s="3">
-        <v>13094500</v>
+        <v>14010900</v>
       </c>
       <c r="I66" s="3">
-        <v>13575900</v>
+        <v>14526000</v>
       </c>
       <c r="J66" s="3">
-        <v>13006900</v>
+        <v>13917200</v>
       </c>
       <c r="K66" s="3">
         <v>8866100</v>
@@ -2622,25 +2622,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>6769400</v>
+        <v>7021300</v>
       </c>
       <c r="E72" s="3">
-        <v>6806500</v>
+        <v>7055700</v>
       </c>
       <c r="F72" s="3">
-        <v>6233700</v>
+        <v>6670000</v>
       </c>
       <c r="G72" s="3">
-        <v>5742400</v>
+        <v>6144300</v>
       </c>
       <c r="H72" s="3">
-        <v>5035100</v>
+        <v>5387500</v>
       </c>
       <c r="I72" s="3">
-        <v>4657400</v>
+        <v>4983300</v>
       </c>
       <c r="J72" s="3">
-        <v>5236300</v>
+        <v>5602800</v>
       </c>
       <c r="K72" s="3">
         <v>4479600</v>
@@ -2754,25 +2754,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>9595000</v>
+        <v>10266500</v>
       </c>
       <c r="E76" s="3">
-        <v>9606100</v>
+        <v>10278400</v>
       </c>
       <c r="F76" s="3">
-        <v>9148100</v>
+        <v>9788400</v>
       </c>
       <c r="G76" s="3">
-        <v>8482800</v>
+        <v>9076500</v>
       </c>
       <c r="H76" s="3">
-        <v>7857000</v>
+        <v>8406800</v>
       </c>
       <c r="I76" s="3">
-        <v>6837300</v>
+        <v>7315900</v>
       </c>
       <c r="J76" s="3">
-        <v>7410100</v>
+        <v>7928700</v>
       </c>
       <c r="K76" s="3">
         <v>7546100</v>
@@ -2858,25 +2858,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>158900</v>
+        <v>170400</v>
       </c>
       <c r="E81" s="3">
-        <v>206900</v>
+        <v>221900</v>
       </c>
       <c r="F81" s="3">
-        <v>358400</v>
+        <v>384300</v>
       </c>
       <c r="G81" s="3">
-        <v>442100</v>
+        <v>474200</v>
       </c>
       <c r="H81" s="3">
-        <v>565300</v>
+        <v>606200</v>
       </c>
       <c r="I81" s="3">
-        <v>-204400</v>
+        <v>-219300</v>
       </c>
       <c r="J81" s="3">
-        <v>881800</v>
+        <v>945700</v>
       </c>
       <c r="K81" s="3">
         <v>778300</v>
@@ -2906,25 +2906,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1546900</v>
+        <v>1658900</v>
       </c>
       <c r="E83" s="3">
-        <v>1554300</v>
+        <v>1666800</v>
       </c>
       <c r="F83" s="3">
-        <v>900300</v>
+        <v>965500</v>
       </c>
       <c r="G83" s="3">
-        <v>773400</v>
+        <v>829500</v>
       </c>
       <c r="H83" s="3">
-        <v>719300</v>
+        <v>771300</v>
       </c>
       <c r="I83" s="3">
-        <v>713100</v>
+        <v>764700</v>
       </c>
       <c r="J83" s="3">
-        <v>678600</v>
+        <v>727800</v>
       </c>
       <c r="K83" s="3">
         <v>668400</v>
@@ -3104,25 +3104,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1689800</v>
+        <v>1812100</v>
       </c>
       <c r="E89" s="3">
-        <v>1284600</v>
+        <v>1377600</v>
       </c>
       <c r="F89" s="3">
-        <v>1681100</v>
+        <v>1802900</v>
       </c>
       <c r="G89" s="3">
-        <v>1420000</v>
+        <v>1522900</v>
       </c>
       <c r="H89" s="3">
-        <v>482800</v>
+        <v>517700</v>
       </c>
       <c r="I89" s="3">
-        <v>1122000</v>
+        <v>1203200</v>
       </c>
       <c r="J89" s="3">
-        <v>1156500</v>
+        <v>1240200</v>
       </c>
       <c r="K89" s="3">
         <v>1268200</v>
@@ -3152,25 +3152,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-639200</v>
+        <v>-685500</v>
       </c>
       <c r="E91" s="3">
-        <v>-583800</v>
+        <v>-626100</v>
       </c>
       <c r="F91" s="3">
-        <v>-690900</v>
+        <v>-741000</v>
       </c>
       <c r="G91" s="3">
-        <v>-780800</v>
+        <v>-837400</v>
       </c>
       <c r="H91" s="3">
-        <v>-795600</v>
+        <v>-853200</v>
       </c>
       <c r="I91" s="3">
-        <v>-1171300</v>
+        <v>-1256100</v>
       </c>
       <c r="J91" s="3">
-        <v>-1128100</v>
+        <v>-1209800</v>
       </c>
       <c r="K91" s="3">
         <v>-1379400</v>
@@ -3251,25 +3251,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-524700</v>
+        <v>-562700</v>
       </c>
       <c r="E94" s="3">
-        <v>-592400</v>
+        <v>-635300</v>
       </c>
       <c r="F94" s="3">
-        <v>-578900</v>
+        <v>-620800</v>
       </c>
       <c r="G94" s="3">
-        <v>-923700</v>
+        <v>-990600</v>
       </c>
       <c r="H94" s="3">
-        <v>-492600</v>
+        <v>-528300</v>
       </c>
       <c r="I94" s="3">
-        <v>-1108400</v>
+        <v>-1188700</v>
       </c>
       <c r="J94" s="3">
-        <v>524700</v>
+        <v>562700</v>
       </c>
       <c r="K94" s="3">
         <v>-1114400</v>
@@ -3299,25 +3299,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-332500</v>
+        <v>-356600</v>
       </c>
       <c r="E96" s="3">
-        <v>-304200</v>
+        <v>-326200</v>
       </c>
       <c r="F96" s="3">
-        <v>-289400</v>
+        <v>-310400</v>
       </c>
       <c r="G96" s="3">
-        <v>-311600</v>
+        <v>-334200</v>
       </c>
       <c r="H96" s="3">
-        <v>-293100</v>
+        <v>-314300</v>
       </c>
       <c r="I96" s="3">
-        <v>-406400</v>
+        <v>-435900</v>
       </c>
       <c r="J96" s="3">
-        <v>-394100</v>
+        <v>-422700</v>
       </c>
       <c r="K96" s="3">
         <v>-398200</v>
@@ -3431,25 +3431,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1320300</v>
+        <v>-1415900</v>
       </c>
       <c r="E100" s="3">
-        <v>-1441000</v>
+        <v>-1545300</v>
       </c>
       <c r="F100" s="3">
-        <v>-300500</v>
+        <v>-322300</v>
       </c>
       <c r="G100" s="3">
-        <v>-573900</v>
+        <v>-615500</v>
       </c>
       <c r="H100" s="3">
-        <v>-157600</v>
+        <v>-169100</v>
       </c>
       <c r="I100" s="3">
-        <v>-386700</v>
+        <v>-414700</v>
       </c>
       <c r="J100" s="3">
-        <v>-357200</v>
+        <v>-383000</v>
       </c>
       <c r="K100" s="3">
         <v>-457700</v>
@@ -3497,25 +3497,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-155200</v>
+        <v>-166400</v>
       </c>
       <c r="E102" s="3">
-        <v>-748800</v>
+        <v>-803000</v>
       </c>
       <c r="F102" s="3">
-        <v>801800</v>
+        <v>859800</v>
       </c>
       <c r="G102" s="3">
-        <v>-77600</v>
+        <v>-83200</v>
       </c>
       <c r="H102" s="3">
-        <v>-167500</v>
+        <v>-179600</v>
       </c>
       <c r="I102" s="3">
-        <v>-373200</v>
+        <v>-400200</v>
       </c>
       <c r="J102" s="3">
-        <v>1324000</v>
+        <v>1419800</v>
       </c>
       <c r="K102" s="3">
         <v>-303800</v>

--- a/AAII_Financials/Yearly/JSAIY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/JSAIY_YR_FIN.xlsx
@@ -718,25 +718,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>38293700</v>
+        <v>38601300</v>
       </c>
       <c r="E8" s="3">
-        <v>38312200</v>
+        <v>38619900</v>
       </c>
       <c r="F8" s="3">
-        <v>37584400</v>
+        <v>37886300</v>
       </c>
       <c r="G8" s="3">
-        <v>34636400</v>
+        <v>34914600</v>
       </c>
       <c r="H8" s="3">
-        <v>31046500</v>
+        <v>31295900</v>
       </c>
       <c r="I8" s="3">
-        <v>31401800</v>
+        <v>31654000</v>
       </c>
       <c r="J8" s="3">
-        <v>31631600</v>
+        <v>31885700</v>
       </c>
       <c r="K8" s="3">
         <v>30126400</v>
@@ -751,25 +751,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>35263800</v>
+        <v>35547000</v>
       </c>
       <c r="E9" s="3">
-        <v>35290200</v>
+        <v>35573700</v>
       </c>
       <c r="F9" s="3">
-        <v>35098700</v>
+        <v>35380600</v>
       </c>
       <c r="G9" s="3">
-        <v>32478200</v>
+        <v>32739100</v>
       </c>
       <c r="H9" s="3">
-        <v>29123400</v>
+        <v>29357400</v>
       </c>
       <c r="I9" s="3">
-        <v>29806300</v>
+        <v>30045700</v>
       </c>
       <c r="J9" s="3">
-        <v>29799700</v>
+        <v>30039000</v>
       </c>
       <c r="K9" s="3">
         <v>28475400</v>
@@ -784,25 +784,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>3029900</v>
+        <v>3054200</v>
       </c>
       <c r="E10" s="3">
-        <v>3022000</v>
+        <v>3046200</v>
       </c>
       <c r="F10" s="3">
-        <v>2485700</v>
+        <v>2505700</v>
       </c>
       <c r="G10" s="3">
-        <v>2158200</v>
+        <v>2175500</v>
       </c>
       <c r="H10" s="3">
-        <v>1923100</v>
+        <v>1938500</v>
       </c>
       <c r="I10" s="3">
-        <v>1595500</v>
+        <v>1608300</v>
       </c>
       <c r="J10" s="3">
-        <v>1831900</v>
+        <v>1846700</v>
       </c>
       <c r="K10" s="3">
         <v>1650900</v>
@@ -898,7 +898,7 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>467600</v>
+        <v>471300</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
@@ -907,7 +907,7 @@
         <v>8</v>
       </c>
       <c r="G14" s="3">
-        <v>-129400</v>
+        <v>-130500</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>8</v>
@@ -976,25 +976,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>37396800</v>
+        <v>37697300</v>
       </c>
       <c r="E17" s="3">
-        <v>37530200</v>
+        <v>37831700</v>
       </c>
       <c r="F17" s="3">
-        <v>36900200</v>
+        <v>37196700</v>
       </c>
       <c r="G17" s="3">
-        <v>33788400</v>
+        <v>34059900</v>
       </c>
       <c r="H17" s="3">
-        <v>30112700</v>
+        <v>30354600</v>
       </c>
       <c r="I17" s="3">
-        <v>31294800</v>
+        <v>31546200</v>
       </c>
       <c r="J17" s="3">
-        <v>30298900</v>
+        <v>30542300</v>
       </c>
       <c r="K17" s="3">
         <v>28986100</v>
@@ -1009,25 +1009,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>896800</v>
+        <v>904000</v>
       </c>
       <c r="E18" s="3">
-        <v>781900</v>
+        <v>788200</v>
       </c>
       <c r="F18" s="3">
-        <v>684200</v>
+        <v>689700</v>
       </c>
       <c r="G18" s="3">
-        <v>847900</v>
+        <v>854800</v>
       </c>
       <c r="H18" s="3">
-        <v>933800</v>
+        <v>941300</v>
       </c>
       <c r="I18" s="3">
-        <v>107000</v>
+        <v>107800</v>
       </c>
       <c r="J18" s="3">
-        <v>1332700</v>
+        <v>1343400</v>
       </c>
       <c r="K18" s="3">
         <v>1140300</v>
@@ -1057,25 +1057,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-56800</v>
+        <v>-57300</v>
       </c>
       <c r="E20" s="3">
-        <v>23800</v>
+        <v>24000</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
       </c>
       <c r="G20" s="3">
-        <v>-33000</v>
+        <v>-33300</v>
       </c>
       <c r="H20" s="3">
-        <v>-51500</v>
+        <v>-51900</v>
       </c>
       <c r="I20" s="3">
-        <v>-39600</v>
+        <v>-39900</v>
       </c>
       <c r="J20" s="3">
-        <v>23800</v>
+        <v>24000</v>
       </c>
       <c r="K20" s="3">
         <v>23300</v>
@@ -1090,25 +1090,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2491600</v>
+        <v>2524200</v>
       </c>
       <c r="E21" s="3">
-        <v>2465200</v>
+        <v>2497600</v>
       </c>
       <c r="F21" s="3">
-        <v>1645400</v>
+        <v>1665900</v>
       </c>
       <c r="G21" s="3">
-        <v>1640700</v>
+        <v>1660200</v>
       </c>
       <c r="H21" s="3">
-        <v>1650200</v>
+        <v>1669300</v>
       </c>
       <c r="I21" s="3">
-        <v>828700</v>
+        <v>841200</v>
       </c>
       <c r="J21" s="3">
-        <v>2081000</v>
+        <v>2103200</v>
       </c>
       <c r="K21" s="3">
         <v>1835600</v>
@@ -1123,25 +1123,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>503200</v>
+        <v>507300</v>
       </c>
       <c r="E22" s="3">
-        <v>538900</v>
+        <v>543200</v>
       </c>
       <c r="F22" s="3">
-        <v>144000</v>
+        <v>145100</v>
       </c>
       <c r="G22" s="3">
-        <v>150600</v>
+        <v>151800</v>
       </c>
       <c r="H22" s="3">
-        <v>158500</v>
+        <v>159800</v>
       </c>
       <c r="I22" s="3">
-        <v>162500</v>
+        <v>163800</v>
       </c>
       <c r="J22" s="3">
-        <v>170400</v>
+        <v>171800</v>
       </c>
       <c r="K22" s="3">
         <v>165500</v>
@@ -1156,25 +1156,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>336800</v>
+        <v>339500</v>
       </c>
       <c r="E23" s="3">
-        <v>266800</v>
+        <v>268900</v>
       </c>
       <c r="F23" s="3">
-        <v>540200</v>
+        <v>544500</v>
       </c>
       <c r="G23" s="3">
-        <v>664400</v>
+        <v>669700</v>
       </c>
       <c r="H23" s="3">
-        <v>723800</v>
+        <v>729600</v>
       </c>
       <c r="I23" s="3">
-        <v>-95100</v>
+        <v>-95900</v>
       </c>
       <c r="J23" s="3">
-        <v>1186100</v>
+        <v>1195600</v>
       </c>
       <c r="K23" s="3">
         <v>998000</v>
@@ -1189,25 +1189,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>136000</v>
+        <v>137100</v>
       </c>
       <c r="E24" s="3">
-        <v>21100</v>
+        <v>21300</v>
       </c>
       <c r="F24" s="3">
-        <v>132100</v>
+        <v>133100</v>
       </c>
       <c r="G24" s="3">
-        <v>166400</v>
+        <v>167800</v>
       </c>
       <c r="H24" s="3">
-        <v>101700</v>
+        <v>102500</v>
       </c>
       <c r="I24" s="3">
-        <v>124200</v>
+        <v>125200</v>
       </c>
       <c r="J24" s="3">
-        <v>240400</v>
+        <v>242300</v>
       </c>
       <c r="K24" s="3">
         <v>219800</v>
@@ -1255,25 +1255,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>200800</v>
+        <v>202400</v>
       </c>
       <c r="E26" s="3">
-        <v>245700</v>
+        <v>247600</v>
       </c>
       <c r="F26" s="3">
-        <v>408100</v>
+        <v>411400</v>
       </c>
       <c r="G26" s="3">
-        <v>497900</v>
+        <v>501900</v>
       </c>
       <c r="H26" s="3">
-        <v>622100</v>
+        <v>627100</v>
       </c>
       <c r="I26" s="3">
-        <v>-219300</v>
+        <v>-221000</v>
       </c>
       <c r="J26" s="3">
-        <v>945700</v>
+        <v>953300</v>
       </c>
       <c r="K26" s="3">
         <v>778300</v>
@@ -1288,25 +1288,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>170400</v>
+        <v>171800</v>
       </c>
       <c r="E27" s="3">
-        <v>221900</v>
+        <v>223700</v>
       </c>
       <c r="F27" s="3">
-        <v>384300</v>
+        <v>387400</v>
       </c>
       <c r="G27" s="3">
-        <v>474200</v>
+        <v>478000</v>
       </c>
       <c r="H27" s="3">
-        <v>606200</v>
+        <v>611100</v>
       </c>
       <c r="I27" s="3">
-        <v>-219300</v>
+        <v>-221000</v>
       </c>
       <c r="J27" s="3">
-        <v>945700</v>
+        <v>953300</v>
       </c>
       <c r="K27" s="3">
         <v>778300</v>
@@ -1453,25 +1453,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>56800</v>
+        <v>57300</v>
       </c>
       <c r="E32" s="3">
-        <v>-23800</v>
+        <v>-24000</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
       </c>
       <c r="G32" s="3">
-        <v>33000</v>
+        <v>33300</v>
       </c>
       <c r="H32" s="3">
-        <v>51500</v>
+        <v>51900</v>
       </c>
       <c r="I32" s="3">
-        <v>39600</v>
+        <v>39900</v>
       </c>
       <c r="J32" s="3">
-        <v>-23800</v>
+        <v>-24000</v>
       </c>
       <c r="K32" s="3">
         <v>-23300</v>
@@ -1486,25 +1486,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>170400</v>
+        <v>171800</v>
       </c>
       <c r="E33" s="3">
-        <v>221900</v>
+        <v>223700</v>
       </c>
       <c r="F33" s="3">
-        <v>384300</v>
+        <v>387400</v>
       </c>
       <c r="G33" s="3">
-        <v>474200</v>
+        <v>478000</v>
       </c>
       <c r="H33" s="3">
-        <v>606200</v>
+        <v>611100</v>
       </c>
       <c r="I33" s="3">
-        <v>-219300</v>
+        <v>-221000</v>
       </c>
       <c r="J33" s="3">
-        <v>945700</v>
+        <v>953300</v>
       </c>
       <c r="K33" s="3">
         <v>778300</v>
@@ -1552,25 +1552,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>170400</v>
+        <v>171800</v>
       </c>
       <c r="E35" s="3">
-        <v>221900</v>
+        <v>223700</v>
       </c>
       <c r="F35" s="3">
-        <v>384300</v>
+        <v>387400</v>
       </c>
       <c r="G35" s="3">
-        <v>474200</v>
+        <v>478000</v>
       </c>
       <c r="H35" s="3">
-        <v>606200</v>
+        <v>611100</v>
       </c>
       <c r="I35" s="3">
-        <v>-219300</v>
+        <v>-221000</v>
       </c>
       <c r="J35" s="3">
-        <v>945700</v>
+        <v>953300</v>
       </c>
       <c r="K35" s="3">
         <v>778300</v>
@@ -1653,25 +1653,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>952300</v>
+        <v>959900</v>
       </c>
       <c r="E41" s="3">
-        <v>1073800</v>
+        <v>1082400</v>
       </c>
       <c r="F41" s="3">
-        <v>1382900</v>
+        <v>1394000</v>
       </c>
       <c r="G41" s="3">
-        <v>1112100</v>
+        <v>1121000</v>
       </c>
       <c r="H41" s="3">
-        <v>1128000</v>
+        <v>1137000</v>
       </c>
       <c r="I41" s="3">
-        <v>1697200</v>
+        <v>1710800</v>
       </c>
       <c r="J41" s="3">
-        <v>2102700</v>
+        <v>2119600</v>
       </c>
       <c r="K41" s="3">
         <v>668400</v>
@@ -1686,19 +1686,19 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>468900</v>
+        <v>472600</v>
       </c>
       <c r="E42" s="3">
-        <v>685500</v>
+        <v>691000</v>
       </c>
       <c r="F42" s="3">
-        <v>1170200</v>
+        <v>1179600</v>
       </c>
       <c r="G42" s="3">
-        <v>450400</v>
+        <v>454000</v>
       </c>
       <c r="H42" s="3">
-        <v>445100</v>
+        <v>448700</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>8</v>
@@ -1719,25 +1719,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>6062400</v>
+        <v>6111100</v>
       </c>
       <c r="E43" s="3">
-        <v>5420500</v>
+        <v>5464100</v>
       </c>
       <c r="F43" s="3">
-        <v>5213200</v>
+        <v>5255000</v>
       </c>
       <c r="G43" s="3">
-        <v>8405500</v>
+        <v>8473000</v>
       </c>
       <c r="H43" s="3">
-        <v>2768400</v>
+        <v>2790600</v>
       </c>
       <c r="I43" s="3">
-        <v>2603300</v>
+        <v>2624200</v>
       </c>
       <c r="J43" s="3">
-        <v>2185900</v>
+        <v>2203500</v>
       </c>
       <c r="K43" s="3">
         <v>729100</v>
@@ -1752,25 +1752,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>2287600</v>
+        <v>2306000</v>
       </c>
       <c r="E44" s="3">
-        <v>2547800</v>
+        <v>2568300</v>
       </c>
       <c r="F44" s="3">
-        <v>2390600</v>
+        <v>2409800</v>
       </c>
       <c r="G44" s="3">
-        <v>4688800</v>
+        <v>4726500</v>
       </c>
       <c r="H44" s="3">
-        <v>1278500</v>
+        <v>1288800</v>
       </c>
       <c r="I44" s="3">
-        <v>1316800</v>
+        <v>1327400</v>
       </c>
       <c r="J44" s="3">
-        <v>1327400</v>
+        <v>1338100</v>
       </c>
       <c r="K44" s="3">
         <v>2552000</v>
@@ -1785,25 +1785,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>243000</v>
+        <v>245000</v>
       </c>
       <c r="E45" s="3">
-        <v>244300</v>
+        <v>246300</v>
       </c>
       <c r="F45" s="3">
-        <v>220600</v>
+        <v>222300</v>
       </c>
       <c r="G45" s="3">
-        <v>330200</v>
+        <v>332800</v>
       </c>
       <c r="H45" s="3">
-        <v>208700</v>
+        <v>210400</v>
       </c>
       <c r="I45" s="3">
-        <v>221900</v>
+        <v>223700</v>
       </c>
       <c r="J45" s="3">
-        <v>145300</v>
+        <v>146500</v>
       </c>
       <c r="K45" s="3">
         <v>196500</v>
@@ -1818,25 +1818,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>10014200</v>
+        <v>10094700</v>
       </c>
       <c r="E46" s="3">
-        <v>9972000</v>
+        <v>10052100</v>
       </c>
       <c r="F46" s="3">
-        <v>10377400</v>
+        <v>10460800</v>
       </c>
       <c r="G46" s="3">
-        <v>8336800</v>
+        <v>8403800</v>
       </c>
       <c r="H46" s="3">
-        <v>5828600</v>
+        <v>5875500</v>
       </c>
       <c r="I46" s="3">
-        <v>5839200</v>
+        <v>5886100</v>
       </c>
       <c r="J46" s="3">
-        <v>5761300</v>
+        <v>5807600</v>
       </c>
       <c r="K46" s="3">
         <v>2457600</v>
@@ -1851,25 +1851,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>5903900</v>
+        <v>5951400</v>
       </c>
       <c r="E47" s="3">
-        <v>5610700</v>
+        <v>5655800</v>
       </c>
       <c r="F47" s="3">
-        <v>4146000</v>
+        <v>4179300</v>
       </c>
       <c r="G47" s="3">
-        <v>6117900</v>
+        <v>6167000</v>
       </c>
       <c r="H47" s="3">
-        <v>3180500</v>
+        <v>3206000</v>
       </c>
       <c r="I47" s="3">
-        <v>2691800</v>
+        <v>2713400</v>
       </c>
       <c r="J47" s="3">
-        <v>2611200</v>
+        <v>2632200</v>
       </c>
       <c r="K47" s="3">
         <v>981200</v>
@@ -1884,25 +1884,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>18143700</v>
+        <v>18289400</v>
       </c>
       <c r="E48" s="3">
-        <v>18736700</v>
+        <v>18887200</v>
       </c>
       <c r="F48" s="3">
-        <v>13073200</v>
+        <v>13178200</v>
       </c>
       <c r="G48" s="3">
-        <v>26431600</v>
+        <v>26644000</v>
       </c>
       <c r="H48" s="3">
-        <v>12896200</v>
+        <v>12999800</v>
       </c>
       <c r="I48" s="3">
-        <v>12743000</v>
+        <v>12845300</v>
       </c>
       <c r="J48" s="3">
-        <v>13049400</v>
+        <v>13154200</v>
       </c>
       <c r="K48" s="3">
         <v>18666900</v>
@@ -1917,25 +1917,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1336600</v>
+        <v>1347400</v>
       </c>
       <c r="E49" s="3">
-        <v>1377600</v>
+        <v>1388700</v>
       </c>
       <c r="F49" s="3">
-        <v>1415900</v>
+        <v>1427300</v>
       </c>
       <c r="G49" s="3">
-        <v>2040600</v>
+        <v>2057000</v>
       </c>
       <c r="H49" s="3">
-        <v>434500</v>
+        <v>438000</v>
       </c>
       <c r="I49" s="3">
-        <v>429300</v>
+        <v>432700</v>
       </c>
       <c r="J49" s="3">
-        <v>377700</v>
+        <v>380800</v>
       </c>
       <c r="K49" s="3">
         <v>420200</v>
@@ -2016,25 +2016,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1500400</v>
+        <v>1512500</v>
       </c>
       <c r="E52" s="3">
-        <v>1299700</v>
+        <v>1310100</v>
       </c>
       <c r="F52" s="3">
-        <v>46200</v>
+        <v>46600</v>
       </c>
       <c r="G52" s="3">
-        <v>39600</v>
+        <v>39900</v>
       </c>
       <c r="H52" s="3">
-        <v>77900</v>
+        <v>78600</v>
       </c>
       <c r="I52" s="3">
-        <v>138700</v>
+        <v>139800</v>
       </c>
       <c r="J52" s="3">
-        <v>46200</v>
+        <v>46600</v>
       </c>
       <c r="K52" s="3">
         <v>77600</v>
@@ -2082,25 +2082,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>36898900</v>
+        <v>37195300</v>
       </c>
       <c r="E54" s="3">
-        <v>36996600</v>
+        <v>37293800</v>
       </c>
       <c r="F54" s="3">
-        <v>29058700</v>
+        <v>29292100</v>
       </c>
       <c r="G54" s="3">
-        <v>26149000</v>
+        <v>26359100</v>
       </c>
       <c r="H54" s="3">
-        <v>22417800</v>
+        <v>22597900</v>
       </c>
       <c r="I54" s="3">
-        <v>21841900</v>
+        <v>22017400</v>
       </c>
       <c r="J54" s="3">
-        <v>21845900</v>
+        <v>22021400</v>
       </c>
       <c r="K54" s="3">
         <v>16412200</v>
@@ -2145,25 +2145,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>3909500</v>
+        <v>3940900</v>
       </c>
       <c r="E57" s="3">
-        <v>4020500</v>
+        <v>4052800</v>
       </c>
       <c r="F57" s="3">
-        <v>3766900</v>
+        <v>3797200</v>
       </c>
       <c r="G57" s="3">
-        <v>8487400</v>
+        <v>8555600</v>
       </c>
       <c r="H57" s="3">
-        <v>2749900</v>
+        <v>2772000</v>
       </c>
       <c r="I57" s="3">
-        <v>2759100</v>
+        <v>2781300</v>
       </c>
       <c r="J57" s="3">
-        <v>2438200</v>
+        <v>2457800</v>
       </c>
       <c r="K57" s="3">
         <v>5990900</v>
@@ -2178,25 +2178,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>870400</v>
+        <v>877400</v>
       </c>
       <c r="E58" s="3">
-        <v>1956100</v>
+        <v>1971800</v>
       </c>
       <c r="F58" s="3">
-        <v>1007800</v>
+        <v>1015900</v>
       </c>
       <c r="G58" s="3">
-        <v>614200</v>
+        <v>619100</v>
       </c>
       <c r="H58" s="3">
-        <v>450400</v>
+        <v>454000</v>
       </c>
       <c r="I58" s="3">
-        <v>435900</v>
+        <v>439400</v>
       </c>
       <c r="J58" s="3">
-        <v>705300</v>
+        <v>711000</v>
       </c>
       <c r="K58" s="3">
         <v>240500</v>
@@ -2211,25 +2211,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>11131600</v>
+        <v>11221000</v>
       </c>
       <c r="E59" s="3">
-        <v>9694600</v>
+        <v>9772500</v>
       </c>
       <c r="F59" s="3">
-        <v>8832100</v>
+        <v>8903100</v>
       </c>
       <c r="G59" s="3">
-        <v>13065300</v>
+        <v>13170200</v>
       </c>
       <c r="H59" s="3">
-        <v>5675400</v>
+        <v>5721000</v>
       </c>
       <c r="I59" s="3">
-        <v>5948800</v>
+        <v>5996600</v>
       </c>
       <c r="J59" s="3">
-        <v>5791700</v>
+        <v>5838200</v>
       </c>
       <c r="K59" s="3">
         <v>1347100</v>
@@ -2244,25 +2244,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>15911600</v>
+        <v>16039400</v>
       </c>
       <c r="E60" s="3">
-        <v>15650000</v>
+        <v>15775800</v>
       </c>
       <c r="F60" s="3">
-        <v>13606800</v>
+        <v>13716100</v>
       </c>
       <c r="G60" s="3">
-        <v>11340300</v>
+        <v>11431400</v>
       </c>
       <c r="H60" s="3">
-        <v>8875700</v>
+        <v>8947000</v>
       </c>
       <c r="I60" s="3">
-        <v>9143800</v>
+        <v>9217300</v>
       </c>
       <c r="J60" s="3">
-        <v>8935100</v>
+        <v>9006900</v>
       </c>
       <c r="K60" s="3">
         <v>4027100</v>
@@ -2277,25 +2277,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>8601000</v>
+        <v>8670100</v>
       </c>
       <c r="E61" s="3">
-        <v>8322300</v>
+        <v>8389200</v>
       </c>
       <c r="F61" s="3">
-        <v>2362900</v>
+        <v>2381900</v>
       </c>
       <c r="G61" s="3">
-        <v>2693100</v>
+        <v>2714700</v>
       </c>
       <c r="H61" s="3">
-        <v>3131600</v>
+        <v>3156700</v>
       </c>
       <c r="I61" s="3">
-        <v>3412900</v>
+        <v>3440300</v>
       </c>
       <c r="J61" s="3">
-        <v>2971800</v>
+        <v>2995600</v>
       </c>
       <c r="K61" s="3">
         <v>3383300</v>
@@ -2310,25 +2310,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2119900</v>
+        <v>2136900</v>
       </c>
       <c r="E62" s="3">
-        <v>2745900</v>
+        <v>2768000</v>
       </c>
       <c r="F62" s="3">
-        <v>3300700</v>
+        <v>3327200</v>
       </c>
       <c r="G62" s="3">
-        <v>4031100</v>
+        <v>4063400</v>
       </c>
       <c r="H62" s="3">
-        <v>1998400</v>
+        <v>2014400</v>
       </c>
       <c r="I62" s="3">
-        <v>1969300</v>
+        <v>1985100</v>
       </c>
       <c r="J62" s="3">
-        <v>2007600</v>
+        <v>2023700</v>
       </c>
       <c r="K62" s="3">
         <v>1678100</v>
@@ -2442,25 +2442,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>26632400</v>
+        <v>26846300</v>
       </c>
       <c r="E66" s="3">
-        <v>26718300</v>
+        <v>26932900</v>
       </c>
       <c r="F66" s="3">
-        <v>19270300</v>
+        <v>19425100</v>
       </c>
       <c r="G66" s="3">
-        <v>17072500</v>
+        <v>17209700</v>
       </c>
       <c r="H66" s="3">
-        <v>14010900</v>
+        <v>14123500</v>
       </c>
       <c r="I66" s="3">
-        <v>14526000</v>
+        <v>14642700</v>
       </c>
       <c r="J66" s="3">
-        <v>13917200</v>
+        <v>14029000</v>
       </c>
       <c r="K66" s="3">
         <v>8866100</v>
@@ -2622,25 +2622,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>7021300</v>
+        <v>7077700</v>
       </c>
       <c r="E72" s="3">
-        <v>7055700</v>
+        <v>7112300</v>
       </c>
       <c r="F72" s="3">
-        <v>6670000</v>
+        <v>6723600</v>
       </c>
       <c r="G72" s="3">
-        <v>6144300</v>
+        <v>6193700</v>
       </c>
       <c r="H72" s="3">
-        <v>5387500</v>
+        <v>5430800</v>
       </c>
       <c r="I72" s="3">
-        <v>4983300</v>
+        <v>5023400</v>
       </c>
       <c r="J72" s="3">
-        <v>5602800</v>
+        <v>5647800</v>
       </c>
       <c r="K72" s="3">
         <v>4479600</v>
@@ -2754,25 +2754,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>10266500</v>
+        <v>10349000</v>
       </c>
       <c r="E76" s="3">
-        <v>10278400</v>
+        <v>10361000</v>
       </c>
       <c r="F76" s="3">
-        <v>9788400</v>
+        <v>9867000</v>
       </c>
       <c r="G76" s="3">
-        <v>9076500</v>
+        <v>9149400</v>
       </c>
       <c r="H76" s="3">
-        <v>8406800</v>
+        <v>8474400</v>
       </c>
       <c r="I76" s="3">
-        <v>7315900</v>
+        <v>7374600</v>
       </c>
       <c r="J76" s="3">
-        <v>7928700</v>
+        <v>7992400</v>
       </c>
       <c r="K76" s="3">
         <v>7546100</v>
@@ -2858,25 +2858,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>170400</v>
+        <v>171800</v>
       </c>
       <c r="E81" s="3">
-        <v>221900</v>
+        <v>223700</v>
       </c>
       <c r="F81" s="3">
-        <v>384300</v>
+        <v>387400</v>
       </c>
       <c r="G81" s="3">
-        <v>474200</v>
+        <v>478000</v>
       </c>
       <c r="H81" s="3">
-        <v>606200</v>
+        <v>611100</v>
       </c>
       <c r="I81" s="3">
-        <v>-219300</v>
+        <v>-221000</v>
       </c>
       <c r="J81" s="3">
-        <v>945700</v>
+        <v>953300</v>
       </c>
       <c r="K81" s="3">
         <v>778300</v>
@@ -2906,25 +2906,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1658900</v>
+        <v>1672200</v>
       </c>
       <c r="E83" s="3">
-        <v>1666800</v>
+        <v>1680200</v>
       </c>
       <c r="F83" s="3">
-        <v>965500</v>
+        <v>973300</v>
       </c>
       <c r="G83" s="3">
-        <v>829500</v>
+        <v>836100</v>
       </c>
       <c r="H83" s="3">
-        <v>771300</v>
+        <v>777500</v>
       </c>
       <c r="I83" s="3">
-        <v>764700</v>
+        <v>770900</v>
       </c>
       <c r="J83" s="3">
-        <v>727800</v>
+        <v>733600</v>
       </c>
       <c r="K83" s="3">
         <v>668400</v>
@@ -3104,25 +3104,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1812100</v>
+        <v>1826700</v>
       </c>
       <c r="E89" s="3">
-        <v>1377600</v>
+        <v>1388700</v>
       </c>
       <c r="F89" s="3">
-        <v>1802900</v>
+        <v>1817400</v>
       </c>
       <c r="G89" s="3">
-        <v>1522900</v>
+        <v>1535100</v>
       </c>
       <c r="H89" s="3">
-        <v>517700</v>
+        <v>521900</v>
       </c>
       <c r="I89" s="3">
-        <v>1203200</v>
+        <v>1212900</v>
       </c>
       <c r="J89" s="3">
-        <v>1240200</v>
+        <v>1250200</v>
       </c>
       <c r="K89" s="3">
         <v>1268200</v>
@@ -3152,25 +3152,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-685500</v>
+        <v>-691000</v>
       </c>
       <c r="E91" s="3">
-        <v>-626100</v>
+        <v>-631100</v>
       </c>
       <c r="F91" s="3">
-        <v>-741000</v>
+        <v>-746900</v>
       </c>
       <c r="G91" s="3">
-        <v>-837400</v>
+        <v>-844100</v>
       </c>
       <c r="H91" s="3">
-        <v>-853200</v>
+        <v>-860100</v>
       </c>
       <c r="I91" s="3">
-        <v>-1256100</v>
+        <v>-1266200</v>
       </c>
       <c r="J91" s="3">
-        <v>-1209800</v>
+        <v>-1219600</v>
       </c>
       <c r="K91" s="3">
         <v>-1379400</v>
@@ -3251,25 +3251,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-562700</v>
+        <v>-567200</v>
       </c>
       <c r="E94" s="3">
-        <v>-635300</v>
+        <v>-640400</v>
       </c>
       <c r="F94" s="3">
-        <v>-620800</v>
+        <v>-625800</v>
       </c>
       <c r="G94" s="3">
-        <v>-990600</v>
+        <v>-998600</v>
       </c>
       <c r="H94" s="3">
-        <v>-528300</v>
+        <v>-532600</v>
       </c>
       <c r="I94" s="3">
-        <v>-1188700</v>
+        <v>-1198300</v>
       </c>
       <c r="J94" s="3">
-        <v>562700</v>
+        <v>567200</v>
       </c>
       <c r="K94" s="3">
         <v>-1114400</v>
@@ -3299,25 +3299,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-356600</v>
+        <v>-359500</v>
       </c>
       <c r="E96" s="3">
-        <v>-326200</v>
+        <v>-328900</v>
       </c>
       <c r="F96" s="3">
-        <v>-310400</v>
+        <v>-312900</v>
       </c>
       <c r="G96" s="3">
-        <v>-334200</v>
+        <v>-336800</v>
       </c>
       <c r="H96" s="3">
-        <v>-314300</v>
+        <v>-316900</v>
       </c>
       <c r="I96" s="3">
-        <v>-435900</v>
+        <v>-439400</v>
       </c>
       <c r="J96" s="3">
-        <v>-422700</v>
+        <v>-426000</v>
       </c>
       <c r="K96" s="3">
         <v>-398200</v>
@@ -3431,25 +3431,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1415900</v>
+        <v>-1427300</v>
       </c>
       <c r="E100" s="3">
-        <v>-1545300</v>
+        <v>-1557700</v>
       </c>
       <c r="F100" s="3">
-        <v>-322300</v>
+        <v>-324900</v>
       </c>
       <c r="G100" s="3">
-        <v>-615500</v>
+        <v>-620400</v>
       </c>
       <c r="H100" s="3">
-        <v>-169100</v>
+        <v>-170400</v>
       </c>
       <c r="I100" s="3">
-        <v>-414700</v>
+        <v>-418100</v>
       </c>
       <c r="J100" s="3">
-        <v>-383000</v>
+        <v>-386100</v>
       </c>
       <c r="K100" s="3">
         <v>-457700</v>
@@ -3497,25 +3497,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-166400</v>
+        <v>-167800</v>
       </c>
       <c r="E102" s="3">
-        <v>-803000</v>
+        <v>-809500</v>
       </c>
       <c r="F102" s="3">
-        <v>859800</v>
+        <v>866700</v>
       </c>
       <c r="G102" s="3">
-        <v>-83200</v>
+        <v>-83900</v>
       </c>
       <c r="H102" s="3">
-        <v>-179600</v>
+        <v>-181100</v>
       </c>
       <c r="I102" s="3">
-        <v>-400200</v>
+        <v>-403400</v>
       </c>
       <c r="J102" s="3">
-        <v>1419800</v>
+        <v>1431300</v>
       </c>
       <c r="K102" s="3">
         <v>-303800</v>

--- a/AAII_Financials/Yearly/JSAIY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/JSAIY_YR_FIN.xlsx
@@ -718,25 +718,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>38601300</v>
+        <v>39812900</v>
       </c>
       <c r="E8" s="3">
-        <v>38619900</v>
+        <v>39832100</v>
       </c>
       <c r="F8" s="3">
-        <v>37886300</v>
+        <v>39075500</v>
       </c>
       <c r="G8" s="3">
-        <v>34914600</v>
+        <v>36010500</v>
       </c>
       <c r="H8" s="3">
-        <v>31295900</v>
+        <v>32278200</v>
       </c>
       <c r="I8" s="3">
-        <v>31654000</v>
+        <v>32647600</v>
       </c>
       <c r="J8" s="3">
-        <v>31885700</v>
+        <v>32886500</v>
       </c>
       <c r="K8" s="3">
         <v>30126400</v>
@@ -751,25 +751,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>35547000</v>
+        <v>36662800</v>
       </c>
       <c r="E9" s="3">
-        <v>35573700</v>
+        <v>36690300</v>
       </c>
       <c r="F9" s="3">
-        <v>35380600</v>
+        <v>36491200</v>
       </c>
       <c r="G9" s="3">
-        <v>32739100</v>
+        <v>33766700</v>
       </c>
       <c r="H9" s="3">
-        <v>29357400</v>
+        <v>30278800</v>
       </c>
       <c r="I9" s="3">
-        <v>30045700</v>
+        <v>30988800</v>
       </c>
       <c r="J9" s="3">
-        <v>30039000</v>
+        <v>30981900</v>
       </c>
       <c r="K9" s="3">
         <v>28475400</v>
@@ -784,25 +784,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>3054200</v>
+        <v>3150100</v>
       </c>
       <c r="E10" s="3">
-        <v>3046200</v>
+        <v>3141900</v>
       </c>
       <c r="F10" s="3">
-        <v>2505700</v>
+        <v>2584300</v>
       </c>
       <c r="G10" s="3">
-        <v>2175500</v>
+        <v>2243800</v>
       </c>
       <c r="H10" s="3">
-        <v>1938500</v>
+        <v>1999400</v>
       </c>
       <c r="I10" s="3">
-        <v>1608300</v>
+        <v>1658800</v>
       </c>
       <c r="J10" s="3">
-        <v>1846700</v>
+        <v>1904600</v>
       </c>
       <c r="K10" s="3">
         <v>1650900</v>
@@ -898,7 +898,7 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>471300</v>
+        <v>486100</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
@@ -907,7 +907,7 @@
         <v>8</v>
       </c>
       <c r="G14" s="3">
-        <v>-130500</v>
+        <v>-134600</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>8</v>
@@ -976,25 +976,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>37697300</v>
+        <v>38880500</v>
       </c>
       <c r="E17" s="3">
-        <v>37831700</v>
+        <v>39019200</v>
       </c>
       <c r="F17" s="3">
-        <v>37196700</v>
+        <v>38364200</v>
       </c>
       <c r="G17" s="3">
-        <v>34059900</v>
+        <v>35128900</v>
       </c>
       <c r="H17" s="3">
-        <v>30354600</v>
+        <v>31307400</v>
       </c>
       <c r="I17" s="3">
-        <v>31546200</v>
+        <v>32536400</v>
       </c>
       <c r="J17" s="3">
-        <v>30542300</v>
+        <v>31501000</v>
       </c>
       <c r="K17" s="3">
         <v>28986100</v>
@@ -1009,25 +1009,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>904000</v>
+        <v>932400</v>
       </c>
       <c r="E18" s="3">
-        <v>788200</v>
+        <v>812900</v>
       </c>
       <c r="F18" s="3">
-        <v>689700</v>
+        <v>711300</v>
       </c>
       <c r="G18" s="3">
-        <v>854800</v>
+        <v>881600</v>
       </c>
       <c r="H18" s="3">
-        <v>941300</v>
+        <v>970800</v>
       </c>
       <c r="I18" s="3">
-        <v>107800</v>
+        <v>111200</v>
       </c>
       <c r="J18" s="3">
-        <v>1343400</v>
+        <v>1385500</v>
       </c>
       <c r="K18" s="3">
         <v>1140300</v>
@@ -1057,25 +1057,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-57300</v>
+        <v>-59000</v>
       </c>
       <c r="E20" s="3">
-        <v>24000</v>
+        <v>24700</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
       </c>
       <c r="G20" s="3">
-        <v>-33300</v>
+        <v>-34300</v>
       </c>
       <c r="H20" s="3">
-        <v>-51900</v>
+        <v>-53600</v>
       </c>
       <c r="I20" s="3">
-        <v>-39900</v>
+        <v>-41200</v>
       </c>
       <c r="J20" s="3">
-        <v>24000</v>
+        <v>24700</v>
       </c>
       <c r="K20" s="3">
         <v>23300</v>
@@ -1090,25 +1090,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2524200</v>
+        <v>2591900</v>
       </c>
       <c r="E21" s="3">
-        <v>2497600</v>
+        <v>2564500</v>
       </c>
       <c r="F21" s="3">
-        <v>1665900</v>
+        <v>1711500</v>
       </c>
       <c r="G21" s="3">
-        <v>1660200</v>
+        <v>1706600</v>
       </c>
       <c r="H21" s="3">
-        <v>1669300</v>
+        <v>1716400</v>
       </c>
       <c r="I21" s="3">
-        <v>841200</v>
+        <v>862300</v>
       </c>
       <c r="J21" s="3">
-        <v>2103200</v>
+        <v>2164200</v>
       </c>
       <c r="K21" s="3">
         <v>1835600</v>
@@ -1123,25 +1123,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>507300</v>
+        <v>523200</v>
       </c>
       <c r="E22" s="3">
-        <v>543200</v>
+        <v>560300</v>
       </c>
       <c r="F22" s="3">
-        <v>145100</v>
+        <v>149700</v>
       </c>
       <c r="G22" s="3">
-        <v>151800</v>
+        <v>156500</v>
       </c>
       <c r="H22" s="3">
-        <v>159800</v>
+        <v>164800</v>
       </c>
       <c r="I22" s="3">
-        <v>163800</v>
+        <v>168900</v>
       </c>
       <c r="J22" s="3">
-        <v>171800</v>
+        <v>177100</v>
       </c>
       <c r="K22" s="3">
         <v>165500</v>
@@ -1156,25 +1156,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>339500</v>
+        <v>350200</v>
       </c>
       <c r="E23" s="3">
-        <v>268900</v>
+        <v>277400</v>
       </c>
       <c r="F23" s="3">
-        <v>544500</v>
+        <v>561600</v>
       </c>
       <c r="G23" s="3">
-        <v>669700</v>
+        <v>690700</v>
       </c>
       <c r="H23" s="3">
-        <v>729600</v>
+        <v>752500</v>
       </c>
       <c r="I23" s="3">
-        <v>-95900</v>
+        <v>-98900</v>
       </c>
       <c r="J23" s="3">
-        <v>1195600</v>
+        <v>1233100</v>
       </c>
       <c r="K23" s="3">
         <v>998000</v>
@@ -1189,25 +1189,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>137100</v>
+        <v>141400</v>
       </c>
       <c r="E24" s="3">
-        <v>21300</v>
+        <v>22000</v>
       </c>
       <c r="F24" s="3">
-        <v>133100</v>
+        <v>137300</v>
       </c>
       <c r="G24" s="3">
-        <v>167800</v>
+        <v>173000</v>
       </c>
       <c r="H24" s="3">
-        <v>102500</v>
+        <v>105700</v>
       </c>
       <c r="I24" s="3">
-        <v>125200</v>
+        <v>129100</v>
       </c>
       <c r="J24" s="3">
-        <v>242300</v>
+        <v>249900</v>
       </c>
       <c r="K24" s="3">
         <v>219800</v>
@@ -1255,25 +1255,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>202400</v>
+        <v>208700</v>
       </c>
       <c r="E26" s="3">
-        <v>247600</v>
+        <v>255400</v>
       </c>
       <c r="F26" s="3">
-        <v>411400</v>
+        <v>424300</v>
       </c>
       <c r="G26" s="3">
-        <v>501900</v>
+        <v>517700</v>
       </c>
       <c r="H26" s="3">
-        <v>627100</v>
+        <v>646800</v>
       </c>
       <c r="I26" s="3">
-        <v>-221000</v>
+        <v>-227900</v>
       </c>
       <c r="J26" s="3">
-        <v>953300</v>
+        <v>983200</v>
       </c>
       <c r="K26" s="3">
         <v>778300</v>
@@ -1288,25 +1288,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>171800</v>
+        <v>177100</v>
       </c>
       <c r="E27" s="3">
-        <v>223700</v>
+        <v>230700</v>
       </c>
       <c r="F27" s="3">
-        <v>387400</v>
+        <v>399600</v>
       </c>
       <c r="G27" s="3">
-        <v>478000</v>
+        <v>493000</v>
       </c>
       <c r="H27" s="3">
-        <v>611100</v>
+        <v>630300</v>
       </c>
       <c r="I27" s="3">
-        <v>-221000</v>
+        <v>-227900</v>
       </c>
       <c r="J27" s="3">
-        <v>953300</v>
+        <v>983200</v>
       </c>
       <c r="K27" s="3">
         <v>778300</v>
@@ -1453,25 +1453,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>57300</v>
+        <v>59000</v>
       </c>
       <c r="E32" s="3">
-        <v>-24000</v>
+        <v>-24700</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
       </c>
       <c r="G32" s="3">
-        <v>33300</v>
+        <v>34300</v>
       </c>
       <c r="H32" s="3">
-        <v>51900</v>
+        <v>53600</v>
       </c>
       <c r="I32" s="3">
-        <v>39900</v>
+        <v>41200</v>
       </c>
       <c r="J32" s="3">
-        <v>-24000</v>
+        <v>-24700</v>
       </c>
       <c r="K32" s="3">
         <v>-23300</v>
@@ -1486,25 +1486,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>171800</v>
+        <v>177100</v>
       </c>
       <c r="E33" s="3">
-        <v>223700</v>
+        <v>230700</v>
       </c>
       <c r="F33" s="3">
-        <v>387400</v>
+        <v>399600</v>
       </c>
       <c r="G33" s="3">
-        <v>478000</v>
+        <v>493000</v>
       </c>
       <c r="H33" s="3">
-        <v>611100</v>
+        <v>630300</v>
       </c>
       <c r="I33" s="3">
-        <v>-221000</v>
+        <v>-227900</v>
       </c>
       <c r="J33" s="3">
-        <v>953300</v>
+        <v>983200</v>
       </c>
       <c r="K33" s="3">
         <v>778300</v>
@@ -1552,25 +1552,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>171800</v>
+        <v>177100</v>
       </c>
       <c r="E35" s="3">
-        <v>223700</v>
+        <v>230700</v>
       </c>
       <c r="F35" s="3">
-        <v>387400</v>
+        <v>399600</v>
       </c>
       <c r="G35" s="3">
-        <v>478000</v>
+        <v>493000</v>
       </c>
       <c r="H35" s="3">
-        <v>611100</v>
+        <v>630300</v>
       </c>
       <c r="I35" s="3">
-        <v>-221000</v>
+        <v>-227900</v>
       </c>
       <c r="J35" s="3">
-        <v>953300</v>
+        <v>983200</v>
       </c>
       <c r="K35" s="3">
         <v>778300</v>
@@ -1653,25 +1653,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>959900</v>
+        <v>990100</v>
       </c>
       <c r="E41" s="3">
-        <v>1082400</v>
+        <v>1116400</v>
       </c>
       <c r="F41" s="3">
-        <v>1394000</v>
+        <v>1437700</v>
       </c>
       <c r="G41" s="3">
-        <v>1121000</v>
+        <v>1156200</v>
       </c>
       <c r="H41" s="3">
-        <v>1137000</v>
+        <v>1172700</v>
       </c>
       <c r="I41" s="3">
-        <v>1710800</v>
+        <v>1764500</v>
       </c>
       <c r="J41" s="3">
-        <v>2119600</v>
+        <v>2186100</v>
       </c>
       <c r="K41" s="3">
         <v>668400</v>
@@ -1686,19 +1686,19 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>472600</v>
+        <v>487500</v>
       </c>
       <c r="E42" s="3">
-        <v>691000</v>
+        <v>712700</v>
       </c>
       <c r="F42" s="3">
-        <v>1179600</v>
+        <v>1216600</v>
       </c>
       <c r="G42" s="3">
-        <v>454000</v>
+        <v>468300</v>
       </c>
       <c r="H42" s="3">
-        <v>448700</v>
+        <v>462800</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>8</v>
@@ -1719,25 +1719,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>6111100</v>
+        <v>6302900</v>
       </c>
       <c r="E43" s="3">
-        <v>5464100</v>
+        <v>5635600</v>
       </c>
       <c r="F43" s="3">
-        <v>5255000</v>
+        <v>5420000</v>
       </c>
       <c r="G43" s="3">
-        <v>8473000</v>
+        <v>8739000</v>
       </c>
       <c r="H43" s="3">
-        <v>2790600</v>
+        <v>2878200</v>
       </c>
       <c r="I43" s="3">
-        <v>2624200</v>
+        <v>2706600</v>
       </c>
       <c r="J43" s="3">
-        <v>2203500</v>
+        <v>2272600</v>
       </c>
       <c r="K43" s="3">
         <v>729100</v>
@@ -1752,25 +1752,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>2306000</v>
+        <v>2378400</v>
       </c>
       <c r="E44" s="3">
-        <v>2568300</v>
+        <v>2648900</v>
       </c>
       <c r="F44" s="3">
-        <v>2409800</v>
+        <v>2485500</v>
       </c>
       <c r="G44" s="3">
-        <v>4726500</v>
+        <v>4874800</v>
       </c>
       <c r="H44" s="3">
-        <v>1288800</v>
+        <v>1329200</v>
       </c>
       <c r="I44" s="3">
-        <v>1327400</v>
+        <v>1369100</v>
       </c>
       <c r="J44" s="3">
-        <v>1338100</v>
+        <v>1380100</v>
       </c>
       <c r="K44" s="3">
         <v>2552000</v>
@@ -1785,25 +1785,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>245000</v>
+        <v>252700</v>
       </c>
       <c r="E45" s="3">
-        <v>246300</v>
+        <v>254000</v>
       </c>
       <c r="F45" s="3">
-        <v>222300</v>
+        <v>229300</v>
       </c>
       <c r="G45" s="3">
-        <v>332800</v>
+        <v>343300</v>
       </c>
       <c r="H45" s="3">
-        <v>210400</v>
+        <v>217000</v>
       </c>
       <c r="I45" s="3">
-        <v>223700</v>
+        <v>230700</v>
       </c>
       <c r="J45" s="3">
-        <v>146500</v>
+        <v>151100</v>
       </c>
       <c r="K45" s="3">
         <v>196500</v>
@@ -1818,25 +1818,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>10094700</v>
+        <v>10411500</v>
       </c>
       <c r="E46" s="3">
-        <v>10052100</v>
+        <v>10367600</v>
       </c>
       <c r="F46" s="3">
-        <v>10460800</v>
+        <v>10789200</v>
       </c>
       <c r="G46" s="3">
-        <v>8403800</v>
+        <v>8667600</v>
       </c>
       <c r="H46" s="3">
-        <v>5875500</v>
+        <v>6059900</v>
       </c>
       <c r="I46" s="3">
-        <v>5886100</v>
+        <v>6070900</v>
       </c>
       <c r="J46" s="3">
-        <v>5807600</v>
+        <v>5989900</v>
       </c>
       <c r="K46" s="3">
         <v>2457600</v>
@@ -1851,25 +1851,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>5951400</v>
+        <v>6138200</v>
       </c>
       <c r="E47" s="3">
-        <v>5655800</v>
+        <v>5833300</v>
       </c>
       <c r="F47" s="3">
-        <v>4179300</v>
+        <v>4310400</v>
       </c>
       <c r="G47" s="3">
-        <v>6167000</v>
+        <v>6360600</v>
       </c>
       <c r="H47" s="3">
-        <v>3206000</v>
+        <v>3306600</v>
       </c>
       <c r="I47" s="3">
-        <v>2713400</v>
+        <v>2798600</v>
       </c>
       <c r="J47" s="3">
-        <v>2632200</v>
+        <v>2714800</v>
       </c>
       <c r="K47" s="3">
         <v>981200</v>
@@ -1884,25 +1884,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>18289400</v>
+        <v>18863500</v>
       </c>
       <c r="E48" s="3">
-        <v>18887200</v>
+        <v>19480100</v>
       </c>
       <c r="F48" s="3">
-        <v>13178200</v>
+        <v>13591800</v>
       </c>
       <c r="G48" s="3">
-        <v>26644000</v>
+        <v>27480300</v>
       </c>
       <c r="H48" s="3">
-        <v>12999800</v>
+        <v>13407800</v>
       </c>
       <c r="I48" s="3">
-        <v>12845300</v>
+        <v>13248500</v>
       </c>
       <c r="J48" s="3">
-        <v>13154200</v>
+        <v>13567100</v>
       </c>
       <c r="K48" s="3">
         <v>18666900</v>
@@ -1917,25 +1917,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1347400</v>
+        <v>1389700</v>
       </c>
       <c r="E49" s="3">
-        <v>1388700</v>
+        <v>1432200</v>
       </c>
       <c r="F49" s="3">
-        <v>1427300</v>
+        <v>1472100</v>
       </c>
       <c r="G49" s="3">
-        <v>2057000</v>
+        <v>2121600</v>
       </c>
       <c r="H49" s="3">
-        <v>438000</v>
+        <v>451800</v>
       </c>
       <c r="I49" s="3">
-        <v>432700</v>
+        <v>446300</v>
       </c>
       <c r="J49" s="3">
-        <v>380800</v>
+        <v>392700</v>
       </c>
       <c r="K49" s="3">
         <v>420200</v>
@@ -2016,25 +2016,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1512500</v>
+        <v>1559900</v>
       </c>
       <c r="E52" s="3">
-        <v>1310100</v>
+        <v>1351200</v>
       </c>
       <c r="F52" s="3">
-        <v>46600</v>
+        <v>48100</v>
       </c>
       <c r="G52" s="3">
-        <v>39900</v>
+        <v>41200</v>
       </c>
       <c r="H52" s="3">
-        <v>78600</v>
+        <v>81000</v>
       </c>
       <c r="I52" s="3">
-        <v>139800</v>
+        <v>144200</v>
       </c>
       <c r="J52" s="3">
-        <v>46600</v>
+        <v>48100</v>
       </c>
       <c r="K52" s="3">
         <v>77600</v>
@@ -2082,25 +2082,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>37195300</v>
+        <v>38362800</v>
       </c>
       <c r="E54" s="3">
-        <v>37293800</v>
+        <v>38464400</v>
       </c>
       <c r="F54" s="3">
-        <v>29292100</v>
+        <v>30211600</v>
       </c>
       <c r="G54" s="3">
-        <v>26359100</v>
+        <v>27186400</v>
       </c>
       <c r="H54" s="3">
-        <v>22597900</v>
+        <v>23307200</v>
       </c>
       <c r="I54" s="3">
-        <v>22017400</v>
+        <v>22708400</v>
       </c>
       <c r="J54" s="3">
-        <v>22021400</v>
+        <v>22712600</v>
       </c>
       <c r="K54" s="3">
         <v>16412200</v>
@@ -2145,25 +2145,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>3940900</v>
+        <v>4064600</v>
       </c>
       <c r="E57" s="3">
-        <v>4052800</v>
+        <v>4180000</v>
       </c>
       <c r="F57" s="3">
-        <v>3797200</v>
+        <v>3916300</v>
       </c>
       <c r="G57" s="3">
-        <v>8555600</v>
+        <v>8824100</v>
       </c>
       <c r="H57" s="3">
-        <v>2772000</v>
+        <v>2859000</v>
       </c>
       <c r="I57" s="3">
-        <v>2781300</v>
+        <v>2868600</v>
       </c>
       <c r="J57" s="3">
-        <v>2457800</v>
+        <v>2534900</v>
       </c>
       <c r="K57" s="3">
         <v>5990900</v>
@@ -2178,25 +2178,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>877400</v>
+        <v>904900</v>
       </c>
       <c r="E58" s="3">
-        <v>1971800</v>
+        <v>2033700</v>
       </c>
       <c r="F58" s="3">
-        <v>1015900</v>
+        <v>1047700</v>
       </c>
       <c r="G58" s="3">
-        <v>619100</v>
+        <v>638500</v>
       </c>
       <c r="H58" s="3">
-        <v>454000</v>
+        <v>468300</v>
       </c>
       <c r="I58" s="3">
-        <v>439400</v>
+        <v>453200</v>
       </c>
       <c r="J58" s="3">
-        <v>711000</v>
+        <v>733300</v>
       </c>
       <c r="K58" s="3">
         <v>240500</v>
@@ -2211,25 +2211,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>11221000</v>
+        <v>11573200</v>
       </c>
       <c r="E59" s="3">
-        <v>9772500</v>
+        <v>10079200</v>
       </c>
       <c r="F59" s="3">
-        <v>8903100</v>
+        <v>9182500</v>
       </c>
       <c r="G59" s="3">
-        <v>13170200</v>
+        <v>13583600</v>
       </c>
       <c r="H59" s="3">
-        <v>5721000</v>
+        <v>5900600</v>
       </c>
       <c r="I59" s="3">
-        <v>5996600</v>
+        <v>6184800</v>
       </c>
       <c r="J59" s="3">
-        <v>5838200</v>
+        <v>6021400</v>
       </c>
       <c r="K59" s="3">
         <v>1347100</v>
@@ -2244,25 +2244,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>16039400</v>
+        <v>16542800</v>
       </c>
       <c r="E60" s="3">
-        <v>15775800</v>
+        <v>16270900</v>
       </c>
       <c r="F60" s="3">
-        <v>13716100</v>
+        <v>14146600</v>
       </c>
       <c r="G60" s="3">
-        <v>11431400</v>
+        <v>11790200</v>
       </c>
       <c r="H60" s="3">
-        <v>8947000</v>
+        <v>9227800</v>
       </c>
       <c r="I60" s="3">
-        <v>9217300</v>
+        <v>9506600</v>
       </c>
       <c r="J60" s="3">
-        <v>9006900</v>
+        <v>9289600</v>
       </c>
       <c r="K60" s="3">
         <v>4027100</v>
@@ -2277,25 +2277,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>8670100</v>
+        <v>8942200</v>
       </c>
       <c r="E61" s="3">
-        <v>8389200</v>
+        <v>8652500</v>
       </c>
       <c r="F61" s="3">
-        <v>2381900</v>
+        <v>2456600</v>
       </c>
       <c r="G61" s="3">
-        <v>2714700</v>
+        <v>2799900</v>
       </c>
       <c r="H61" s="3">
-        <v>3156700</v>
+        <v>3255800</v>
       </c>
       <c r="I61" s="3">
-        <v>3440300</v>
+        <v>3548300</v>
       </c>
       <c r="J61" s="3">
-        <v>2995600</v>
+        <v>3089700</v>
       </c>
       <c r="K61" s="3">
         <v>3383300</v>
@@ -2310,25 +2310,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2136900</v>
+        <v>2204000</v>
       </c>
       <c r="E62" s="3">
-        <v>2768000</v>
+        <v>2854900</v>
       </c>
       <c r="F62" s="3">
-        <v>3327200</v>
+        <v>3431600</v>
       </c>
       <c r="G62" s="3">
-        <v>4063400</v>
+        <v>4191000</v>
       </c>
       <c r="H62" s="3">
-        <v>2014400</v>
+        <v>2077600</v>
       </c>
       <c r="I62" s="3">
-        <v>1985100</v>
+        <v>2047400</v>
       </c>
       <c r="J62" s="3">
-        <v>2023700</v>
+        <v>2087200</v>
       </c>
       <c r="K62" s="3">
         <v>1678100</v>
@@ -2442,25 +2442,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>26846300</v>
+        <v>27689000</v>
       </c>
       <c r="E66" s="3">
-        <v>26932900</v>
+        <v>27778300</v>
       </c>
       <c r="F66" s="3">
-        <v>19425100</v>
+        <v>20034800</v>
       </c>
       <c r="G66" s="3">
-        <v>17209700</v>
+        <v>17749900</v>
       </c>
       <c r="H66" s="3">
-        <v>14123500</v>
+        <v>14566800</v>
       </c>
       <c r="I66" s="3">
-        <v>14642700</v>
+        <v>15102300</v>
       </c>
       <c r="J66" s="3">
-        <v>14029000</v>
+        <v>14469300</v>
       </c>
       <c r="K66" s="3">
         <v>8866100</v>
@@ -2622,25 +2622,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>7077700</v>
+        <v>7299900</v>
       </c>
       <c r="E72" s="3">
-        <v>7112300</v>
+        <v>7335600</v>
       </c>
       <c r="F72" s="3">
-        <v>6723600</v>
+        <v>6934600</v>
       </c>
       <c r="G72" s="3">
-        <v>6193700</v>
+        <v>6388100</v>
       </c>
       <c r="H72" s="3">
-        <v>5430800</v>
+        <v>5601200</v>
       </c>
       <c r="I72" s="3">
-        <v>5023400</v>
+        <v>5181000</v>
       </c>
       <c r="J72" s="3">
-        <v>5647800</v>
+        <v>5825100</v>
       </c>
       <c r="K72" s="3">
         <v>4479600</v>
@@ -2754,25 +2754,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>10349000</v>
+        <v>10673800</v>
       </c>
       <c r="E76" s="3">
-        <v>10361000</v>
+        <v>10686200</v>
       </c>
       <c r="F76" s="3">
-        <v>9867000</v>
+        <v>10176700</v>
       </c>
       <c r="G76" s="3">
-        <v>9149400</v>
+        <v>9436600</v>
       </c>
       <c r="H76" s="3">
-        <v>8474400</v>
+        <v>8740400</v>
       </c>
       <c r="I76" s="3">
-        <v>7374600</v>
+        <v>7606100</v>
       </c>
       <c r="J76" s="3">
-        <v>7992400</v>
+        <v>8243300</v>
       </c>
       <c r="K76" s="3">
         <v>7546100</v>
@@ -2858,25 +2858,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>171800</v>
+        <v>177100</v>
       </c>
       <c r="E81" s="3">
-        <v>223700</v>
+        <v>230700</v>
       </c>
       <c r="F81" s="3">
-        <v>387400</v>
+        <v>399600</v>
       </c>
       <c r="G81" s="3">
-        <v>478000</v>
+        <v>493000</v>
       </c>
       <c r="H81" s="3">
-        <v>611100</v>
+        <v>630300</v>
       </c>
       <c r="I81" s="3">
-        <v>-221000</v>
+        <v>-227900</v>
       </c>
       <c r="J81" s="3">
-        <v>953300</v>
+        <v>983200</v>
       </c>
       <c r="K81" s="3">
         <v>778300</v>
@@ -2906,25 +2906,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1672200</v>
+        <v>1724700</v>
       </c>
       <c r="E83" s="3">
-        <v>1680200</v>
+        <v>1733000</v>
       </c>
       <c r="F83" s="3">
-        <v>973300</v>
+        <v>1003800</v>
       </c>
       <c r="G83" s="3">
-        <v>836100</v>
+        <v>862400</v>
       </c>
       <c r="H83" s="3">
-        <v>777500</v>
+        <v>801900</v>
       </c>
       <c r="I83" s="3">
-        <v>770900</v>
+        <v>795100</v>
       </c>
       <c r="J83" s="3">
-        <v>733600</v>
+        <v>756600</v>
       </c>
       <c r="K83" s="3">
         <v>668400</v>
@@ -3104,25 +3104,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1826700</v>
+        <v>1884000</v>
       </c>
       <c r="E89" s="3">
-        <v>1388700</v>
+        <v>1432200</v>
       </c>
       <c r="F89" s="3">
-        <v>1817400</v>
+        <v>1874400</v>
       </c>
       <c r="G89" s="3">
-        <v>1535100</v>
+        <v>1583300</v>
       </c>
       <c r="H89" s="3">
-        <v>521900</v>
+        <v>538300</v>
       </c>
       <c r="I89" s="3">
-        <v>1212900</v>
+        <v>1251000</v>
       </c>
       <c r="J89" s="3">
-        <v>1250200</v>
+        <v>1289400</v>
       </c>
       <c r="K89" s="3">
         <v>1268200</v>
@@ -3152,25 +3152,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-691000</v>
+        <v>-712700</v>
       </c>
       <c r="E91" s="3">
-        <v>-631100</v>
+        <v>-650900</v>
       </c>
       <c r="F91" s="3">
-        <v>-746900</v>
+        <v>-770400</v>
       </c>
       <c r="G91" s="3">
-        <v>-844100</v>
+        <v>-870600</v>
       </c>
       <c r="H91" s="3">
-        <v>-860100</v>
+        <v>-887100</v>
       </c>
       <c r="I91" s="3">
-        <v>-1266200</v>
+        <v>-1305900</v>
       </c>
       <c r="J91" s="3">
-        <v>-1219600</v>
+        <v>-1257800</v>
       </c>
       <c r="K91" s="3">
         <v>-1379400</v>
@@ -3251,25 +3251,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-567200</v>
+        <v>-585000</v>
       </c>
       <c r="E94" s="3">
-        <v>-640400</v>
+        <v>-660500</v>
       </c>
       <c r="F94" s="3">
-        <v>-625800</v>
+        <v>-645400</v>
       </c>
       <c r="G94" s="3">
-        <v>-998600</v>
+        <v>-1029900</v>
       </c>
       <c r="H94" s="3">
-        <v>-532600</v>
+        <v>-549300</v>
       </c>
       <c r="I94" s="3">
-        <v>-1198300</v>
+        <v>-1235900</v>
       </c>
       <c r="J94" s="3">
-        <v>567200</v>
+        <v>585000</v>
       </c>
       <c r="K94" s="3">
         <v>-1114400</v>
@@ -3299,25 +3299,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-359500</v>
+        <v>-370800</v>
       </c>
       <c r="E96" s="3">
-        <v>-328900</v>
+        <v>-339200</v>
       </c>
       <c r="F96" s="3">
-        <v>-312900</v>
+        <v>-322700</v>
       </c>
       <c r="G96" s="3">
-        <v>-336800</v>
+        <v>-347400</v>
       </c>
       <c r="H96" s="3">
-        <v>-316900</v>
+        <v>-326800</v>
       </c>
       <c r="I96" s="3">
+        <v>-453200</v>
+      </c>
+      <c r="J96" s="3">
         <v>-439400</v>
-      </c>
-      <c r="J96" s="3">
-        <v>-426000</v>
       </c>
       <c r="K96" s="3">
         <v>-398200</v>
@@ -3431,25 +3431,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1427300</v>
+        <v>-1472100</v>
       </c>
       <c r="E100" s="3">
-        <v>-1557700</v>
+        <v>-1606600</v>
       </c>
       <c r="F100" s="3">
-        <v>-324900</v>
+        <v>-335100</v>
       </c>
       <c r="G100" s="3">
-        <v>-620400</v>
+        <v>-639900</v>
       </c>
       <c r="H100" s="3">
-        <v>-170400</v>
+        <v>-175800</v>
       </c>
       <c r="I100" s="3">
-        <v>-418100</v>
+        <v>-431200</v>
       </c>
       <c r="J100" s="3">
-        <v>-386100</v>
+        <v>-398200</v>
       </c>
       <c r="K100" s="3">
         <v>-457700</v>
@@ -3497,25 +3497,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-167800</v>
+        <v>-173000</v>
       </c>
       <c r="E102" s="3">
-        <v>-809500</v>
+        <v>-834900</v>
       </c>
       <c r="F102" s="3">
-        <v>866700</v>
+        <v>893900</v>
       </c>
       <c r="G102" s="3">
-        <v>-83900</v>
+        <v>-86500</v>
       </c>
       <c r="H102" s="3">
-        <v>-181100</v>
+        <v>-186800</v>
       </c>
       <c r="I102" s="3">
-        <v>-403400</v>
+        <v>-416100</v>
       </c>
       <c r="J102" s="3">
-        <v>1431300</v>
+        <v>1476200</v>
       </c>
       <c r="K102" s="3">
         <v>-303800</v>

--- a/AAII_Financials/Yearly/JSAIY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/JSAIY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
   <si>
     <t>JSAIY</t>
   </si>
@@ -718,25 +718,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>39812900</v>
+        <v>41028300</v>
       </c>
       <c r="E8" s="3">
-        <v>39832100</v>
+        <v>41048100</v>
       </c>
       <c r="F8" s="3">
-        <v>39075500</v>
+        <v>40268400</v>
       </c>
       <c r="G8" s="3">
-        <v>36010500</v>
+        <v>37109800</v>
       </c>
       <c r="H8" s="3">
-        <v>32278200</v>
+        <v>33263600</v>
       </c>
       <c r="I8" s="3">
-        <v>32647600</v>
+        <v>33644200</v>
       </c>
       <c r="J8" s="3">
-        <v>32886500</v>
+        <v>33890500</v>
       </c>
       <c r="K8" s="3">
         <v>30126400</v>
@@ -751,25 +751,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>36662800</v>
+        <v>37782000</v>
       </c>
       <c r="E9" s="3">
-        <v>36690300</v>
+        <v>37810300</v>
       </c>
       <c r="F9" s="3">
-        <v>36491200</v>
+        <v>37605100</v>
       </c>
       <c r="G9" s="3">
-        <v>33766700</v>
+        <v>34797600</v>
       </c>
       <c r="H9" s="3">
-        <v>30278800</v>
+        <v>31203200</v>
       </c>
       <c r="I9" s="3">
-        <v>30988800</v>
+        <v>31934800</v>
       </c>
       <c r="J9" s="3">
-        <v>30981900</v>
+        <v>31927700</v>
       </c>
       <c r="K9" s="3">
         <v>28475400</v>
@@ -784,25 +784,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>3150100</v>
+        <v>3246300</v>
       </c>
       <c r="E10" s="3">
-        <v>3141900</v>
+        <v>3237800</v>
       </c>
       <c r="F10" s="3">
-        <v>2584300</v>
+        <v>2663200</v>
       </c>
       <c r="G10" s="3">
-        <v>2243800</v>
+        <v>2312300</v>
       </c>
       <c r="H10" s="3">
-        <v>1999400</v>
+        <v>2060400</v>
       </c>
       <c r="I10" s="3">
-        <v>1658800</v>
+        <v>1709500</v>
       </c>
       <c r="J10" s="3">
-        <v>1904600</v>
+        <v>1962800</v>
       </c>
       <c r="K10" s="3">
         <v>1650900</v>
@@ -898,7 +898,7 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>486100</v>
+        <v>500900</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
@@ -907,7 +907,7 @@
         <v>8</v>
       </c>
       <c r="G14" s="3">
-        <v>-134600</v>
+        <v>-138700</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>8</v>
@@ -976,25 +976,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>38880500</v>
+        <v>40067400</v>
       </c>
       <c r="E17" s="3">
-        <v>39019200</v>
+        <v>40210400</v>
       </c>
       <c r="F17" s="3">
-        <v>38364200</v>
+        <v>39535300</v>
       </c>
       <c r="G17" s="3">
-        <v>35128900</v>
+        <v>36201300</v>
       </c>
       <c r="H17" s="3">
-        <v>31307400</v>
+        <v>32263100</v>
       </c>
       <c r="I17" s="3">
-        <v>32536400</v>
+        <v>33529600</v>
       </c>
       <c r="J17" s="3">
-        <v>31501000</v>
+        <v>32462600</v>
       </c>
       <c r="K17" s="3">
         <v>28986100</v>
@@ -1009,25 +1009,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>932400</v>
+        <v>960900</v>
       </c>
       <c r="E18" s="3">
-        <v>812900</v>
+        <v>837700</v>
       </c>
       <c r="F18" s="3">
-        <v>711300</v>
+        <v>733000</v>
       </c>
       <c r="G18" s="3">
-        <v>881600</v>
+        <v>908500</v>
       </c>
       <c r="H18" s="3">
-        <v>970800</v>
+        <v>1000500</v>
       </c>
       <c r="I18" s="3">
-        <v>111200</v>
+        <v>114600</v>
       </c>
       <c r="J18" s="3">
-        <v>1385500</v>
+        <v>1427800</v>
       </c>
       <c r="K18" s="3">
         <v>1140300</v>
@@ -1057,25 +1057,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-59000</v>
+        <v>-60800</v>
       </c>
       <c r="E20" s="3">
-        <v>24700</v>
+        <v>25500</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
       </c>
       <c r="G20" s="3">
-        <v>-34300</v>
+        <v>-35400</v>
       </c>
       <c r="H20" s="3">
-        <v>-53600</v>
+        <v>-55200</v>
       </c>
       <c r="I20" s="3">
-        <v>-41200</v>
+        <v>-42500</v>
       </c>
       <c r="J20" s="3">
-        <v>24700</v>
+        <v>25500</v>
       </c>
       <c r="K20" s="3">
         <v>23300</v>
@@ -1090,25 +1090,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2591900</v>
+        <v>2677900</v>
       </c>
       <c r="E21" s="3">
-        <v>2564500</v>
+        <v>2649600</v>
       </c>
       <c r="F21" s="3">
-        <v>1711500</v>
+        <v>1767800</v>
       </c>
       <c r="G21" s="3">
-        <v>1706600</v>
+        <v>1762100</v>
       </c>
       <c r="H21" s="3">
-        <v>1716400</v>
+        <v>1772000</v>
       </c>
       <c r="I21" s="3">
-        <v>862300</v>
-      </c>
-      <c r="J21" s="3">
-        <v>2164200</v>
+        <v>891800</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K21" s="3">
         <v>1835600</v>
@@ -1123,25 +1123,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>523200</v>
+        <v>539200</v>
       </c>
       <c r="E22" s="3">
-        <v>560300</v>
+        <v>577400</v>
       </c>
       <c r="F22" s="3">
-        <v>149700</v>
+        <v>154200</v>
       </c>
       <c r="G22" s="3">
-        <v>156500</v>
+        <v>161300</v>
       </c>
       <c r="H22" s="3">
-        <v>164800</v>
+        <v>169800</v>
       </c>
       <c r="I22" s="3">
-        <v>168900</v>
+        <v>174100</v>
       </c>
       <c r="J22" s="3">
-        <v>177100</v>
+        <v>182500</v>
       </c>
       <c r="K22" s="3">
         <v>165500</v>
@@ -1156,25 +1156,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>350200</v>
+        <v>360900</v>
       </c>
       <c r="E23" s="3">
-        <v>277400</v>
+        <v>285900</v>
       </c>
       <c r="F23" s="3">
-        <v>561600</v>
+        <v>578800</v>
       </c>
       <c r="G23" s="3">
-        <v>690700</v>
+        <v>711800</v>
       </c>
       <c r="H23" s="3">
-        <v>752500</v>
+        <v>775500</v>
       </c>
       <c r="I23" s="3">
-        <v>-98900</v>
+        <v>-101900</v>
       </c>
       <c r="J23" s="3">
-        <v>1233100</v>
+        <v>1270800</v>
       </c>
       <c r="K23" s="3">
         <v>998000</v>
@@ -1189,25 +1189,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>141400</v>
+        <v>145800</v>
       </c>
       <c r="E24" s="3">
-        <v>22000</v>
+        <v>22600</v>
       </c>
       <c r="F24" s="3">
-        <v>137300</v>
+        <v>141500</v>
       </c>
       <c r="G24" s="3">
-        <v>173000</v>
+        <v>178300</v>
       </c>
       <c r="H24" s="3">
-        <v>105700</v>
+        <v>109000</v>
       </c>
       <c r="I24" s="3">
-        <v>129100</v>
+        <v>133000</v>
       </c>
       <c r="J24" s="3">
-        <v>249900</v>
+        <v>257600</v>
       </c>
       <c r="K24" s="3">
         <v>219800</v>
@@ -1255,25 +1255,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>208700</v>
+        <v>215100</v>
       </c>
       <c r="E26" s="3">
-        <v>255400</v>
+        <v>263200</v>
       </c>
       <c r="F26" s="3">
-        <v>424300</v>
+        <v>437300</v>
       </c>
       <c r="G26" s="3">
-        <v>517700</v>
+        <v>533500</v>
       </c>
       <c r="H26" s="3">
-        <v>646800</v>
+        <v>666500</v>
       </c>
       <c r="I26" s="3">
-        <v>-227900</v>
+        <v>-234900</v>
       </c>
       <c r="J26" s="3">
-        <v>983200</v>
+        <v>1013200</v>
       </c>
       <c r="K26" s="3">
         <v>778300</v>
@@ -1288,25 +1288,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>177100</v>
+        <v>182500</v>
       </c>
       <c r="E27" s="3">
-        <v>230700</v>
+        <v>237700</v>
       </c>
       <c r="F27" s="3">
-        <v>399600</v>
+        <v>411800</v>
       </c>
       <c r="G27" s="3">
-        <v>493000</v>
+        <v>508000</v>
       </c>
       <c r="H27" s="3">
-        <v>630300</v>
+        <v>649500</v>
       </c>
       <c r="I27" s="3">
-        <v>-227900</v>
+        <v>-234900</v>
       </c>
       <c r="J27" s="3">
-        <v>983200</v>
+        <v>1013200</v>
       </c>
       <c r="K27" s="3">
         <v>778300</v>
@@ -1453,25 +1453,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>59000</v>
+        <v>60800</v>
       </c>
       <c r="E32" s="3">
-        <v>-24700</v>
+        <v>-25500</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
       </c>
       <c r="G32" s="3">
-        <v>34300</v>
+        <v>35400</v>
       </c>
       <c r="H32" s="3">
-        <v>53600</v>
+        <v>55200</v>
       </c>
       <c r="I32" s="3">
-        <v>41200</v>
+        <v>42500</v>
       </c>
       <c r="J32" s="3">
-        <v>-24700</v>
+        <v>-25500</v>
       </c>
       <c r="K32" s="3">
         <v>-23300</v>
@@ -1486,25 +1486,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>177100</v>
+        <v>182500</v>
       </c>
       <c r="E33" s="3">
-        <v>230700</v>
+        <v>237700</v>
       </c>
       <c r="F33" s="3">
-        <v>399600</v>
+        <v>411800</v>
       </c>
       <c r="G33" s="3">
-        <v>493000</v>
+        <v>508000</v>
       </c>
       <c r="H33" s="3">
-        <v>630300</v>
+        <v>649500</v>
       </c>
       <c r="I33" s="3">
-        <v>-227900</v>
+        <v>-234900</v>
       </c>
       <c r="J33" s="3">
-        <v>983200</v>
+        <v>1013200</v>
       </c>
       <c r="K33" s="3">
         <v>778300</v>
@@ -1552,25 +1552,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>177100</v>
+        <v>182500</v>
       </c>
       <c r="E35" s="3">
-        <v>230700</v>
+        <v>237700</v>
       </c>
       <c r="F35" s="3">
-        <v>399600</v>
+        <v>411800</v>
       </c>
       <c r="G35" s="3">
-        <v>493000</v>
+        <v>508000</v>
       </c>
       <c r="H35" s="3">
-        <v>630300</v>
+        <v>649500</v>
       </c>
       <c r="I35" s="3">
-        <v>-227900</v>
+        <v>-234900</v>
       </c>
       <c r="J35" s="3">
-        <v>983200</v>
+        <v>1013200</v>
       </c>
       <c r="K35" s="3">
         <v>778300</v>
@@ -1653,25 +1653,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>990100</v>
+        <v>1020300</v>
       </c>
       <c r="E41" s="3">
-        <v>1116400</v>
+        <v>1150500</v>
       </c>
       <c r="F41" s="3">
-        <v>1437700</v>
+        <v>1481600</v>
       </c>
       <c r="G41" s="3">
-        <v>1156200</v>
+        <v>1191500</v>
       </c>
       <c r="H41" s="3">
-        <v>1172700</v>
+        <v>1208500</v>
       </c>
       <c r="I41" s="3">
-        <v>1764500</v>
+        <v>1818400</v>
       </c>
       <c r="J41" s="3">
-        <v>2186100</v>
+        <v>2252900</v>
       </c>
       <c r="K41" s="3">
         <v>668400</v>
@@ -1686,19 +1686,19 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>487500</v>
+        <v>502400</v>
       </c>
       <c r="E42" s="3">
-        <v>712700</v>
+        <v>734400</v>
       </c>
       <c r="F42" s="3">
-        <v>1216600</v>
+        <v>1253800</v>
       </c>
       <c r="G42" s="3">
-        <v>468300</v>
+        <v>482600</v>
       </c>
       <c r="H42" s="3">
-        <v>462800</v>
+        <v>476900</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>8</v>
@@ -1719,25 +1719,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>6302900</v>
+        <v>6495400</v>
       </c>
       <c r="E43" s="3">
-        <v>5635600</v>
+        <v>5807600</v>
       </c>
       <c r="F43" s="3">
-        <v>5420000</v>
+        <v>5585400</v>
       </c>
       <c r="G43" s="3">
-        <v>8739000</v>
+        <v>9005800</v>
       </c>
       <c r="H43" s="3">
-        <v>2878200</v>
+        <v>2966100</v>
       </c>
       <c r="I43" s="3">
-        <v>2706600</v>
+        <v>2789200</v>
       </c>
       <c r="J43" s="3">
-        <v>2272600</v>
+        <v>2342000</v>
       </c>
       <c r="K43" s="3">
         <v>729100</v>
@@ -1752,25 +1752,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>2378400</v>
+        <v>2451000</v>
       </c>
       <c r="E44" s="3">
-        <v>2648900</v>
+        <v>2729700</v>
       </c>
       <c r="F44" s="3">
-        <v>2485500</v>
+        <v>2561300</v>
       </c>
       <c r="G44" s="3">
-        <v>4874800</v>
+        <v>5023600</v>
       </c>
       <c r="H44" s="3">
-        <v>1329200</v>
+        <v>1369800</v>
       </c>
       <c r="I44" s="3">
-        <v>1369100</v>
+        <v>1410900</v>
       </c>
       <c r="J44" s="3">
-        <v>1380100</v>
+        <v>1422200</v>
       </c>
       <c r="K44" s="3">
         <v>2552000</v>
@@ -1785,25 +1785,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>252700</v>
+        <v>260400</v>
       </c>
       <c r="E45" s="3">
-        <v>254000</v>
+        <v>261800</v>
       </c>
       <c r="F45" s="3">
-        <v>229300</v>
+        <v>236300</v>
       </c>
       <c r="G45" s="3">
-        <v>343300</v>
+        <v>353800</v>
       </c>
       <c r="H45" s="3">
-        <v>217000</v>
+        <v>223600</v>
       </c>
       <c r="I45" s="3">
-        <v>230700</v>
+        <v>237700</v>
       </c>
       <c r="J45" s="3">
-        <v>151100</v>
+        <v>155700</v>
       </c>
       <c r="K45" s="3">
         <v>196500</v>
@@ -1818,25 +1818,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>10411500</v>
+        <v>10729400</v>
       </c>
       <c r="E46" s="3">
-        <v>10367600</v>
+        <v>10684100</v>
       </c>
       <c r="F46" s="3">
-        <v>10789200</v>
+        <v>11118500</v>
       </c>
       <c r="G46" s="3">
-        <v>8667600</v>
+        <v>8932200</v>
       </c>
       <c r="H46" s="3">
-        <v>6059900</v>
+        <v>6244900</v>
       </c>
       <c r="I46" s="3">
-        <v>6070900</v>
+        <v>6256200</v>
       </c>
       <c r="J46" s="3">
-        <v>5989900</v>
+        <v>6172700</v>
       </c>
       <c r="K46" s="3">
         <v>2457600</v>
@@ -1851,25 +1851,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>6138200</v>
+        <v>6325500</v>
       </c>
       <c r="E47" s="3">
-        <v>5833300</v>
+        <v>6011400</v>
       </c>
       <c r="F47" s="3">
-        <v>4310400</v>
+        <v>4442000</v>
       </c>
       <c r="G47" s="3">
-        <v>6360600</v>
+        <v>6554800</v>
       </c>
       <c r="H47" s="3">
-        <v>3306600</v>
+        <v>3407600</v>
       </c>
       <c r="I47" s="3">
-        <v>2798600</v>
+        <v>2884000</v>
       </c>
       <c r="J47" s="3">
-        <v>2714800</v>
+        <v>2797700</v>
       </c>
       <c r="K47" s="3">
         <v>981200</v>
@@ -1884,25 +1884,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>18863500</v>
+        <v>19439400</v>
       </c>
       <c r="E48" s="3">
-        <v>19480100</v>
+        <v>20074800</v>
       </c>
       <c r="F48" s="3">
-        <v>13591800</v>
+        <v>14006800</v>
       </c>
       <c r="G48" s="3">
-        <v>27480300</v>
+        <v>28319200</v>
       </c>
       <c r="H48" s="3">
-        <v>13407800</v>
+        <v>13817100</v>
       </c>
       <c r="I48" s="3">
-        <v>13248500</v>
+        <v>13653000</v>
       </c>
       <c r="J48" s="3">
-        <v>13567100</v>
+        <v>13981300</v>
       </c>
       <c r="K48" s="3">
         <v>18666900</v>
@@ -1917,25 +1917,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1389700</v>
+        <v>1432100</v>
       </c>
       <c r="E49" s="3">
-        <v>1432200</v>
+        <v>1476000</v>
       </c>
       <c r="F49" s="3">
-        <v>1472100</v>
+        <v>1517000</v>
       </c>
       <c r="G49" s="3">
-        <v>2121600</v>
+        <v>2186300</v>
       </c>
       <c r="H49" s="3">
-        <v>451800</v>
+        <v>465600</v>
       </c>
       <c r="I49" s="3">
-        <v>446300</v>
+        <v>459900</v>
       </c>
       <c r="J49" s="3">
-        <v>392700</v>
+        <v>404700</v>
       </c>
       <c r="K49" s="3">
         <v>420200</v>
@@ -2016,25 +2016,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1559900</v>
+        <v>1607600</v>
       </c>
       <c r="E52" s="3">
-        <v>1351200</v>
+        <v>1392500</v>
       </c>
       <c r="F52" s="3">
-        <v>48100</v>
+        <v>49500</v>
       </c>
       <c r="G52" s="3">
-        <v>41200</v>
+        <v>42500</v>
       </c>
       <c r="H52" s="3">
-        <v>81000</v>
+        <v>83500</v>
       </c>
       <c r="I52" s="3">
-        <v>144200</v>
+        <v>148600</v>
       </c>
       <c r="J52" s="3">
-        <v>48100</v>
+        <v>49500</v>
       </c>
       <c r="K52" s="3">
         <v>77600</v>
@@ -2082,25 +2082,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>38362800</v>
+        <v>39533900</v>
       </c>
       <c r="E54" s="3">
-        <v>38464400</v>
+        <v>39638600</v>
       </c>
       <c r="F54" s="3">
-        <v>30211600</v>
+        <v>31133800</v>
       </c>
       <c r="G54" s="3">
-        <v>27186400</v>
+        <v>28016300</v>
       </c>
       <c r="H54" s="3">
-        <v>23307200</v>
+        <v>24018700</v>
       </c>
       <c r="I54" s="3">
-        <v>22708400</v>
+        <v>23401700</v>
       </c>
       <c r="J54" s="3">
-        <v>22712600</v>
+        <v>23405900</v>
       </c>
       <c r="K54" s="3">
         <v>16412200</v>
@@ -2145,25 +2145,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>4064600</v>
+        <v>4188700</v>
       </c>
       <c r="E57" s="3">
-        <v>4180000</v>
+        <v>4307600</v>
       </c>
       <c r="F57" s="3">
-        <v>3916300</v>
+        <v>4035900</v>
       </c>
       <c r="G57" s="3">
-        <v>8824100</v>
+        <v>9093500</v>
       </c>
       <c r="H57" s="3">
-        <v>2859000</v>
+        <v>2946300</v>
       </c>
       <c r="I57" s="3">
-        <v>2868600</v>
+        <v>2956200</v>
       </c>
       <c r="J57" s="3">
-        <v>2534900</v>
+        <v>2612300</v>
       </c>
       <c r="K57" s="3">
         <v>5990900</v>
@@ -2178,25 +2178,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>904900</v>
+        <v>932600</v>
       </c>
       <c r="E58" s="3">
-        <v>2033700</v>
+        <v>2095800</v>
       </c>
       <c r="F58" s="3">
-        <v>1047700</v>
+        <v>1079700</v>
       </c>
       <c r="G58" s="3">
-        <v>638500</v>
+        <v>658000</v>
       </c>
       <c r="H58" s="3">
-        <v>468300</v>
+        <v>482600</v>
       </c>
       <c r="I58" s="3">
-        <v>453200</v>
+        <v>467000</v>
       </c>
       <c r="J58" s="3">
-        <v>733300</v>
+        <v>755700</v>
       </c>
       <c r="K58" s="3">
         <v>240500</v>
@@ -2211,25 +2211,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>11573200</v>
+        <v>11926500</v>
       </c>
       <c r="E59" s="3">
-        <v>10079200</v>
+        <v>10386900</v>
       </c>
       <c r="F59" s="3">
-        <v>9182500</v>
+        <v>9462800</v>
       </c>
       <c r="G59" s="3">
-        <v>13583600</v>
+        <v>13998300</v>
       </c>
       <c r="H59" s="3">
-        <v>5900600</v>
+        <v>6080700</v>
       </c>
       <c r="I59" s="3">
-        <v>6184800</v>
+        <v>6373700</v>
       </c>
       <c r="J59" s="3">
-        <v>6021400</v>
+        <v>6205300</v>
       </c>
       <c r="K59" s="3">
         <v>1347100</v>
@@ -2244,25 +2244,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>16542800</v>
+        <v>17047800</v>
       </c>
       <c r="E60" s="3">
-        <v>16270900</v>
+        <v>16767600</v>
       </c>
       <c r="F60" s="3">
-        <v>14146600</v>
+        <v>14578500</v>
       </c>
       <c r="G60" s="3">
-        <v>11790200</v>
+        <v>12150100</v>
       </c>
       <c r="H60" s="3">
-        <v>9227800</v>
+        <v>9509500</v>
       </c>
       <c r="I60" s="3">
-        <v>9506600</v>
+        <v>9796800</v>
       </c>
       <c r="J60" s="3">
-        <v>9289600</v>
+        <v>9573200</v>
       </c>
       <c r="K60" s="3">
         <v>4027100</v>
@@ -2277,25 +2277,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>8942200</v>
+        <v>9215200</v>
       </c>
       <c r="E61" s="3">
-        <v>8652500</v>
+        <v>8916600</v>
       </c>
       <c r="F61" s="3">
-        <v>2456600</v>
+        <v>2531600</v>
       </c>
       <c r="G61" s="3">
-        <v>2799900</v>
+        <v>2885400</v>
       </c>
       <c r="H61" s="3">
-        <v>3255800</v>
+        <v>3355200</v>
       </c>
       <c r="I61" s="3">
-        <v>3548300</v>
+        <v>3656600</v>
       </c>
       <c r="J61" s="3">
-        <v>3089700</v>
+        <v>3184000</v>
       </c>
       <c r="K61" s="3">
         <v>3383300</v>
@@ -2310,25 +2310,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2204000</v>
+        <v>2271300</v>
       </c>
       <c r="E62" s="3">
-        <v>2854900</v>
+        <v>2942000</v>
       </c>
       <c r="F62" s="3">
-        <v>3431600</v>
+        <v>3536400</v>
       </c>
       <c r="G62" s="3">
-        <v>4191000</v>
+        <v>4318900</v>
       </c>
       <c r="H62" s="3">
-        <v>2077600</v>
+        <v>2141100</v>
       </c>
       <c r="I62" s="3">
-        <v>2047400</v>
+        <v>2109900</v>
       </c>
       <c r="J62" s="3">
-        <v>2087200</v>
+        <v>2151000</v>
       </c>
       <c r="K62" s="3">
         <v>1678100</v>
@@ -2442,25 +2442,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>27689000</v>
+        <v>28534300</v>
       </c>
       <c r="E66" s="3">
-        <v>27778300</v>
+        <v>28626300</v>
       </c>
       <c r="F66" s="3">
-        <v>20034800</v>
+        <v>20646500</v>
       </c>
       <c r="G66" s="3">
-        <v>17749900</v>
+        <v>18291700</v>
       </c>
       <c r="H66" s="3">
-        <v>14566800</v>
+        <v>15011500</v>
       </c>
       <c r="I66" s="3">
-        <v>15102300</v>
+        <v>15563400</v>
       </c>
       <c r="J66" s="3">
-        <v>14469300</v>
+        <v>14911000</v>
       </c>
       <c r="K66" s="3">
         <v>8866100</v>
@@ -2622,25 +2622,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>7299900</v>
+        <v>7522700</v>
       </c>
       <c r="E72" s="3">
-        <v>7335600</v>
+        <v>7559500</v>
       </c>
       <c r="F72" s="3">
-        <v>6934600</v>
+        <v>7146300</v>
       </c>
       <c r="G72" s="3">
-        <v>6388100</v>
+        <v>6583100</v>
       </c>
       <c r="H72" s="3">
-        <v>5601200</v>
+        <v>5772200</v>
       </c>
       <c r="I72" s="3">
-        <v>5181000</v>
+        <v>5339200</v>
       </c>
       <c r="J72" s="3">
-        <v>5825100</v>
+        <v>6002900</v>
       </c>
       <c r="K72" s="3">
         <v>4479600</v>
@@ -2754,25 +2754,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>10673800</v>
+        <v>10999700</v>
       </c>
       <c r="E76" s="3">
-        <v>10686200</v>
+        <v>11012400</v>
       </c>
       <c r="F76" s="3">
-        <v>10176700</v>
+        <v>10487400</v>
       </c>
       <c r="G76" s="3">
-        <v>9436600</v>
+        <v>9724600</v>
       </c>
       <c r="H76" s="3">
-        <v>8740400</v>
+        <v>9007200</v>
       </c>
       <c r="I76" s="3">
-        <v>7606100</v>
+        <v>7838300</v>
       </c>
       <c r="J76" s="3">
-        <v>8243300</v>
+        <v>8494900</v>
       </c>
       <c r="K76" s="3">
         <v>7546100</v>
@@ -2858,25 +2858,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>177100</v>
+        <v>182500</v>
       </c>
       <c r="E81" s="3">
-        <v>230700</v>
+        <v>237700</v>
       </c>
       <c r="F81" s="3">
-        <v>399600</v>
+        <v>411800</v>
       </c>
       <c r="G81" s="3">
-        <v>493000</v>
+        <v>508000</v>
       </c>
       <c r="H81" s="3">
-        <v>630300</v>
+        <v>649500</v>
       </c>
       <c r="I81" s="3">
-        <v>-227900</v>
+        <v>-234900</v>
       </c>
       <c r="J81" s="3">
-        <v>983200</v>
+        <v>1013200</v>
       </c>
       <c r="K81" s="3">
         <v>778300</v>
@@ -2906,25 +2906,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1724700</v>
+        <v>1777400</v>
       </c>
       <c r="E83" s="3">
-        <v>1733000</v>
+        <v>1785900</v>
       </c>
       <c r="F83" s="3">
-        <v>1003800</v>
+        <v>1034400</v>
       </c>
       <c r="G83" s="3">
-        <v>862400</v>
+        <v>888700</v>
       </c>
       <c r="H83" s="3">
-        <v>801900</v>
+        <v>826400</v>
       </c>
       <c r="I83" s="3">
-        <v>795100</v>
-      </c>
-      <c r="J83" s="3">
-        <v>756600</v>
+        <v>819300</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K83" s="3">
         <v>668400</v>
@@ -3104,25 +3104,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1884000</v>
+        <v>1941500</v>
       </c>
       <c r="E89" s="3">
-        <v>1432200</v>
+        <v>1476000</v>
       </c>
       <c r="F89" s="3">
-        <v>1874400</v>
+        <v>1931600</v>
       </c>
       <c r="G89" s="3">
-        <v>1583300</v>
+        <v>1631600</v>
       </c>
       <c r="H89" s="3">
-        <v>538300</v>
+        <v>554700</v>
       </c>
       <c r="I89" s="3">
-        <v>1251000</v>
+        <v>1289200</v>
       </c>
       <c r="J89" s="3">
-        <v>1289400</v>
+        <v>1328800</v>
       </c>
       <c r="K89" s="3">
         <v>1268200</v>
@@ -3152,25 +3152,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-712700</v>
+        <v>-734400</v>
       </c>
       <c r="E91" s="3">
-        <v>-650900</v>
+        <v>-670800</v>
       </c>
       <c r="F91" s="3">
-        <v>-770400</v>
+        <v>-793900</v>
       </c>
       <c r="G91" s="3">
-        <v>-870600</v>
+        <v>-897200</v>
       </c>
       <c r="H91" s="3">
-        <v>-887100</v>
+        <v>-914200</v>
       </c>
       <c r="I91" s="3">
-        <v>-1305900</v>
+        <v>-1345800</v>
       </c>
       <c r="J91" s="3">
-        <v>-1257800</v>
+        <v>-1296200</v>
       </c>
       <c r="K91" s="3">
         <v>-1379400</v>
@@ -3251,25 +3251,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-585000</v>
+        <v>-602800</v>
       </c>
       <c r="E94" s="3">
-        <v>-660500</v>
+        <v>-680700</v>
       </c>
       <c r="F94" s="3">
-        <v>-645400</v>
+        <v>-665100</v>
       </c>
       <c r="G94" s="3">
-        <v>-1029900</v>
+        <v>-1061300</v>
       </c>
       <c r="H94" s="3">
-        <v>-549300</v>
+        <v>-566000</v>
       </c>
       <c r="I94" s="3">
-        <v>-1235900</v>
-      </c>
-      <c r="J94" s="3">
-        <v>585000</v>
+        <v>-1273600</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K94" s="3">
         <v>-1114400</v>
@@ -3299,25 +3299,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-370800</v>
+        <v>-382100</v>
       </c>
       <c r="E96" s="3">
-        <v>-339200</v>
+        <v>-349500</v>
       </c>
       <c r="F96" s="3">
-        <v>-322700</v>
+        <v>-332600</v>
       </c>
       <c r="G96" s="3">
-        <v>-347400</v>
+        <v>-358000</v>
       </c>
       <c r="H96" s="3">
-        <v>-326800</v>
+        <v>-336800</v>
       </c>
       <c r="I96" s="3">
-        <v>-453200</v>
+        <v>-467000</v>
       </c>
       <c r="J96" s="3">
-        <v>-439400</v>
+        <v>-452800</v>
       </c>
       <c r="K96" s="3">
         <v>-398200</v>
@@ -3431,25 +3431,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1472100</v>
+        <v>-1517000</v>
       </c>
       <c r="E100" s="3">
-        <v>-1606600</v>
+        <v>-1655700</v>
       </c>
       <c r="F100" s="3">
-        <v>-335100</v>
+        <v>-345300</v>
       </c>
       <c r="G100" s="3">
-        <v>-639900</v>
+        <v>-659400</v>
       </c>
       <c r="H100" s="3">
-        <v>-175800</v>
+        <v>-181100</v>
       </c>
       <c r="I100" s="3">
-        <v>-431200</v>
-      </c>
-      <c r="J100" s="3">
-        <v>-398200</v>
+        <v>-444300</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K100" s="3">
         <v>-457700</v>
@@ -3481,8 +3481,8 @@
       <c r="I101" s="3">
         <v>0</v>
       </c>
-      <c r="J101" s="3">
-        <v>0</v>
+      <c r="J101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K101" s="3">
         <v>0</v>
@@ -3497,25 +3497,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-173000</v>
+        <v>-178300</v>
       </c>
       <c r="E102" s="3">
-        <v>-834900</v>
+        <v>-860400</v>
       </c>
       <c r="F102" s="3">
-        <v>893900</v>
+        <v>921200</v>
       </c>
       <c r="G102" s="3">
-        <v>-86500</v>
+        <v>-89200</v>
       </c>
       <c r="H102" s="3">
-        <v>-186800</v>
+        <v>-192500</v>
       </c>
       <c r="I102" s="3">
-        <v>-416100</v>
+        <v>-428800</v>
       </c>
       <c r="J102" s="3">
-        <v>1476200</v>
+        <v>1521200</v>
       </c>
       <c r="K102" s="3">
         <v>-303800</v>

--- a/AAII_Financials/Yearly/JSAIY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/JSAIY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
   <si>
     <t>JSAIY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,154 +665,166 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44261</v>
+      </c>
+      <c r="E7" s="2">
         <v>43897</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43533</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43169</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42805</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42441</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42077</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41713</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41349</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>40985</v>
       </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>41028300</v>
+        <v>39615400</v>
       </c>
       <c r="E8" s="3">
-        <v>41048100</v>
+        <v>39540400</v>
       </c>
       <c r="F8" s="3">
-        <v>40268400</v>
+        <v>39559500</v>
       </c>
       <c r="G8" s="3">
-        <v>37109800</v>
+        <v>38808000</v>
       </c>
       <c r="H8" s="3">
-        <v>33263600</v>
+        <v>35764000</v>
       </c>
       <c r="I8" s="3">
-        <v>33644200</v>
+        <v>32057200</v>
       </c>
       <c r="J8" s="3">
+        <v>32424100</v>
+      </c>
+      <c r="K8" s="3">
         <v>33890500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>30126400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>29078300</v>
       </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>37782000</v>
+        <v>36646400</v>
       </c>
       <c r="E9" s="3">
-        <v>37810300</v>
+        <v>36411800</v>
       </c>
       <c r="F9" s="3">
-        <v>37605100</v>
+        <v>36439100</v>
       </c>
       <c r="G9" s="3">
-        <v>34797600</v>
+        <v>36241400</v>
       </c>
       <c r="H9" s="3">
-        <v>31203200</v>
+        <v>33535600</v>
       </c>
       <c r="I9" s="3">
-        <v>31934800</v>
+        <v>30071600</v>
       </c>
       <c r="J9" s="3">
+        <v>30776600</v>
+      </c>
+      <c r="K9" s="3">
         <v>31927700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>28475400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>27498800</v>
       </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>3246300</v>
+        <v>2969000</v>
       </c>
       <c r="E10" s="3">
-        <v>3237800</v>
+        <v>3128500</v>
       </c>
       <c r="F10" s="3">
-        <v>2663200</v>
+        <v>3120400</v>
       </c>
       <c r="G10" s="3">
-        <v>2312300</v>
+        <v>2566700</v>
       </c>
       <c r="H10" s="3">
-        <v>2060400</v>
+        <v>2228400</v>
       </c>
       <c r="I10" s="3">
-        <v>1709500</v>
+        <v>1985700</v>
       </c>
       <c r="J10" s="3">
+        <v>1647500</v>
+      </c>
+      <c r="K10" s="3">
         <v>1962800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1650900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1579500</v>
       </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -826,8 +838,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -858,9 +871,12 @@
       <c r="L12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -891,26 +907,29 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>500900</v>
+        <v>856500</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3" t="s">
+        <v>482800</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="3">
-        <v>-138700</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>8</v>
+      <c r="H14" s="3">
+        <v>-133700</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>8</v>
@@ -924,9 +943,12 @@
       <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -957,9 +979,12 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -970,74 +995,81 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>40067400</v>
+        <v>39503500</v>
       </c>
       <c r="E17" s="3">
-        <v>40210400</v>
+        <v>38614400</v>
       </c>
       <c r="F17" s="3">
-        <v>39535300</v>
+        <v>38752100</v>
       </c>
       <c r="G17" s="3">
-        <v>36201300</v>
+        <v>38101600</v>
       </c>
       <c r="H17" s="3">
-        <v>32263100</v>
+        <v>34888500</v>
       </c>
       <c r="I17" s="3">
-        <v>33529600</v>
+        <v>31093000</v>
       </c>
       <c r="J17" s="3">
+        <v>32313600</v>
+      </c>
+      <c r="K17" s="3">
         <v>32462600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>28986100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>27938300</v>
       </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>960900</v>
+        <v>111800</v>
       </c>
       <c r="E18" s="3">
-        <v>837700</v>
+        <v>926000</v>
       </c>
       <c r="F18" s="3">
-        <v>733000</v>
+        <v>807400</v>
       </c>
       <c r="G18" s="3">
-        <v>908500</v>
+        <v>706400</v>
       </c>
       <c r="H18" s="3">
-        <v>1000500</v>
+        <v>875600</v>
       </c>
       <c r="I18" s="3">
-        <v>114600</v>
+        <v>964200</v>
       </c>
       <c r="J18" s="3">
+        <v>110500</v>
+      </c>
+      <c r="K18" s="3">
         <v>1427800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1140300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1140000</v>
       </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1051,173 +1083,189 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-60800</v>
+        <v>-2700</v>
       </c>
       <c r="E20" s="3">
+        <v>-58600</v>
+      </c>
+      <c r="F20" s="3">
+        <v>24500</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
+        <v>-34100</v>
+      </c>
+      <c r="I20" s="3">
+        <v>-53200</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-40900</v>
+      </c>
+      <c r="K20" s="3">
         <v>25500</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
-      <c r="G20" s="3">
-        <v>-35400</v>
-      </c>
-      <c r="H20" s="3">
-        <v>-55200</v>
-      </c>
-      <c r="I20" s="3">
-        <v>-42500</v>
-      </c>
-      <c r="J20" s="3">
-        <v>25500</v>
-      </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>23300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>63900</v>
       </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2677900</v>
+        <v>1827100</v>
       </c>
       <c r="E21" s="3">
-        <v>2649600</v>
+        <v>2595000</v>
       </c>
       <c r="F21" s="3">
-        <v>1767800</v>
+        <v>2567800</v>
       </c>
       <c r="G21" s="3">
-        <v>1762100</v>
+        <v>1711900</v>
       </c>
       <c r="H21" s="3">
-        <v>1772000</v>
+        <v>1705300</v>
       </c>
       <c r="I21" s="3">
-        <v>891800</v>
-      </c>
-      <c r="J21" s="3" t="s">
+        <v>1714300</v>
+      </c>
+      <c r="J21" s="3">
+        <v>866000</v>
+      </c>
+      <c r="K21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1835600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1862000</v>
       </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>539200</v>
+        <v>465100</v>
       </c>
       <c r="E22" s="3">
-        <v>577400</v>
+        <v>519600</v>
       </c>
       <c r="F22" s="3">
-        <v>154200</v>
+        <v>556400</v>
       </c>
       <c r="G22" s="3">
-        <v>161300</v>
+        <v>148700</v>
       </c>
       <c r="H22" s="3">
-        <v>169800</v>
+        <v>155500</v>
       </c>
       <c r="I22" s="3">
-        <v>174100</v>
+        <v>163700</v>
       </c>
       <c r="J22" s="3">
+        <v>167700</v>
+      </c>
+      <c r="K22" s="3">
         <v>182500</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>165500</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>161700</v>
       </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>360900</v>
+        <v>-355900</v>
       </c>
       <c r="E23" s="3">
-        <v>285900</v>
+        <v>347800</v>
       </c>
       <c r="F23" s="3">
-        <v>578800</v>
+        <v>275500</v>
       </c>
       <c r="G23" s="3">
-        <v>711800</v>
+        <v>557800</v>
       </c>
       <c r="H23" s="3">
-        <v>775500</v>
+        <v>686000</v>
       </c>
       <c r="I23" s="3">
-        <v>-101900</v>
+        <v>747400</v>
       </c>
       <c r="J23" s="3">
+        <v>-98200</v>
+      </c>
+      <c r="K23" s="3">
         <v>1270800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>998000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1042100</v>
       </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>145800</v>
+        <v>25900</v>
       </c>
       <c r="E24" s="3">
-        <v>22600</v>
+        <v>140500</v>
       </c>
       <c r="F24" s="3">
-        <v>141500</v>
+        <v>21800</v>
       </c>
       <c r="G24" s="3">
-        <v>178300</v>
+        <v>136400</v>
       </c>
       <c r="H24" s="3">
-        <v>109000</v>
+        <v>171800</v>
       </c>
       <c r="I24" s="3">
-        <v>133000</v>
+        <v>105000</v>
       </c>
       <c r="J24" s="3">
+        <v>128200</v>
+      </c>
+      <c r="K24" s="3">
         <v>257600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>219800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>262200</v>
       </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1248,75 +1296,84 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>215100</v>
+        <v>-381900</v>
       </c>
       <c r="E26" s="3">
-        <v>263200</v>
+        <v>207300</v>
       </c>
       <c r="F26" s="3">
-        <v>437300</v>
+        <v>253700</v>
       </c>
       <c r="G26" s="3">
-        <v>533500</v>
+        <v>421400</v>
       </c>
       <c r="H26" s="3">
-        <v>666500</v>
+        <v>514100</v>
       </c>
       <c r="I26" s="3">
-        <v>-234900</v>
+        <v>642300</v>
       </c>
       <c r="J26" s="3">
+        <v>-226400</v>
+      </c>
+      <c r="K26" s="3">
         <v>1013200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>778300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>780000</v>
       </c>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>182500</v>
+        <v>-391400</v>
       </c>
       <c r="E27" s="3">
-        <v>237700</v>
+        <v>175900</v>
       </c>
       <c r="F27" s="3">
-        <v>411800</v>
+        <v>229100</v>
       </c>
       <c r="G27" s="3">
-        <v>508000</v>
+        <v>396900</v>
       </c>
       <c r="H27" s="3">
-        <v>649500</v>
+        <v>489600</v>
       </c>
       <c r="I27" s="3">
-        <v>-234900</v>
+        <v>626000</v>
       </c>
       <c r="J27" s="3">
+        <v>-226400</v>
+      </c>
+      <c r="K27" s="3">
         <v>1013200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>778300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>780000</v>
       </c>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1347,9 +1404,12 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1380,9 +1440,12 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1413,9 +1476,12 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1446,75 +1512,84 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>60800</v>
+        <v>2700</v>
       </c>
       <c r="E32" s="3">
+        <v>58600</v>
+      </c>
+      <c r="F32" s="3">
+        <v>-24500</v>
+      </c>
+      <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
+        <v>34100</v>
+      </c>
+      <c r="I32" s="3">
+        <v>53200</v>
+      </c>
+      <c r="J32" s="3">
+        <v>40900</v>
+      </c>
+      <c r="K32" s="3">
         <v>-25500</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
-      <c r="G32" s="3">
-        <v>35400</v>
-      </c>
-      <c r="H32" s="3">
-        <v>55200</v>
-      </c>
-      <c r="I32" s="3">
-        <v>42500</v>
-      </c>
-      <c r="J32" s="3">
-        <v>-25500</v>
-      </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-23300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-63900</v>
       </c>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>182500</v>
+        <v>-391400</v>
       </c>
       <c r="E33" s="3">
-        <v>237700</v>
+        <v>175900</v>
       </c>
       <c r="F33" s="3">
-        <v>411800</v>
+        <v>229100</v>
       </c>
       <c r="G33" s="3">
-        <v>508000</v>
+        <v>396900</v>
       </c>
       <c r="H33" s="3">
-        <v>649500</v>
+        <v>489600</v>
       </c>
       <c r="I33" s="3">
-        <v>-234900</v>
+        <v>626000</v>
       </c>
       <c r="J33" s="3">
+        <v>-226400</v>
+      </c>
+      <c r="K33" s="3">
         <v>1013200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>778300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>780000</v>
       </c>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1545,80 +1620,89 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>182500</v>
+        <v>-391400</v>
       </c>
       <c r="E35" s="3">
-        <v>237700</v>
+        <v>175900</v>
       </c>
       <c r="F35" s="3">
-        <v>411800</v>
+        <v>229100</v>
       </c>
       <c r="G35" s="3">
-        <v>508000</v>
+        <v>396900</v>
       </c>
       <c r="H35" s="3">
-        <v>649500</v>
+        <v>489600</v>
       </c>
       <c r="I35" s="3">
-        <v>-234900</v>
+        <v>626000</v>
       </c>
       <c r="J35" s="3">
+        <v>-226400</v>
+      </c>
+      <c r="K35" s="3">
         <v>1013200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>778300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>780000</v>
       </c>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44261</v>
+      </c>
+      <c r="E38" s="2">
         <v>43897</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43533</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43169</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42805</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42441</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42077</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41713</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41349</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>40985</v>
       </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1632,8 +1716,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1647,61 +1732,65 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1020300</v>
+        <v>852400</v>
       </c>
       <c r="E41" s="3">
-        <v>1150500</v>
+        <v>983300</v>
       </c>
       <c r="F41" s="3">
-        <v>1481600</v>
+        <v>1108800</v>
       </c>
       <c r="G41" s="3">
-        <v>1191500</v>
+        <v>1427900</v>
       </c>
       <c r="H41" s="3">
-        <v>1208500</v>
+        <v>1148300</v>
       </c>
       <c r="I41" s="3">
-        <v>1818400</v>
+        <v>1164700</v>
       </c>
       <c r="J41" s="3">
+        <v>1752500</v>
+      </c>
+      <c r="K41" s="3">
         <v>2252900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>668400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>963900</v>
       </c>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>502400</v>
+        <v>1284700</v>
       </c>
       <c r="E42" s="3">
-        <v>734400</v>
+        <v>484100</v>
       </c>
       <c r="F42" s="3">
-        <v>1253800</v>
+        <v>707800</v>
       </c>
       <c r="G42" s="3">
-        <v>482600</v>
+        <v>1208300</v>
       </c>
       <c r="H42" s="3">
-        <v>476900</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>8</v>
+        <v>465100</v>
+      </c>
+      <c r="I42" s="3">
+        <v>459600</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>8</v>
@@ -1712,240 +1801,264 @@
       <c r="L42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>6495400</v>
+        <v>5041900</v>
       </c>
       <c r="E43" s="3">
-        <v>5807600</v>
+        <v>6259800</v>
       </c>
       <c r="F43" s="3">
-        <v>5585400</v>
+        <v>5597000</v>
       </c>
       <c r="G43" s="3">
-        <v>9005800</v>
+        <v>5382900</v>
       </c>
       <c r="H43" s="3">
-        <v>2966100</v>
+        <v>8679200</v>
       </c>
       <c r="I43" s="3">
-        <v>2789200</v>
+        <v>2858500</v>
       </c>
       <c r="J43" s="3">
+        <v>2688000</v>
+      </c>
+      <c r="K43" s="3">
         <v>2342000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>729100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>523000</v>
       </c>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>2451000</v>
+        <v>2216200</v>
       </c>
       <c r="E44" s="3">
-        <v>2729700</v>
+        <v>2362100</v>
       </c>
       <c r="F44" s="3">
-        <v>2561300</v>
+        <v>2630800</v>
       </c>
       <c r="G44" s="3">
-        <v>5023600</v>
+        <v>2468500</v>
       </c>
       <c r="H44" s="3">
-        <v>1369800</v>
+        <v>4841500</v>
       </c>
       <c r="I44" s="3">
-        <v>1410900</v>
+        <v>1320100</v>
       </c>
       <c r="J44" s="3">
+        <v>1359700</v>
+      </c>
+      <c r="K44" s="3">
         <v>1422200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>2552000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>2446900</v>
       </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>260400</v>
+        <v>218200</v>
       </c>
       <c r="E45" s="3">
-        <v>261800</v>
+        <v>250900</v>
       </c>
       <c r="F45" s="3">
-        <v>236300</v>
+        <v>252300</v>
       </c>
       <c r="G45" s="3">
-        <v>353800</v>
+        <v>227800</v>
       </c>
       <c r="H45" s="3">
-        <v>223600</v>
+        <v>340900</v>
       </c>
       <c r="I45" s="3">
-        <v>237700</v>
+        <v>215500</v>
       </c>
       <c r="J45" s="3">
+        <v>229100</v>
+      </c>
+      <c r="K45" s="3">
         <v>155700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>196500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>169600</v>
       </c>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>10729400</v>
+        <v>9613400</v>
       </c>
       <c r="E46" s="3">
-        <v>10684100</v>
+        <v>10340300</v>
       </c>
       <c r="F46" s="3">
-        <v>11118500</v>
+        <v>10296600</v>
       </c>
       <c r="G46" s="3">
-        <v>8932200</v>
+        <v>10715300</v>
       </c>
       <c r="H46" s="3">
-        <v>6244900</v>
+        <v>8608200</v>
       </c>
       <c r="I46" s="3">
-        <v>6256200</v>
+        <v>6018400</v>
       </c>
       <c r="J46" s="3">
+        <v>6029300</v>
+      </c>
+      <c r="K46" s="3">
         <v>6172700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2457600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2650400</v>
       </c>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>6325500</v>
+        <v>4203200</v>
       </c>
       <c r="E47" s="3">
-        <v>6011400</v>
+        <v>6096100</v>
       </c>
       <c r="F47" s="3">
-        <v>4442000</v>
+        <v>5793400</v>
       </c>
       <c r="G47" s="3">
-        <v>6554800</v>
+        <v>4280900</v>
       </c>
       <c r="H47" s="3">
-        <v>3407600</v>
+        <v>6317100</v>
       </c>
       <c r="I47" s="3">
-        <v>2884000</v>
+        <v>3284000</v>
       </c>
       <c r="J47" s="3">
+        <v>2779400</v>
+      </c>
+      <c r="K47" s="3">
         <v>2797700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>981200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1020000</v>
       </c>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>19439400</v>
+        <v>18184800</v>
       </c>
       <c r="E48" s="3">
-        <v>20074800</v>
+        <v>18734400</v>
       </c>
       <c r="F48" s="3">
-        <v>14006800</v>
+        <v>19346700</v>
       </c>
       <c r="G48" s="3">
-        <v>28319200</v>
+        <v>13498800</v>
       </c>
       <c r="H48" s="3">
-        <v>13817100</v>
+        <v>27292200</v>
       </c>
       <c r="I48" s="3">
-        <v>13653000</v>
+        <v>13316000</v>
       </c>
       <c r="J48" s="3">
+        <v>13157800</v>
+      </c>
+      <c r="K48" s="3">
         <v>13981300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>18666900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>24335800</v>
       </c>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1432100</v>
+        <v>1246500</v>
       </c>
       <c r="E49" s="3">
-        <v>1476000</v>
+        <v>1380200</v>
       </c>
       <c r="F49" s="3">
-        <v>1517000</v>
+        <v>1422400</v>
       </c>
       <c r="G49" s="3">
-        <v>2186300</v>
+        <v>1462000</v>
       </c>
       <c r="H49" s="3">
-        <v>465600</v>
+        <v>2107100</v>
       </c>
       <c r="I49" s="3">
-        <v>459900</v>
+        <v>448700</v>
       </c>
       <c r="J49" s="3">
+        <v>443200</v>
+      </c>
+      <c r="K49" s="3">
         <v>404700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>420200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>417400</v>
       </c>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1976,9 +2089,12 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2009,42 +2125,48 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1607600</v>
+        <v>1067800</v>
       </c>
       <c r="E52" s="3">
-        <v>1392500</v>
+        <v>1549300</v>
       </c>
       <c r="F52" s="3">
+        <v>1342000</v>
+      </c>
+      <c r="G52" s="3">
+        <v>47700</v>
+      </c>
+      <c r="H52" s="3">
+        <v>40900</v>
+      </c>
+      <c r="I52" s="3">
+        <v>80500</v>
+      </c>
+      <c r="J52" s="3">
+        <v>143200</v>
+      </c>
+      <c r="K52" s="3">
         <v>49500</v>
       </c>
-      <c r="G52" s="3">
-        <v>42500</v>
-      </c>
-      <c r="H52" s="3">
-        <v>83500</v>
-      </c>
-      <c r="I52" s="3">
-        <v>148600</v>
-      </c>
-      <c r="J52" s="3">
-        <v>49500</v>
-      </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>77600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>48300</v>
       </c>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2075,42 +2197,48 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>39533900</v>
+        <v>34315700</v>
       </c>
       <c r="E54" s="3">
-        <v>39638600</v>
+        <v>38100200</v>
       </c>
       <c r="F54" s="3">
-        <v>31133800</v>
+        <v>38201100</v>
       </c>
       <c r="G54" s="3">
-        <v>28016300</v>
+        <v>30004700</v>
       </c>
       <c r="H54" s="3">
-        <v>24018700</v>
+        <v>27000300</v>
       </c>
       <c r="I54" s="3">
-        <v>23401700</v>
+        <v>23147600</v>
       </c>
       <c r="J54" s="3">
+        <v>22553000</v>
+      </c>
+      <c r="K54" s="3">
         <v>23405900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>16412200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>16095200</v>
       </c>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2124,8 +2252,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2139,206 +2268,225 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>4188700</v>
+        <v>3918200</v>
       </c>
       <c r="E57" s="3">
-        <v>4307600</v>
+        <v>4036800</v>
       </c>
       <c r="F57" s="3">
-        <v>4035900</v>
+        <v>4151400</v>
       </c>
       <c r="G57" s="3">
-        <v>9093500</v>
+        <v>3889500</v>
       </c>
       <c r="H57" s="3">
-        <v>2946300</v>
+        <v>8763700</v>
       </c>
       <c r="I57" s="3">
-        <v>2956200</v>
+        <v>2839400</v>
       </c>
       <c r="J57" s="3">
+        <v>2849000</v>
+      </c>
+      <c r="K57" s="3">
         <v>2612300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>5990900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>3573800</v>
       </c>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>932600</v>
+        <v>1066500</v>
       </c>
       <c r="E58" s="3">
-        <v>2095800</v>
+        <v>898700</v>
       </c>
       <c r="F58" s="3">
-        <v>1079700</v>
+        <v>2019800</v>
       </c>
       <c r="G58" s="3">
-        <v>658000</v>
+        <v>1040600</v>
       </c>
       <c r="H58" s="3">
-        <v>482600</v>
+        <v>634200</v>
       </c>
       <c r="I58" s="3">
-        <v>467000</v>
+        <v>465100</v>
       </c>
       <c r="J58" s="3">
+        <v>450100</v>
+      </c>
+      <c r="K58" s="3">
         <v>755700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>240500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>391300</v>
       </c>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>11926500</v>
+        <v>10994900</v>
       </c>
       <c r="E59" s="3">
-        <v>10386900</v>
+        <v>11494000</v>
       </c>
       <c r="F59" s="3">
-        <v>9462800</v>
+        <v>10010200</v>
       </c>
       <c r="G59" s="3">
-        <v>13998300</v>
+        <v>9119700</v>
       </c>
       <c r="H59" s="3">
-        <v>6080700</v>
+        <v>13490600</v>
       </c>
       <c r="I59" s="3">
-        <v>6373700</v>
+        <v>5860200</v>
       </c>
       <c r="J59" s="3">
+        <v>6142500</v>
+      </c>
+      <c r="K59" s="3">
         <v>6205300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1347100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1412600</v>
       </c>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>17047800</v>
+        <v>15979500</v>
       </c>
       <c r="E60" s="3">
-        <v>16767600</v>
+        <v>16429600</v>
       </c>
       <c r="F60" s="3">
-        <v>14578500</v>
+        <v>16159500</v>
       </c>
       <c r="G60" s="3">
-        <v>12150100</v>
+        <v>14049800</v>
       </c>
       <c r="H60" s="3">
-        <v>9509500</v>
+        <v>11709500</v>
       </c>
       <c r="I60" s="3">
-        <v>9796800</v>
+        <v>9164700</v>
       </c>
       <c r="J60" s="3">
+        <v>9441500</v>
+      </c>
+      <c r="K60" s="3">
         <v>9573200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>4027100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>4090300</v>
       </c>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>9215200</v>
+        <v>8261800</v>
       </c>
       <c r="E61" s="3">
-        <v>8916600</v>
+        <v>8881000</v>
       </c>
       <c r="F61" s="3">
-        <v>2531600</v>
+        <v>8593200</v>
       </c>
       <c r="G61" s="3">
-        <v>2885400</v>
+        <v>2439800</v>
       </c>
       <c r="H61" s="3">
-        <v>3355200</v>
+        <v>2780800</v>
       </c>
       <c r="I61" s="3">
-        <v>3656600</v>
+        <v>3233500</v>
       </c>
       <c r="J61" s="3">
+        <v>3524000</v>
+      </c>
+      <c r="K61" s="3">
         <v>3184000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>3383300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>3413400</v>
       </c>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2271300</v>
+        <v>1067800</v>
       </c>
       <c r="E62" s="3">
-        <v>2942000</v>
+        <v>2188900</v>
       </c>
       <c r="F62" s="3">
-        <v>3536400</v>
+        <v>2835300</v>
       </c>
       <c r="G62" s="3">
-        <v>4318900</v>
+        <v>3408100</v>
       </c>
       <c r="H62" s="3">
-        <v>2141100</v>
+        <v>4162300</v>
       </c>
       <c r="I62" s="3">
-        <v>2109900</v>
+        <v>2063400</v>
       </c>
       <c r="J62" s="3">
+        <v>2033400</v>
+      </c>
+      <c r="K62" s="3">
         <v>2151000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1678100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1129500</v>
       </c>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2369,9 +2517,12 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2402,9 +2553,12 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2435,42 +2589,48 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>28534300</v>
+        <v>25309200</v>
       </c>
       <c r="E66" s="3">
-        <v>28626300</v>
+        <v>27499500</v>
       </c>
       <c r="F66" s="3">
-        <v>20646500</v>
+        <v>27588100</v>
       </c>
       <c r="G66" s="3">
-        <v>18291700</v>
+        <v>19897700</v>
       </c>
       <c r="H66" s="3">
-        <v>15011500</v>
+        <v>17628300</v>
       </c>
       <c r="I66" s="3">
-        <v>15563400</v>
+        <v>14467100</v>
       </c>
       <c r="J66" s="3">
+        <v>14999000</v>
+      </c>
+      <c r="K66" s="3">
         <v>14911000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>8866100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>8633200</v>
       </c>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2484,8 +2644,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2516,9 +2677,12 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2549,9 +2713,12 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2582,9 +2749,12 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-      <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2615,42 +2785,48 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-      <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>7522700</v>
+        <v>5972000</v>
       </c>
       <c r="E72" s="3">
-        <v>7559500</v>
+        <v>7249900</v>
       </c>
       <c r="F72" s="3">
-        <v>7146300</v>
+        <v>7285400</v>
       </c>
       <c r="G72" s="3">
-        <v>6583100</v>
+        <v>6887100</v>
       </c>
       <c r="H72" s="3">
-        <v>5772200</v>
+        <v>6344400</v>
       </c>
       <c r="I72" s="3">
-        <v>5339200</v>
+        <v>5562900</v>
       </c>
       <c r="J72" s="3">
+        <v>5145600</v>
+      </c>
+      <c r="K72" s="3">
         <v>6002900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>4479600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>4771200</v>
       </c>
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2681,9 +2857,12 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2714,9 +2893,12 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2747,42 +2929,48 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>10999700</v>
+        <v>9006500</v>
       </c>
       <c r="E76" s="3">
-        <v>11012400</v>
+        <v>10600700</v>
       </c>
       <c r="F76" s="3">
-        <v>10487400</v>
+        <v>10613000</v>
       </c>
       <c r="G76" s="3">
-        <v>9724600</v>
+        <v>10107000</v>
       </c>
       <c r="H76" s="3">
-        <v>9007200</v>
+        <v>9372000</v>
       </c>
       <c r="I76" s="3">
-        <v>7838300</v>
+        <v>8680500</v>
       </c>
       <c r="J76" s="3">
+        <v>7554000</v>
+      </c>
+      <c r="K76" s="3">
         <v>8494900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>7546100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>7462000</v>
       </c>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2813,80 +3001,89 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-      <c r="M77" s="3"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44261</v>
+      </c>
+      <c r="E80" s="2">
         <v>43897</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43533</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43169</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42805</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42441</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42077</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41713</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41349</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>40985</v>
       </c>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>182500</v>
+        <v>-391400</v>
       </c>
       <c r="E81" s="3">
-        <v>237700</v>
+        <v>175900</v>
       </c>
       <c r="F81" s="3">
-        <v>411800</v>
+        <v>229100</v>
       </c>
       <c r="G81" s="3">
-        <v>508000</v>
+        <v>396900</v>
       </c>
       <c r="H81" s="3">
-        <v>649500</v>
+        <v>489600</v>
       </c>
       <c r="I81" s="3">
-        <v>-234900</v>
+        <v>626000</v>
       </c>
       <c r="J81" s="3">
+        <v>-226400</v>
+      </c>
+      <c r="K81" s="3">
         <v>1013200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>778300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>780000</v>
       </c>
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2900,41 +3097,45 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1777400</v>
+        <v>1703400</v>
       </c>
       <c r="E83" s="3">
-        <v>1785900</v>
+        <v>1712900</v>
       </c>
       <c r="F83" s="3">
-        <v>1034400</v>
+        <v>1721100</v>
       </c>
       <c r="G83" s="3">
-        <v>888700</v>
+        <v>996900</v>
       </c>
       <c r="H83" s="3">
-        <v>826400</v>
+        <v>856500</v>
       </c>
       <c r="I83" s="3">
-        <v>819300</v>
-      </c>
-      <c r="J83" s="3" t="s">
+        <v>796500</v>
+      </c>
+      <c r="J83" s="3">
+        <v>789600</v>
+      </c>
+      <c r="K83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>668400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>650900</v>
       </c>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2965,9 +3166,12 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2998,9 +3202,12 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3031,9 +3238,12 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3064,9 +3274,12 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3097,42 +3310,48 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1941500</v>
+        <v>3195400</v>
       </c>
       <c r="E89" s="3">
-        <v>1476000</v>
+        <v>1871100</v>
       </c>
       <c r="F89" s="3">
-        <v>1931600</v>
+        <v>1422400</v>
       </c>
       <c r="G89" s="3">
-        <v>1631600</v>
+        <v>1861600</v>
       </c>
       <c r="H89" s="3">
-        <v>554700</v>
+        <v>1572400</v>
       </c>
       <c r="I89" s="3">
-        <v>1289200</v>
+        <v>534600</v>
       </c>
       <c r="J89" s="3">
+        <v>1242400</v>
+      </c>
+      <c r="K89" s="3">
         <v>1328800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1268200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1391700</v>
       </c>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3146,41 +3365,45 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-734400</v>
+        <v>-576900</v>
       </c>
       <c r="E91" s="3">
-        <v>-670800</v>
+        <v>-707800</v>
       </c>
       <c r="F91" s="3">
-        <v>-793900</v>
+        <v>-646400</v>
       </c>
       <c r="G91" s="3">
-        <v>-897200</v>
+        <v>-765100</v>
       </c>
       <c r="H91" s="3">
-        <v>-914200</v>
+        <v>-864600</v>
       </c>
       <c r="I91" s="3">
-        <v>-1345800</v>
+        <v>-881000</v>
       </c>
       <c r="J91" s="3">
+        <v>-1297000</v>
+      </c>
+      <c r="K91" s="3">
         <v>-1296200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1379400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1600400</v>
       </c>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3211,9 +3434,12 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-      <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3244,42 +3470,48 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-602800</v>
+        <v>-754200</v>
       </c>
       <c r="E94" s="3">
-        <v>-680700</v>
+        <v>-581000</v>
       </c>
       <c r="F94" s="3">
-        <v>-665100</v>
+        <v>-656000</v>
       </c>
       <c r="G94" s="3">
-        <v>-1061300</v>
+        <v>-641000</v>
       </c>
       <c r="H94" s="3">
-        <v>-566000</v>
+        <v>-1022800</v>
       </c>
       <c r="I94" s="3">
-        <v>-1273600</v>
-      </c>
-      <c r="J94" s="3" t="s">
+        <v>-545500</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-1227400</v>
+      </c>
+      <c r="K94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1114400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1151700</v>
       </c>
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3293,41 +3525,45 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-382100</v>
+        <v>-347800</v>
       </c>
       <c r="E96" s="3">
-        <v>-349500</v>
+        <v>-368200</v>
       </c>
       <c r="F96" s="3">
-        <v>-332600</v>
+        <v>-336900</v>
       </c>
       <c r="G96" s="3">
-        <v>-358000</v>
+        <v>-320500</v>
       </c>
       <c r="H96" s="3">
-        <v>-336800</v>
+        <v>-345000</v>
       </c>
       <c r="I96" s="3">
-        <v>-467000</v>
+        <v>-324600</v>
       </c>
       <c r="J96" s="3">
+        <v>-450100</v>
+      </c>
+      <c r="K96" s="3">
         <v>-452800</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-398200</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-371700</v>
       </c>
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3358,9 +3594,12 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3391,9 +3630,12 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3424,42 +3666,48 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-      <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1517000</v>
+        <v>-1783800</v>
       </c>
       <c r="E100" s="3">
-        <v>-1655700</v>
+        <v>-1462000</v>
       </c>
       <c r="F100" s="3">
-        <v>-345300</v>
+        <v>-1595600</v>
       </c>
       <c r="G100" s="3">
-        <v>-659400</v>
+        <v>-332800</v>
       </c>
       <c r="H100" s="3">
-        <v>-181100</v>
+        <v>-635500</v>
       </c>
       <c r="I100" s="3">
-        <v>-444300</v>
-      </c>
-      <c r="J100" s="3" t="s">
+        <v>-174600</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-428200</v>
+      </c>
+      <c r="K100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-457700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>71700</v>
       </c>
-      <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3481,49 +3729,55 @@
       <c r="I101" s="3">
         <v>0</v>
       </c>
-      <c r="J101" s="3" t="s">
+      <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
       <c r="L101" s="3">
         <v>0</v>
       </c>
-      <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-178300</v>
+        <v>657300</v>
       </c>
       <c r="E102" s="3">
-        <v>-860400</v>
+        <v>-171800</v>
       </c>
       <c r="F102" s="3">
-        <v>921200</v>
+        <v>-829200</v>
       </c>
       <c r="G102" s="3">
-        <v>-89200</v>
+        <v>887800</v>
       </c>
       <c r="H102" s="3">
-        <v>-192500</v>
+        <v>-85900</v>
       </c>
       <c r="I102" s="3">
-        <v>-428800</v>
+        <v>-185500</v>
       </c>
       <c r="J102" s="3">
+        <v>-413200</v>
+      </c>
+      <c r="K102" s="3">
         <v>1521200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-303800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>311700</v>
       </c>
-      <c r="M102" s="3"/>
+      <c r="N102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/JSAIY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/JSAIY_YR_FIN.xlsx
@@ -721,25 +721,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>39615400</v>
+        <v>38665800</v>
       </c>
       <c r="E8" s="3">
-        <v>39540400</v>
+        <v>38592600</v>
       </c>
       <c r="F8" s="3">
-        <v>39559500</v>
+        <v>38611200</v>
       </c>
       <c r="G8" s="3">
-        <v>38808000</v>
+        <v>37877800</v>
       </c>
       <c r="H8" s="3">
-        <v>35764000</v>
+        <v>34906800</v>
       </c>
       <c r="I8" s="3">
-        <v>32057200</v>
+        <v>31288800</v>
       </c>
       <c r="J8" s="3">
-        <v>32424100</v>
+        <v>31646900</v>
       </c>
       <c r="K8" s="3">
         <v>33890500</v>
@@ -757,25 +757,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>36646400</v>
+        <v>35768000</v>
       </c>
       <c r="E9" s="3">
-        <v>36411800</v>
+        <v>35539000</v>
       </c>
       <c r="F9" s="3">
-        <v>36439100</v>
+        <v>35565700</v>
       </c>
       <c r="G9" s="3">
-        <v>36241400</v>
+        <v>35372700</v>
       </c>
       <c r="H9" s="3">
-        <v>33535600</v>
+        <v>32731700</v>
       </c>
       <c r="I9" s="3">
-        <v>30071600</v>
+        <v>29350800</v>
       </c>
       <c r="J9" s="3">
-        <v>30776600</v>
+        <v>30038900</v>
       </c>
       <c r="K9" s="3">
         <v>31927700</v>
@@ -793,25 +793,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2969000</v>
+        <v>2897800</v>
       </c>
       <c r="E10" s="3">
-        <v>3128500</v>
+        <v>3053500</v>
       </c>
       <c r="F10" s="3">
-        <v>3120400</v>
+        <v>3045600</v>
       </c>
       <c r="G10" s="3">
-        <v>2566700</v>
+        <v>2505100</v>
       </c>
       <c r="H10" s="3">
-        <v>2228400</v>
+        <v>2175000</v>
       </c>
       <c r="I10" s="3">
-        <v>1985700</v>
+        <v>1938100</v>
       </c>
       <c r="J10" s="3">
-        <v>1647500</v>
+        <v>1608000</v>
       </c>
       <c r="K10" s="3">
         <v>1962800</v>
@@ -917,10 +917,10 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>856500</v>
+        <v>835900</v>
       </c>
       <c r="E14" s="3">
-        <v>482800</v>
+        <v>471200</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
@@ -929,7 +929,7 @@
         <v>8</v>
       </c>
       <c r="H14" s="3">
-        <v>-133700</v>
+        <v>-130400</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>8</v>
@@ -1002,25 +1002,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>39503500</v>
+        <v>38556600</v>
       </c>
       <c r="E17" s="3">
-        <v>38614400</v>
+        <v>37688800</v>
       </c>
       <c r="F17" s="3">
-        <v>38752100</v>
+        <v>37823200</v>
       </c>
       <c r="G17" s="3">
-        <v>38101600</v>
+        <v>37188300</v>
       </c>
       <c r="H17" s="3">
-        <v>34888500</v>
+        <v>34052200</v>
       </c>
       <c r="I17" s="3">
-        <v>31093000</v>
+        <v>30347700</v>
       </c>
       <c r="J17" s="3">
-        <v>32313600</v>
+        <v>31539100</v>
       </c>
       <c r="K17" s="3">
         <v>32462600</v>
@@ -1038,25 +1038,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>111800</v>
+        <v>109200</v>
       </c>
       <c r="E18" s="3">
-        <v>926000</v>
+        <v>903800</v>
       </c>
       <c r="F18" s="3">
-        <v>807400</v>
+        <v>788000</v>
       </c>
       <c r="G18" s="3">
-        <v>706400</v>
+        <v>689500</v>
       </c>
       <c r="H18" s="3">
-        <v>875600</v>
+        <v>854600</v>
       </c>
       <c r="I18" s="3">
-        <v>964200</v>
+        <v>941100</v>
       </c>
       <c r="J18" s="3">
-        <v>110500</v>
+        <v>107800</v>
       </c>
       <c r="K18" s="3">
         <v>1427800</v>
@@ -1093,22 +1093,22 @@
         <v>-2700</v>
       </c>
       <c r="E20" s="3">
-        <v>-58600</v>
+        <v>-57200</v>
       </c>
       <c r="F20" s="3">
-        <v>24500</v>
+        <v>24000</v>
       </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
       <c r="H20" s="3">
-        <v>-34100</v>
+        <v>-33300</v>
       </c>
       <c r="I20" s="3">
-        <v>-53200</v>
+        <v>-51900</v>
       </c>
       <c r="J20" s="3">
-        <v>-40900</v>
+        <v>-39900</v>
       </c>
       <c r="K20" s="3">
         <v>25500</v>
@@ -1126,25 +1126,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1827100</v>
+        <v>1772600</v>
       </c>
       <c r="E21" s="3">
-        <v>2595000</v>
+        <v>2522100</v>
       </c>
       <c r="F21" s="3">
-        <v>2567800</v>
+        <v>2495500</v>
       </c>
       <c r="G21" s="3">
-        <v>1711900</v>
+        <v>1664700</v>
       </c>
       <c r="H21" s="3">
-        <v>1705300</v>
+        <v>1659000</v>
       </c>
       <c r="I21" s="3">
-        <v>1714300</v>
+        <v>1668200</v>
       </c>
       <c r="J21" s="3">
-        <v>866000</v>
+        <v>840300</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>8</v>
@@ -1162,25 +1162,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>465100</v>
+        <v>453900</v>
       </c>
       <c r="E22" s="3">
-        <v>519600</v>
+        <v>507100</v>
       </c>
       <c r="F22" s="3">
-        <v>556400</v>
+        <v>543100</v>
       </c>
       <c r="G22" s="3">
-        <v>148700</v>
+        <v>145100</v>
       </c>
       <c r="H22" s="3">
-        <v>155500</v>
+        <v>151700</v>
       </c>
       <c r="I22" s="3">
+        <v>159700</v>
+      </c>
+      <c r="J22" s="3">
         <v>163700</v>
-      </c>
-      <c r="J22" s="3">
-        <v>167700</v>
       </c>
       <c r="K22" s="3">
         <v>182500</v>
@@ -1198,25 +1198,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-355900</v>
+        <v>-347400</v>
       </c>
       <c r="E23" s="3">
-        <v>347800</v>
+        <v>339400</v>
       </c>
       <c r="F23" s="3">
-        <v>275500</v>
+        <v>268900</v>
       </c>
       <c r="G23" s="3">
-        <v>557800</v>
+        <v>544400</v>
       </c>
       <c r="H23" s="3">
-        <v>686000</v>
+        <v>669500</v>
       </c>
       <c r="I23" s="3">
-        <v>747400</v>
+        <v>729400</v>
       </c>
       <c r="J23" s="3">
-        <v>-98200</v>
+        <v>-95800</v>
       </c>
       <c r="K23" s="3">
         <v>1270800</v>
@@ -1234,25 +1234,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>25900</v>
+        <v>25300</v>
       </c>
       <c r="E24" s="3">
-        <v>140500</v>
+        <v>137100</v>
       </c>
       <c r="F24" s="3">
-        <v>21800</v>
+        <v>21300</v>
       </c>
       <c r="G24" s="3">
-        <v>136400</v>
+        <v>133100</v>
       </c>
       <c r="H24" s="3">
-        <v>171800</v>
+        <v>167700</v>
       </c>
       <c r="I24" s="3">
-        <v>105000</v>
+        <v>102500</v>
       </c>
       <c r="J24" s="3">
-        <v>128200</v>
+        <v>125100</v>
       </c>
       <c r="K24" s="3">
         <v>257600</v>
@@ -1306,25 +1306,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-381900</v>
+        <v>-372700</v>
       </c>
       <c r="E26" s="3">
-        <v>207300</v>
+        <v>202300</v>
       </c>
       <c r="F26" s="3">
-        <v>253700</v>
+        <v>247600</v>
       </c>
       <c r="G26" s="3">
-        <v>421400</v>
+        <v>411300</v>
       </c>
       <c r="H26" s="3">
-        <v>514100</v>
+        <v>501800</v>
       </c>
       <c r="I26" s="3">
-        <v>642300</v>
+        <v>626900</v>
       </c>
       <c r="J26" s="3">
-        <v>-226400</v>
+        <v>-221000</v>
       </c>
       <c r="K26" s="3">
         <v>1013200</v>
@@ -1342,25 +1342,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-391400</v>
+        <v>-382000</v>
       </c>
       <c r="E27" s="3">
-        <v>175900</v>
+        <v>171700</v>
       </c>
       <c r="F27" s="3">
-        <v>229100</v>
+        <v>223600</v>
       </c>
       <c r="G27" s="3">
-        <v>396900</v>
+        <v>387400</v>
       </c>
       <c r="H27" s="3">
-        <v>489600</v>
+        <v>477900</v>
       </c>
       <c r="I27" s="3">
-        <v>626000</v>
+        <v>611000</v>
       </c>
       <c r="J27" s="3">
-        <v>-226400</v>
+        <v>-221000</v>
       </c>
       <c r="K27" s="3">
         <v>1013200</v>
@@ -1525,22 +1525,22 @@
         <v>2700</v>
       </c>
       <c r="E32" s="3">
-        <v>58600</v>
+        <v>57200</v>
       </c>
       <c r="F32" s="3">
-        <v>-24500</v>
+        <v>-24000</v>
       </c>
       <c r="G32" s="3">
         <v>0</v>
       </c>
       <c r="H32" s="3">
-        <v>34100</v>
+        <v>33300</v>
       </c>
       <c r="I32" s="3">
-        <v>53200</v>
+        <v>51900</v>
       </c>
       <c r="J32" s="3">
-        <v>40900</v>
+        <v>39900</v>
       </c>
       <c r="K32" s="3">
         <v>-25500</v>
@@ -1558,25 +1558,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-391400</v>
+        <v>-382000</v>
       </c>
       <c r="E33" s="3">
-        <v>175900</v>
+        <v>171700</v>
       </c>
       <c r="F33" s="3">
-        <v>229100</v>
+        <v>223600</v>
       </c>
       <c r="G33" s="3">
-        <v>396900</v>
+        <v>387400</v>
       </c>
       <c r="H33" s="3">
-        <v>489600</v>
+        <v>477900</v>
       </c>
       <c r="I33" s="3">
-        <v>626000</v>
+        <v>611000</v>
       </c>
       <c r="J33" s="3">
-        <v>-226400</v>
+        <v>-221000</v>
       </c>
       <c r="K33" s="3">
         <v>1013200</v>
@@ -1630,25 +1630,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-391400</v>
+        <v>-382000</v>
       </c>
       <c r="E35" s="3">
-        <v>175900</v>
+        <v>171700</v>
       </c>
       <c r="F35" s="3">
-        <v>229100</v>
+        <v>223600</v>
       </c>
       <c r="G35" s="3">
-        <v>396900</v>
+        <v>387400</v>
       </c>
       <c r="H35" s="3">
-        <v>489600</v>
+        <v>477900</v>
       </c>
       <c r="I35" s="3">
-        <v>626000</v>
+        <v>611000</v>
       </c>
       <c r="J35" s="3">
-        <v>-226400</v>
+        <v>-221000</v>
       </c>
       <c r="K35" s="3">
         <v>1013200</v>
@@ -1739,25 +1739,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>852400</v>
+        <v>962400</v>
       </c>
       <c r="E41" s="3">
-        <v>983300</v>
+        <v>959700</v>
       </c>
       <c r="F41" s="3">
-        <v>1108800</v>
+        <v>1082200</v>
       </c>
       <c r="G41" s="3">
-        <v>1427900</v>
+        <v>1393700</v>
       </c>
       <c r="H41" s="3">
-        <v>1148300</v>
+        <v>1120800</v>
       </c>
       <c r="I41" s="3">
-        <v>1164700</v>
+        <v>1136800</v>
       </c>
       <c r="J41" s="3">
-        <v>1752500</v>
+        <v>1710500</v>
       </c>
       <c r="K41" s="3">
         <v>2252900</v>
@@ -1775,22 +1775,22 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1284700</v>
+        <v>1253900</v>
       </c>
       <c r="E42" s="3">
-        <v>484100</v>
+        <v>472500</v>
       </c>
       <c r="F42" s="3">
-        <v>707800</v>
+        <v>690800</v>
       </c>
       <c r="G42" s="3">
-        <v>1208300</v>
+        <v>1179400</v>
       </c>
       <c r="H42" s="3">
-        <v>465100</v>
+        <v>453900</v>
       </c>
       <c r="I42" s="3">
-        <v>459600</v>
+        <v>448600</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>8</v>
@@ -1811,25 +1811,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>5041900</v>
+        <v>10048500</v>
       </c>
       <c r="E43" s="3">
-        <v>6259800</v>
+        <v>6109700</v>
       </c>
       <c r="F43" s="3">
-        <v>5597000</v>
+        <v>5462800</v>
       </c>
       <c r="G43" s="3">
-        <v>5382900</v>
+        <v>5253900</v>
       </c>
       <c r="H43" s="3">
-        <v>8679200</v>
+        <v>8471100</v>
       </c>
       <c r="I43" s="3">
-        <v>2858500</v>
+        <v>2790000</v>
       </c>
       <c r="J43" s="3">
-        <v>2688000</v>
+        <v>2623600</v>
       </c>
       <c r="K43" s="3">
         <v>2342000</v>
@@ -1847,25 +1847,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>2216200</v>
+        <v>4326100</v>
       </c>
       <c r="E44" s="3">
-        <v>2362100</v>
+        <v>2305500</v>
       </c>
       <c r="F44" s="3">
-        <v>2630800</v>
+        <v>2567700</v>
       </c>
       <c r="G44" s="3">
-        <v>2468500</v>
+        <v>2409300</v>
       </c>
       <c r="H44" s="3">
-        <v>4841500</v>
+        <v>4725400</v>
       </c>
       <c r="I44" s="3">
-        <v>1320100</v>
+        <v>1288500</v>
       </c>
       <c r="J44" s="3">
-        <v>1359700</v>
+        <v>1327100</v>
       </c>
       <c r="K44" s="3">
         <v>1422200</v>
@@ -1883,25 +1883,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>218200</v>
+        <v>213000</v>
       </c>
       <c r="E45" s="3">
-        <v>250900</v>
+        <v>244900</v>
       </c>
       <c r="F45" s="3">
-        <v>252300</v>
+        <v>246300</v>
       </c>
       <c r="G45" s="3">
-        <v>227800</v>
+        <v>222300</v>
       </c>
       <c r="H45" s="3">
-        <v>340900</v>
+        <v>332800</v>
       </c>
       <c r="I45" s="3">
-        <v>215500</v>
+        <v>210300</v>
       </c>
       <c r="J45" s="3">
-        <v>229100</v>
+        <v>223600</v>
       </c>
       <c r="K45" s="3">
         <v>155700</v>
@@ -1919,25 +1919,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>9613400</v>
+        <v>9513400</v>
       </c>
       <c r="E46" s="3">
-        <v>10340300</v>
+        <v>10092400</v>
       </c>
       <c r="F46" s="3">
-        <v>10296600</v>
+        <v>10049800</v>
       </c>
       <c r="G46" s="3">
-        <v>10715300</v>
+        <v>10458500</v>
       </c>
       <c r="H46" s="3">
-        <v>8608200</v>
+        <v>8401900</v>
       </c>
       <c r="I46" s="3">
-        <v>6018400</v>
+        <v>5874100</v>
       </c>
       <c r="J46" s="3">
-        <v>6029300</v>
+        <v>5884800</v>
       </c>
       <c r="K46" s="3">
         <v>6172700</v>
@@ -1955,25 +1955,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>4203200</v>
+        <v>7203900</v>
       </c>
       <c r="E47" s="3">
-        <v>6096100</v>
+        <v>5950000</v>
       </c>
       <c r="F47" s="3">
-        <v>5793400</v>
+        <v>5654500</v>
       </c>
       <c r="G47" s="3">
-        <v>4280900</v>
+        <v>4178300</v>
       </c>
       <c r="H47" s="3">
-        <v>6317100</v>
+        <v>6165700</v>
       </c>
       <c r="I47" s="3">
-        <v>3284000</v>
+        <v>3205300</v>
       </c>
       <c r="J47" s="3">
-        <v>2779400</v>
+        <v>2712800</v>
       </c>
       <c r="K47" s="3">
         <v>2797700</v>
@@ -1991,25 +1991,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>18184800</v>
+        <v>35497800</v>
       </c>
       <c r="E48" s="3">
-        <v>18734400</v>
+        <v>18285300</v>
       </c>
       <c r="F48" s="3">
-        <v>19346700</v>
+        <v>18883000</v>
       </c>
       <c r="G48" s="3">
-        <v>13498800</v>
+        <v>13175200</v>
       </c>
       <c r="H48" s="3">
-        <v>27292200</v>
+        <v>26638000</v>
       </c>
       <c r="I48" s="3">
-        <v>13316000</v>
+        <v>12996900</v>
       </c>
       <c r="J48" s="3">
-        <v>13157800</v>
+        <v>12842500</v>
       </c>
       <c r="K48" s="3">
         <v>13981300</v>
@@ -2027,25 +2027,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1246500</v>
+        <v>2433300</v>
       </c>
       <c r="E49" s="3">
-        <v>1380200</v>
+        <v>1347100</v>
       </c>
       <c r="F49" s="3">
-        <v>1422400</v>
+        <v>1388300</v>
       </c>
       <c r="G49" s="3">
-        <v>1462000</v>
+        <v>1426900</v>
       </c>
       <c r="H49" s="3">
-        <v>2107100</v>
+        <v>2056500</v>
       </c>
       <c r="I49" s="3">
-        <v>448700</v>
+        <v>437900</v>
       </c>
       <c r="J49" s="3">
-        <v>443200</v>
+        <v>432600</v>
       </c>
       <c r="K49" s="3">
         <v>404700</v>
@@ -2135,25 +2135,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1067800</v>
+        <v>1042300</v>
       </c>
       <c r="E52" s="3">
-        <v>1549300</v>
+        <v>1512100</v>
       </c>
       <c r="F52" s="3">
-        <v>1342000</v>
+        <v>1309800</v>
       </c>
       <c r="G52" s="3">
-        <v>47700</v>
+        <v>46600</v>
       </c>
       <c r="H52" s="3">
-        <v>40900</v>
+        <v>39900</v>
       </c>
       <c r="I52" s="3">
-        <v>80500</v>
+        <v>78500</v>
       </c>
       <c r="J52" s="3">
-        <v>143200</v>
+        <v>139800</v>
       </c>
       <c r="K52" s="3">
         <v>49500</v>
@@ -2207,25 +2207,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>34315700</v>
+        <v>33623600</v>
       </c>
       <c r="E54" s="3">
-        <v>38100200</v>
+        <v>37186900</v>
       </c>
       <c r="F54" s="3">
-        <v>38201100</v>
+        <v>37285400</v>
       </c>
       <c r="G54" s="3">
-        <v>30004700</v>
+        <v>29285500</v>
       </c>
       <c r="H54" s="3">
-        <v>27000300</v>
+        <v>26353100</v>
       </c>
       <c r="I54" s="3">
-        <v>23147600</v>
+        <v>22592800</v>
       </c>
       <c r="J54" s="3">
-        <v>22553000</v>
+        <v>22012400</v>
       </c>
       <c r="K54" s="3">
         <v>23405900</v>
@@ -2275,25 +2275,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>3918200</v>
+        <v>9798200</v>
       </c>
       <c r="E57" s="3">
-        <v>4036800</v>
+        <v>3940100</v>
       </c>
       <c r="F57" s="3">
-        <v>4151400</v>
+        <v>4051900</v>
       </c>
       <c r="G57" s="3">
-        <v>3889500</v>
+        <v>3796300</v>
       </c>
       <c r="H57" s="3">
-        <v>8763700</v>
+        <v>8553600</v>
       </c>
       <c r="I57" s="3">
-        <v>2839400</v>
+        <v>2771400</v>
       </c>
       <c r="J57" s="3">
-        <v>2849000</v>
+        <v>2780700</v>
       </c>
       <c r="K57" s="3">
         <v>2612300</v>
@@ -2311,25 +2311,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1066500</v>
+        <v>1171400</v>
       </c>
       <c r="E58" s="3">
-        <v>898700</v>
+        <v>877200</v>
       </c>
       <c r="F58" s="3">
-        <v>2019800</v>
+        <v>1971400</v>
       </c>
       <c r="G58" s="3">
-        <v>1040600</v>
+        <v>1015600</v>
       </c>
       <c r="H58" s="3">
-        <v>634200</v>
+        <v>619000</v>
       </c>
       <c r="I58" s="3">
-        <v>465100</v>
+        <v>453900</v>
       </c>
       <c r="J58" s="3">
-        <v>450100</v>
+        <v>439300</v>
       </c>
       <c r="K58" s="3">
         <v>755700</v>
@@ -2347,25 +2347,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>10994900</v>
+        <v>18832400</v>
       </c>
       <c r="E59" s="3">
-        <v>11494000</v>
+        <v>11218500</v>
       </c>
       <c r="F59" s="3">
-        <v>10010200</v>
+        <v>9770300</v>
       </c>
       <c r="G59" s="3">
-        <v>9119700</v>
+        <v>8901100</v>
       </c>
       <c r="H59" s="3">
-        <v>13490600</v>
+        <v>13167200</v>
       </c>
       <c r="I59" s="3">
-        <v>5860200</v>
+        <v>5719700</v>
       </c>
       <c r="J59" s="3">
-        <v>6142500</v>
+        <v>5995300</v>
       </c>
       <c r="K59" s="3">
         <v>6205300</v>
@@ -2383,25 +2383,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>15979500</v>
+        <v>15726900</v>
       </c>
       <c r="E60" s="3">
-        <v>16429600</v>
+        <v>16035800</v>
       </c>
       <c r="F60" s="3">
-        <v>16159500</v>
+        <v>15772200</v>
       </c>
       <c r="G60" s="3">
-        <v>14049800</v>
+        <v>13713000</v>
       </c>
       <c r="H60" s="3">
-        <v>11709500</v>
+        <v>11428800</v>
       </c>
       <c r="I60" s="3">
-        <v>9164700</v>
+        <v>8945000</v>
       </c>
       <c r="J60" s="3">
-        <v>9441500</v>
+        <v>9215200</v>
       </c>
       <c r="K60" s="3">
         <v>9573200</v>
@@ -2419,25 +2419,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>8261800</v>
+        <v>8063800</v>
       </c>
       <c r="E61" s="3">
-        <v>8881000</v>
+        <v>8668100</v>
       </c>
       <c r="F61" s="3">
-        <v>8593200</v>
+        <v>8387300</v>
       </c>
       <c r="G61" s="3">
-        <v>2439800</v>
+        <v>2381300</v>
       </c>
       <c r="H61" s="3">
-        <v>2780800</v>
+        <v>2714100</v>
       </c>
       <c r="I61" s="3">
-        <v>3233500</v>
+        <v>3156000</v>
       </c>
       <c r="J61" s="3">
-        <v>3524000</v>
+        <v>3439600</v>
       </c>
       <c r="K61" s="3">
         <v>3184000</v>
@@ -2455,25 +2455,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1067800</v>
+        <v>1339100</v>
       </c>
       <c r="E62" s="3">
-        <v>2188900</v>
+        <v>2136400</v>
       </c>
       <c r="F62" s="3">
-        <v>2835300</v>
+        <v>2767400</v>
       </c>
       <c r="G62" s="3">
-        <v>3408100</v>
+        <v>3326400</v>
       </c>
       <c r="H62" s="3">
-        <v>4162300</v>
+        <v>4062500</v>
       </c>
       <c r="I62" s="3">
-        <v>2063400</v>
+        <v>2014000</v>
       </c>
       <c r="J62" s="3">
-        <v>2033400</v>
+        <v>1984700</v>
       </c>
       <c r="K62" s="3">
         <v>2151000</v>
@@ -2599,25 +2599,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>25309200</v>
+        <v>24833000</v>
       </c>
       <c r="E66" s="3">
-        <v>27499500</v>
+        <v>26840300</v>
       </c>
       <c r="F66" s="3">
-        <v>27588100</v>
+        <v>26926800</v>
       </c>
       <c r="G66" s="3">
-        <v>19897700</v>
+        <v>19420700</v>
       </c>
       <c r="H66" s="3">
-        <v>17628300</v>
+        <v>17205800</v>
       </c>
       <c r="I66" s="3">
-        <v>14467100</v>
+        <v>14120300</v>
       </c>
       <c r="J66" s="3">
-        <v>14999000</v>
+        <v>14639400</v>
       </c>
       <c r="K66" s="3">
         <v>14911000</v>
@@ -2795,25 +2795,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>5972000</v>
+        <v>6051200</v>
       </c>
       <c r="E72" s="3">
-        <v>7249900</v>
+        <v>7076100</v>
       </c>
       <c r="F72" s="3">
-        <v>7285400</v>
+        <v>7110700</v>
       </c>
       <c r="G72" s="3">
-        <v>6887100</v>
+        <v>6722100</v>
       </c>
       <c r="H72" s="3">
-        <v>6344400</v>
+        <v>6192300</v>
       </c>
       <c r="I72" s="3">
-        <v>5562900</v>
+        <v>5429600</v>
       </c>
       <c r="J72" s="3">
-        <v>5145600</v>
+        <v>5022200</v>
       </c>
       <c r="K72" s="3">
         <v>6002900</v>
@@ -2939,25 +2939,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>9006500</v>
+        <v>8790600</v>
       </c>
       <c r="E76" s="3">
-        <v>10600700</v>
+        <v>10346600</v>
       </c>
       <c r="F76" s="3">
-        <v>10613000</v>
+        <v>10358600</v>
       </c>
       <c r="G76" s="3">
-        <v>10107000</v>
+        <v>9864800</v>
       </c>
       <c r="H76" s="3">
-        <v>9372000</v>
+        <v>9147300</v>
       </c>
       <c r="I76" s="3">
-        <v>8680500</v>
+        <v>8472500</v>
       </c>
       <c r="J76" s="3">
-        <v>7554000</v>
+        <v>7373000</v>
       </c>
       <c r="K76" s="3">
         <v>8494900</v>
@@ -3052,25 +3052,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-391400</v>
+        <v>-382000</v>
       </c>
       <c r="E81" s="3">
-        <v>175900</v>
+        <v>171700</v>
       </c>
       <c r="F81" s="3">
-        <v>229100</v>
+        <v>223600</v>
       </c>
       <c r="G81" s="3">
-        <v>396900</v>
+        <v>387400</v>
       </c>
       <c r="H81" s="3">
-        <v>489600</v>
+        <v>477900</v>
       </c>
       <c r="I81" s="3">
-        <v>626000</v>
+        <v>611000</v>
       </c>
       <c r="J81" s="3">
-        <v>-226400</v>
+        <v>-221000</v>
       </c>
       <c r="K81" s="3">
         <v>1013200</v>
@@ -3104,25 +3104,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1703400</v>
+        <v>1662500</v>
       </c>
       <c r="E83" s="3">
-        <v>1712900</v>
+        <v>1671900</v>
       </c>
       <c r="F83" s="3">
-        <v>1721100</v>
+        <v>1679800</v>
       </c>
       <c r="G83" s="3">
-        <v>996900</v>
+        <v>973000</v>
       </c>
       <c r="H83" s="3">
-        <v>856500</v>
+        <v>835900</v>
       </c>
       <c r="I83" s="3">
-        <v>796500</v>
+        <v>777400</v>
       </c>
       <c r="J83" s="3">
-        <v>789600</v>
+        <v>770700</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>8</v>
@@ -3320,25 +3320,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>3195400</v>
+        <v>3118800</v>
       </c>
       <c r="E89" s="3">
-        <v>1871100</v>
+        <v>1826300</v>
       </c>
       <c r="F89" s="3">
-        <v>1422400</v>
+        <v>1388300</v>
       </c>
       <c r="G89" s="3">
-        <v>1861600</v>
+        <v>1817000</v>
       </c>
       <c r="H89" s="3">
-        <v>1572400</v>
+        <v>1534800</v>
       </c>
       <c r="I89" s="3">
-        <v>534600</v>
+        <v>521800</v>
       </c>
       <c r="J89" s="3">
-        <v>1242400</v>
+        <v>1212600</v>
       </c>
       <c r="K89" s="3">
         <v>1328800</v>
@@ -3372,25 +3372,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-576900</v>
+        <v>-563100</v>
       </c>
       <c r="E91" s="3">
-        <v>-707800</v>
+        <v>-690800</v>
       </c>
       <c r="F91" s="3">
-        <v>-646400</v>
+        <v>-630900</v>
       </c>
       <c r="G91" s="3">
-        <v>-765100</v>
+        <v>-746700</v>
       </c>
       <c r="H91" s="3">
-        <v>-864600</v>
+        <v>-843900</v>
       </c>
       <c r="I91" s="3">
-        <v>-881000</v>
+        <v>-859900</v>
       </c>
       <c r="J91" s="3">
-        <v>-1297000</v>
+        <v>-1265900</v>
       </c>
       <c r="K91" s="3">
         <v>-1296200</v>
@@ -3480,25 +3480,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-754200</v>
+        <v>-736100</v>
       </c>
       <c r="E94" s="3">
-        <v>-581000</v>
+        <v>-567000</v>
       </c>
       <c r="F94" s="3">
-        <v>-656000</v>
+        <v>-640300</v>
       </c>
       <c r="G94" s="3">
-        <v>-641000</v>
+        <v>-625600</v>
       </c>
       <c r="H94" s="3">
-        <v>-1022800</v>
+        <v>-998300</v>
       </c>
       <c r="I94" s="3">
-        <v>-545500</v>
+        <v>-532400</v>
       </c>
       <c r="J94" s="3">
-        <v>-1227400</v>
+        <v>-1198000</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>8</v>
@@ -3532,25 +3532,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-347800</v>
+        <v>-339400</v>
       </c>
       <c r="E96" s="3">
-        <v>-368200</v>
+        <v>-359400</v>
       </c>
       <c r="F96" s="3">
-        <v>-336900</v>
+        <v>-328800</v>
       </c>
       <c r="G96" s="3">
-        <v>-320500</v>
+        <v>-312800</v>
       </c>
       <c r="H96" s="3">
-        <v>-345000</v>
+        <v>-336800</v>
       </c>
       <c r="I96" s="3">
-        <v>-324600</v>
+        <v>-316800</v>
       </c>
       <c r="J96" s="3">
-        <v>-450100</v>
+        <v>-439300</v>
       </c>
       <c r="K96" s="3">
         <v>-452800</v>
@@ -3676,25 +3676,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1783800</v>
+        <v>-1741100</v>
       </c>
       <c r="E100" s="3">
-        <v>-1462000</v>
+        <v>-1426900</v>
       </c>
       <c r="F100" s="3">
-        <v>-1595600</v>
+        <v>-1557400</v>
       </c>
       <c r="G100" s="3">
-        <v>-332800</v>
+        <v>-324800</v>
       </c>
       <c r="H100" s="3">
-        <v>-635500</v>
+        <v>-620300</v>
       </c>
       <c r="I100" s="3">
-        <v>-174600</v>
+        <v>-170400</v>
       </c>
       <c r="J100" s="3">
-        <v>-428200</v>
+        <v>-418000</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>8</v>
@@ -3748,25 +3748,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>657300</v>
+        <v>641600</v>
       </c>
       <c r="E102" s="3">
-        <v>-171800</v>
+        <v>-167700</v>
       </c>
       <c r="F102" s="3">
-        <v>-829200</v>
+        <v>-809300</v>
       </c>
       <c r="G102" s="3">
-        <v>887800</v>
+        <v>866500</v>
       </c>
       <c r="H102" s="3">
-        <v>-85900</v>
+        <v>-83900</v>
       </c>
       <c r="I102" s="3">
-        <v>-185500</v>
+        <v>-181000</v>
       </c>
       <c r="J102" s="3">
-        <v>-413200</v>
+        <v>-403300</v>
       </c>
       <c r="K102" s="3">
         <v>1521200</v>

--- a/AAII_Financials/Yearly/JSAIY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/JSAIY_YR_FIN.xlsx
@@ -721,25 +721,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>38665800</v>
+        <v>37866700</v>
       </c>
       <c r="E8" s="3">
-        <v>38592600</v>
+        <v>37795000</v>
       </c>
       <c r="F8" s="3">
-        <v>38611200</v>
+        <v>37813200</v>
       </c>
       <c r="G8" s="3">
-        <v>37877800</v>
+        <v>37095000</v>
       </c>
       <c r="H8" s="3">
-        <v>34906800</v>
+        <v>34185300</v>
       </c>
       <c r="I8" s="3">
-        <v>31288800</v>
+        <v>30642200</v>
       </c>
       <c r="J8" s="3">
-        <v>31646900</v>
+        <v>30992900</v>
       </c>
       <c r="K8" s="3">
         <v>33890500</v>
@@ -757,25 +757,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>35768000</v>
+        <v>35028800</v>
       </c>
       <c r="E9" s="3">
-        <v>35539000</v>
+        <v>34804500</v>
       </c>
       <c r="F9" s="3">
-        <v>35565700</v>
+        <v>34830600</v>
       </c>
       <c r="G9" s="3">
-        <v>35372700</v>
+        <v>34641600</v>
       </c>
       <c r="H9" s="3">
-        <v>32731700</v>
+        <v>32055300</v>
       </c>
       <c r="I9" s="3">
-        <v>29350800</v>
+        <v>28744200</v>
       </c>
       <c r="J9" s="3">
-        <v>30038900</v>
+        <v>29418100</v>
       </c>
       <c r="K9" s="3">
         <v>31927700</v>
@@ -793,25 +793,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2897800</v>
+        <v>2837900</v>
       </c>
       <c r="E10" s="3">
-        <v>3053500</v>
+        <v>2990400</v>
       </c>
       <c r="F10" s="3">
-        <v>3045600</v>
+        <v>2982600</v>
       </c>
       <c r="G10" s="3">
-        <v>2505100</v>
+        <v>2453400</v>
       </c>
       <c r="H10" s="3">
-        <v>2175000</v>
+        <v>2130100</v>
       </c>
       <c r="I10" s="3">
-        <v>1938100</v>
+        <v>1898000</v>
       </c>
       <c r="J10" s="3">
-        <v>1608000</v>
+        <v>1574700</v>
       </c>
       <c r="K10" s="3">
         <v>1962800</v>
@@ -917,10 +917,10 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>835900</v>
+        <v>818700</v>
       </c>
       <c r="E14" s="3">
-        <v>471200</v>
+        <v>461500</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
@@ -929,7 +929,7 @@
         <v>8</v>
       </c>
       <c r="H14" s="3">
-        <v>-130400</v>
+        <v>-127800</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>8</v>
@@ -1002,25 +1002,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>38556600</v>
+        <v>37759800</v>
       </c>
       <c r="E17" s="3">
-        <v>37688800</v>
+        <v>36909800</v>
       </c>
       <c r="F17" s="3">
-        <v>37823200</v>
+        <v>37041500</v>
       </c>
       <c r="G17" s="3">
-        <v>37188300</v>
+        <v>36419700</v>
       </c>
       <c r="H17" s="3">
-        <v>34052200</v>
+        <v>33348400</v>
       </c>
       <c r="I17" s="3">
-        <v>30347700</v>
+        <v>29720500</v>
       </c>
       <c r="J17" s="3">
-        <v>31539100</v>
+        <v>30887300</v>
       </c>
       <c r="K17" s="3">
         <v>32462600</v>
@@ -1038,25 +1038,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>109200</v>
+        <v>106900</v>
       </c>
       <c r="E18" s="3">
-        <v>903800</v>
+        <v>885100</v>
       </c>
       <c r="F18" s="3">
-        <v>788000</v>
+        <v>771700</v>
       </c>
       <c r="G18" s="3">
-        <v>689500</v>
+        <v>675300</v>
       </c>
       <c r="H18" s="3">
-        <v>854600</v>
+        <v>836900</v>
       </c>
       <c r="I18" s="3">
-        <v>941100</v>
+        <v>921600</v>
       </c>
       <c r="J18" s="3">
-        <v>107800</v>
+        <v>105600</v>
       </c>
       <c r="K18" s="3">
         <v>1427800</v>
@@ -1090,25 +1090,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-2700</v>
+        <v>-2600</v>
       </c>
       <c r="E20" s="3">
-        <v>-57200</v>
+        <v>-56100</v>
       </c>
       <c r="F20" s="3">
-        <v>24000</v>
+        <v>23500</v>
       </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
       <c r="H20" s="3">
-        <v>-33300</v>
+        <v>-32600</v>
       </c>
       <c r="I20" s="3">
-        <v>-51900</v>
+        <v>-50800</v>
       </c>
       <c r="J20" s="3">
-        <v>-39900</v>
+        <v>-39100</v>
       </c>
       <c r="K20" s="3">
         <v>25500</v>
@@ -1126,25 +1126,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1772600</v>
+        <v>1750400</v>
       </c>
       <c r="E21" s="3">
-        <v>2522100</v>
+        <v>2484400</v>
       </c>
       <c r="F21" s="3">
-        <v>2495500</v>
+        <v>2458400</v>
       </c>
       <c r="G21" s="3">
-        <v>1664700</v>
+        <v>1638700</v>
       </c>
       <c r="H21" s="3">
-        <v>1659000</v>
+        <v>1632000</v>
       </c>
       <c r="I21" s="3">
-        <v>1668200</v>
+        <v>1640500</v>
       </c>
       <c r="J21" s="3">
-        <v>840300</v>
+        <v>829600</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>8</v>
@@ -1162,25 +1162,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>453900</v>
+        <v>444500</v>
       </c>
       <c r="E22" s="3">
-        <v>507100</v>
+        <v>496700</v>
       </c>
       <c r="F22" s="3">
-        <v>543100</v>
+        <v>531900</v>
       </c>
       <c r="G22" s="3">
-        <v>145100</v>
+        <v>142100</v>
       </c>
       <c r="H22" s="3">
-        <v>151700</v>
+        <v>148600</v>
       </c>
       <c r="I22" s="3">
-        <v>159700</v>
+        <v>156400</v>
       </c>
       <c r="J22" s="3">
-        <v>163700</v>
+        <v>160300</v>
       </c>
       <c r="K22" s="3">
         <v>182500</v>
@@ -1198,25 +1198,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-347400</v>
+        <v>-340200</v>
       </c>
       <c r="E23" s="3">
-        <v>339400</v>
+        <v>332400</v>
       </c>
       <c r="F23" s="3">
-        <v>268900</v>
+        <v>263300</v>
       </c>
       <c r="G23" s="3">
-        <v>544400</v>
+        <v>533200</v>
       </c>
       <c r="H23" s="3">
-        <v>669500</v>
+        <v>655700</v>
       </c>
       <c r="I23" s="3">
-        <v>729400</v>
+        <v>714400</v>
       </c>
       <c r="J23" s="3">
-        <v>-95800</v>
+        <v>-93900</v>
       </c>
       <c r="K23" s="3">
         <v>1270800</v>
@@ -1234,25 +1234,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>25300</v>
+        <v>24800</v>
       </c>
       <c r="E24" s="3">
-        <v>137100</v>
+        <v>134300</v>
       </c>
       <c r="F24" s="3">
-        <v>21300</v>
+        <v>20900</v>
       </c>
       <c r="G24" s="3">
-        <v>133100</v>
+        <v>130400</v>
       </c>
       <c r="H24" s="3">
-        <v>167700</v>
+        <v>164300</v>
       </c>
       <c r="I24" s="3">
-        <v>102500</v>
+        <v>100400</v>
       </c>
       <c r="J24" s="3">
-        <v>125100</v>
+        <v>122500</v>
       </c>
       <c r="K24" s="3">
         <v>257600</v>
@@ -1306,25 +1306,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-372700</v>
+        <v>-365000</v>
       </c>
       <c r="E26" s="3">
-        <v>202300</v>
+        <v>198100</v>
       </c>
       <c r="F26" s="3">
-        <v>247600</v>
+        <v>242500</v>
       </c>
       <c r="G26" s="3">
-        <v>411300</v>
+        <v>402800</v>
       </c>
       <c r="H26" s="3">
-        <v>501800</v>
+        <v>491500</v>
       </c>
       <c r="I26" s="3">
-        <v>626900</v>
+        <v>614000</v>
       </c>
       <c r="J26" s="3">
-        <v>-221000</v>
+        <v>-216400</v>
       </c>
       <c r="K26" s="3">
         <v>1013200</v>
@@ -1342,25 +1342,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-382000</v>
+        <v>-374100</v>
       </c>
       <c r="E27" s="3">
-        <v>171700</v>
+        <v>168200</v>
       </c>
       <c r="F27" s="3">
-        <v>223600</v>
+        <v>219000</v>
       </c>
       <c r="G27" s="3">
-        <v>387400</v>
+        <v>379300</v>
       </c>
       <c r="H27" s="3">
-        <v>477900</v>
+        <v>468000</v>
       </c>
       <c r="I27" s="3">
-        <v>611000</v>
+        <v>598300</v>
       </c>
       <c r="J27" s="3">
-        <v>-221000</v>
+        <v>-216400</v>
       </c>
       <c r="K27" s="3">
         <v>1013200</v>
@@ -1522,25 +1522,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="E32" s="3">
-        <v>57200</v>
+        <v>56100</v>
       </c>
       <c r="F32" s="3">
-        <v>-24000</v>
+        <v>-23500</v>
       </c>
       <c r="G32" s="3">
         <v>0</v>
       </c>
       <c r="H32" s="3">
-        <v>33300</v>
+        <v>32600</v>
       </c>
       <c r="I32" s="3">
-        <v>51900</v>
+        <v>50800</v>
       </c>
       <c r="J32" s="3">
-        <v>39900</v>
+        <v>39100</v>
       </c>
       <c r="K32" s="3">
         <v>-25500</v>
@@ -1558,25 +1558,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-382000</v>
+        <v>-374100</v>
       </c>
       <c r="E33" s="3">
-        <v>171700</v>
+        <v>168200</v>
       </c>
       <c r="F33" s="3">
-        <v>223600</v>
+        <v>219000</v>
       </c>
       <c r="G33" s="3">
-        <v>387400</v>
+        <v>379300</v>
       </c>
       <c r="H33" s="3">
-        <v>477900</v>
+        <v>468000</v>
       </c>
       <c r="I33" s="3">
-        <v>611000</v>
+        <v>598300</v>
       </c>
       <c r="J33" s="3">
-        <v>-221000</v>
+        <v>-216400</v>
       </c>
       <c r="K33" s="3">
         <v>1013200</v>
@@ -1630,25 +1630,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-382000</v>
+        <v>-374100</v>
       </c>
       <c r="E35" s="3">
-        <v>171700</v>
+        <v>168200</v>
       </c>
       <c r="F35" s="3">
-        <v>223600</v>
+        <v>219000</v>
       </c>
       <c r="G35" s="3">
-        <v>387400</v>
+        <v>379300</v>
       </c>
       <c r="H35" s="3">
-        <v>477900</v>
+        <v>468000</v>
       </c>
       <c r="I35" s="3">
-        <v>611000</v>
+        <v>598300</v>
       </c>
       <c r="J35" s="3">
-        <v>-221000</v>
+        <v>-216400</v>
       </c>
       <c r="K35" s="3">
         <v>1013200</v>
@@ -1739,25 +1739,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>962400</v>
+        <v>942500</v>
       </c>
       <c r="E41" s="3">
-        <v>959700</v>
+        <v>939900</v>
       </c>
       <c r="F41" s="3">
-        <v>1082200</v>
+        <v>1059800</v>
       </c>
       <c r="G41" s="3">
-        <v>1393700</v>
+        <v>1364900</v>
       </c>
       <c r="H41" s="3">
-        <v>1120800</v>
+        <v>1097600</v>
       </c>
       <c r="I41" s="3">
-        <v>1136800</v>
+        <v>1113300</v>
       </c>
       <c r="J41" s="3">
-        <v>1710500</v>
+        <v>1675100</v>
       </c>
       <c r="K41" s="3">
         <v>2252900</v>
@@ -1775,22 +1775,22 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1253900</v>
+        <v>1228000</v>
       </c>
       <c r="E42" s="3">
-        <v>472500</v>
+        <v>462800</v>
       </c>
       <c r="F42" s="3">
-        <v>690800</v>
+        <v>676600</v>
       </c>
       <c r="G42" s="3">
-        <v>1179400</v>
+        <v>1155000</v>
       </c>
       <c r="H42" s="3">
-        <v>453900</v>
+        <v>444500</v>
       </c>
       <c r="I42" s="3">
-        <v>448600</v>
+        <v>439300</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>8</v>
@@ -1811,25 +1811,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>10048500</v>
+        <v>9840800</v>
       </c>
       <c r="E43" s="3">
-        <v>6109700</v>
+        <v>5983500</v>
       </c>
       <c r="F43" s="3">
-        <v>5462800</v>
+        <v>5349900</v>
       </c>
       <c r="G43" s="3">
-        <v>5253900</v>
+        <v>5145300</v>
       </c>
       <c r="H43" s="3">
-        <v>8471100</v>
+        <v>8296000</v>
       </c>
       <c r="I43" s="3">
-        <v>2790000</v>
+        <v>2732300</v>
       </c>
       <c r="J43" s="3">
-        <v>2623600</v>
+        <v>2569400</v>
       </c>
       <c r="K43" s="3">
         <v>2342000</v>
@@ -1847,25 +1847,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>4326100</v>
+        <v>4236700</v>
       </c>
       <c r="E44" s="3">
-        <v>2305500</v>
+        <v>2257800</v>
       </c>
       <c r="F44" s="3">
-        <v>2567700</v>
+        <v>2514600</v>
       </c>
       <c r="G44" s="3">
-        <v>2409300</v>
+        <v>2359500</v>
       </c>
       <c r="H44" s="3">
-        <v>4725400</v>
+        <v>4627700</v>
       </c>
       <c r="I44" s="3">
-        <v>1288500</v>
+        <v>1261900</v>
       </c>
       <c r="J44" s="3">
-        <v>1327100</v>
+        <v>1299700</v>
       </c>
       <c r="K44" s="3">
         <v>1422200</v>
@@ -1883,25 +1883,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>213000</v>
+        <v>208600</v>
       </c>
       <c r="E45" s="3">
-        <v>244900</v>
+        <v>239900</v>
       </c>
       <c r="F45" s="3">
-        <v>246300</v>
+        <v>241200</v>
       </c>
       <c r="G45" s="3">
-        <v>222300</v>
+        <v>217700</v>
       </c>
       <c r="H45" s="3">
-        <v>332800</v>
+        <v>325900</v>
       </c>
       <c r="I45" s="3">
-        <v>210300</v>
+        <v>206000</v>
       </c>
       <c r="J45" s="3">
-        <v>223600</v>
+        <v>219000</v>
       </c>
       <c r="K45" s="3">
         <v>155700</v>
@@ -1919,25 +1919,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>9513400</v>
+        <v>9316800</v>
       </c>
       <c r="E46" s="3">
-        <v>10092400</v>
+        <v>9883800</v>
       </c>
       <c r="F46" s="3">
-        <v>10049800</v>
+        <v>9842100</v>
       </c>
       <c r="G46" s="3">
-        <v>10458500</v>
+        <v>10242300</v>
       </c>
       <c r="H46" s="3">
-        <v>8401900</v>
+        <v>8228300</v>
       </c>
       <c r="I46" s="3">
-        <v>5874100</v>
+        <v>5752700</v>
       </c>
       <c r="J46" s="3">
-        <v>5884800</v>
+        <v>5763200</v>
       </c>
       <c r="K46" s="3">
         <v>6172700</v>
@@ -1955,25 +1955,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>7203900</v>
+        <v>7055000</v>
       </c>
       <c r="E47" s="3">
-        <v>5950000</v>
+        <v>5827000</v>
       </c>
       <c r="F47" s="3">
-        <v>5654500</v>
+        <v>5537700</v>
       </c>
       <c r="G47" s="3">
-        <v>4178300</v>
+        <v>4092000</v>
       </c>
       <c r="H47" s="3">
-        <v>6165700</v>
+        <v>6038200</v>
       </c>
       <c r="I47" s="3">
-        <v>3205300</v>
+        <v>3139000</v>
       </c>
       <c r="J47" s="3">
-        <v>2712800</v>
+        <v>2656700</v>
       </c>
       <c r="K47" s="3">
         <v>2797700</v>
@@ -1991,25 +1991,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>35497800</v>
+        <v>34764100</v>
       </c>
       <c r="E48" s="3">
-        <v>18285300</v>
+        <v>17907400</v>
       </c>
       <c r="F48" s="3">
-        <v>18883000</v>
+        <v>18492700</v>
       </c>
       <c r="G48" s="3">
-        <v>13175200</v>
+        <v>12902900</v>
       </c>
       <c r="H48" s="3">
-        <v>26638000</v>
+        <v>26087400</v>
       </c>
       <c r="I48" s="3">
-        <v>12996900</v>
+        <v>12728300</v>
       </c>
       <c r="J48" s="3">
-        <v>12842500</v>
+        <v>12577000</v>
       </c>
       <c r="K48" s="3">
         <v>13981300</v>
@@ -2027,25 +2027,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2433300</v>
+        <v>2383000</v>
       </c>
       <c r="E49" s="3">
-        <v>1347100</v>
+        <v>1319200</v>
       </c>
       <c r="F49" s="3">
-        <v>1388300</v>
+        <v>1359600</v>
       </c>
       <c r="G49" s="3">
-        <v>1426900</v>
+        <v>1397400</v>
       </c>
       <c r="H49" s="3">
-        <v>2056500</v>
+        <v>2014000</v>
       </c>
       <c r="I49" s="3">
-        <v>437900</v>
+        <v>428900</v>
       </c>
       <c r="J49" s="3">
-        <v>432600</v>
+        <v>423700</v>
       </c>
       <c r="K49" s="3">
         <v>404700</v>
@@ -2135,25 +2135,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1042300</v>
+        <v>1020700</v>
       </c>
       <c r="E52" s="3">
-        <v>1512100</v>
+        <v>1480900</v>
       </c>
       <c r="F52" s="3">
-        <v>1309800</v>
+        <v>1282700</v>
       </c>
       <c r="G52" s="3">
-        <v>46600</v>
+        <v>45600</v>
       </c>
       <c r="H52" s="3">
-        <v>39900</v>
+        <v>39100</v>
       </c>
       <c r="I52" s="3">
-        <v>78500</v>
+        <v>76900</v>
       </c>
       <c r="J52" s="3">
-        <v>139800</v>
+        <v>136900</v>
       </c>
       <c r="K52" s="3">
         <v>49500</v>
@@ -2207,25 +2207,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>33623600</v>
+        <v>32928700</v>
       </c>
       <c r="E54" s="3">
-        <v>37186900</v>
+        <v>36418400</v>
       </c>
       <c r="F54" s="3">
-        <v>37285400</v>
+        <v>36514900</v>
       </c>
       <c r="G54" s="3">
-        <v>29285500</v>
+        <v>28680300</v>
       </c>
       <c r="H54" s="3">
-        <v>26353100</v>
+        <v>25808500</v>
       </c>
       <c r="I54" s="3">
-        <v>22592800</v>
+        <v>22125800</v>
       </c>
       <c r="J54" s="3">
-        <v>22012400</v>
+        <v>21557500</v>
       </c>
       <c r="K54" s="3">
         <v>23405900</v>
@@ -2275,25 +2275,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>9798200</v>
+        <v>9595700</v>
       </c>
       <c r="E57" s="3">
-        <v>3940100</v>
+        <v>3858600</v>
       </c>
       <c r="F57" s="3">
-        <v>4051900</v>
+        <v>3968100</v>
       </c>
       <c r="G57" s="3">
-        <v>3796300</v>
+        <v>3717800</v>
       </c>
       <c r="H57" s="3">
-        <v>8553600</v>
+        <v>8376900</v>
       </c>
       <c r="I57" s="3">
-        <v>2771400</v>
+        <v>2714100</v>
       </c>
       <c r="J57" s="3">
-        <v>2780700</v>
+        <v>2723200</v>
       </c>
       <c r="K57" s="3">
         <v>2612300</v>
@@ -2311,25 +2311,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1171400</v>
+        <v>1147200</v>
       </c>
       <c r="E58" s="3">
-        <v>877200</v>
+        <v>859100</v>
       </c>
       <c r="F58" s="3">
-        <v>1971400</v>
+        <v>1930600</v>
       </c>
       <c r="G58" s="3">
-        <v>1015600</v>
+        <v>994600</v>
       </c>
       <c r="H58" s="3">
-        <v>619000</v>
+        <v>606200</v>
       </c>
       <c r="I58" s="3">
-        <v>453900</v>
+        <v>444500</v>
       </c>
       <c r="J58" s="3">
-        <v>439300</v>
+        <v>430200</v>
       </c>
       <c r="K58" s="3">
         <v>755700</v>
@@ -2347,25 +2347,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>18832400</v>
+        <v>18443200</v>
       </c>
       <c r="E59" s="3">
-        <v>11218500</v>
+        <v>10986700</v>
       </c>
       <c r="F59" s="3">
-        <v>9770300</v>
+        <v>9568400</v>
       </c>
       <c r="G59" s="3">
-        <v>8901100</v>
+        <v>8717100</v>
       </c>
       <c r="H59" s="3">
-        <v>13167200</v>
+        <v>12895100</v>
       </c>
       <c r="I59" s="3">
-        <v>5719700</v>
+        <v>5601500</v>
       </c>
       <c r="J59" s="3">
-        <v>5995300</v>
+        <v>5871400</v>
       </c>
       <c r="K59" s="3">
         <v>6205300</v>
@@ -2383,25 +2383,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>15726900</v>
+        <v>15401900</v>
       </c>
       <c r="E60" s="3">
-        <v>16035800</v>
+        <v>15704300</v>
       </c>
       <c r="F60" s="3">
-        <v>15772200</v>
+        <v>15446200</v>
       </c>
       <c r="G60" s="3">
-        <v>13713000</v>
+        <v>13429600</v>
       </c>
       <c r="H60" s="3">
-        <v>11428800</v>
+        <v>11192600</v>
       </c>
       <c r="I60" s="3">
-        <v>8945000</v>
+        <v>8760100</v>
       </c>
       <c r="J60" s="3">
-        <v>9215200</v>
+        <v>9024800</v>
       </c>
       <c r="K60" s="3">
         <v>9573200</v>
@@ -2419,25 +2419,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>8063800</v>
+        <v>7897100</v>
       </c>
       <c r="E61" s="3">
-        <v>8668100</v>
+        <v>8489000</v>
       </c>
       <c r="F61" s="3">
-        <v>8387300</v>
+        <v>8213900</v>
       </c>
       <c r="G61" s="3">
-        <v>2381300</v>
+        <v>2332100</v>
       </c>
       <c r="H61" s="3">
-        <v>2714100</v>
+        <v>2658000</v>
       </c>
       <c r="I61" s="3">
-        <v>3156000</v>
+        <v>3090800</v>
       </c>
       <c r="J61" s="3">
-        <v>3439600</v>
+        <v>3368500</v>
       </c>
       <c r="K61" s="3">
         <v>3184000</v>
@@ -2455,25 +2455,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1339100</v>
+        <v>1311400</v>
       </c>
       <c r="E62" s="3">
-        <v>2136400</v>
+        <v>2092300</v>
       </c>
       <c r="F62" s="3">
-        <v>2767400</v>
+        <v>2710200</v>
       </c>
       <c r="G62" s="3">
-        <v>3326400</v>
+        <v>3257700</v>
       </c>
       <c r="H62" s="3">
-        <v>4062500</v>
+        <v>3978600</v>
       </c>
       <c r="I62" s="3">
-        <v>2014000</v>
+        <v>1972300</v>
       </c>
       <c r="J62" s="3">
-        <v>1984700</v>
+        <v>1943700</v>
       </c>
       <c r="K62" s="3">
         <v>2151000</v>
@@ -2599,25 +2599,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>24833000</v>
+        <v>24319800</v>
       </c>
       <c r="E66" s="3">
-        <v>26840300</v>
+        <v>26285600</v>
       </c>
       <c r="F66" s="3">
-        <v>26926800</v>
+        <v>26370300</v>
       </c>
       <c r="G66" s="3">
-        <v>19420700</v>
+        <v>19019400</v>
       </c>
       <c r="H66" s="3">
-        <v>17205800</v>
+        <v>16850200</v>
       </c>
       <c r="I66" s="3">
-        <v>14120300</v>
+        <v>13828500</v>
       </c>
       <c r="J66" s="3">
-        <v>14639400</v>
+        <v>14336900</v>
       </c>
       <c r="K66" s="3">
         <v>14911000</v>
@@ -2795,25 +2795,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>6051200</v>
+        <v>5926100</v>
       </c>
       <c r="E72" s="3">
-        <v>7076100</v>
+        <v>6929900</v>
       </c>
       <c r="F72" s="3">
-        <v>7110700</v>
+        <v>6963800</v>
       </c>
       <c r="G72" s="3">
-        <v>6722100</v>
+        <v>6583100</v>
       </c>
       <c r="H72" s="3">
-        <v>6192300</v>
+        <v>6064300</v>
       </c>
       <c r="I72" s="3">
-        <v>5429600</v>
+        <v>5317300</v>
       </c>
       <c r="J72" s="3">
-        <v>5022200</v>
+        <v>4918400</v>
       </c>
       <c r="K72" s="3">
         <v>6002900</v>
@@ -2939,25 +2939,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>8790600</v>
+        <v>8608900</v>
       </c>
       <c r="E76" s="3">
-        <v>10346600</v>
+        <v>10132800</v>
       </c>
       <c r="F76" s="3">
-        <v>10358600</v>
+        <v>10144500</v>
       </c>
       <c r="G76" s="3">
-        <v>9864800</v>
+        <v>9660900</v>
       </c>
       <c r="H76" s="3">
-        <v>9147300</v>
+        <v>8958300</v>
       </c>
       <c r="I76" s="3">
-        <v>8472500</v>
+        <v>8297400</v>
       </c>
       <c r="J76" s="3">
-        <v>7373000</v>
+        <v>7220600</v>
       </c>
       <c r="K76" s="3">
         <v>8494900</v>
@@ -3052,25 +3052,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-382000</v>
+        <v>-374100</v>
       </c>
       <c r="E81" s="3">
-        <v>171700</v>
+        <v>168200</v>
       </c>
       <c r="F81" s="3">
-        <v>223600</v>
+        <v>219000</v>
       </c>
       <c r="G81" s="3">
-        <v>387400</v>
+        <v>379300</v>
       </c>
       <c r="H81" s="3">
-        <v>477900</v>
+        <v>468000</v>
       </c>
       <c r="I81" s="3">
-        <v>611000</v>
+        <v>598300</v>
       </c>
       <c r="J81" s="3">
-        <v>-221000</v>
+        <v>-216400</v>
       </c>
       <c r="K81" s="3">
         <v>1013200</v>
@@ -3104,25 +3104,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1662500</v>
+        <v>1628200</v>
       </c>
       <c r="E83" s="3">
-        <v>1671900</v>
+        <v>1637300</v>
       </c>
       <c r="F83" s="3">
-        <v>1679800</v>
+        <v>1645100</v>
       </c>
       <c r="G83" s="3">
-        <v>973000</v>
+        <v>952900</v>
       </c>
       <c r="H83" s="3">
-        <v>835900</v>
+        <v>818700</v>
       </c>
       <c r="I83" s="3">
-        <v>777400</v>
+        <v>761300</v>
       </c>
       <c r="J83" s="3">
-        <v>770700</v>
+        <v>754800</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>8</v>
@@ -3320,25 +3320,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>3118800</v>
+        <v>3054300</v>
       </c>
       <c r="E89" s="3">
-        <v>1826300</v>
+        <v>1788500</v>
       </c>
       <c r="F89" s="3">
-        <v>1388300</v>
+        <v>1359600</v>
       </c>
       <c r="G89" s="3">
-        <v>1817000</v>
+        <v>1779400</v>
       </c>
       <c r="H89" s="3">
-        <v>1534800</v>
+        <v>1503000</v>
       </c>
       <c r="I89" s="3">
-        <v>521800</v>
+        <v>511000</v>
       </c>
       <c r="J89" s="3">
-        <v>1212600</v>
+        <v>1187600</v>
       </c>
       <c r="K89" s="3">
         <v>1328800</v>
@@ -3372,25 +3372,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-563100</v>
+        <v>-551400</v>
       </c>
       <c r="E91" s="3">
-        <v>-690800</v>
+        <v>-676600</v>
       </c>
       <c r="F91" s="3">
-        <v>-630900</v>
+        <v>-617900</v>
       </c>
       <c r="G91" s="3">
-        <v>-746700</v>
+        <v>-731300</v>
       </c>
       <c r="H91" s="3">
-        <v>-843900</v>
+        <v>-826500</v>
       </c>
       <c r="I91" s="3">
-        <v>-859900</v>
+        <v>-842100</v>
       </c>
       <c r="J91" s="3">
-        <v>-1265900</v>
+        <v>-1239700</v>
       </c>
       <c r="K91" s="3">
         <v>-1296200</v>
@@ -3480,25 +3480,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-736100</v>
+        <v>-720900</v>
       </c>
       <c r="E94" s="3">
-        <v>-567000</v>
+        <v>-555300</v>
       </c>
       <c r="F94" s="3">
-        <v>-640300</v>
+        <v>-627000</v>
       </c>
       <c r="G94" s="3">
-        <v>-625600</v>
+        <v>-612700</v>
       </c>
       <c r="H94" s="3">
-        <v>-998300</v>
+        <v>-977700</v>
       </c>
       <c r="I94" s="3">
-        <v>-532400</v>
+        <v>-521400</v>
       </c>
       <c r="J94" s="3">
-        <v>-1198000</v>
+        <v>-1173200</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>8</v>
@@ -3532,25 +3532,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-339400</v>
+        <v>-332400</v>
       </c>
       <c r="E96" s="3">
-        <v>-359400</v>
+        <v>-352000</v>
       </c>
       <c r="F96" s="3">
-        <v>-328800</v>
+        <v>-322000</v>
       </c>
       <c r="G96" s="3">
-        <v>-312800</v>
+        <v>-306300</v>
       </c>
       <c r="H96" s="3">
-        <v>-336800</v>
+        <v>-329800</v>
       </c>
       <c r="I96" s="3">
-        <v>-316800</v>
+        <v>-310300</v>
       </c>
       <c r="J96" s="3">
-        <v>-439300</v>
+        <v>-430200</v>
       </c>
       <c r="K96" s="3">
         <v>-452800</v>
@@ -3676,25 +3676,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1741100</v>
+        <v>-1705100</v>
       </c>
       <c r="E100" s="3">
-        <v>-1426900</v>
+        <v>-1397400</v>
       </c>
       <c r="F100" s="3">
-        <v>-1557400</v>
+        <v>-1525200</v>
       </c>
       <c r="G100" s="3">
-        <v>-324800</v>
+        <v>-318100</v>
       </c>
       <c r="H100" s="3">
-        <v>-620300</v>
+        <v>-607500</v>
       </c>
       <c r="I100" s="3">
-        <v>-170400</v>
+        <v>-166900</v>
       </c>
       <c r="J100" s="3">
-        <v>-418000</v>
+        <v>-409300</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>8</v>
@@ -3748,25 +3748,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>641600</v>
+        <v>628300</v>
       </c>
       <c r="E102" s="3">
-        <v>-167700</v>
+        <v>-164300</v>
       </c>
       <c r="F102" s="3">
-        <v>-809300</v>
+        <v>-792600</v>
       </c>
       <c r="G102" s="3">
-        <v>866500</v>
+        <v>848600</v>
       </c>
       <c r="H102" s="3">
-        <v>-83900</v>
+        <v>-82100</v>
       </c>
       <c r="I102" s="3">
-        <v>-181000</v>
+        <v>-177300</v>
       </c>
       <c r="J102" s="3">
-        <v>-403300</v>
+        <v>-395000</v>
       </c>
       <c r="K102" s="3">
         <v>1521200</v>

--- a/AAII_Financials/Yearly/JSAIY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/JSAIY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="92">
   <si>
     <t>JSAIY</t>
   </si>
@@ -721,25 +721,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>37866700</v>
+        <v>35435700</v>
       </c>
       <c r="E8" s="3">
-        <v>37795000</v>
+        <v>35368600</v>
       </c>
       <c r="F8" s="3">
-        <v>37813200</v>
+        <v>35385600</v>
       </c>
       <c r="G8" s="3">
-        <v>37095000</v>
+        <v>34713500</v>
       </c>
       <c r="H8" s="3">
-        <v>34185300</v>
+        <v>31990700</v>
       </c>
       <c r="I8" s="3">
-        <v>30642200</v>
+        <v>28675000</v>
       </c>
       <c r="J8" s="3">
-        <v>30992900</v>
+        <v>29003100</v>
       </c>
       <c r="K8" s="3">
         <v>33890500</v>
@@ -757,25 +757,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>35028800</v>
+        <v>32779900</v>
       </c>
       <c r="E9" s="3">
-        <v>34804500</v>
+        <v>32570100</v>
       </c>
       <c r="F9" s="3">
-        <v>34830600</v>
+        <v>32594500</v>
       </c>
       <c r="G9" s="3">
-        <v>34641600</v>
+        <v>32417600</v>
       </c>
       <c r="H9" s="3">
-        <v>32055300</v>
+        <v>29997300</v>
       </c>
       <c r="I9" s="3">
-        <v>28744200</v>
+        <v>26898800</v>
       </c>
       <c r="J9" s="3">
-        <v>29418100</v>
+        <v>27529500</v>
       </c>
       <c r="K9" s="3">
         <v>31927700</v>
@@ -793,25 +793,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2837900</v>
+        <v>2655700</v>
       </c>
       <c r="E10" s="3">
-        <v>2990400</v>
+        <v>2798500</v>
       </c>
       <c r="F10" s="3">
-        <v>2982600</v>
+        <v>2791100</v>
       </c>
       <c r="G10" s="3">
-        <v>2453400</v>
+        <v>2295900</v>
       </c>
       <c r="H10" s="3">
-        <v>2130100</v>
+        <v>1993300</v>
       </c>
       <c r="I10" s="3">
-        <v>1898000</v>
+        <v>1776200</v>
       </c>
       <c r="J10" s="3">
-        <v>1574700</v>
+        <v>1473600</v>
       </c>
       <c r="K10" s="3">
         <v>1962800</v>
@@ -917,10 +917,10 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>818700</v>
+        <v>766100</v>
       </c>
       <c r="E14" s="3">
-        <v>461500</v>
+        <v>431800</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
@@ -929,7 +929,7 @@
         <v>8</v>
       </c>
       <c r="H14" s="3">
-        <v>-127800</v>
+        <v>-119600</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>8</v>
@@ -1002,25 +1002,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>37759800</v>
+        <v>35335600</v>
       </c>
       <c r="E17" s="3">
-        <v>36909800</v>
+        <v>34540200</v>
       </c>
       <c r="F17" s="3">
-        <v>37041500</v>
+        <v>34663500</v>
       </c>
       <c r="G17" s="3">
-        <v>36419700</v>
+        <v>34081600</v>
       </c>
       <c r="H17" s="3">
-        <v>33348400</v>
+        <v>31207500</v>
       </c>
       <c r="I17" s="3">
-        <v>29720500</v>
+        <v>27812500</v>
       </c>
       <c r="J17" s="3">
-        <v>30887300</v>
+        <v>28904300</v>
       </c>
       <c r="K17" s="3">
         <v>32462600</v>
@@ -1038,25 +1038,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>106900</v>
+        <v>100000</v>
       </c>
       <c r="E18" s="3">
-        <v>885100</v>
+        <v>828300</v>
       </c>
       <c r="F18" s="3">
-        <v>771700</v>
+        <v>722200</v>
       </c>
       <c r="G18" s="3">
-        <v>675300</v>
+        <v>631900</v>
       </c>
       <c r="H18" s="3">
-        <v>836900</v>
+        <v>783200</v>
       </c>
       <c r="I18" s="3">
-        <v>921600</v>
+        <v>862500</v>
       </c>
       <c r="J18" s="3">
-        <v>105600</v>
+        <v>98800</v>
       </c>
       <c r="K18" s="3">
         <v>1427800</v>
@@ -1090,25 +1090,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-2600</v>
+        <v>-2400</v>
       </c>
       <c r="E20" s="3">
-        <v>-56100</v>
+        <v>-52500</v>
       </c>
       <c r="F20" s="3">
-        <v>23500</v>
+        <v>22000</v>
       </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
       <c r="H20" s="3">
-        <v>-32600</v>
+        <v>-30500</v>
       </c>
       <c r="I20" s="3">
-        <v>-50800</v>
+        <v>-47600</v>
       </c>
       <c r="J20" s="3">
-        <v>-39100</v>
+        <v>-36600</v>
       </c>
       <c r="K20" s="3">
         <v>25500</v>
@@ -1126,25 +1126,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1750400</v>
+        <v>1636200</v>
       </c>
       <c r="E21" s="3">
-        <v>2484400</v>
+        <v>2321800</v>
       </c>
       <c r="F21" s="3">
-        <v>2458400</v>
+        <v>1639600</v>
       </c>
       <c r="G21" s="3">
-        <v>1638700</v>
+        <v>1401200</v>
       </c>
       <c r="H21" s="3">
-        <v>1632000</v>
+        <v>1468100</v>
       </c>
       <c r="I21" s="3">
-        <v>1640500</v>
-      </c>
-      <c r="J21" s="3">
-        <v>829600</v>
+        <v>1524200</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>8</v>
@@ -1162,25 +1162,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>444500</v>
+        <v>416000</v>
       </c>
       <c r="E22" s="3">
-        <v>496700</v>
+        <v>464800</v>
       </c>
       <c r="F22" s="3">
-        <v>531900</v>
+        <v>497700</v>
       </c>
       <c r="G22" s="3">
-        <v>142100</v>
+        <v>133000</v>
       </c>
       <c r="H22" s="3">
-        <v>148600</v>
+        <v>139100</v>
       </c>
       <c r="I22" s="3">
-        <v>156400</v>
+        <v>146400</v>
       </c>
       <c r="J22" s="3">
-        <v>160300</v>
+        <v>150000</v>
       </c>
       <c r="K22" s="3">
         <v>182500</v>
@@ -1198,25 +1198,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-340200</v>
+        <v>-318400</v>
       </c>
       <c r="E23" s="3">
-        <v>332400</v>
+        <v>311100</v>
       </c>
       <c r="F23" s="3">
-        <v>263300</v>
+        <v>246400</v>
       </c>
       <c r="G23" s="3">
-        <v>533200</v>
+        <v>498900</v>
       </c>
       <c r="H23" s="3">
-        <v>655700</v>
+        <v>613600</v>
       </c>
       <c r="I23" s="3">
-        <v>714400</v>
+        <v>668500</v>
       </c>
       <c r="J23" s="3">
-        <v>-93900</v>
+        <v>-87800</v>
       </c>
       <c r="K23" s="3">
         <v>1270800</v>
@@ -1234,25 +1234,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>24800</v>
+        <v>23200</v>
       </c>
       <c r="E24" s="3">
-        <v>134300</v>
+        <v>125600</v>
       </c>
       <c r="F24" s="3">
-        <v>20900</v>
+        <v>19500</v>
       </c>
       <c r="G24" s="3">
-        <v>130400</v>
+        <v>122000</v>
       </c>
       <c r="H24" s="3">
-        <v>164300</v>
+        <v>153700</v>
       </c>
       <c r="I24" s="3">
-        <v>100400</v>
+        <v>93900</v>
       </c>
       <c r="J24" s="3">
-        <v>122500</v>
+        <v>114700</v>
       </c>
       <c r="K24" s="3">
         <v>257600</v>
@@ -1306,25 +1306,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-365000</v>
+        <v>-341600</v>
       </c>
       <c r="E26" s="3">
-        <v>198100</v>
+        <v>185400</v>
       </c>
       <c r="F26" s="3">
-        <v>242500</v>
+        <v>226900</v>
       </c>
       <c r="G26" s="3">
-        <v>402800</v>
+        <v>376900</v>
       </c>
       <c r="H26" s="3">
-        <v>491500</v>
+        <v>459900</v>
       </c>
       <c r="I26" s="3">
-        <v>614000</v>
+        <v>574600</v>
       </c>
       <c r="J26" s="3">
-        <v>-216400</v>
+        <v>-202500</v>
       </c>
       <c r="K26" s="3">
         <v>1013200</v>
@@ -1342,25 +1342,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-374100</v>
+        <v>-350100</v>
       </c>
       <c r="E27" s="3">
-        <v>168200</v>
+        <v>157400</v>
       </c>
       <c r="F27" s="3">
-        <v>219000</v>
+        <v>204900</v>
       </c>
       <c r="G27" s="3">
-        <v>379300</v>
+        <v>355000</v>
       </c>
       <c r="H27" s="3">
-        <v>468000</v>
+        <v>437900</v>
       </c>
       <c r="I27" s="3">
-        <v>598300</v>
+        <v>559900</v>
       </c>
       <c r="J27" s="3">
-        <v>-216400</v>
+        <v>-202500</v>
       </c>
       <c r="K27" s="3">
         <v>1013200</v>
@@ -1522,25 +1522,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>2600</v>
+        <v>2400</v>
       </c>
       <c r="E32" s="3">
-        <v>56100</v>
+        <v>52500</v>
       </c>
       <c r="F32" s="3">
-        <v>-23500</v>
+        <v>-22000</v>
       </c>
       <c r="G32" s="3">
         <v>0</v>
       </c>
       <c r="H32" s="3">
-        <v>32600</v>
+        <v>30500</v>
       </c>
       <c r="I32" s="3">
-        <v>50800</v>
+        <v>47600</v>
       </c>
       <c r="J32" s="3">
-        <v>39100</v>
+        <v>36600</v>
       </c>
       <c r="K32" s="3">
         <v>-25500</v>
@@ -1558,25 +1558,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-374100</v>
+        <v>-350100</v>
       </c>
       <c r="E33" s="3">
-        <v>168200</v>
+        <v>157400</v>
       </c>
       <c r="F33" s="3">
-        <v>219000</v>
+        <v>204900</v>
       </c>
       <c r="G33" s="3">
-        <v>379300</v>
+        <v>355000</v>
       </c>
       <c r="H33" s="3">
-        <v>468000</v>
+        <v>437900</v>
       </c>
       <c r="I33" s="3">
-        <v>598300</v>
+        <v>559900</v>
       </c>
       <c r="J33" s="3">
-        <v>-216400</v>
+        <v>-202500</v>
       </c>
       <c r="K33" s="3">
         <v>1013200</v>
@@ -1630,25 +1630,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-374100</v>
+        <v>-350100</v>
       </c>
       <c r="E35" s="3">
-        <v>168200</v>
+        <v>157400</v>
       </c>
       <c r="F35" s="3">
-        <v>219000</v>
+        <v>204900</v>
       </c>
       <c r="G35" s="3">
-        <v>379300</v>
+        <v>355000</v>
       </c>
       <c r="H35" s="3">
-        <v>468000</v>
+        <v>437900</v>
       </c>
       <c r="I35" s="3">
-        <v>598300</v>
+        <v>559900</v>
       </c>
       <c r="J35" s="3">
-        <v>-216400</v>
+        <v>-202500</v>
       </c>
       <c r="K35" s="3">
         <v>1013200</v>
@@ -1739,25 +1739,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>942500</v>
+        <v>882000</v>
       </c>
       <c r="E41" s="3">
-        <v>939900</v>
+        <v>879500</v>
       </c>
       <c r="F41" s="3">
-        <v>1059800</v>
+        <v>991800</v>
       </c>
       <c r="G41" s="3">
-        <v>1364900</v>
+        <v>1277200</v>
       </c>
       <c r="H41" s="3">
-        <v>1097600</v>
+        <v>1027200</v>
       </c>
       <c r="I41" s="3">
-        <v>1113300</v>
+        <v>1041800</v>
       </c>
       <c r="J41" s="3">
-        <v>1675100</v>
+        <v>1567600</v>
       </c>
       <c r="K41" s="3">
         <v>2252900</v>
@@ -1775,22 +1775,22 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1228000</v>
+        <v>1149100</v>
       </c>
       <c r="E42" s="3">
-        <v>462800</v>
+        <v>433100</v>
       </c>
       <c r="F42" s="3">
-        <v>676600</v>
+        <v>633100</v>
       </c>
       <c r="G42" s="3">
-        <v>1155000</v>
+        <v>1080800</v>
       </c>
       <c r="H42" s="3">
-        <v>444500</v>
+        <v>416000</v>
       </c>
       <c r="I42" s="3">
-        <v>439300</v>
+        <v>411100</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>8</v>
@@ -1811,25 +1811,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>9840800</v>
+        <v>9209000</v>
       </c>
       <c r="E43" s="3">
-        <v>5983500</v>
+        <v>5599300</v>
       </c>
       <c r="F43" s="3">
-        <v>5349900</v>
+        <v>5006500</v>
       </c>
       <c r="G43" s="3">
-        <v>5145300</v>
+        <v>4814900</v>
       </c>
       <c r="H43" s="3">
-        <v>8296000</v>
+        <v>7763400</v>
       </c>
       <c r="I43" s="3">
-        <v>2732300</v>
+        <v>2556900</v>
       </c>
       <c r="J43" s="3">
-        <v>2569400</v>
+        <v>2404400</v>
       </c>
       <c r="K43" s="3">
         <v>2342000</v>
@@ -1847,25 +1847,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>4236700</v>
+        <v>3964700</v>
       </c>
       <c r="E44" s="3">
-        <v>2257800</v>
+        <v>2112900</v>
       </c>
       <c r="F44" s="3">
-        <v>2514600</v>
+        <v>2353200</v>
       </c>
       <c r="G44" s="3">
-        <v>2359500</v>
+        <v>2208000</v>
       </c>
       <c r="H44" s="3">
-        <v>4627700</v>
+        <v>4330600</v>
       </c>
       <c r="I44" s="3">
-        <v>1261900</v>
+        <v>1180900</v>
       </c>
       <c r="J44" s="3">
-        <v>1299700</v>
+        <v>1216200</v>
       </c>
       <c r="K44" s="3">
         <v>1422200</v>
@@ -1883,25 +1883,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>208600</v>
+        <v>195200</v>
       </c>
       <c r="E45" s="3">
-        <v>239900</v>
+        <v>224500</v>
       </c>
       <c r="F45" s="3">
-        <v>241200</v>
+        <v>225700</v>
       </c>
       <c r="G45" s="3">
-        <v>217700</v>
+        <v>203700</v>
       </c>
       <c r="H45" s="3">
-        <v>325900</v>
+        <v>305000</v>
       </c>
       <c r="I45" s="3">
-        <v>206000</v>
+        <v>192700</v>
       </c>
       <c r="J45" s="3">
-        <v>219000</v>
+        <v>204900</v>
       </c>
       <c r="K45" s="3">
         <v>155700</v>
@@ -1919,25 +1919,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>9316800</v>
+        <v>8718600</v>
       </c>
       <c r="E46" s="3">
-        <v>9883800</v>
+        <v>9249300</v>
       </c>
       <c r="F46" s="3">
-        <v>9842100</v>
+        <v>9210200</v>
       </c>
       <c r="G46" s="3">
-        <v>10242300</v>
+        <v>9584800</v>
       </c>
       <c r="H46" s="3">
-        <v>8228300</v>
+        <v>7700000</v>
       </c>
       <c r="I46" s="3">
-        <v>5752700</v>
+        <v>5383400</v>
       </c>
       <c r="J46" s="3">
-        <v>5763200</v>
+        <v>5393200</v>
       </c>
       <c r="K46" s="3">
         <v>6172700</v>
@@ -1955,25 +1955,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>7055000</v>
+        <v>6602100</v>
       </c>
       <c r="E47" s="3">
-        <v>5827000</v>
+        <v>5453000</v>
       </c>
       <c r="F47" s="3">
-        <v>5537700</v>
+        <v>5182100</v>
       </c>
       <c r="G47" s="3">
-        <v>4092000</v>
+        <v>3829300</v>
       </c>
       <c r="H47" s="3">
-        <v>6038200</v>
+        <v>5650600</v>
       </c>
       <c r="I47" s="3">
-        <v>3139000</v>
+        <v>2937500</v>
       </c>
       <c r="J47" s="3">
-        <v>2656700</v>
+        <v>2486200</v>
       </c>
       <c r="K47" s="3">
         <v>2797700</v>
@@ -1991,25 +1991,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>34764100</v>
+        <v>32532300</v>
       </c>
       <c r="E48" s="3">
-        <v>17907400</v>
+        <v>16757800</v>
       </c>
       <c r="F48" s="3">
-        <v>18492700</v>
+        <v>17305500</v>
       </c>
       <c r="G48" s="3">
-        <v>12902900</v>
+        <v>12074600</v>
       </c>
       <c r="H48" s="3">
-        <v>26087400</v>
+        <v>24412600</v>
       </c>
       <c r="I48" s="3">
-        <v>12728300</v>
+        <v>11911100</v>
       </c>
       <c r="J48" s="3">
-        <v>12577000</v>
+        <v>11769600</v>
       </c>
       <c r="K48" s="3">
         <v>13981300</v>
@@ -2027,25 +2027,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2383000</v>
+        <v>2230000</v>
       </c>
       <c r="E49" s="3">
-        <v>1319200</v>
+        <v>1234500</v>
       </c>
       <c r="F49" s="3">
-        <v>1359600</v>
+        <v>1272400</v>
       </c>
       <c r="G49" s="3">
-        <v>1397400</v>
+        <v>1307700</v>
       </c>
       <c r="H49" s="3">
-        <v>2014000</v>
+        <v>1884700</v>
       </c>
       <c r="I49" s="3">
-        <v>428900</v>
+        <v>401300</v>
       </c>
       <c r="J49" s="3">
-        <v>423700</v>
+        <v>396500</v>
       </c>
       <c r="K49" s="3">
         <v>404700</v>
@@ -2135,25 +2135,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1020700</v>
+        <v>955200</v>
       </c>
       <c r="E52" s="3">
-        <v>1480900</v>
+        <v>1385800</v>
       </c>
       <c r="F52" s="3">
-        <v>1282700</v>
+        <v>1200400</v>
       </c>
       <c r="G52" s="3">
-        <v>45600</v>
+        <v>42700</v>
       </c>
       <c r="H52" s="3">
-        <v>39100</v>
+        <v>36600</v>
       </c>
       <c r="I52" s="3">
-        <v>76900</v>
+        <v>72000</v>
       </c>
       <c r="J52" s="3">
-        <v>136900</v>
+        <v>128100</v>
       </c>
       <c r="K52" s="3">
         <v>49500</v>
@@ -2207,25 +2207,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>32928700</v>
+        <v>30814700</v>
       </c>
       <c r="E54" s="3">
-        <v>36418400</v>
+        <v>34080300</v>
       </c>
       <c r="F54" s="3">
-        <v>36514900</v>
+        <v>34170600</v>
       </c>
       <c r="G54" s="3">
-        <v>28680300</v>
+        <v>26839000</v>
       </c>
       <c r="H54" s="3">
-        <v>25808500</v>
+        <v>24151600</v>
       </c>
       <c r="I54" s="3">
-        <v>22125800</v>
+        <v>20705400</v>
       </c>
       <c r="J54" s="3">
-        <v>21557500</v>
+        <v>20173500</v>
       </c>
       <c r="K54" s="3">
         <v>23405900</v>
@@ -2275,25 +2275,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>9595700</v>
+        <v>8979700</v>
       </c>
       <c r="E57" s="3">
-        <v>3858600</v>
+        <v>3610900</v>
       </c>
       <c r="F57" s="3">
-        <v>3968100</v>
+        <v>3713400</v>
       </c>
       <c r="G57" s="3">
-        <v>3717800</v>
+        <v>3479200</v>
       </c>
       <c r="H57" s="3">
-        <v>8376900</v>
+        <v>7839100</v>
       </c>
       <c r="I57" s="3">
-        <v>2714100</v>
+        <v>2539800</v>
       </c>
       <c r="J57" s="3">
-        <v>2723200</v>
+        <v>2548400</v>
       </c>
       <c r="K57" s="3">
         <v>2612300</v>
@@ -2311,25 +2311,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1147200</v>
+        <v>1073500</v>
       </c>
       <c r="E58" s="3">
-        <v>859100</v>
+        <v>803900</v>
       </c>
       <c r="F58" s="3">
-        <v>1930600</v>
+        <v>1806700</v>
       </c>
       <c r="G58" s="3">
-        <v>994600</v>
+        <v>930800</v>
       </c>
       <c r="H58" s="3">
-        <v>606200</v>
+        <v>567300</v>
       </c>
       <c r="I58" s="3">
-        <v>444500</v>
+        <v>416000</v>
       </c>
       <c r="J58" s="3">
-        <v>430200</v>
+        <v>402600</v>
       </c>
       <c r="K58" s="3">
         <v>755700</v>
@@ -2347,25 +2347,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>18443200</v>
+        <v>17259100</v>
       </c>
       <c r="E59" s="3">
-        <v>10986700</v>
+        <v>10281300</v>
       </c>
       <c r="F59" s="3">
-        <v>9568400</v>
+        <v>8954100</v>
       </c>
       <c r="G59" s="3">
-        <v>8717100</v>
+        <v>8157500</v>
       </c>
       <c r="H59" s="3">
-        <v>12895100</v>
+        <v>12067300</v>
       </c>
       <c r="I59" s="3">
-        <v>5601500</v>
+        <v>5241900</v>
       </c>
       <c r="J59" s="3">
-        <v>5871400</v>
+        <v>5494400</v>
       </c>
       <c r="K59" s="3">
         <v>6205300</v>
@@ -2383,25 +2383,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>15401900</v>
+        <v>14413100</v>
       </c>
       <c r="E60" s="3">
-        <v>15704300</v>
+        <v>14696100</v>
       </c>
       <c r="F60" s="3">
-        <v>15446200</v>
+        <v>14454600</v>
       </c>
       <c r="G60" s="3">
-        <v>13429600</v>
+        <v>12567400</v>
       </c>
       <c r="H60" s="3">
-        <v>11192600</v>
+        <v>10474100</v>
       </c>
       <c r="I60" s="3">
-        <v>8760100</v>
+        <v>8197700</v>
       </c>
       <c r="J60" s="3">
-        <v>9024800</v>
+        <v>8445400</v>
       </c>
       <c r="K60" s="3">
         <v>9573200</v>
@@ -2419,25 +2419,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>7897100</v>
+        <v>7390200</v>
       </c>
       <c r="E61" s="3">
-        <v>8489000</v>
+        <v>7944000</v>
       </c>
       <c r="F61" s="3">
-        <v>8213900</v>
+        <v>7686600</v>
       </c>
       <c r="G61" s="3">
-        <v>2332100</v>
+        <v>2182400</v>
       </c>
       <c r="H61" s="3">
-        <v>2658000</v>
+        <v>2487400</v>
       </c>
       <c r="I61" s="3">
-        <v>3090800</v>
+        <v>2892400</v>
       </c>
       <c r="J61" s="3">
-        <v>3368500</v>
+        <v>3152200</v>
       </c>
       <c r="K61" s="3">
         <v>3184000</v>
@@ -2455,25 +2455,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1311400</v>
+        <v>1227200</v>
       </c>
       <c r="E62" s="3">
-        <v>2092300</v>
+        <v>1957900</v>
       </c>
       <c r="F62" s="3">
-        <v>2710200</v>
+        <v>2536200</v>
       </c>
       <c r="G62" s="3">
-        <v>3257700</v>
+        <v>3048500</v>
       </c>
       <c r="H62" s="3">
-        <v>3978600</v>
+        <v>3723100</v>
       </c>
       <c r="I62" s="3">
-        <v>1972300</v>
+        <v>1845700</v>
       </c>
       <c r="J62" s="3">
-        <v>1943700</v>
+        <v>1818900</v>
       </c>
       <c r="K62" s="3">
         <v>2151000</v>
@@ -2599,25 +2599,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>24319800</v>
+        <v>22758500</v>
       </c>
       <c r="E66" s="3">
-        <v>26285600</v>
+        <v>24598100</v>
       </c>
       <c r="F66" s="3">
-        <v>26370300</v>
+        <v>24677400</v>
       </c>
       <c r="G66" s="3">
-        <v>19019400</v>
+        <v>17798300</v>
       </c>
       <c r="H66" s="3">
-        <v>16850200</v>
+        <v>15768400</v>
       </c>
       <c r="I66" s="3">
-        <v>13828500</v>
+        <v>12940700</v>
       </c>
       <c r="J66" s="3">
-        <v>14336900</v>
+        <v>13416500</v>
       </c>
       <c r="K66" s="3">
         <v>14911000</v>
@@ -2795,25 +2795,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>5926100</v>
+        <v>5545700</v>
       </c>
       <c r="E72" s="3">
-        <v>6929900</v>
+        <v>6485000</v>
       </c>
       <c r="F72" s="3">
-        <v>6963800</v>
+        <v>6516700</v>
       </c>
       <c r="G72" s="3">
-        <v>6583100</v>
+        <v>6160500</v>
       </c>
       <c r="H72" s="3">
-        <v>6064300</v>
+        <v>5675000</v>
       </c>
       <c r="I72" s="3">
-        <v>5317300</v>
+        <v>4976000</v>
       </c>
       <c r="J72" s="3">
-        <v>4918400</v>
+        <v>4602700</v>
       </c>
       <c r="K72" s="3">
         <v>6002900</v>
@@ -2939,25 +2939,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>8608900</v>
+        <v>8056200</v>
       </c>
       <c r="E76" s="3">
-        <v>10132800</v>
+        <v>9482300</v>
       </c>
       <c r="F76" s="3">
-        <v>10144500</v>
+        <v>9493300</v>
       </c>
       <c r="G76" s="3">
-        <v>9660900</v>
+        <v>9040700</v>
       </c>
       <c r="H76" s="3">
-        <v>8958300</v>
+        <v>8383200</v>
       </c>
       <c r="I76" s="3">
-        <v>8297400</v>
+        <v>7764700</v>
       </c>
       <c r="J76" s="3">
-        <v>7220600</v>
+        <v>6757000</v>
       </c>
       <c r="K76" s="3">
         <v>8494900</v>
@@ -3052,25 +3052,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-374100</v>
+        <v>-350100</v>
       </c>
       <c r="E81" s="3">
-        <v>168200</v>
+        <v>157400</v>
       </c>
       <c r="F81" s="3">
-        <v>219000</v>
+        <v>204900</v>
       </c>
       <c r="G81" s="3">
-        <v>379300</v>
+        <v>355000</v>
       </c>
       <c r="H81" s="3">
-        <v>468000</v>
+        <v>437900</v>
       </c>
       <c r="I81" s="3">
-        <v>598300</v>
+        <v>559900</v>
       </c>
       <c r="J81" s="3">
-        <v>-216400</v>
+        <v>-202500</v>
       </c>
       <c r="K81" s="3">
         <v>1013200</v>
@@ -3104,25 +3104,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1628200</v>
+        <v>1532200</v>
       </c>
       <c r="E83" s="3">
-        <v>1637300</v>
+        <v>1539500</v>
       </c>
       <c r="F83" s="3">
-        <v>1645100</v>
+        <v>891700</v>
       </c>
       <c r="G83" s="3">
-        <v>952900</v>
+        <v>766100</v>
       </c>
       <c r="H83" s="3">
-        <v>818700</v>
+        <v>712400</v>
       </c>
       <c r="I83" s="3">
-        <v>761300</v>
-      </c>
-      <c r="J83" s="3">
-        <v>754800</v>
+        <v>706300</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>8</v>
@@ -3320,25 +3320,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>3054300</v>
+        <v>1673700</v>
       </c>
       <c r="E89" s="3">
-        <v>1788500</v>
+        <v>1272400</v>
       </c>
       <c r="F89" s="3">
-        <v>1359600</v>
+        <v>1665200</v>
       </c>
       <c r="G89" s="3">
-        <v>1779400</v>
+        <v>1406500</v>
       </c>
       <c r="H89" s="3">
-        <v>1503000</v>
+        <v>478200</v>
       </c>
       <c r="I89" s="3">
-        <v>511000</v>
+        <v>1111300</v>
       </c>
       <c r="J89" s="3">
-        <v>1187600</v>
+        <v>1145500</v>
       </c>
       <c r="K89" s="3">
         <v>1328800</v>
@@ -3372,25 +3372,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-551400</v>
+        <v>-633100</v>
       </c>
       <c r="E91" s="3">
-        <v>-676600</v>
+        <v>-578200</v>
       </c>
       <c r="F91" s="3">
-        <v>-617900</v>
+        <v>-684400</v>
       </c>
       <c r="G91" s="3">
-        <v>-731300</v>
+        <v>-773400</v>
       </c>
       <c r="H91" s="3">
-        <v>-826500</v>
+        <v>-788100</v>
       </c>
       <c r="I91" s="3">
-        <v>-842100</v>
+        <v>-1160100</v>
       </c>
       <c r="J91" s="3">
-        <v>-1239700</v>
+        <v>-1117400</v>
       </c>
       <c r="K91" s="3">
         <v>-1296200</v>
@@ -3480,25 +3480,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-720900</v>
+        <v>-519700</v>
       </c>
       <c r="E94" s="3">
-        <v>-555300</v>
+        <v>-586800</v>
       </c>
       <c r="F94" s="3">
-        <v>-627000</v>
+        <v>-573400</v>
       </c>
       <c r="G94" s="3">
-        <v>-612700</v>
+        <v>-914900</v>
       </c>
       <c r="H94" s="3">
-        <v>-977700</v>
+        <v>-488000</v>
       </c>
       <c r="I94" s="3">
-        <v>-521400</v>
-      </c>
-      <c r="J94" s="3">
-        <v>-1173200</v>
+        <v>-1097900</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>8</v>
@@ -3532,25 +3532,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-332400</v>
+        <v>-329400</v>
       </c>
       <c r="E96" s="3">
-        <v>-352000</v>
+        <v>-301300</v>
       </c>
       <c r="F96" s="3">
-        <v>-322000</v>
+        <v>-286700</v>
       </c>
       <c r="G96" s="3">
-        <v>-306300</v>
+        <v>-308600</v>
       </c>
       <c r="H96" s="3">
-        <v>-329800</v>
+        <v>-290300</v>
       </c>
       <c r="I96" s="3">
-        <v>-310300</v>
+        <v>-402600</v>
       </c>
       <c r="J96" s="3">
-        <v>-430200</v>
+        <v>-390400</v>
       </c>
       <c r="K96" s="3">
         <v>-452800</v>
@@ -3676,25 +3676,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1705100</v>
+        <v>-1307700</v>
       </c>
       <c r="E100" s="3">
-        <v>-1397400</v>
+        <v>-1427300</v>
       </c>
       <c r="F100" s="3">
-        <v>-1525200</v>
+        <v>-297700</v>
       </c>
       <c r="G100" s="3">
-        <v>-318100</v>
+        <v>-568500</v>
       </c>
       <c r="H100" s="3">
-        <v>-607500</v>
+        <v>-156100</v>
       </c>
       <c r="I100" s="3">
-        <v>-166900</v>
-      </c>
-      <c r="J100" s="3">
-        <v>-409300</v>
+        <v>-383000</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>8</v>
@@ -3729,8 +3729,8 @@
       <c r="I101" s="3">
         <v>0</v>
       </c>
-      <c r="J101" s="3">
-        <v>0</v>
+      <c r="J101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>8</v>
@@ -3748,25 +3748,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>628300</v>
+        <v>-153700</v>
       </c>
       <c r="E102" s="3">
-        <v>-164300</v>
+        <v>-741700</v>
       </c>
       <c r="F102" s="3">
-        <v>-792600</v>
+        <v>794200</v>
       </c>
       <c r="G102" s="3">
-        <v>848600</v>
+        <v>-76900</v>
       </c>
       <c r="H102" s="3">
-        <v>-82100</v>
+        <v>-165900</v>
       </c>
       <c r="I102" s="3">
-        <v>-177300</v>
+        <v>-369600</v>
       </c>
       <c r="J102" s="3">
-        <v>-395000</v>
+        <v>1311400</v>
       </c>
       <c r="K102" s="3">
         <v>1521200</v>

--- a/AAII_Financials/Yearly/JSAIY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/JSAIY_YR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,166 +665,178 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44625</v>
+      </c>
+      <c r="E7" s="2">
         <v>44261</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43897</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43533</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43169</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42805</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42441</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42077</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41713</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41349</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>40985</v>
       </c>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>35435700</v>
+        <v>35362800</v>
       </c>
       <c r="E8" s="3">
-        <v>35368600</v>
+        <v>34360900</v>
       </c>
       <c r="F8" s="3">
-        <v>35385600</v>
+        <v>34295800</v>
       </c>
       <c r="G8" s="3">
-        <v>34713500</v>
+        <v>34312400</v>
       </c>
       <c r="H8" s="3">
-        <v>31990700</v>
+        <v>33660600</v>
       </c>
       <c r="I8" s="3">
-        <v>28675000</v>
+        <v>31020400</v>
       </c>
       <c r="J8" s="3">
+        <v>27805200</v>
+      </c>
+      <c r="K8" s="3">
         <v>29003100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>33890500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>30126400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>29078300</v>
       </c>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>32779900</v>
+        <v>32574700</v>
       </c>
       <c r="E9" s="3">
-        <v>32570100</v>
+        <v>31784500</v>
       </c>
       <c r="F9" s="3">
-        <v>32594500</v>
+        <v>31582200</v>
       </c>
       <c r="G9" s="3">
-        <v>32417600</v>
+        <v>31605900</v>
       </c>
       <c r="H9" s="3">
-        <v>29997300</v>
+        <v>31434400</v>
       </c>
       <c r="I9" s="3">
-        <v>26898800</v>
+        <v>29087500</v>
       </c>
       <c r="J9" s="3">
+        <v>26082900</v>
+      </c>
+      <c r="K9" s="3">
         <v>27529500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>31927700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>28475400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>27498800</v>
       </c>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2655700</v>
+        <v>2788100</v>
       </c>
       <c r="E10" s="3">
-        <v>2798500</v>
+        <v>2576400</v>
       </c>
       <c r="F10" s="3">
-        <v>2791100</v>
+        <v>2713600</v>
       </c>
       <c r="G10" s="3">
-        <v>2295900</v>
+        <v>2706500</v>
       </c>
       <c r="H10" s="3">
-        <v>1993300</v>
+        <v>2226200</v>
       </c>
       <c r="I10" s="3">
-        <v>1776200</v>
+        <v>1932900</v>
       </c>
       <c r="J10" s="3">
+        <v>1722300</v>
+      </c>
+      <c r="K10" s="3">
         <v>1473600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1962800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1650900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1579500</v>
       </c>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -839,8 +851,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -874,9 +887,12 @@
       <c r="M12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -910,29 +926,32 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>766100</v>
+        <v>-136000</v>
       </c>
       <c r="E14" s="3">
-        <v>431800</v>
+        <v>629300</v>
       </c>
       <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>8</v>
+        <v>418700</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
       </c>
       <c r="H14" s="3">
-        <v>-119600</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>8</v>
+        <v>30800</v>
+      </c>
+      <c r="I14" s="3">
+        <v>-97000</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>8</v>
@@ -946,9 +965,12 @@
       <c r="M14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -982,9 +1004,12 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -996,80 +1021,87 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>35335600</v>
+        <v>33989400</v>
       </c>
       <c r="E17" s="3">
-        <v>34540200</v>
+        <v>34165700</v>
       </c>
       <c r="F17" s="3">
-        <v>34663500</v>
+        <v>33492600</v>
       </c>
       <c r="G17" s="3">
-        <v>34081600</v>
+        <v>33612100</v>
       </c>
       <c r="H17" s="3">
-        <v>31207500</v>
+        <v>33078600</v>
       </c>
       <c r="I17" s="3">
-        <v>27812500</v>
+        <v>30279900</v>
       </c>
       <c r="J17" s="3">
+        <v>26968900</v>
+      </c>
+      <c r="K17" s="3">
         <v>28904300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>32462600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>28986100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>27938300</v>
       </c>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>100000</v>
+        <v>1373300</v>
       </c>
       <c r="E18" s="3">
-        <v>828300</v>
+        <v>195200</v>
       </c>
       <c r="F18" s="3">
-        <v>722200</v>
+        <v>803200</v>
       </c>
       <c r="G18" s="3">
-        <v>631900</v>
+        <v>700300</v>
       </c>
       <c r="H18" s="3">
-        <v>783200</v>
+        <v>582000</v>
       </c>
       <c r="I18" s="3">
-        <v>862500</v>
+        <v>740500</v>
       </c>
       <c r="J18" s="3">
+        <v>836300</v>
+      </c>
+      <c r="K18" s="3">
         <v>98800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1427800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1140300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1140000</v>
       </c>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1084,188 +1116,204 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-2400</v>
+        <v>4700</v>
       </c>
       <c r="E20" s="3">
-        <v>-52500</v>
+        <v>14200</v>
       </c>
       <c r="F20" s="3">
-        <v>22000</v>
+        <v>-50900</v>
       </c>
       <c r="G20" s="3">
-        <v>0</v>
+        <v>21300</v>
       </c>
       <c r="H20" s="3">
-        <v>-30500</v>
+        <v>30800</v>
       </c>
       <c r="I20" s="3">
-        <v>-47600</v>
+        <v>-13000</v>
       </c>
       <c r="J20" s="3">
+        <v>-46100</v>
+      </c>
+      <c r="K20" s="3">
         <v>-36600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>25500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>23300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>63900</v>
       </c>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1636200</v>
+        <v>2817300</v>
       </c>
       <c r="E21" s="3">
-        <v>2321800</v>
+        <v>1682800</v>
       </c>
       <c r="F21" s="3">
-        <v>1639600</v>
+        <v>2234000</v>
       </c>
       <c r="G21" s="3">
-        <v>1401200</v>
+        <v>2210400</v>
       </c>
       <c r="H21" s="3">
-        <v>1468100</v>
+        <v>1475100</v>
       </c>
       <c r="I21" s="3">
-        <v>1524200</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>8</v>
+        <v>1468300</v>
+      </c>
+      <c r="J21" s="3">
+        <v>1479100</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M21" s="3">
         <v>1835600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1862000</v>
       </c>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>416000</v>
+        <v>367900</v>
       </c>
       <c r="E22" s="3">
-        <v>464800</v>
+        <v>403400</v>
       </c>
       <c r="F22" s="3">
-        <v>497700</v>
+        <v>450700</v>
       </c>
       <c r="G22" s="3">
-        <v>133000</v>
+        <v>482600</v>
       </c>
       <c r="H22" s="3">
-        <v>139100</v>
+        <v>128900</v>
       </c>
       <c r="I22" s="3">
-        <v>146400</v>
+        <v>132500</v>
       </c>
       <c r="J22" s="3">
+        <v>141900</v>
+      </c>
+      <c r="K22" s="3">
         <v>150000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>182500</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>165500</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>161700</v>
       </c>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-318400</v>
+        <v>1010200</v>
       </c>
       <c r="E23" s="3">
-        <v>311100</v>
+        <v>-194000</v>
       </c>
       <c r="F23" s="3">
-        <v>246400</v>
+        <v>301600</v>
       </c>
       <c r="G23" s="3">
-        <v>498900</v>
+        <v>238900</v>
       </c>
       <c r="H23" s="3">
-        <v>613600</v>
+        <v>483800</v>
       </c>
       <c r="I23" s="3">
-        <v>668500</v>
+        <v>595000</v>
       </c>
       <c r="J23" s="3">
+        <v>648200</v>
+      </c>
+      <c r="K23" s="3">
         <v>-87800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1270800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>998000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1042100</v>
       </c>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>23200</v>
+        <v>209400</v>
       </c>
       <c r="E24" s="3">
-        <v>125600</v>
+        <v>43800</v>
       </c>
       <c r="F24" s="3">
-        <v>19500</v>
+        <v>121800</v>
       </c>
       <c r="G24" s="3">
-        <v>122000</v>
+        <v>18900</v>
       </c>
       <c r="H24" s="3">
-        <v>153700</v>
+        <v>118300</v>
       </c>
       <c r="I24" s="3">
-        <v>93900</v>
+        <v>149000</v>
       </c>
       <c r="J24" s="3">
+        <v>91100</v>
+      </c>
+      <c r="K24" s="3">
         <v>114700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>257600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>219800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>262200</v>
       </c>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1299,81 +1347,90 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-341600</v>
+        <v>800800</v>
       </c>
       <c r="E26" s="3">
-        <v>185400</v>
+        <v>-237800</v>
       </c>
       <c r="F26" s="3">
-        <v>226900</v>
+        <v>179800</v>
       </c>
       <c r="G26" s="3">
-        <v>376900</v>
+        <v>220000</v>
       </c>
       <c r="H26" s="3">
-        <v>459900</v>
+        <v>365500</v>
       </c>
       <c r="I26" s="3">
-        <v>574600</v>
+        <v>446000</v>
       </c>
       <c r="J26" s="3">
+        <v>557100</v>
+      </c>
+      <c r="K26" s="3">
         <v>-202500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1013200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>778300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>780000</v>
       </c>
-      <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-350100</v>
+        <v>800800</v>
       </c>
       <c r="E27" s="3">
-        <v>157400</v>
+        <v>-246000</v>
       </c>
       <c r="F27" s="3">
-        <v>204900</v>
+        <v>152600</v>
       </c>
       <c r="G27" s="3">
-        <v>355000</v>
+        <v>198700</v>
       </c>
       <c r="H27" s="3">
-        <v>437900</v>
+        <v>344200</v>
       </c>
       <c r="I27" s="3">
-        <v>559900</v>
+        <v>424700</v>
       </c>
       <c r="J27" s="3">
+        <v>543000</v>
+      </c>
+      <c r="K27" s="3">
         <v>-202500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1013200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>778300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>780000</v>
       </c>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1407,9 +1464,12 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-      <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1443,9 +1503,12 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1479,9 +1542,12 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-      <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1515,81 +1581,90 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>2400</v>
+        <v>-4700</v>
       </c>
       <c r="E32" s="3">
-        <v>52500</v>
+        <v>-14200</v>
       </c>
       <c r="F32" s="3">
-        <v>-22000</v>
+        <v>50900</v>
       </c>
       <c r="G32" s="3">
-        <v>0</v>
+        <v>-21300</v>
       </c>
       <c r="H32" s="3">
-        <v>30500</v>
+        <v>-30800</v>
       </c>
       <c r="I32" s="3">
-        <v>47600</v>
+        <v>13000</v>
       </c>
       <c r="J32" s="3">
+        <v>46100</v>
+      </c>
+      <c r="K32" s="3">
         <v>36600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-25500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-23300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-63900</v>
       </c>
-      <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-350100</v>
+        <v>800800</v>
       </c>
       <c r="E33" s="3">
-        <v>157400</v>
+        <v>-246000</v>
       </c>
       <c r="F33" s="3">
-        <v>204900</v>
+        <v>152600</v>
       </c>
       <c r="G33" s="3">
-        <v>355000</v>
+        <v>198700</v>
       </c>
       <c r="H33" s="3">
-        <v>437900</v>
+        <v>344200</v>
       </c>
       <c r="I33" s="3">
-        <v>559900</v>
+        <v>424700</v>
       </c>
       <c r="J33" s="3">
+        <v>543000</v>
+      </c>
+      <c r="K33" s="3">
         <v>-202500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1013200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>778300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>780000</v>
       </c>
-      <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1623,86 +1698,95 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-      <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-350100</v>
+        <v>800800</v>
       </c>
       <c r="E35" s="3">
-        <v>157400</v>
+        <v>-246000</v>
       </c>
       <c r="F35" s="3">
-        <v>204900</v>
+        <v>152600</v>
       </c>
       <c r="G35" s="3">
-        <v>355000</v>
+        <v>198700</v>
       </c>
       <c r="H35" s="3">
-        <v>437900</v>
+        <v>344200</v>
       </c>
       <c r="I35" s="3">
-        <v>559900</v>
+        <v>424700</v>
       </c>
       <c r="J35" s="3">
+        <v>543000</v>
+      </c>
+      <c r="K35" s="3">
         <v>-202500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1013200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>778300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>780000</v>
       </c>
-      <c r="N35" s="3"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44625</v>
+      </c>
+      <c r="E38" s="2">
         <v>44261</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43897</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43533</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43169</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42805</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42441</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42077</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41713</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41349</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>40985</v>
       </c>
-      <c r="N38" s="2"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1717,8 +1801,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1733,67 +1818,71 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>882000</v>
+        <v>699100</v>
       </c>
       <c r="E41" s="3">
-        <v>879500</v>
+        <v>855200</v>
       </c>
       <c r="F41" s="3">
-        <v>991800</v>
+        <v>2028700</v>
       </c>
       <c r="G41" s="3">
-        <v>1277200</v>
+        <v>961700</v>
       </c>
       <c r="H41" s="3">
-        <v>1027200</v>
+        <v>1238500</v>
       </c>
       <c r="I41" s="3">
-        <v>1041800</v>
+        <v>996000</v>
       </c>
       <c r="J41" s="3">
+        <v>1010200</v>
+      </c>
+      <c r="K41" s="3">
         <v>1567600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2252900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>668400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>963900</v>
       </c>
-      <c r="N41" s="3"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1149100</v>
+        <v>508600</v>
       </c>
       <c r="E42" s="3">
-        <v>433100</v>
+        <v>1114300</v>
       </c>
       <c r="F42" s="3">
-        <v>633100</v>
+        <v>419900</v>
       </c>
       <c r="G42" s="3">
-        <v>1080800</v>
+        <v>613900</v>
       </c>
       <c r="H42" s="3">
-        <v>416000</v>
+        <v>1048000</v>
       </c>
       <c r="I42" s="3">
-        <v>411100</v>
-      </c>
-      <c r="J42" s="3" t="s">
-        <v>8</v>
+        <v>403400</v>
+      </c>
+      <c r="J42" s="3">
+        <v>398600</v>
       </c>
       <c r="K42" s="3" t="s">
         <v>8</v>
@@ -1804,261 +1893,285 @@
       <c r="M42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N42" s="3"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>9209000</v>
+        <v>4346000</v>
       </c>
       <c r="E43" s="3">
-        <v>5599300</v>
+        <v>8934400</v>
       </c>
       <c r="F43" s="3">
-        <v>5006500</v>
+        <v>11062500</v>
       </c>
       <c r="G43" s="3">
-        <v>4814900</v>
+        <v>4854600</v>
       </c>
       <c r="H43" s="3">
-        <v>7763400</v>
+        <v>4668900</v>
       </c>
       <c r="I43" s="3">
-        <v>2556900</v>
+        <v>7528000</v>
       </c>
       <c r="J43" s="3">
+        <v>2479400</v>
+      </c>
+      <c r="K43" s="3">
         <v>2404400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2342000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>729100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>523000</v>
       </c>
-      <c r="N43" s="3"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>3964700</v>
+        <v>2125700</v>
       </c>
       <c r="E44" s="3">
-        <v>2112900</v>
+        <v>3844400</v>
       </c>
       <c r="F44" s="3">
-        <v>2353200</v>
+        <v>4097600</v>
       </c>
       <c r="G44" s="3">
-        <v>2208000</v>
+        <v>2281800</v>
       </c>
       <c r="H44" s="3">
-        <v>4330600</v>
+        <v>2141000</v>
       </c>
       <c r="I44" s="3">
-        <v>1180900</v>
+        <v>4199300</v>
       </c>
       <c r="J44" s="3">
+        <v>1145000</v>
+      </c>
+      <c r="K44" s="3">
         <v>1216200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1422200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>2552000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>2446900</v>
       </c>
-      <c r="N44" s="3"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>195200</v>
+        <v>295700</v>
       </c>
       <c r="E45" s="3">
-        <v>224500</v>
+        <v>189300</v>
       </c>
       <c r="F45" s="3">
-        <v>225700</v>
+        <v>217700</v>
       </c>
       <c r="G45" s="3">
-        <v>203700</v>
+        <v>218800</v>
       </c>
       <c r="H45" s="3">
-        <v>305000</v>
+        <v>197500</v>
       </c>
       <c r="I45" s="3">
-        <v>192700</v>
+        <v>295700</v>
       </c>
       <c r="J45" s="3">
+        <v>186900</v>
+      </c>
+      <c r="K45" s="3">
         <v>204900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>155700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>196500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>169600</v>
       </c>
-      <c r="N45" s="3"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>8718600</v>
+        <v>7975100</v>
       </c>
       <c r="E46" s="3">
-        <v>9249300</v>
+        <v>8454200</v>
       </c>
       <c r="F46" s="3">
-        <v>9210200</v>
+        <v>8968700</v>
       </c>
       <c r="G46" s="3">
-        <v>9584800</v>
+        <v>8930900</v>
       </c>
       <c r="H46" s="3">
-        <v>7700000</v>
+        <v>9294000</v>
       </c>
       <c r="I46" s="3">
-        <v>5383400</v>
+        <v>7466500</v>
       </c>
       <c r="J46" s="3">
+        <v>5220100</v>
+      </c>
+      <c r="K46" s="3">
         <v>5393200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>6172700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2457600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2650400</v>
       </c>
-      <c r="N46" s="3"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>6602100</v>
+        <v>3163100</v>
       </c>
       <c r="E47" s="3">
-        <v>5453000</v>
+        <v>6401900</v>
       </c>
       <c r="F47" s="3">
-        <v>5182100</v>
+        <v>9423000</v>
       </c>
       <c r="G47" s="3">
-        <v>3829300</v>
+        <v>5025000</v>
       </c>
       <c r="H47" s="3">
-        <v>5650600</v>
+        <v>3713100</v>
       </c>
       <c r="I47" s="3">
-        <v>2937500</v>
+        <v>5479200</v>
       </c>
       <c r="J47" s="3">
+        <v>2848400</v>
+      </c>
+      <c r="K47" s="3">
         <v>2486200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>2797700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>981200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>1020000</v>
       </c>
-      <c r="N47" s="3"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>32532300</v>
+        <v>16515600</v>
       </c>
       <c r="E48" s="3">
-        <v>16757800</v>
+        <v>31545600</v>
       </c>
       <c r="F48" s="3">
-        <v>17305500</v>
+        <v>32543900</v>
       </c>
       <c r="G48" s="3">
-        <v>12074600</v>
+        <v>16780600</v>
       </c>
       <c r="H48" s="3">
-        <v>24412600</v>
+        <v>11708300</v>
       </c>
       <c r="I48" s="3">
-        <v>11911100</v>
+        <v>23672200</v>
       </c>
       <c r="J48" s="3">
+        <v>11549800</v>
+      </c>
+      <c r="K48" s="3">
         <v>11769600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>13981300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>18666900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>24335800</v>
       </c>
-      <c r="N48" s="3"/>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2230000</v>
+        <v>1190000</v>
       </c>
       <c r="E49" s="3">
-        <v>1234500</v>
+        <v>2162300</v>
       </c>
       <c r="F49" s="3">
-        <v>1272400</v>
+        <v>2349200</v>
       </c>
       <c r="G49" s="3">
-        <v>1307700</v>
+        <v>1233800</v>
       </c>
       <c r="H49" s="3">
-        <v>1884700</v>
+        <v>1268100</v>
       </c>
       <c r="I49" s="3">
-        <v>401300</v>
+        <v>1827600</v>
       </c>
       <c r="J49" s="3">
+        <v>389200</v>
+      </c>
+      <c r="K49" s="3">
         <v>396500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>404700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>420200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>417400</v>
       </c>
-      <c r="N49" s="3"/>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2092,9 +2205,12 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-      <c r="N50" s="3"/>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3"/>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2128,45 +2244,51 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-      <c r="N51" s="3"/>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3"/>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>955200</v>
+        <v>2990400</v>
       </c>
       <c r="E52" s="3">
-        <v>1385800</v>
+        <v>926200</v>
       </c>
       <c r="F52" s="3">
-        <v>1200400</v>
+        <v>1343800</v>
       </c>
       <c r="G52" s="3">
-        <v>42700</v>
+        <v>1164000</v>
       </c>
       <c r="H52" s="3">
-        <v>36600</v>
+        <v>41400</v>
       </c>
       <c r="I52" s="3">
-        <v>72000</v>
+        <v>35500</v>
       </c>
       <c r="J52" s="3">
+        <v>69800</v>
+      </c>
+      <c r="K52" s="3">
         <v>128100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>49500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>77600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>48300</v>
       </c>
-      <c r="N52" s="3"/>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2200,45 +2322,51 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-      <c r="N53" s="3"/>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3"/>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>30814700</v>
+        <v>31834200</v>
       </c>
       <c r="E54" s="3">
-        <v>34080300</v>
+        <v>29880100</v>
       </c>
       <c r="F54" s="3">
-        <v>34170600</v>
+        <v>33046700</v>
       </c>
       <c r="G54" s="3">
-        <v>26839000</v>
+        <v>33134200</v>
       </c>
       <c r="H54" s="3">
-        <v>24151600</v>
+        <v>26025000</v>
       </c>
       <c r="I54" s="3">
-        <v>20705400</v>
+        <v>23419100</v>
       </c>
       <c r="J54" s="3">
+        <v>20077400</v>
+      </c>
+      <c r="K54" s="3">
         <v>20173500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>23405900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>16412200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>16095200</v>
       </c>
-      <c r="N54" s="3"/>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3"/>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2253,8 +2381,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2269,224 +2398,243 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>8979700</v>
+        <v>3507300</v>
       </c>
       <c r="E57" s="3">
-        <v>3610900</v>
+        <v>8707300</v>
       </c>
       <c r="F57" s="3">
-        <v>3713400</v>
+        <v>8558300</v>
       </c>
       <c r="G57" s="3">
-        <v>3479200</v>
+        <v>3600700</v>
       </c>
       <c r="H57" s="3">
-        <v>7839100</v>
+        <v>3373600</v>
       </c>
       <c r="I57" s="3">
-        <v>2539800</v>
+        <v>7601300</v>
       </c>
       <c r="J57" s="3">
+        <v>2462800</v>
+      </c>
+      <c r="K57" s="3">
         <v>2548400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2612300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>5990900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>3573800</v>
       </c>
-      <c r="N57" s="3"/>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3"/>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1073500</v>
+        <v>686100</v>
       </c>
       <c r="E58" s="3">
-        <v>803900</v>
+        <v>1041000</v>
       </c>
       <c r="F58" s="3">
-        <v>1806700</v>
+        <v>836300</v>
       </c>
       <c r="G58" s="3">
-        <v>930800</v>
+        <v>1751900</v>
       </c>
       <c r="H58" s="3">
-        <v>567300</v>
+        <v>902600</v>
       </c>
       <c r="I58" s="3">
-        <v>416000</v>
+        <v>550000</v>
       </c>
       <c r="J58" s="3">
+        <v>403400</v>
+      </c>
+      <c r="K58" s="3">
         <v>402600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>755700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>240500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>391300</v>
       </c>
-      <c r="N58" s="3"/>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3"/>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>17259100</v>
+        <v>7479500</v>
       </c>
       <c r="E59" s="3">
-        <v>10281300</v>
+        <v>16752200</v>
       </c>
       <c r="F59" s="3">
-        <v>8954100</v>
+        <v>18123200</v>
       </c>
       <c r="G59" s="3">
-        <v>8157500</v>
+        <v>8682500</v>
       </c>
       <c r="H59" s="3">
-        <v>12067300</v>
+        <v>7910100</v>
       </c>
       <c r="I59" s="3">
-        <v>5241900</v>
+        <v>11701200</v>
       </c>
       <c r="J59" s="3">
+        <v>5082900</v>
+      </c>
+      <c r="K59" s="3">
         <v>5494400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>6205300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1347100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1412600</v>
       </c>
-      <c r="N59" s="3"/>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3"/>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>14413100</v>
+        <v>11672900</v>
       </c>
       <c r="E60" s="3">
-        <v>14696100</v>
+        <v>13992500</v>
       </c>
       <c r="F60" s="3">
-        <v>14454600</v>
+        <v>14253900</v>
       </c>
       <c r="G60" s="3">
-        <v>12567400</v>
+        <v>14016200</v>
       </c>
       <c r="H60" s="3">
-        <v>10474100</v>
+        <v>12186200</v>
       </c>
       <c r="I60" s="3">
-        <v>8197700</v>
+        <v>10156400</v>
       </c>
       <c r="J60" s="3">
+        <v>7949100</v>
+      </c>
+      <c r="K60" s="3">
         <v>8445400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>9573200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>4027100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>4090300</v>
       </c>
-      <c r="N60" s="3"/>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3"/>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>7390200</v>
+        <v>8046100</v>
       </c>
       <c r="E61" s="3">
-        <v>7944000</v>
+        <v>7166000</v>
       </c>
       <c r="F61" s="3">
-        <v>7686600</v>
+        <v>7703000</v>
       </c>
       <c r="G61" s="3">
-        <v>2182400</v>
+        <v>7453500</v>
       </c>
       <c r="H61" s="3">
-        <v>2487400</v>
+        <v>2116200</v>
       </c>
       <c r="I61" s="3">
-        <v>2892400</v>
+        <v>2411900</v>
       </c>
       <c r="J61" s="3">
+        <v>2804700</v>
+      </c>
+      <c r="K61" s="3">
         <v>3152200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>3184000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>3383300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>3413400</v>
       </c>
-      <c r="N61" s="3"/>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3"/>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1227200</v>
+        <v>2151700</v>
       </c>
       <c r="E62" s="3">
-        <v>1957900</v>
+        <v>1058700</v>
       </c>
       <c r="F62" s="3">
-        <v>2536200</v>
+        <v>3310900</v>
       </c>
       <c r="G62" s="3">
-        <v>3048500</v>
+        <v>2459200</v>
       </c>
       <c r="H62" s="3">
-        <v>3723100</v>
+        <v>2956100</v>
       </c>
       <c r="I62" s="3">
-        <v>1845700</v>
+        <v>3610200</v>
       </c>
       <c r="J62" s="3">
+        <v>1789700</v>
+      </c>
+      <c r="K62" s="3">
         <v>1818900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2151000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1678100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1129500</v>
       </c>
-      <c r="N62" s="3"/>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3"/>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2520,9 +2668,12 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-      <c r="N63" s="3"/>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3"/>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2556,9 +2707,12 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-      <c r="N64" s="3"/>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2592,45 +2746,51 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-      <c r="N65" s="3"/>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3"/>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>22758500</v>
+        <v>21870600</v>
       </c>
       <c r="E66" s="3">
-        <v>24598100</v>
+        <v>21953400</v>
       </c>
       <c r="F66" s="3">
-        <v>24677400</v>
+        <v>23830700</v>
       </c>
       <c r="G66" s="3">
-        <v>17798300</v>
+        <v>23928900</v>
       </c>
       <c r="H66" s="3">
-        <v>15768400</v>
+        <v>17258500</v>
       </c>
       <c r="I66" s="3">
-        <v>12940700</v>
+        <v>15290200</v>
       </c>
       <c r="J66" s="3">
+        <v>12548200</v>
+      </c>
+      <c r="K66" s="3">
         <v>13416500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>14911000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>8866100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>8633200</v>
       </c>
-      <c r="N66" s="3"/>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3"/>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2645,8 +2805,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2680,9 +2841,12 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-      <c r="N68" s="3"/>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3"/>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2716,9 +2880,12 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-      <c r="N69" s="3"/>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3"/>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2752,9 +2919,12 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-      <c r="N70" s="3"/>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3"/>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2788,45 +2958,51 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-      <c r="N71" s="3"/>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3"/>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>5545700</v>
+        <v>7026400</v>
       </c>
       <c r="E72" s="3">
-        <v>6485000</v>
+        <v>5492200</v>
       </c>
       <c r="F72" s="3">
-        <v>6516700</v>
+        <v>6508300</v>
       </c>
       <c r="G72" s="3">
-        <v>6160500</v>
+        <v>6319100</v>
       </c>
       <c r="H72" s="3">
-        <v>5675000</v>
+        <v>5973600</v>
       </c>
       <c r="I72" s="3">
-        <v>4976000</v>
+        <v>5502900</v>
       </c>
       <c r="J72" s="3">
+        <v>4825000</v>
+      </c>
+      <c r="K72" s="3">
         <v>4602700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>6002900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>4479600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>4771200</v>
       </c>
-      <c r="N72" s="3"/>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3"/>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2860,9 +3036,12 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-      <c r="N73" s="3"/>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3"/>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2896,9 +3075,12 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-      <c r="N74" s="3"/>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3"/>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2932,45 +3114,51 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-      <c r="N75" s="3"/>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3"/>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>8056200</v>
+        <v>9963600</v>
       </c>
       <c r="E76" s="3">
-        <v>9482300</v>
+        <v>7926600</v>
       </c>
       <c r="F76" s="3">
-        <v>9493300</v>
+        <v>9216000</v>
       </c>
       <c r="G76" s="3">
-        <v>9040700</v>
+        <v>9205300</v>
       </c>
       <c r="H76" s="3">
-        <v>8383200</v>
+        <v>8766500</v>
       </c>
       <c r="I76" s="3">
-        <v>7764700</v>
+        <v>8128900</v>
       </c>
       <c r="J76" s="3">
+        <v>7529200</v>
+      </c>
+      <c r="K76" s="3">
         <v>6757000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>8494900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>7546100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>7462000</v>
       </c>
-      <c r="N76" s="3"/>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3004,86 +3192,95 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-      <c r="N77" s="3"/>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3"/>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44625</v>
+      </c>
+      <c r="E80" s="2">
         <v>44261</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43897</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43533</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43169</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42805</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42441</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42077</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41713</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41349</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>40985</v>
       </c>
-      <c r="N80" s="2"/>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2"/>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-350100</v>
+        <v>800800</v>
       </c>
       <c r="E81" s="3">
-        <v>157400</v>
+        <v>-246000</v>
       </c>
       <c r="F81" s="3">
-        <v>204900</v>
+        <v>152600</v>
       </c>
       <c r="G81" s="3">
-        <v>355000</v>
+        <v>198700</v>
       </c>
       <c r="H81" s="3">
-        <v>437900</v>
+        <v>344200</v>
       </c>
       <c r="I81" s="3">
-        <v>559900</v>
+        <v>424700</v>
       </c>
       <c r="J81" s="3">
+        <v>543000</v>
+      </c>
+      <c r="K81" s="3">
         <v>-202500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1013200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>778300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>780000</v>
       </c>
-      <c r="N81" s="3"/>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3"/>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3098,44 +3295,48 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1532200</v>
+        <v>1443100</v>
       </c>
       <c r="E83" s="3">
-        <v>1539500</v>
+        <v>1477400</v>
       </c>
       <c r="F83" s="3">
-        <v>891700</v>
+        <v>1485700</v>
       </c>
       <c r="G83" s="3">
-        <v>766100</v>
+        <v>1492800</v>
       </c>
       <c r="H83" s="3">
-        <v>712400</v>
+        <v>864700</v>
       </c>
       <c r="I83" s="3">
-        <v>706300</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>8</v>
+        <v>742900</v>
+      </c>
+      <c r="J83" s="3">
+        <v>690800</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L83" s="3">
+      <c r="L83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M83" s="3">
         <v>668400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>650900</v>
       </c>
-      <c r="N83" s="3"/>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3"/>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3169,9 +3370,12 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-      <c r="N84" s="3"/>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3"/>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3205,9 +3409,12 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-      <c r="N85" s="3"/>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3"/>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3241,9 +3448,12 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-      <c r="N86" s="3"/>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3"/>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3277,9 +3487,12 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-      <c r="N87" s="3"/>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3"/>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3313,45 +3526,51 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-      <c r="N88" s="3"/>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3"/>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1673700</v>
+        <v>1193500</v>
       </c>
       <c r="E89" s="3">
-        <v>1272400</v>
+        <v>2771500</v>
       </c>
       <c r="F89" s="3">
-        <v>1665200</v>
+        <v>1622900</v>
       </c>
       <c r="G89" s="3">
-        <v>1406500</v>
+        <v>1233800</v>
       </c>
       <c r="H89" s="3">
-        <v>478200</v>
+        <v>1614700</v>
       </c>
       <c r="I89" s="3">
-        <v>1111300</v>
+        <v>1363900</v>
       </c>
       <c r="J89" s="3">
+        <v>463700</v>
+      </c>
+      <c r="K89" s="3">
         <v>1145500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1328800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1268200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1391700</v>
       </c>
-      <c r="N89" s="3"/>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3"/>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3366,44 +3585,48 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-633100</v>
+        <v>-492100</v>
       </c>
       <c r="E91" s="3">
-        <v>-578200</v>
+        <v>-500400</v>
       </c>
       <c r="F91" s="3">
-        <v>-684400</v>
+        <v>-613900</v>
       </c>
       <c r="G91" s="3">
-        <v>-773400</v>
+        <v>-560700</v>
       </c>
       <c r="H91" s="3">
-        <v>-788100</v>
+        <v>-663600</v>
       </c>
       <c r="I91" s="3">
-        <v>-1160100</v>
+        <v>-750000</v>
       </c>
       <c r="J91" s="3">
+        <v>-764200</v>
+      </c>
+      <c r="K91" s="3">
         <v>-1117400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1296200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1379400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1600400</v>
       </c>
-      <c r="N91" s="3"/>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3"/>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3437,9 +3660,12 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-      <c r="N92" s="3"/>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3"/>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3473,45 +3699,51 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-      <c r="N93" s="3"/>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3"/>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-519700</v>
+        <v>-767700</v>
       </c>
       <c r="E94" s="3">
-        <v>-586800</v>
+        <v>-654100</v>
       </c>
       <c r="F94" s="3">
-        <v>-573400</v>
+        <v>-503900</v>
       </c>
       <c r="G94" s="3">
-        <v>-914900</v>
+        <v>-569000</v>
       </c>
       <c r="H94" s="3">
-        <v>-488000</v>
+        <v>-556000</v>
       </c>
       <c r="I94" s="3">
-        <v>-1097900</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>8</v>
+        <v>-887200</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-473200</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L94" s="3">
+      <c r="L94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M94" s="3">
         <v>-1114400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1151700</v>
       </c>
-      <c r="N94" s="3"/>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3"/>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3526,44 +3758,48 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-329400</v>
+        <v>-286300</v>
       </c>
       <c r="E96" s="3">
-        <v>-301300</v>
+        <v>-301600</v>
       </c>
       <c r="F96" s="3">
-        <v>-286700</v>
+        <v>-319400</v>
       </c>
       <c r="G96" s="3">
-        <v>-308600</v>
+        <v>-292200</v>
       </c>
       <c r="H96" s="3">
-        <v>-290300</v>
+        <v>-278000</v>
       </c>
       <c r="I96" s="3">
-        <v>-402600</v>
+        <v>-299300</v>
       </c>
       <c r="J96" s="3">
+        <v>-281500</v>
+      </c>
+      <c r="K96" s="3">
         <v>-390400</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-452800</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-398200</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-371700</v>
       </c>
-      <c r="N96" s="3"/>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3"/>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3597,9 +3833,12 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-      <c r="N97" s="3"/>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3"/>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3633,9 +3872,12 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-      <c r="N98" s="3"/>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3"/>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3669,45 +3911,51 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-      <c r="N99" s="3"/>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3"/>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1307700</v>
+        <v>-1204200</v>
       </c>
       <c r="E100" s="3">
-        <v>-1427300</v>
+        <v>-1547200</v>
       </c>
       <c r="F100" s="3">
-        <v>-297700</v>
+        <v>-1268100</v>
       </c>
       <c r="G100" s="3">
-        <v>-568500</v>
+        <v>-1384000</v>
       </c>
       <c r="H100" s="3">
-        <v>-156100</v>
+        <v>-288600</v>
       </c>
       <c r="I100" s="3">
-        <v>-383000</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>8</v>
+        <v>-551200</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-151400</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L100" s="3">
+      <c r="L100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M100" s="3">
         <v>-457700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>71700</v>
       </c>
-      <c r="N100" s="3"/>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3"/>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3729,55 +3977,61 @@
       <c r="I101" s="3">
         <v>0</v>
       </c>
-      <c r="J101" s="3" t="s">
-        <v>8</v>
+      <c r="J101" s="3">
+        <v>0</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
+      <c r="L101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M101" s="3">
         <v>0</v>
       </c>
-      <c r="N101" s="3"/>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3"/>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-153700</v>
+        <v>-778300</v>
       </c>
       <c r="E102" s="3">
-        <v>-741700</v>
+        <v>570200</v>
       </c>
       <c r="F102" s="3">
-        <v>794200</v>
+        <v>-149000</v>
       </c>
       <c r="G102" s="3">
-        <v>-76900</v>
+        <v>-719200</v>
       </c>
       <c r="H102" s="3">
-        <v>-165900</v>
+        <v>770100</v>
       </c>
       <c r="I102" s="3">
-        <v>-369600</v>
+        <v>-74500</v>
       </c>
       <c r="J102" s="3">
+        <v>-160900</v>
+      </c>
+      <c r="K102" s="3">
         <v>1311400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1521200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-303800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>311700</v>
       </c>
-      <c r="N102" s="3"/>
+      <c r="O102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/JSAIY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/JSAIY_YR_FIN.xlsx
@@ -724,25 +724,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>35362800</v>
+        <v>35016000</v>
       </c>
       <c r="E8" s="3">
-        <v>34360900</v>
+        <v>34023900</v>
       </c>
       <c r="F8" s="3">
-        <v>34295800</v>
+        <v>33959500</v>
       </c>
       <c r="G8" s="3">
-        <v>34312400</v>
+        <v>33975900</v>
       </c>
       <c r="H8" s="3">
-        <v>33660600</v>
+        <v>33330500</v>
       </c>
       <c r="I8" s="3">
-        <v>31020400</v>
+        <v>30716200</v>
       </c>
       <c r="J8" s="3">
-        <v>27805200</v>
+        <v>27532600</v>
       </c>
       <c r="K8" s="3">
         <v>29003100</v>
@@ -763,25 +763,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>32574700</v>
+        <v>32255300</v>
       </c>
       <c r="E9" s="3">
-        <v>31784500</v>
+        <v>31472800</v>
       </c>
       <c r="F9" s="3">
-        <v>31582200</v>
+        <v>31272500</v>
       </c>
       <c r="G9" s="3">
-        <v>31605900</v>
+        <v>31296000</v>
       </c>
       <c r="H9" s="3">
-        <v>31434400</v>
+        <v>31126100</v>
       </c>
       <c r="I9" s="3">
-        <v>29087500</v>
+        <v>28802300</v>
       </c>
       <c r="J9" s="3">
-        <v>26082900</v>
+        <v>25827200</v>
       </c>
       <c r="K9" s="3">
         <v>27529500</v>
@@ -802,25 +802,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2788100</v>
+        <v>2760800</v>
       </c>
       <c r="E10" s="3">
-        <v>2576400</v>
+        <v>2551100</v>
       </c>
       <c r="F10" s="3">
-        <v>2713600</v>
+        <v>2687000</v>
       </c>
       <c r="G10" s="3">
-        <v>2706500</v>
+        <v>2679900</v>
       </c>
       <c r="H10" s="3">
-        <v>2226200</v>
+        <v>2204400</v>
       </c>
       <c r="I10" s="3">
-        <v>1932900</v>
+        <v>1913900</v>
       </c>
       <c r="J10" s="3">
-        <v>1722300</v>
+        <v>1705400</v>
       </c>
       <c r="K10" s="3">
         <v>1473600</v>
@@ -936,22 +936,22 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-136000</v>
+        <v>-134700</v>
       </c>
       <c r="E14" s="3">
-        <v>629300</v>
+        <v>623100</v>
       </c>
       <c r="F14" s="3">
-        <v>418700</v>
+        <v>414600</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
       <c r="H14" s="3">
-        <v>30800</v>
+        <v>30500</v>
       </c>
       <c r="I14" s="3">
-        <v>-97000</v>
+        <v>-96000</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>8</v>
@@ -1028,25 +1028,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>33989400</v>
+        <v>33656100</v>
       </c>
       <c r="E17" s="3">
-        <v>34165700</v>
+        <v>33830700</v>
       </c>
       <c r="F17" s="3">
-        <v>33492600</v>
+        <v>33164200</v>
       </c>
       <c r="G17" s="3">
-        <v>33612100</v>
+        <v>33282500</v>
       </c>
       <c r="H17" s="3">
-        <v>33078600</v>
+        <v>32754200</v>
       </c>
       <c r="I17" s="3">
-        <v>30279900</v>
+        <v>29982900</v>
       </c>
       <c r="J17" s="3">
-        <v>26968900</v>
+        <v>26704500</v>
       </c>
       <c r="K17" s="3">
         <v>28904300</v>
@@ -1067,25 +1067,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1373300</v>
+        <v>1359900</v>
       </c>
       <c r="E18" s="3">
-        <v>195200</v>
+        <v>193300</v>
       </c>
       <c r="F18" s="3">
-        <v>803200</v>
+        <v>795300</v>
       </c>
       <c r="G18" s="3">
-        <v>700300</v>
+        <v>693400</v>
       </c>
       <c r="H18" s="3">
-        <v>582000</v>
+        <v>576300</v>
       </c>
       <c r="I18" s="3">
-        <v>740500</v>
+        <v>733200</v>
       </c>
       <c r="J18" s="3">
-        <v>836300</v>
+        <v>828100</v>
       </c>
       <c r="K18" s="3">
         <v>98800</v>
@@ -1126,22 +1126,22 @@
         <v>4700</v>
       </c>
       <c r="E20" s="3">
-        <v>14200</v>
+        <v>14100</v>
       </c>
       <c r="F20" s="3">
-        <v>-50900</v>
+        <v>-50400</v>
       </c>
       <c r="G20" s="3">
-        <v>21300</v>
+        <v>21100</v>
       </c>
       <c r="H20" s="3">
-        <v>30800</v>
+        <v>30500</v>
       </c>
       <c r="I20" s="3">
-        <v>-13000</v>
+        <v>-12900</v>
       </c>
       <c r="J20" s="3">
-        <v>-46100</v>
+        <v>-45700</v>
       </c>
       <c r="K20" s="3">
         <v>-36600</v>
@@ -1162,25 +1162,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2817300</v>
+        <v>2750000</v>
       </c>
       <c r="E21" s="3">
-        <v>1682800</v>
+        <v>1625700</v>
       </c>
       <c r="F21" s="3">
-        <v>2234000</v>
+        <v>2171300</v>
       </c>
       <c r="G21" s="3">
-        <v>2210400</v>
+        <v>2147600</v>
       </c>
       <c r="H21" s="3">
-        <v>1475100</v>
+        <v>1436900</v>
       </c>
       <c r="I21" s="3">
-        <v>1468300</v>
+        <v>1433500</v>
       </c>
       <c r="J21" s="3">
-        <v>1479100</v>
+        <v>1445600</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>8</v>
@@ -1201,25 +1201,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>367900</v>
+        <v>364300</v>
       </c>
       <c r="E22" s="3">
-        <v>403400</v>
+        <v>399400</v>
       </c>
       <c r="F22" s="3">
-        <v>450700</v>
+        <v>446300</v>
       </c>
       <c r="G22" s="3">
-        <v>482600</v>
+        <v>477900</v>
       </c>
       <c r="H22" s="3">
-        <v>128900</v>
+        <v>127700</v>
       </c>
       <c r="I22" s="3">
-        <v>132500</v>
+        <v>131200</v>
       </c>
       <c r="J22" s="3">
-        <v>141900</v>
+        <v>140600</v>
       </c>
       <c r="K22" s="3">
         <v>150000</v>
@@ -1240,25 +1240,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1010200</v>
+        <v>1000300</v>
       </c>
       <c r="E23" s="3">
-        <v>-194000</v>
+        <v>-192100</v>
       </c>
       <c r="F23" s="3">
-        <v>301600</v>
+        <v>298700</v>
       </c>
       <c r="G23" s="3">
-        <v>238900</v>
+        <v>236600</v>
       </c>
       <c r="H23" s="3">
-        <v>483800</v>
+        <v>479100</v>
       </c>
       <c r="I23" s="3">
-        <v>595000</v>
+        <v>589200</v>
       </c>
       <c r="J23" s="3">
-        <v>648200</v>
+        <v>641900</v>
       </c>
       <c r="K23" s="3">
         <v>-87800</v>
@@ -1279,25 +1279,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>209400</v>
+        <v>207300</v>
       </c>
       <c r="E24" s="3">
-        <v>43800</v>
+        <v>43300</v>
       </c>
       <c r="F24" s="3">
-        <v>121800</v>
+        <v>120600</v>
       </c>
       <c r="G24" s="3">
-        <v>18900</v>
+        <v>18700</v>
       </c>
       <c r="H24" s="3">
-        <v>118300</v>
+        <v>117100</v>
       </c>
       <c r="I24" s="3">
-        <v>149000</v>
+        <v>147600</v>
       </c>
       <c r="J24" s="3">
-        <v>91100</v>
+        <v>90200</v>
       </c>
       <c r="K24" s="3">
         <v>114700</v>
@@ -1357,25 +1357,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>800800</v>
+        <v>793000</v>
       </c>
       <c r="E26" s="3">
-        <v>-237800</v>
+        <v>-235400</v>
       </c>
       <c r="F26" s="3">
-        <v>179800</v>
+        <v>178000</v>
       </c>
       <c r="G26" s="3">
-        <v>220000</v>
+        <v>217900</v>
       </c>
       <c r="H26" s="3">
-        <v>365500</v>
+        <v>361900</v>
       </c>
       <c r="I26" s="3">
-        <v>446000</v>
+        <v>441600</v>
       </c>
       <c r="J26" s="3">
-        <v>557100</v>
+        <v>551700</v>
       </c>
       <c r="K26" s="3">
         <v>-202500</v>
@@ -1396,25 +1396,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>800800</v>
+        <v>793000</v>
       </c>
       <c r="E27" s="3">
-        <v>-246000</v>
+        <v>-243600</v>
       </c>
       <c r="F27" s="3">
-        <v>152600</v>
+        <v>151100</v>
       </c>
       <c r="G27" s="3">
-        <v>198700</v>
+        <v>196800</v>
       </c>
       <c r="H27" s="3">
-        <v>344200</v>
+        <v>340800</v>
       </c>
       <c r="I27" s="3">
-        <v>424700</v>
+        <v>420500</v>
       </c>
       <c r="J27" s="3">
-        <v>543000</v>
+        <v>537600</v>
       </c>
       <c r="K27" s="3">
         <v>-202500</v>
@@ -1594,22 +1594,22 @@
         <v>-4700</v>
       </c>
       <c r="E32" s="3">
-        <v>-14200</v>
+        <v>-14100</v>
       </c>
       <c r="F32" s="3">
-        <v>50900</v>
+        <v>50400</v>
       </c>
       <c r="G32" s="3">
-        <v>-21300</v>
+        <v>-21100</v>
       </c>
       <c r="H32" s="3">
-        <v>-30800</v>
+        <v>-30500</v>
       </c>
       <c r="I32" s="3">
-        <v>13000</v>
+        <v>12900</v>
       </c>
       <c r="J32" s="3">
-        <v>46100</v>
+        <v>45700</v>
       </c>
       <c r="K32" s="3">
         <v>36600</v>
@@ -1630,25 +1630,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>800800</v>
+        <v>793000</v>
       </c>
       <c r="E33" s="3">
-        <v>-246000</v>
+        <v>-243600</v>
       </c>
       <c r="F33" s="3">
-        <v>152600</v>
+        <v>151100</v>
       </c>
       <c r="G33" s="3">
-        <v>198700</v>
+        <v>196800</v>
       </c>
       <c r="H33" s="3">
-        <v>344200</v>
+        <v>340800</v>
       </c>
       <c r="I33" s="3">
-        <v>424700</v>
+        <v>420500</v>
       </c>
       <c r="J33" s="3">
-        <v>543000</v>
+        <v>537600</v>
       </c>
       <c r="K33" s="3">
         <v>-202500</v>
@@ -1708,25 +1708,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>800800</v>
+        <v>793000</v>
       </c>
       <c r="E35" s="3">
-        <v>-246000</v>
+        <v>-243600</v>
       </c>
       <c r="F35" s="3">
-        <v>152600</v>
+        <v>151100</v>
       </c>
       <c r="G35" s="3">
-        <v>198700</v>
+        <v>196800</v>
       </c>
       <c r="H35" s="3">
-        <v>344200</v>
+        <v>340800</v>
       </c>
       <c r="I35" s="3">
-        <v>424700</v>
+        <v>420500</v>
       </c>
       <c r="J35" s="3">
-        <v>543000</v>
+        <v>537600</v>
       </c>
       <c r="K35" s="3">
         <v>-202500</v>
@@ -1825,25 +1825,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>699100</v>
+        <v>692200</v>
       </c>
       <c r="E41" s="3">
-        <v>855200</v>
+        <v>846800</v>
       </c>
       <c r="F41" s="3">
-        <v>2028700</v>
+        <v>2008800</v>
       </c>
       <c r="G41" s="3">
-        <v>961700</v>
+        <v>952300</v>
       </c>
       <c r="H41" s="3">
-        <v>1238500</v>
+        <v>1226400</v>
       </c>
       <c r="I41" s="3">
-        <v>996000</v>
+        <v>986200</v>
       </c>
       <c r="J41" s="3">
-        <v>1010200</v>
+        <v>1000300</v>
       </c>
       <c r="K41" s="3">
         <v>1567600</v>
@@ -1864,25 +1864,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>508600</v>
+        <v>503700</v>
       </c>
       <c r="E42" s="3">
-        <v>1114300</v>
+        <v>1103400</v>
       </c>
       <c r="F42" s="3">
-        <v>419900</v>
+        <v>415800</v>
       </c>
       <c r="G42" s="3">
-        <v>613900</v>
+        <v>607900</v>
       </c>
       <c r="H42" s="3">
-        <v>1048000</v>
+        <v>1037800</v>
       </c>
       <c r="I42" s="3">
-        <v>403400</v>
+        <v>399400</v>
       </c>
       <c r="J42" s="3">
-        <v>398600</v>
+        <v>394700</v>
       </c>
       <c r="K42" s="3" t="s">
         <v>8</v>
@@ -1903,25 +1903,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>4346000</v>
+        <v>4303400</v>
       </c>
       <c r="E43" s="3">
-        <v>8934400</v>
+        <v>8846800</v>
       </c>
       <c r="F43" s="3">
-        <v>11062500</v>
+        <v>10954000</v>
       </c>
       <c r="G43" s="3">
-        <v>4854600</v>
+        <v>4807000</v>
       </c>
       <c r="H43" s="3">
-        <v>4668900</v>
+        <v>4623100</v>
       </c>
       <c r="I43" s="3">
-        <v>7528000</v>
+        <v>7454200</v>
       </c>
       <c r="J43" s="3">
-        <v>2479400</v>
+        <v>2455000</v>
       </c>
       <c r="K43" s="3">
         <v>2404400</v>
@@ -1942,25 +1942,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>2125700</v>
+        <v>2104800</v>
       </c>
       <c r="E44" s="3">
-        <v>3844400</v>
+        <v>3806700</v>
       </c>
       <c r="F44" s="3">
-        <v>4097600</v>
+        <v>4057400</v>
       </c>
       <c r="G44" s="3">
-        <v>2281800</v>
+        <v>2259400</v>
       </c>
       <c r="H44" s="3">
-        <v>2141000</v>
+        <v>2120100</v>
       </c>
       <c r="I44" s="3">
-        <v>4199300</v>
+        <v>4158100</v>
       </c>
       <c r="J44" s="3">
-        <v>1145000</v>
+        <v>1133800</v>
       </c>
       <c r="K44" s="3">
         <v>1216200</v>
@@ -1981,25 +1981,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>295700</v>
+        <v>292800</v>
       </c>
       <c r="E45" s="3">
-        <v>189300</v>
+        <v>187400</v>
       </c>
       <c r="F45" s="3">
-        <v>217700</v>
+        <v>215500</v>
       </c>
       <c r="G45" s="3">
-        <v>218800</v>
+        <v>216700</v>
       </c>
       <c r="H45" s="3">
-        <v>197500</v>
+        <v>195600</v>
       </c>
       <c r="I45" s="3">
-        <v>295700</v>
+        <v>292800</v>
       </c>
       <c r="J45" s="3">
-        <v>186900</v>
+        <v>185100</v>
       </c>
       <c r="K45" s="3">
         <v>204900</v>
@@ -2020,25 +2020,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>7975100</v>
+        <v>7896900</v>
       </c>
       <c r="E46" s="3">
-        <v>8454200</v>
+        <v>8371300</v>
       </c>
       <c r="F46" s="3">
-        <v>8968700</v>
+        <v>8880800</v>
       </c>
       <c r="G46" s="3">
-        <v>8930900</v>
+        <v>8843300</v>
       </c>
       <c r="H46" s="3">
-        <v>9294000</v>
+        <v>9202900</v>
       </c>
       <c r="I46" s="3">
-        <v>7466500</v>
+        <v>7393200</v>
       </c>
       <c r="J46" s="3">
-        <v>5220100</v>
+        <v>5168900</v>
       </c>
       <c r="K46" s="3">
         <v>5393200</v>
@@ -2059,25 +2059,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>3163100</v>
+        <v>3132100</v>
       </c>
       <c r="E47" s="3">
-        <v>6401900</v>
+        <v>6339100</v>
       </c>
       <c r="F47" s="3">
-        <v>9423000</v>
+        <v>9330600</v>
       </c>
       <c r="G47" s="3">
-        <v>5025000</v>
+        <v>4975700</v>
       </c>
       <c r="H47" s="3">
-        <v>3713100</v>
+        <v>3676700</v>
       </c>
       <c r="I47" s="3">
-        <v>5479200</v>
+        <v>5425500</v>
       </c>
       <c r="J47" s="3">
-        <v>2848400</v>
+        <v>2820500</v>
       </c>
       <c r="K47" s="3">
         <v>2486200</v>
@@ -2098,25 +2098,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>16515600</v>
+        <v>16353700</v>
       </c>
       <c r="E48" s="3">
-        <v>31545600</v>
+        <v>31236200</v>
       </c>
       <c r="F48" s="3">
-        <v>32543900</v>
+        <v>32224800</v>
       </c>
       <c r="G48" s="3">
-        <v>16780600</v>
+        <v>16616100</v>
       </c>
       <c r="H48" s="3">
-        <v>11708300</v>
+        <v>11593500</v>
       </c>
       <c r="I48" s="3">
-        <v>23672200</v>
+        <v>23440100</v>
       </c>
       <c r="J48" s="3">
-        <v>11549800</v>
+        <v>11436600</v>
       </c>
       <c r="K48" s="3">
         <v>11769600</v>
@@ -2137,25 +2137,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1190000</v>
+        <v>1178300</v>
       </c>
       <c r="E49" s="3">
-        <v>2162300</v>
+        <v>2141100</v>
       </c>
       <c r="F49" s="3">
-        <v>2349200</v>
+        <v>2326200</v>
       </c>
       <c r="G49" s="3">
-        <v>1233800</v>
+        <v>1221700</v>
       </c>
       <c r="H49" s="3">
-        <v>1268100</v>
+        <v>1255600</v>
       </c>
       <c r="I49" s="3">
-        <v>1827600</v>
+        <v>1809700</v>
       </c>
       <c r="J49" s="3">
-        <v>389200</v>
+        <v>385400</v>
       </c>
       <c r="K49" s="3">
         <v>396500</v>
@@ -2254,25 +2254,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2990400</v>
+        <v>2961000</v>
       </c>
       <c r="E52" s="3">
-        <v>926200</v>
+        <v>917100</v>
       </c>
       <c r="F52" s="3">
-        <v>1343800</v>
+        <v>1330600</v>
       </c>
       <c r="G52" s="3">
-        <v>1164000</v>
+        <v>1152600</v>
       </c>
       <c r="H52" s="3">
-        <v>41400</v>
+        <v>41000</v>
       </c>
       <c r="I52" s="3">
-        <v>35500</v>
+        <v>35100</v>
       </c>
       <c r="J52" s="3">
-        <v>69800</v>
+        <v>69100</v>
       </c>
       <c r="K52" s="3">
         <v>128100</v>
@@ -2332,25 +2332,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>31834200</v>
+        <v>31522000</v>
       </c>
       <c r="E54" s="3">
-        <v>29880100</v>
+        <v>29587000</v>
       </c>
       <c r="F54" s="3">
-        <v>33046700</v>
+        <v>32722600</v>
       </c>
       <c r="G54" s="3">
-        <v>33134200</v>
+        <v>32809300</v>
       </c>
       <c r="H54" s="3">
-        <v>26025000</v>
+        <v>25769800</v>
       </c>
       <c r="I54" s="3">
-        <v>23419100</v>
+        <v>23189400</v>
       </c>
       <c r="J54" s="3">
-        <v>20077400</v>
+        <v>19880500</v>
       </c>
       <c r="K54" s="3">
         <v>20173500</v>
@@ -2405,25 +2405,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>3507300</v>
+        <v>3472900</v>
       </c>
       <c r="E57" s="3">
-        <v>8707300</v>
+        <v>8621900</v>
       </c>
       <c r="F57" s="3">
-        <v>8558300</v>
+        <v>8474400</v>
       </c>
       <c r="G57" s="3">
-        <v>3600700</v>
+        <v>3565400</v>
       </c>
       <c r="H57" s="3">
-        <v>3373600</v>
+        <v>3340500</v>
       </c>
       <c r="I57" s="3">
-        <v>7601300</v>
+        <v>7526800</v>
       </c>
       <c r="J57" s="3">
-        <v>2462800</v>
+        <v>2438600</v>
       </c>
       <c r="K57" s="3">
         <v>2548400</v>
@@ -2444,25 +2444,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>686100</v>
+        <v>679400</v>
       </c>
       <c r="E58" s="3">
-        <v>1041000</v>
+        <v>1030700</v>
       </c>
       <c r="F58" s="3">
-        <v>836300</v>
+        <v>828100</v>
       </c>
       <c r="G58" s="3">
-        <v>1751900</v>
+        <v>1734700</v>
       </c>
       <c r="H58" s="3">
-        <v>902600</v>
+        <v>893700</v>
       </c>
       <c r="I58" s="3">
-        <v>550000</v>
+        <v>544700</v>
       </c>
       <c r="J58" s="3">
-        <v>403400</v>
+        <v>399400</v>
       </c>
       <c r="K58" s="3">
         <v>402600</v>
@@ -2483,25 +2483,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>7479500</v>
+        <v>7406100</v>
       </c>
       <c r="E59" s="3">
-        <v>16752200</v>
+        <v>16588000</v>
       </c>
       <c r="F59" s="3">
-        <v>18123200</v>
+        <v>17945500</v>
       </c>
       <c r="G59" s="3">
-        <v>8682500</v>
+        <v>8597300</v>
       </c>
       <c r="H59" s="3">
-        <v>7910100</v>
+        <v>7832500</v>
       </c>
       <c r="I59" s="3">
-        <v>11701200</v>
+        <v>11586500</v>
       </c>
       <c r="J59" s="3">
-        <v>5082900</v>
+        <v>5033100</v>
       </c>
       <c r="K59" s="3">
         <v>5494400</v>
@@ -2522,25 +2522,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>11672900</v>
+        <v>11558400</v>
       </c>
       <c r="E60" s="3">
-        <v>13992500</v>
+        <v>13855300</v>
       </c>
       <c r="F60" s="3">
-        <v>14253900</v>
+        <v>14114200</v>
       </c>
       <c r="G60" s="3">
-        <v>14016200</v>
+        <v>13878700</v>
       </c>
       <c r="H60" s="3">
-        <v>12186200</v>
+        <v>12066700</v>
       </c>
       <c r="I60" s="3">
-        <v>10156400</v>
+        <v>10056800</v>
       </c>
       <c r="J60" s="3">
-        <v>7949100</v>
+        <v>7871100</v>
       </c>
       <c r="K60" s="3">
         <v>8445400</v>
@@ -2561,25 +2561,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>8046100</v>
+        <v>7967200</v>
       </c>
       <c r="E61" s="3">
-        <v>7166000</v>
+        <v>7095700</v>
       </c>
       <c r="F61" s="3">
-        <v>7703000</v>
+        <v>7627500</v>
       </c>
       <c r="G61" s="3">
-        <v>7453500</v>
+        <v>7380400</v>
       </c>
       <c r="H61" s="3">
-        <v>2116200</v>
+        <v>2095500</v>
       </c>
       <c r="I61" s="3">
-        <v>2411900</v>
+        <v>2388300</v>
       </c>
       <c r="J61" s="3">
-        <v>2804700</v>
+        <v>2777200</v>
       </c>
       <c r="K61" s="3">
         <v>3152200</v>
@@ -2600,25 +2600,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2151700</v>
+        <v>2130600</v>
       </c>
       <c r="E62" s="3">
-        <v>1058700</v>
+        <v>1048300</v>
       </c>
       <c r="F62" s="3">
-        <v>3310900</v>
+        <v>3278500</v>
       </c>
       <c r="G62" s="3">
-        <v>2459200</v>
+        <v>2435100</v>
       </c>
       <c r="H62" s="3">
-        <v>2956100</v>
+        <v>2927100</v>
       </c>
       <c r="I62" s="3">
-        <v>3610200</v>
+        <v>3574800</v>
       </c>
       <c r="J62" s="3">
-        <v>1789700</v>
+        <v>1772200</v>
       </c>
       <c r="K62" s="3">
         <v>1818900</v>
@@ -2756,25 +2756,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>21870600</v>
+        <v>21656200</v>
       </c>
       <c r="E66" s="3">
-        <v>21953400</v>
+        <v>21738200</v>
       </c>
       <c r="F66" s="3">
-        <v>23830700</v>
+        <v>23597000</v>
       </c>
       <c r="G66" s="3">
-        <v>23928900</v>
+        <v>23694200</v>
       </c>
       <c r="H66" s="3">
-        <v>17258500</v>
+        <v>17089300</v>
       </c>
       <c r="I66" s="3">
-        <v>15290200</v>
+        <v>15140200</v>
       </c>
       <c r="J66" s="3">
-        <v>12548200</v>
+        <v>12425200</v>
       </c>
       <c r="K66" s="3">
         <v>13416500</v>
@@ -2968,25 +2968,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>7026400</v>
+        <v>6957500</v>
       </c>
       <c r="E72" s="3">
-        <v>5492200</v>
+        <v>5438300</v>
       </c>
       <c r="F72" s="3">
-        <v>6508300</v>
+        <v>6444500</v>
       </c>
       <c r="G72" s="3">
-        <v>6319100</v>
+        <v>6257100</v>
       </c>
       <c r="H72" s="3">
-        <v>5973600</v>
+        <v>5915100</v>
       </c>
       <c r="I72" s="3">
-        <v>5502900</v>
+        <v>5448900</v>
       </c>
       <c r="J72" s="3">
-        <v>4825000</v>
+        <v>4777700</v>
       </c>
       <c r="K72" s="3">
         <v>4602700</v>
@@ -3124,25 +3124,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>9963600</v>
+        <v>9865900</v>
       </c>
       <c r="E76" s="3">
-        <v>7926600</v>
+        <v>7848900</v>
       </c>
       <c r="F76" s="3">
-        <v>9216000</v>
+        <v>9125600</v>
       </c>
       <c r="G76" s="3">
-        <v>9205300</v>
+        <v>9115100</v>
       </c>
       <c r="H76" s="3">
-        <v>8766500</v>
+        <v>8680500</v>
       </c>
       <c r="I76" s="3">
-        <v>8128900</v>
+        <v>8049200</v>
       </c>
       <c r="J76" s="3">
-        <v>7529200</v>
+        <v>7455300</v>
       </c>
       <c r="K76" s="3">
         <v>6757000</v>
@@ -3246,25 +3246,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>800800</v>
+        <v>793000</v>
       </c>
       <c r="E81" s="3">
-        <v>-246000</v>
+        <v>-243600</v>
       </c>
       <c r="F81" s="3">
-        <v>152600</v>
+        <v>151100</v>
       </c>
       <c r="G81" s="3">
-        <v>198700</v>
+        <v>196800</v>
       </c>
       <c r="H81" s="3">
-        <v>344200</v>
+        <v>340800</v>
       </c>
       <c r="I81" s="3">
-        <v>424700</v>
+        <v>420500</v>
       </c>
       <c r="J81" s="3">
-        <v>543000</v>
+        <v>537600</v>
       </c>
       <c r="K81" s="3">
         <v>-202500</v>
@@ -3302,25 +3302,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1443100</v>
+        <v>1429000</v>
       </c>
       <c r="E83" s="3">
-        <v>1477400</v>
+        <v>1463000</v>
       </c>
       <c r="F83" s="3">
-        <v>1485700</v>
+        <v>1471200</v>
       </c>
       <c r="G83" s="3">
-        <v>1492800</v>
+        <v>1478200</v>
       </c>
       <c r="H83" s="3">
-        <v>864700</v>
+        <v>856200</v>
       </c>
       <c r="I83" s="3">
-        <v>742900</v>
+        <v>735600</v>
       </c>
       <c r="J83" s="3">
-        <v>690800</v>
+        <v>684000</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>8</v>
@@ -3536,25 +3536,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1193500</v>
+        <v>1181800</v>
       </c>
       <c r="E89" s="3">
-        <v>2771500</v>
+        <v>2744400</v>
       </c>
       <c r="F89" s="3">
-        <v>1622900</v>
+        <v>1607000</v>
       </c>
       <c r="G89" s="3">
-        <v>1233800</v>
+        <v>1221700</v>
       </c>
       <c r="H89" s="3">
-        <v>1614700</v>
+        <v>1598800</v>
       </c>
       <c r="I89" s="3">
-        <v>1363900</v>
+        <v>1350500</v>
       </c>
       <c r="J89" s="3">
-        <v>463700</v>
+        <v>459100</v>
       </c>
       <c r="K89" s="3">
         <v>1145500</v>
@@ -3592,25 +3592,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-492100</v>
+        <v>-487300</v>
       </c>
       <c r="E91" s="3">
-        <v>-500400</v>
+        <v>-495500</v>
       </c>
       <c r="F91" s="3">
-        <v>-613900</v>
+        <v>-607900</v>
       </c>
       <c r="G91" s="3">
-        <v>-560700</v>
+        <v>-555200</v>
       </c>
       <c r="H91" s="3">
-        <v>-663600</v>
+        <v>-657100</v>
       </c>
       <c r="I91" s="3">
-        <v>-750000</v>
+        <v>-742600</v>
       </c>
       <c r="J91" s="3">
-        <v>-764200</v>
+        <v>-756700</v>
       </c>
       <c r="K91" s="3">
         <v>-1117400</v>
@@ -3709,25 +3709,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-767700</v>
+        <v>-760200</v>
       </c>
       <c r="E94" s="3">
-        <v>-654100</v>
+        <v>-647700</v>
       </c>
       <c r="F94" s="3">
-        <v>-503900</v>
+        <v>-499000</v>
       </c>
       <c r="G94" s="3">
-        <v>-569000</v>
+        <v>-563400</v>
       </c>
       <c r="H94" s="3">
-        <v>-556000</v>
+        <v>-550500</v>
       </c>
       <c r="I94" s="3">
-        <v>-887200</v>
+        <v>-878500</v>
       </c>
       <c r="J94" s="3">
-        <v>-473200</v>
+        <v>-468500</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>8</v>
@@ -3765,25 +3765,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-286300</v>
+        <v>-283500</v>
       </c>
       <c r="E96" s="3">
-        <v>-301600</v>
+        <v>-298700</v>
       </c>
       <c r="F96" s="3">
-        <v>-319400</v>
+        <v>-316300</v>
       </c>
       <c r="G96" s="3">
-        <v>-292200</v>
+        <v>-289300</v>
       </c>
       <c r="H96" s="3">
-        <v>-278000</v>
+        <v>-275300</v>
       </c>
       <c r="I96" s="3">
-        <v>-299300</v>
+        <v>-296300</v>
       </c>
       <c r="J96" s="3">
-        <v>-281500</v>
+        <v>-278800</v>
       </c>
       <c r="K96" s="3">
         <v>-390400</v>
@@ -3921,25 +3921,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1204200</v>
+        <v>-1192400</v>
       </c>
       <c r="E100" s="3">
-        <v>-1547200</v>
+        <v>-1532100</v>
       </c>
       <c r="F100" s="3">
-        <v>-1268100</v>
+        <v>-1255600</v>
       </c>
       <c r="G100" s="3">
-        <v>-1384000</v>
+        <v>-1370400</v>
       </c>
       <c r="H100" s="3">
-        <v>-288600</v>
+        <v>-285800</v>
       </c>
       <c r="I100" s="3">
-        <v>-551200</v>
+        <v>-545800</v>
       </c>
       <c r="J100" s="3">
-        <v>-151400</v>
+        <v>-149900</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>8</v>
@@ -3999,25 +3999,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-778300</v>
+        <v>-770700</v>
       </c>
       <c r="E102" s="3">
-        <v>570200</v>
+        <v>564600</v>
       </c>
       <c r="F102" s="3">
-        <v>-149000</v>
+        <v>-147600</v>
       </c>
       <c r="G102" s="3">
-        <v>-719200</v>
+        <v>-712200</v>
       </c>
       <c r="H102" s="3">
-        <v>770100</v>
+        <v>762500</v>
       </c>
       <c r="I102" s="3">
-        <v>-74500</v>
+        <v>-73800</v>
       </c>
       <c r="J102" s="3">
-        <v>-160900</v>
+        <v>-159300</v>
       </c>
       <c r="K102" s="3">
         <v>1311400</v>

--- a/AAII_Financials/Yearly/JSAIY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/JSAIY_YR_FIN.xlsx
@@ -724,25 +724,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>35016000</v>
+        <v>35650100</v>
       </c>
       <c r="E8" s="3">
-        <v>34023900</v>
+        <v>34640000</v>
       </c>
       <c r="F8" s="3">
-        <v>33959500</v>
+        <v>34574400</v>
       </c>
       <c r="G8" s="3">
-        <v>33975900</v>
+        <v>34591100</v>
       </c>
       <c r="H8" s="3">
-        <v>33330500</v>
+        <v>33934100</v>
       </c>
       <c r="I8" s="3">
-        <v>30716200</v>
+        <v>31272400</v>
       </c>
       <c r="J8" s="3">
-        <v>27532600</v>
+        <v>28031100</v>
       </c>
       <c r="K8" s="3">
         <v>29003100</v>
@@ -763,25 +763,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>32255300</v>
+        <v>32839300</v>
       </c>
       <c r="E9" s="3">
-        <v>31472800</v>
+        <v>32042700</v>
       </c>
       <c r="F9" s="3">
-        <v>31272500</v>
+        <v>31838800</v>
       </c>
       <c r="G9" s="3">
-        <v>31296000</v>
+        <v>31862700</v>
       </c>
       <c r="H9" s="3">
-        <v>31126100</v>
+        <v>31689800</v>
       </c>
       <c r="I9" s="3">
-        <v>28802300</v>
+        <v>29323800</v>
       </c>
       <c r="J9" s="3">
-        <v>25827200</v>
+        <v>26294800</v>
       </c>
       <c r="K9" s="3">
         <v>27529500</v>
@@ -802,25 +802,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2760800</v>
+        <v>2810700</v>
       </c>
       <c r="E10" s="3">
-        <v>2551100</v>
+        <v>2597300</v>
       </c>
       <c r="F10" s="3">
-        <v>2687000</v>
+        <v>2735600</v>
       </c>
       <c r="G10" s="3">
-        <v>2679900</v>
+        <v>2728500</v>
       </c>
       <c r="H10" s="3">
-        <v>2204400</v>
+        <v>2244300</v>
       </c>
       <c r="I10" s="3">
-        <v>1913900</v>
+        <v>1948600</v>
       </c>
       <c r="J10" s="3">
-        <v>1705400</v>
+        <v>1736300</v>
       </c>
       <c r="K10" s="3">
         <v>1473600</v>
@@ -936,22 +936,22 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-134700</v>
+        <v>-137100</v>
       </c>
       <c r="E14" s="3">
-        <v>623100</v>
+        <v>634400</v>
       </c>
       <c r="F14" s="3">
-        <v>414600</v>
+        <v>422100</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
       <c r="H14" s="3">
-        <v>30500</v>
+        <v>31000</v>
       </c>
       <c r="I14" s="3">
-        <v>-96000</v>
+        <v>-97800</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>8</v>
@@ -1028,25 +1028,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>33656100</v>
+        <v>34265600</v>
       </c>
       <c r="E17" s="3">
-        <v>33830700</v>
+        <v>34443300</v>
       </c>
       <c r="F17" s="3">
-        <v>33164200</v>
+        <v>33764700</v>
       </c>
       <c r="G17" s="3">
-        <v>33282500</v>
+        <v>33885200</v>
       </c>
       <c r="H17" s="3">
-        <v>32754200</v>
+        <v>33347300</v>
       </c>
       <c r="I17" s="3">
-        <v>29982900</v>
+        <v>30525900</v>
       </c>
       <c r="J17" s="3">
-        <v>26704500</v>
+        <v>27188000</v>
       </c>
       <c r="K17" s="3">
         <v>28904300</v>
@@ -1067,25 +1067,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1359900</v>
+        <v>1384500</v>
       </c>
       <c r="E18" s="3">
-        <v>193300</v>
+        <v>196800</v>
       </c>
       <c r="F18" s="3">
-        <v>795300</v>
+        <v>809700</v>
       </c>
       <c r="G18" s="3">
-        <v>693400</v>
+        <v>706000</v>
       </c>
       <c r="H18" s="3">
-        <v>576300</v>
+        <v>586700</v>
       </c>
       <c r="I18" s="3">
-        <v>733200</v>
+        <v>746500</v>
       </c>
       <c r="J18" s="3">
-        <v>828100</v>
+        <v>843100</v>
       </c>
       <c r="K18" s="3">
         <v>98800</v>
@@ -1123,25 +1123,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>4700</v>
+        <v>4800</v>
       </c>
       <c r="E20" s="3">
-        <v>14100</v>
+        <v>14300</v>
       </c>
       <c r="F20" s="3">
-        <v>-50400</v>
+        <v>-51300</v>
       </c>
       <c r="G20" s="3">
-        <v>21100</v>
+        <v>21500</v>
       </c>
       <c r="H20" s="3">
-        <v>30500</v>
+        <v>31000</v>
       </c>
       <c r="I20" s="3">
-        <v>-12900</v>
+        <v>-13100</v>
       </c>
       <c r="J20" s="3">
-        <v>-45700</v>
+        <v>-46500</v>
       </c>
       <c r="K20" s="3">
         <v>-36600</v>
@@ -1162,25 +1162,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2750000</v>
+        <v>2834000</v>
       </c>
       <c r="E21" s="3">
-        <v>1625700</v>
+        <v>1690100</v>
       </c>
       <c r="F21" s="3">
-        <v>2171300</v>
+        <v>2245800</v>
       </c>
       <c r="G21" s="3">
-        <v>2147600</v>
+        <v>2221900</v>
       </c>
       <c r="H21" s="3">
-        <v>1436900</v>
+        <v>1483400</v>
       </c>
       <c r="I21" s="3">
-        <v>1433500</v>
+        <v>1477100</v>
       </c>
       <c r="J21" s="3">
-        <v>1445600</v>
+        <v>1488200</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>8</v>
@@ -1201,25 +1201,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>364300</v>
+        <v>370900</v>
       </c>
       <c r="E22" s="3">
-        <v>399400</v>
+        <v>406600</v>
       </c>
       <c r="F22" s="3">
-        <v>446300</v>
+        <v>454300</v>
       </c>
       <c r="G22" s="3">
-        <v>477900</v>
+        <v>486500</v>
       </c>
       <c r="H22" s="3">
-        <v>127700</v>
+        <v>130000</v>
       </c>
       <c r="I22" s="3">
-        <v>131200</v>
+        <v>133600</v>
       </c>
       <c r="J22" s="3">
-        <v>140600</v>
+        <v>143100</v>
       </c>
       <c r="K22" s="3">
         <v>150000</v>
@@ -1240,25 +1240,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1000300</v>
+        <v>1018400</v>
       </c>
       <c r="E23" s="3">
-        <v>-192100</v>
+        <v>-195600</v>
       </c>
       <c r="F23" s="3">
-        <v>298700</v>
+        <v>304100</v>
       </c>
       <c r="G23" s="3">
-        <v>236600</v>
+        <v>240900</v>
       </c>
       <c r="H23" s="3">
-        <v>479100</v>
+        <v>487700</v>
       </c>
       <c r="I23" s="3">
-        <v>589200</v>
+        <v>599800</v>
       </c>
       <c r="J23" s="3">
-        <v>641900</v>
+        <v>653500</v>
       </c>
       <c r="K23" s="3">
         <v>-87800</v>
@@ -1279,25 +1279,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>207300</v>
+        <v>211100</v>
       </c>
       <c r="E24" s="3">
-        <v>43300</v>
+        <v>44100</v>
       </c>
       <c r="F24" s="3">
-        <v>120600</v>
+        <v>122800</v>
       </c>
       <c r="G24" s="3">
-        <v>18700</v>
+        <v>19100</v>
       </c>
       <c r="H24" s="3">
-        <v>117100</v>
+        <v>119300</v>
       </c>
       <c r="I24" s="3">
-        <v>147600</v>
+        <v>150300</v>
       </c>
       <c r="J24" s="3">
-        <v>90200</v>
+        <v>91800</v>
       </c>
       <c r="K24" s="3">
         <v>114700</v>
@@ -1357,25 +1357,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>793000</v>
+        <v>807300</v>
       </c>
       <c r="E26" s="3">
-        <v>-235400</v>
+        <v>-239700</v>
       </c>
       <c r="F26" s="3">
-        <v>178000</v>
+        <v>181300</v>
       </c>
       <c r="G26" s="3">
-        <v>217900</v>
+        <v>221800</v>
       </c>
       <c r="H26" s="3">
-        <v>361900</v>
+        <v>368500</v>
       </c>
       <c r="I26" s="3">
-        <v>441600</v>
+        <v>449600</v>
       </c>
       <c r="J26" s="3">
-        <v>551700</v>
+        <v>561700</v>
       </c>
       <c r="K26" s="3">
         <v>-202500</v>
@@ -1396,25 +1396,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>793000</v>
+        <v>807300</v>
       </c>
       <c r="E27" s="3">
-        <v>-243600</v>
+        <v>-248000</v>
       </c>
       <c r="F27" s="3">
-        <v>151100</v>
+        <v>153800</v>
       </c>
       <c r="G27" s="3">
-        <v>196800</v>
+        <v>200300</v>
       </c>
       <c r="H27" s="3">
-        <v>340800</v>
+        <v>347000</v>
       </c>
       <c r="I27" s="3">
-        <v>420500</v>
+        <v>428100</v>
       </c>
       <c r="J27" s="3">
-        <v>537600</v>
+        <v>547400</v>
       </c>
       <c r="K27" s="3">
         <v>-202500</v>
@@ -1591,25 +1591,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-4700</v>
+        <v>-4800</v>
       </c>
       <c r="E32" s="3">
-        <v>-14100</v>
+        <v>-14300</v>
       </c>
       <c r="F32" s="3">
-        <v>50400</v>
+        <v>51300</v>
       </c>
       <c r="G32" s="3">
-        <v>-21100</v>
+        <v>-21500</v>
       </c>
       <c r="H32" s="3">
-        <v>-30500</v>
+        <v>-31000</v>
       </c>
       <c r="I32" s="3">
-        <v>12900</v>
+        <v>13100</v>
       </c>
       <c r="J32" s="3">
-        <v>45700</v>
+        <v>46500</v>
       </c>
       <c r="K32" s="3">
         <v>36600</v>
@@ -1630,25 +1630,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>793000</v>
+        <v>807300</v>
       </c>
       <c r="E33" s="3">
-        <v>-243600</v>
+        <v>-248000</v>
       </c>
       <c r="F33" s="3">
-        <v>151100</v>
+        <v>153800</v>
       </c>
       <c r="G33" s="3">
-        <v>196800</v>
+        <v>200300</v>
       </c>
       <c r="H33" s="3">
-        <v>340800</v>
+        <v>347000</v>
       </c>
       <c r="I33" s="3">
-        <v>420500</v>
+        <v>428100</v>
       </c>
       <c r="J33" s="3">
-        <v>537600</v>
+        <v>547400</v>
       </c>
       <c r="K33" s="3">
         <v>-202500</v>
@@ -1708,25 +1708,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>793000</v>
+        <v>807300</v>
       </c>
       <c r="E35" s="3">
-        <v>-243600</v>
+        <v>-248000</v>
       </c>
       <c r="F35" s="3">
-        <v>151100</v>
+        <v>153800</v>
       </c>
       <c r="G35" s="3">
-        <v>196800</v>
+        <v>200300</v>
       </c>
       <c r="H35" s="3">
-        <v>340800</v>
+        <v>347000</v>
       </c>
       <c r="I35" s="3">
-        <v>420500</v>
+        <v>428100</v>
       </c>
       <c r="J35" s="3">
-        <v>537600</v>
+        <v>547400</v>
       </c>
       <c r="K35" s="3">
         <v>-202500</v>
@@ -1825,25 +1825,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>692200</v>
+        <v>704800</v>
       </c>
       <c r="E41" s="3">
-        <v>846800</v>
+        <v>862200</v>
       </c>
       <c r="F41" s="3">
-        <v>2008800</v>
+        <v>2045200</v>
       </c>
       <c r="G41" s="3">
-        <v>952300</v>
+        <v>969500</v>
       </c>
       <c r="H41" s="3">
-        <v>1226400</v>
+        <v>1248600</v>
       </c>
       <c r="I41" s="3">
-        <v>986200</v>
+        <v>1004100</v>
       </c>
       <c r="J41" s="3">
-        <v>1000300</v>
+        <v>1018400</v>
       </c>
       <c r="K41" s="3">
         <v>1567600</v>
@@ -1864,25 +1864,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>503700</v>
+        <v>512800</v>
       </c>
       <c r="E42" s="3">
-        <v>1103400</v>
+        <v>1123300</v>
       </c>
       <c r="F42" s="3">
-        <v>415800</v>
+        <v>423300</v>
       </c>
       <c r="G42" s="3">
-        <v>607900</v>
+        <v>618900</v>
       </c>
       <c r="H42" s="3">
-        <v>1037800</v>
+        <v>1056600</v>
       </c>
       <c r="I42" s="3">
-        <v>399400</v>
+        <v>406600</v>
       </c>
       <c r="J42" s="3">
-        <v>394700</v>
+        <v>401900</v>
       </c>
       <c r="K42" s="3" t="s">
         <v>8</v>
@@ -1903,25 +1903,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>4303400</v>
+        <v>4381300</v>
       </c>
       <c r="E43" s="3">
-        <v>8846800</v>
+        <v>9007000</v>
       </c>
       <c r="F43" s="3">
-        <v>10954000</v>
+        <v>11152400</v>
       </c>
       <c r="G43" s="3">
-        <v>4807000</v>
+        <v>4894100</v>
       </c>
       <c r="H43" s="3">
-        <v>4623100</v>
+        <v>4706800</v>
       </c>
       <c r="I43" s="3">
-        <v>7454200</v>
+        <v>7589100</v>
       </c>
       <c r="J43" s="3">
-        <v>2455000</v>
+        <v>2499500</v>
       </c>
       <c r="K43" s="3">
         <v>2404400</v>
@@ -1942,25 +1942,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>2104800</v>
+        <v>2142900</v>
       </c>
       <c r="E44" s="3">
-        <v>3806700</v>
+        <v>3875700</v>
       </c>
       <c r="F44" s="3">
-        <v>4057400</v>
+        <v>4130900</v>
       </c>
       <c r="G44" s="3">
-        <v>2259400</v>
+        <v>2300400</v>
       </c>
       <c r="H44" s="3">
-        <v>2120100</v>
+        <v>2158400</v>
       </c>
       <c r="I44" s="3">
-        <v>4158100</v>
+        <v>4233400</v>
       </c>
       <c r="J44" s="3">
-        <v>1133800</v>
+        <v>1154300</v>
       </c>
       <c r="K44" s="3">
         <v>1216200</v>
@@ -1981,25 +1981,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>292800</v>
+        <v>298100</v>
       </c>
       <c r="E45" s="3">
-        <v>187400</v>
+        <v>190800</v>
       </c>
       <c r="F45" s="3">
-        <v>215500</v>
+        <v>219400</v>
       </c>
       <c r="G45" s="3">
-        <v>216700</v>
+        <v>220600</v>
       </c>
       <c r="H45" s="3">
-        <v>195600</v>
+        <v>199100</v>
       </c>
       <c r="I45" s="3">
-        <v>292800</v>
+        <v>298100</v>
       </c>
       <c r="J45" s="3">
-        <v>185100</v>
+        <v>188400</v>
       </c>
       <c r="K45" s="3">
         <v>204900</v>
@@ -2020,25 +2020,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>7896900</v>
+        <v>8039900</v>
       </c>
       <c r="E46" s="3">
-        <v>8371300</v>
+        <v>8522900</v>
       </c>
       <c r="F46" s="3">
-        <v>8880800</v>
+        <v>9041600</v>
       </c>
       <c r="G46" s="3">
-        <v>8843300</v>
+        <v>9003500</v>
       </c>
       <c r="H46" s="3">
-        <v>9202900</v>
+        <v>9369600</v>
       </c>
       <c r="I46" s="3">
-        <v>7393200</v>
+        <v>7527100</v>
       </c>
       <c r="J46" s="3">
-        <v>5168900</v>
+        <v>5262500</v>
       </c>
       <c r="K46" s="3">
         <v>5393200</v>
@@ -2059,25 +2059,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>3132100</v>
+        <v>3188800</v>
       </c>
       <c r="E47" s="3">
-        <v>6339100</v>
+        <v>6453900</v>
       </c>
       <c r="F47" s="3">
-        <v>9330600</v>
+        <v>9499500</v>
       </c>
       <c r="G47" s="3">
-        <v>4975700</v>
+        <v>5065800</v>
       </c>
       <c r="H47" s="3">
-        <v>3676700</v>
+        <v>3743300</v>
       </c>
       <c r="I47" s="3">
-        <v>5425500</v>
+        <v>5523700</v>
       </c>
       <c r="J47" s="3">
-        <v>2820500</v>
+        <v>2871600</v>
       </c>
       <c r="K47" s="3">
         <v>2486200</v>
@@ -2098,25 +2098,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>16353700</v>
+        <v>16649800</v>
       </c>
       <c r="E48" s="3">
-        <v>31236200</v>
+        <v>31801900</v>
       </c>
       <c r="F48" s="3">
-        <v>32224800</v>
+        <v>32808300</v>
       </c>
       <c r="G48" s="3">
-        <v>16616100</v>
+        <v>16916900</v>
       </c>
       <c r="H48" s="3">
-        <v>11593500</v>
+        <v>11803500</v>
       </c>
       <c r="I48" s="3">
-        <v>23440100</v>
+        <v>23864500</v>
       </c>
       <c r="J48" s="3">
-        <v>11436600</v>
+        <v>11643700</v>
       </c>
       <c r="K48" s="3">
         <v>11769600</v>
@@ -2137,25 +2137,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1178300</v>
+        <v>1199700</v>
       </c>
       <c r="E49" s="3">
-        <v>2141100</v>
+        <v>2179900</v>
       </c>
       <c r="F49" s="3">
-        <v>2326200</v>
+        <v>2368300</v>
       </c>
       <c r="G49" s="3">
-        <v>1221700</v>
+        <v>1243800</v>
       </c>
       <c r="H49" s="3">
-        <v>1255600</v>
+        <v>1278400</v>
       </c>
       <c r="I49" s="3">
-        <v>1809700</v>
+        <v>1842400</v>
       </c>
       <c r="J49" s="3">
-        <v>385400</v>
+        <v>392300</v>
       </c>
       <c r="K49" s="3">
         <v>396500</v>
@@ -2254,25 +2254,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2961000</v>
+        <v>3014700</v>
       </c>
       <c r="E52" s="3">
-        <v>917100</v>
+        <v>933700</v>
       </c>
       <c r="F52" s="3">
-        <v>1330600</v>
+        <v>1354700</v>
       </c>
       <c r="G52" s="3">
-        <v>1152600</v>
+        <v>1173400</v>
       </c>
       <c r="H52" s="3">
-        <v>41000</v>
+        <v>41700</v>
       </c>
       <c r="I52" s="3">
-        <v>35100</v>
+        <v>35800</v>
       </c>
       <c r="J52" s="3">
-        <v>69100</v>
+        <v>70400</v>
       </c>
       <c r="K52" s="3">
         <v>128100</v>
@@ -2332,25 +2332,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>31522000</v>
+        <v>32092800</v>
       </c>
       <c r="E54" s="3">
-        <v>29587000</v>
+        <v>30122800</v>
       </c>
       <c r="F54" s="3">
-        <v>32722600</v>
+        <v>33315200</v>
       </c>
       <c r="G54" s="3">
-        <v>32809300</v>
+        <v>33403400</v>
       </c>
       <c r="H54" s="3">
-        <v>25769800</v>
+        <v>26236400</v>
       </c>
       <c r="I54" s="3">
-        <v>23189400</v>
+        <v>23609300</v>
       </c>
       <c r="J54" s="3">
-        <v>19880500</v>
+        <v>20240500</v>
       </c>
       <c r="K54" s="3">
         <v>20173500</v>
@@ -2405,25 +2405,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>3472900</v>
+        <v>3535800</v>
       </c>
       <c r="E57" s="3">
-        <v>8621900</v>
+        <v>8778100</v>
       </c>
       <c r="F57" s="3">
-        <v>8474400</v>
+        <v>8627800</v>
       </c>
       <c r="G57" s="3">
-        <v>3565400</v>
+        <v>3630000</v>
       </c>
       <c r="H57" s="3">
-        <v>3340500</v>
+        <v>3401000</v>
       </c>
       <c r="I57" s="3">
-        <v>7526800</v>
+        <v>7663100</v>
       </c>
       <c r="J57" s="3">
-        <v>2438600</v>
+        <v>2482800</v>
       </c>
       <c r="K57" s="3">
         <v>2548400</v>
@@ -2444,25 +2444,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>679400</v>
+        <v>691700</v>
       </c>
       <c r="E58" s="3">
-        <v>1030700</v>
+        <v>1049400</v>
       </c>
       <c r="F58" s="3">
-        <v>828100</v>
+        <v>843100</v>
       </c>
       <c r="G58" s="3">
-        <v>1734700</v>
+        <v>1766100</v>
       </c>
       <c r="H58" s="3">
-        <v>893700</v>
+        <v>909900</v>
       </c>
       <c r="I58" s="3">
-        <v>544700</v>
+        <v>554500</v>
       </c>
       <c r="J58" s="3">
-        <v>399400</v>
+        <v>406600</v>
       </c>
       <c r="K58" s="3">
         <v>402600</v>
@@ -2483,25 +2483,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>7406100</v>
+        <v>7540200</v>
       </c>
       <c r="E59" s="3">
-        <v>16588000</v>
+        <v>16888300</v>
       </c>
       <c r="F59" s="3">
-        <v>17945500</v>
+        <v>18270400</v>
       </c>
       <c r="G59" s="3">
-        <v>8597300</v>
+        <v>8753000</v>
       </c>
       <c r="H59" s="3">
-        <v>7832500</v>
+        <v>7974300</v>
       </c>
       <c r="I59" s="3">
-        <v>11586500</v>
+        <v>11796300</v>
       </c>
       <c r="J59" s="3">
-        <v>5033100</v>
+        <v>5124200</v>
       </c>
       <c r="K59" s="3">
         <v>5494400</v>
@@ -2522,25 +2522,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>11558400</v>
+        <v>11767700</v>
       </c>
       <c r="E60" s="3">
-        <v>13855300</v>
+        <v>14106200</v>
       </c>
       <c r="F60" s="3">
-        <v>14114200</v>
+        <v>14369700</v>
       </c>
       <c r="G60" s="3">
-        <v>13878700</v>
+        <v>14130100</v>
       </c>
       <c r="H60" s="3">
-        <v>12066700</v>
+        <v>12285200</v>
       </c>
       <c r="I60" s="3">
-        <v>10056800</v>
+        <v>10238900</v>
       </c>
       <c r="J60" s="3">
-        <v>7871100</v>
+        <v>8013700</v>
       </c>
       <c r="K60" s="3">
         <v>8445400</v>
@@ -2561,25 +2561,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>7967200</v>
+        <v>8111500</v>
       </c>
       <c r="E61" s="3">
-        <v>7095700</v>
+        <v>7224200</v>
       </c>
       <c r="F61" s="3">
-        <v>7627500</v>
+        <v>7765600</v>
       </c>
       <c r="G61" s="3">
-        <v>7380400</v>
+        <v>7514000</v>
       </c>
       <c r="H61" s="3">
-        <v>2095500</v>
+        <v>2133400</v>
       </c>
       <c r="I61" s="3">
-        <v>2388300</v>
+        <v>2431500</v>
       </c>
       <c r="J61" s="3">
-        <v>2777200</v>
+        <v>2827400</v>
       </c>
       <c r="K61" s="3">
         <v>3152200</v>
@@ -2600,25 +2600,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2130600</v>
+        <v>2169200</v>
       </c>
       <c r="E62" s="3">
-        <v>1048300</v>
+        <v>1067300</v>
       </c>
       <c r="F62" s="3">
-        <v>3278500</v>
+        <v>3337800</v>
       </c>
       <c r="G62" s="3">
-        <v>2435100</v>
+        <v>2479200</v>
       </c>
       <c r="H62" s="3">
-        <v>2927100</v>
+        <v>2980100</v>
       </c>
       <c r="I62" s="3">
-        <v>3574800</v>
+        <v>3639500</v>
       </c>
       <c r="J62" s="3">
-        <v>1772200</v>
+        <v>1804300</v>
       </c>
       <c r="K62" s="3">
         <v>1818900</v>
@@ -2756,25 +2756,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>21656200</v>
+        <v>22048300</v>
       </c>
       <c r="E66" s="3">
-        <v>21738200</v>
+        <v>22131800</v>
       </c>
       <c r="F66" s="3">
-        <v>23597000</v>
+        <v>24024300</v>
       </c>
       <c r="G66" s="3">
-        <v>23694200</v>
+        <v>24123300</v>
       </c>
       <c r="H66" s="3">
-        <v>17089300</v>
+        <v>17398700</v>
       </c>
       <c r="I66" s="3">
-        <v>15140200</v>
+        <v>15414400</v>
       </c>
       <c r="J66" s="3">
-        <v>12425200</v>
+        <v>12650100</v>
       </c>
       <c r="K66" s="3">
         <v>13416500</v>
@@ -2968,25 +2968,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>6957500</v>
+        <v>7083500</v>
       </c>
       <c r="E72" s="3">
-        <v>5438300</v>
+        <v>5536800</v>
       </c>
       <c r="F72" s="3">
-        <v>6444500</v>
+        <v>6561200</v>
       </c>
       <c r="G72" s="3">
-        <v>6257100</v>
+        <v>6370400</v>
       </c>
       <c r="H72" s="3">
-        <v>5915100</v>
+        <v>6022200</v>
       </c>
       <c r="I72" s="3">
-        <v>5448900</v>
+        <v>5547600</v>
       </c>
       <c r="J72" s="3">
-        <v>4777700</v>
+        <v>4864200</v>
       </c>
       <c r="K72" s="3">
         <v>4602700</v>
@@ -3124,25 +3124,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>9865900</v>
+        <v>10044500</v>
       </c>
       <c r="E76" s="3">
-        <v>7848900</v>
+        <v>7991000</v>
       </c>
       <c r="F76" s="3">
-        <v>9125600</v>
+        <v>9290800</v>
       </c>
       <c r="G76" s="3">
-        <v>9115100</v>
+        <v>9280100</v>
       </c>
       <c r="H76" s="3">
-        <v>8680500</v>
+        <v>8837700</v>
       </c>
       <c r="I76" s="3">
-        <v>8049200</v>
+        <v>8194900</v>
       </c>
       <c r="J76" s="3">
-        <v>7455300</v>
+        <v>7590300</v>
       </c>
       <c r="K76" s="3">
         <v>6757000</v>
@@ -3246,25 +3246,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>793000</v>
+        <v>807300</v>
       </c>
       <c r="E81" s="3">
-        <v>-243600</v>
+        <v>-248000</v>
       </c>
       <c r="F81" s="3">
-        <v>151100</v>
+        <v>153800</v>
       </c>
       <c r="G81" s="3">
-        <v>196800</v>
+        <v>200300</v>
       </c>
       <c r="H81" s="3">
-        <v>340800</v>
+        <v>347000</v>
       </c>
       <c r="I81" s="3">
-        <v>420500</v>
+        <v>428100</v>
       </c>
       <c r="J81" s="3">
-        <v>537600</v>
+        <v>547400</v>
       </c>
       <c r="K81" s="3">
         <v>-202500</v>
@@ -3302,25 +3302,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1429000</v>
+        <v>1454900</v>
       </c>
       <c r="E83" s="3">
-        <v>1463000</v>
+        <v>1489400</v>
       </c>
       <c r="F83" s="3">
-        <v>1471200</v>
+        <v>1497800</v>
       </c>
       <c r="G83" s="3">
-        <v>1478200</v>
+        <v>1504900</v>
       </c>
       <c r="H83" s="3">
-        <v>856200</v>
+        <v>871700</v>
       </c>
       <c r="I83" s="3">
-        <v>735600</v>
+        <v>748900</v>
       </c>
       <c r="J83" s="3">
-        <v>684000</v>
+        <v>696400</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>8</v>
@@ -3536,25 +3536,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1181800</v>
+        <v>1203200</v>
       </c>
       <c r="E89" s="3">
-        <v>2744400</v>
+        <v>2794100</v>
       </c>
       <c r="F89" s="3">
-        <v>1607000</v>
+        <v>1636100</v>
       </c>
       <c r="G89" s="3">
-        <v>1221700</v>
+        <v>1243800</v>
       </c>
       <c r="H89" s="3">
-        <v>1598800</v>
+        <v>1627800</v>
       </c>
       <c r="I89" s="3">
-        <v>1350500</v>
+        <v>1375000</v>
       </c>
       <c r="J89" s="3">
-        <v>459100</v>
+        <v>467500</v>
       </c>
       <c r="K89" s="3">
         <v>1145500</v>
@@ -3592,25 +3592,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-487300</v>
+        <v>-496100</v>
       </c>
       <c r="E91" s="3">
-        <v>-495500</v>
+        <v>-504400</v>
       </c>
       <c r="F91" s="3">
-        <v>-607900</v>
+        <v>-618900</v>
       </c>
       <c r="G91" s="3">
-        <v>-555200</v>
+        <v>-565200</v>
       </c>
       <c r="H91" s="3">
-        <v>-657100</v>
+        <v>-669000</v>
       </c>
       <c r="I91" s="3">
-        <v>-742600</v>
+        <v>-756100</v>
       </c>
       <c r="J91" s="3">
-        <v>-756700</v>
+        <v>-770400</v>
       </c>
       <c r="K91" s="3">
         <v>-1117400</v>
@@ -3709,25 +3709,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-760200</v>
+        <v>-773900</v>
       </c>
       <c r="E94" s="3">
-        <v>-647700</v>
+        <v>-659500</v>
       </c>
       <c r="F94" s="3">
-        <v>-499000</v>
+        <v>-508000</v>
       </c>
       <c r="G94" s="3">
-        <v>-563400</v>
+        <v>-573600</v>
       </c>
       <c r="H94" s="3">
-        <v>-550500</v>
+        <v>-560500</v>
       </c>
       <c r="I94" s="3">
-        <v>-878500</v>
+        <v>-894400</v>
       </c>
       <c r="J94" s="3">
-        <v>-468500</v>
+        <v>-477000</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>8</v>
@@ -3765,25 +3765,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-283500</v>
+        <v>-288600</v>
       </c>
       <c r="E96" s="3">
-        <v>-298700</v>
+        <v>-304100</v>
       </c>
       <c r="F96" s="3">
-        <v>-316300</v>
+        <v>-322000</v>
       </c>
       <c r="G96" s="3">
-        <v>-289300</v>
+        <v>-294500</v>
       </c>
       <c r="H96" s="3">
-        <v>-275300</v>
+        <v>-280200</v>
       </c>
       <c r="I96" s="3">
-        <v>-296300</v>
+        <v>-301700</v>
       </c>
       <c r="J96" s="3">
-        <v>-278800</v>
+        <v>-283800</v>
       </c>
       <c r="K96" s="3">
         <v>-390400</v>
@@ -3921,25 +3921,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1192400</v>
+        <v>-1214000</v>
       </c>
       <c r="E100" s="3">
-        <v>-1532100</v>
+        <v>-1559800</v>
       </c>
       <c r="F100" s="3">
-        <v>-1255600</v>
+        <v>-1278400</v>
       </c>
       <c r="G100" s="3">
-        <v>-1370400</v>
+        <v>-1395200</v>
       </c>
       <c r="H100" s="3">
-        <v>-285800</v>
+        <v>-291000</v>
       </c>
       <c r="I100" s="3">
-        <v>-545800</v>
+        <v>-555700</v>
       </c>
       <c r="J100" s="3">
-        <v>-149900</v>
+        <v>-152600</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>8</v>
@@ -3999,25 +3999,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-770700</v>
+        <v>-784700</v>
       </c>
       <c r="E102" s="3">
-        <v>564600</v>
+        <v>574800</v>
       </c>
       <c r="F102" s="3">
-        <v>-147600</v>
+        <v>-150300</v>
       </c>
       <c r="G102" s="3">
-        <v>-712200</v>
+        <v>-725000</v>
       </c>
       <c r="H102" s="3">
-        <v>762500</v>
+        <v>776300</v>
       </c>
       <c r="I102" s="3">
-        <v>-73800</v>
+        <v>-75100</v>
       </c>
       <c r="J102" s="3">
-        <v>-159300</v>
+        <v>-162200</v>
       </c>
       <c r="K102" s="3">
         <v>1311400</v>

--- a/AAII_Financials/Yearly/JSAIY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/JSAIY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="92">
   <si>
     <t>JSAIY</t>
   </si>
@@ -724,25 +724,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>35650100</v>
+        <v>37093700</v>
       </c>
       <c r="E8" s="3">
-        <v>34640000</v>
+        <v>36042800</v>
       </c>
       <c r="F8" s="3">
-        <v>34574400</v>
+        <v>35974500</v>
       </c>
       <c r="G8" s="3">
-        <v>34591100</v>
+        <v>35991900</v>
       </c>
       <c r="H8" s="3">
-        <v>33934100</v>
+        <v>35308200</v>
       </c>
       <c r="I8" s="3">
-        <v>31272400</v>
+        <v>32538700</v>
       </c>
       <c r="J8" s="3">
-        <v>28031100</v>
+        <v>29166200</v>
       </c>
       <c r="K8" s="3">
         <v>29003100</v>
@@ -763,25 +763,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>32839300</v>
+        <v>34169200</v>
       </c>
       <c r="E9" s="3">
-        <v>32042700</v>
+        <v>33340300</v>
       </c>
       <c r="F9" s="3">
-        <v>31838800</v>
+        <v>33128100</v>
       </c>
       <c r="G9" s="3">
-        <v>31862700</v>
+        <v>33152900</v>
       </c>
       <c r="H9" s="3">
-        <v>31689800</v>
+        <v>32973000</v>
       </c>
       <c r="I9" s="3">
-        <v>29323800</v>
+        <v>30511300</v>
       </c>
       <c r="J9" s="3">
-        <v>26294800</v>
+        <v>27359600</v>
       </c>
       <c r="K9" s="3">
         <v>27529500</v>
@@ -802,25 +802,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2810700</v>
+        <v>2924600</v>
       </c>
       <c r="E10" s="3">
-        <v>2597300</v>
+        <v>2702500</v>
       </c>
       <c r="F10" s="3">
-        <v>2735600</v>
+        <v>2846400</v>
       </c>
       <c r="G10" s="3">
-        <v>2728500</v>
+        <v>2839000</v>
       </c>
       <c r="H10" s="3">
-        <v>2244300</v>
+        <v>2335200</v>
       </c>
       <c r="I10" s="3">
-        <v>1948600</v>
+        <v>2027500</v>
       </c>
       <c r="J10" s="3">
-        <v>1736300</v>
+        <v>1806600</v>
       </c>
       <c r="K10" s="3">
         <v>1473600</v>
@@ -936,22 +936,22 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-137100</v>
+        <v>-142700</v>
       </c>
       <c r="E14" s="3">
-        <v>634400</v>
+        <v>660100</v>
       </c>
       <c r="F14" s="3">
-        <v>422100</v>
+        <v>439200</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
       <c r="H14" s="3">
-        <v>31000</v>
+        <v>32300</v>
       </c>
       <c r="I14" s="3">
-        <v>-97800</v>
+        <v>-101700</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>8</v>
@@ -1028,25 +1028,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>34265600</v>
+        <v>35653100</v>
       </c>
       <c r="E17" s="3">
-        <v>34443300</v>
+        <v>35838000</v>
       </c>
       <c r="F17" s="3">
-        <v>33764700</v>
+        <v>35132000</v>
       </c>
       <c r="G17" s="3">
-        <v>33885200</v>
+        <v>35257300</v>
       </c>
       <c r="H17" s="3">
-        <v>33347300</v>
+        <v>34697700</v>
       </c>
       <c r="I17" s="3">
-        <v>30525900</v>
+        <v>31762000</v>
       </c>
       <c r="J17" s="3">
-        <v>27188000</v>
+        <v>28289000</v>
       </c>
       <c r="K17" s="3">
         <v>28904300</v>
@@ -1067,25 +1067,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1384500</v>
+        <v>1440600</v>
       </c>
       <c r="E18" s="3">
-        <v>196800</v>
+        <v>204700</v>
       </c>
       <c r="F18" s="3">
-        <v>809700</v>
+        <v>842500</v>
       </c>
       <c r="G18" s="3">
-        <v>706000</v>
+        <v>734600</v>
       </c>
       <c r="H18" s="3">
-        <v>586700</v>
+        <v>610500</v>
       </c>
       <c r="I18" s="3">
-        <v>746500</v>
+        <v>776700</v>
       </c>
       <c r="J18" s="3">
-        <v>843100</v>
+        <v>877200</v>
       </c>
       <c r="K18" s="3">
         <v>98800</v>
@@ -1123,25 +1123,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>4800</v>
+        <v>5000</v>
       </c>
       <c r="E20" s="3">
-        <v>14300</v>
+        <v>14900</v>
       </c>
       <c r="F20" s="3">
-        <v>-51300</v>
+        <v>-53400</v>
       </c>
       <c r="G20" s="3">
-        <v>21500</v>
+        <v>22300</v>
       </c>
       <c r="H20" s="3">
-        <v>31000</v>
+        <v>32300</v>
       </c>
       <c r="I20" s="3">
-        <v>-13100</v>
+        <v>-13600</v>
       </c>
       <c r="J20" s="3">
-        <v>-46500</v>
+        <v>-48400</v>
       </c>
       <c r="K20" s="3">
         <v>-36600</v>
@@ -1162,25 +1162,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2834000</v>
+        <v>3005000</v>
       </c>
       <c r="E21" s="3">
-        <v>1690100</v>
+        <v>1787900</v>
       </c>
       <c r="F21" s="3">
-        <v>2245800</v>
+        <v>2364900</v>
       </c>
       <c r="G21" s="3">
-        <v>2221900</v>
+        <v>1669600</v>
       </c>
       <c r="H21" s="3">
-        <v>1483400</v>
+        <v>1426900</v>
       </c>
       <c r="I21" s="3">
-        <v>1477100</v>
-      </c>
-      <c r="J21" s="3">
-        <v>1488200</v>
+        <v>1492300</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>8</v>
@@ -1201,25 +1201,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>370900</v>
+        <v>385900</v>
       </c>
       <c r="E22" s="3">
-        <v>406600</v>
+        <v>423100</v>
       </c>
       <c r="F22" s="3">
-        <v>454300</v>
+        <v>472700</v>
       </c>
       <c r="G22" s="3">
-        <v>486500</v>
+        <v>506200</v>
       </c>
       <c r="H22" s="3">
-        <v>130000</v>
+        <v>135200</v>
       </c>
       <c r="I22" s="3">
-        <v>133600</v>
+        <v>139000</v>
       </c>
       <c r="J22" s="3">
-        <v>143100</v>
+        <v>148900</v>
       </c>
       <c r="K22" s="3">
         <v>150000</v>
@@ -1240,25 +1240,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1018400</v>
+        <v>1059600</v>
       </c>
       <c r="E23" s="3">
-        <v>-195600</v>
+        <v>-203500</v>
       </c>
       <c r="F23" s="3">
-        <v>304100</v>
+        <v>316400</v>
       </c>
       <c r="G23" s="3">
-        <v>240900</v>
+        <v>250600</v>
       </c>
       <c r="H23" s="3">
-        <v>487700</v>
+        <v>507500</v>
       </c>
       <c r="I23" s="3">
-        <v>599800</v>
+        <v>624100</v>
       </c>
       <c r="J23" s="3">
-        <v>653500</v>
+        <v>680000</v>
       </c>
       <c r="K23" s="3">
         <v>-87800</v>
@@ -1279,25 +1279,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>211100</v>
+        <v>219600</v>
       </c>
       <c r="E24" s="3">
-        <v>44100</v>
+        <v>45900</v>
       </c>
       <c r="F24" s="3">
-        <v>122800</v>
+        <v>127800</v>
       </c>
       <c r="G24" s="3">
-        <v>19100</v>
+        <v>19900</v>
       </c>
       <c r="H24" s="3">
-        <v>119300</v>
+        <v>124100</v>
       </c>
       <c r="I24" s="3">
-        <v>150300</v>
+        <v>156300</v>
       </c>
       <c r="J24" s="3">
-        <v>91800</v>
+        <v>95500</v>
       </c>
       <c r="K24" s="3">
         <v>114700</v>
@@ -1357,25 +1357,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>807300</v>
+        <v>840000</v>
       </c>
       <c r="E26" s="3">
-        <v>-239700</v>
+        <v>-249400</v>
       </c>
       <c r="F26" s="3">
-        <v>181300</v>
+        <v>188600</v>
       </c>
       <c r="G26" s="3">
-        <v>221800</v>
+        <v>230800</v>
       </c>
       <c r="H26" s="3">
-        <v>368500</v>
+        <v>383400</v>
       </c>
       <c r="I26" s="3">
-        <v>449600</v>
+        <v>467800</v>
       </c>
       <c r="J26" s="3">
-        <v>561700</v>
+        <v>584400</v>
       </c>
       <c r="K26" s="3">
         <v>-202500</v>
@@ -1396,25 +1396,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>807300</v>
+        <v>840000</v>
       </c>
       <c r="E27" s="3">
-        <v>-248000</v>
+        <v>-258100</v>
       </c>
       <c r="F27" s="3">
-        <v>153800</v>
+        <v>160100</v>
       </c>
       <c r="G27" s="3">
-        <v>200300</v>
+        <v>208500</v>
       </c>
       <c r="H27" s="3">
-        <v>347000</v>
+        <v>361100</v>
       </c>
       <c r="I27" s="3">
-        <v>428100</v>
+        <v>445400</v>
       </c>
       <c r="J27" s="3">
-        <v>547400</v>
+        <v>569500</v>
       </c>
       <c r="K27" s="3">
         <v>-202500</v>
@@ -1591,25 +1591,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-4800</v>
+        <v>-5000</v>
       </c>
       <c r="E32" s="3">
-        <v>-14300</v>
+        <v>-14900</v>
       </c>
       <c r="F32" s="3">
-        <v>51300</v>
+        <v>53400</v>
       </c>
       <c r="G32" s="3">
-        <v>-21500</v>
+        <v>-22300</v>
       </c>
       <c r="H32" s="3">
-        <v>-31000</v>
+        <v>-32300</v>
       </c>
       <c r="I32" s="3">
-        <v>13100</v>
+        <v>13600</v>
       </c>
       <c r="J32" s="3">
-        <v>46500</v>
+        <v>48400</v>
       </c>
       <c r="K32" s="3">
         <v>36600</v>
@@ -1630,25 +1630,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>807300</v>
+        <v>840000</v>
       </c>
       <c r="E33" s="3">
-        <v>-248000</v>
+        <v>-258100</v>
       </c>
       <c r="F33" s="3">
-        <v>153800</v>
+        <v>160100</v>
       </c>
       <c r="G33" s="3">
-        <v>200300</v>
+        <v>208500</v>
       </c>
       <c r="H33" s="3">
-        <v>347000</v>
+        <v>361100</v>
       </c>
       <c r="I33" s="3">
-        <v>428100</v>
+        <v>445400</v>
       </c>
       <c r="J33" s="3">
-        <v>547400</v>
+        <v>569500</v>
       </c>
       <c r="K33" s="3">
         <v>-202500</v>
@@ -1708,25 +1708,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>807300</v>
+        <v>840000</v>
       </c>
       <c r="E35" s="3">
-        <v>-248000</v>
+        <v>-258100</v>
       </c>
       <c r="F35" s="3">
-        <v>153800</v>
+        <v>160100</v>
       </c>
       <c r="G35" s="3">
-        <v>200300</v>
+        <v>208500</v>
       </c>
       <c r="H35" s="3">
-        <v>347000</v>
+        <v>361100</v>
       </c>
       <c r="I35" s="3">
-        <v>428100</v>
+        <v>445400</v>
       </c>
       <c r="J35" s="3">
-        <v>547400</v>
+        <v>569500</v>
       </c>
       <c r="K35" s="3">
         <v>-202500</v>
@@ -1825,25 +1825,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>704800</v>
+        <v>733300</v>
       </c>
       <c r="E41" s="3">
-        <v>862200</v>
+        <v>897100</v>
       </c>
       <c r="F41" s="3">
-        <v>2045200</v>
+        <v>2128000</v>
       </c>
       <c r="G41" s="3">
-        <v>969500</v>
+        <v>1008800</v>
       </c>
       <c r="H41" s="3">
-        <v>1248600</v>
+        <v>1299100</v>
       </c>
       <c r="I41" s="3">
-        <v>1004100</v>
+        <v>1044800</v>
       </c>
       <c r="J41" s="3">
-        <v>1018400</v>
+        <v>1059600</v>
       </c>
       <c r="K41" s="3">
         <v>1567600</v>
@@ -1864,25 +1864,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>512800</v>
+        <v>533500</v>
       </c>
       <c r="E42" s="3">
-        <v>1123300</v>
+        <v>1168800</v>
       </c>
       <c r="F42" s="3">
-        <v>423300</v>
+        <v>440500</v>
       </c>
       <c r="G42" s="3">
-        <v>618900</v>
+        <v>644000</v>
       </c>
       <c r="H42" s="3">
-        <v>1056600</v>
+        <v>1099300</v>
       </c>
       <c r="I42" s="3">
-        <v>406600</v>
+        <v>423100</v>
       </c>
       <c r="J42" s="3">
-        <v>401900</v>
+        <v>418100</v>
       </c>
       <c r="K42" s="3" t="s">
         <v>8</v>
@@ -1903,25 +1903,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>4381300</v>
+        <v>4558700</v>
       </c>
       <c r="E43" s="3">
-        <v>9007000</v>
+        <v>9371800</v>
       </c>
       <c r="F43" s="3">
-        <v>11152400</v>
+        <v>11604000</v>
       </c>
       <c r="G43" s="3">
-        <v>4894100</v>
+        <v>5092200</v>
       </c>
       <c r="H43" s="3">
-        <v>4706800</v>
+        <v>4897400</v>
       </c>
       <c r="I43" s="3">
-        <v>7589100</v>
+        <v>7896500</v>
       </c>
       <c r="J43" s="3">
-        <v>2499500</v>
+        <v>2600700</v>
       </c>
       <c r="K43" s="3">
         <v>2404400</v>
@@ -1942,25 +1942,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>2142900</v>
+        <v>2229700</v>
       </c>
       <c r="E44" s="3">
-        <v>3875700</v>
+        <v>4032600</v>
       </c>
       <c r="F44" s="3">
-        <v>4130900</v>
+        <v>4298100</v>
       </c>
       <c r="G44" s="3">
-        <v>2300400</v>
+        <v>2393500</v>
       </c>
       <c r="H44" s="3">
-        <v>2158400</v>
+        <v>2245800</v>
       </c>
       <c r="I44" s="3">
-        <v>4233400</v>
+        <v>4404800</v>
       </c>
       <c r="J44" s="3">
-        <v>1154300</v>
+        <v>1201100</v>
       </c>
       <c r="K44" s="3">
         <v>1216200</v>
@@ -1981,25 +1981,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>298100</v>
+        <v>310200</v>
       </c>
       <c r="E45" s="3">
-        <v>190800</v>
+        <v>198500</v>
       </c>
       <c r="F45" s="3">
-        <v>219400</v>
+        <v>228300</v>
       </c>
       <c r="G45" s="3">
-        <v>220600</v>
+        <v>229500</v>
       </c>
       <c r="H45" s="3">
-        <v>199100</v>
+        <v>207200</v>
       </c>
       <c r="I45" s="3">
-        <v>298100</v>
+        <v>310200</v>
       </c>
       <c r="J45" s="3">
-        <v>188400</v>
+        <v>196000</v>
       </c>
       <c r="K45" s="3">
         <v>204900</v>
@@ -2020,25 +2020,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>8039900</v>
+        <v>8365500</v>
       </c>
       <c r="E46" s="3">
-        <v>8522900</v>
+        <v>8868000</v>
       </c>
       <c r="F46" s="3">
-        <v>9041600</v>
+        <v>9407700</v>
       </c>
       <c r="G46" s="3">
-        <v>9003500</v>
+        <v>9368000</v>
       </c>
       <c r="H46" s="3">
-        <v>9369600</v>
+        <v>9749000</v>
       </c>
       <c r="I46" s="3">
-        <v>7527100</v>
+        <v>7831900</v>
       </c>
       <c r="J46" s="3">
-        <v>5262500</v>
+        <v>5475700</v>
       </c>
       <c r="K46" s="3">
         <v>5393200</v>
@@ -2059,25 +2059,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>3188800</v>
+        <v>3317900</v>
       </c>
       <c r="E47" s="3">
-        <v>6453900</v>
+        <v>6715200</v>
       </c>
       <c r="F47" s="3">
-        <v>9499500</v>
+        <v>9884200</v>
       </c>
       <c r="G47" s="3">
-        <v>5065800</v>
+        <v>5270900</v>
       </c>
       <c r="H47" s="3">
-        <v>3743300</v>
+        <v>3894900</v>
       </c>
       <c r="I47" s="3">
-        <v>5523700</v>
+        <v>5747400</v>
       </c>
       <c r="J47" s="3">
-        <v>2871600</v>
+        <v>2987800</v>
       </c>
       <c r="K47" s="3">
         <v>2486200</v>
@@ -2098,25 +2098,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>16649800</v>
+        <v>17324000</v>
       </c>
       <c r="E48" s="3">
-        <v>31801900</v>
+        <v>33089700</v>
       </c>
       <c r="F48" s="3">
-        <v>32808300</v>
+        <v>34136900</v>
       </c>
       <c r="G48" s="3">
-        <v>16916900</v>
+        <v>17602000</v>
       </c>
       <c r="H48" s="3">
-        <v>11803500</v>
+        <v>12281400</v>
       </c>
       <c r="I48" s="3">
-        <v>23864500</v>
+        <v>24830900</v>
       </c>
       <c r="J48" s="3">
-        <v>11643700</v>
+        <v>12115200</v>
       </c>
       <c r="K48" s="3">
         <v>11769600</v>
@@ -2137,25 +2137,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1199700</v>
+        <v>1248200</v>
       </c>
       <c r="E49" s="3">
-        <v>2179900</v>
+        <v>2268200</v>
       </c>
       <c r="F49" s="3">
-        <v>2368300</v>
+        <v>2464200</v>
       </c>
       <c r="G49" s="3">
-        <v>1243800</v>
+        <v>1294200</v>
       </c>
       <c r="H49" s="3">
-        <v>1278400</v>
+        <v>1330100</v>
       </c>
       <c r="I49" s="3">
-        <v>1842400</v>
+        <v>1917000</v>
       </c>
       <c r="J49" s="3">
-        <v>392300</v>
+        <v>408200</v>
       </c>
       <c r="K49" s="3">
         <v>396500</v>
@@ -2254,25 +2254,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>3014700</v>
+        <v>3136700</v>
       </c>
       <c r="E52" s="3">
-        <v>933700</v>
+        <v>971500</v>
       </c>
       <c r="F52" s="3">
-        <v>1354700</v>
+        <v>1409500</v>
       </c>
       <c r="G52" s="3">
-        <v>1173400</v>
+        <v>1220900</v>
       </c>
       <c r="H52" s="3">
-        <v>41700</v>
+        <v>43400</v>
       </c>
       <c r="I52" s="3">
-        <v>35800</v>
+        <v>37200</v>
       </c>
       <c r="J52" s="3">
-        <v>70400</v>
+        <v>73200</v>
       </c>
       <c r="K52" s="3">
         <v>128100</v>
@@ -2332,25 +2332,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>32092800</v>
+        <v>33392400</v>
       </c>
       <c r="E54" s="3">
-        <v>30122800</v>
+        <v>31342600</v>
       </c>
       <c r="F54" s="3">
-        <v>33315200</v>
+        <v>34664200</v>
       </c>
       <c r="G54" s="3">
-        <v>33403400</v>
+        <v>34756000</v>
       </c>
       <c r="H54" s="3">
-        <v>26236400</v>
+        <v>27298800</v>
       </c>
       <c r="I54" s="3">
-        <v>23609300</v>
+        <v>24565400</v>
       </c>
       <c r="J54" s="3">
-        <v>20240500</v>
+        <v>21060100</v>
       </c>
       <c r="K54" s="3">
         <v>20173500</v>
@@ -2405,25 +2405,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>3535800</v>
+        <v>3679000</v>
       </c>
       <c r="E57" s="3">
-        <v>8778100</v>
+        <v>9133500</v>
       </c>
       <c r="F57" s="3">
-        <v>8627800</v>
+        <v>8977200</v>
       </c>
       <c r="G57" s="3">
-        <v>3630000</v>
+        <v>3777000</v>
       </c>
       <c r="H57" s="3">
-        <v>3401000</v>
+        <v>3538800</v>
       </c>
       <c r="I57" s="3">
-        <v>7663100</v>
+        <v>7973400</v>
       </c>
       <c r="J57" s="3">
-        <v>2482800</v>
+        <v>2583300</v>
       </c>
       <c r="K57" s="3">
         <v>2548400</v>
@@ -2444,25 +2444,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>691700</v>
+        <v>719700</v>
       </c>
       <c r="E58" s="3">
-        <v>1049400</v>
+        <v>1091900</v>
       </c>
       <c r="F58" s="3">
-        <v>843100</v>
+        <v>877200</v>
       </c>
       <c r="G58" s="3">
-        <v>1766100</v>
+        <v>1837600</v>
       </c>
       <c r="H58" s="3">
-        <v>909900</v>
+        <v>946700</v>
       </c>
       <c r="I58" s="3">
-        <v>554500</v>
+        <v>577000</v>
       </c>
       <c r="J58" s="3">
-        <v>406600</v>
+        <v>423100</v>
       </c>
       <c r="K58" s="3">
         <v>402600</v>
@@ -2483,25 +2483,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>7540200</v>
+        <v>7845600</v>
       </c>
       <c r="E59" s="3">
-        <v>16888300</v>
+        <v>17572200</v>
       </c>
       <c r="F59" s="3">
-        <v>18270400</v>
+        <v>19010300</v>
       </c>
       <c r="G59" s="3">
-        <v>8753000</v>
+        <v>9107500</v>
       </c>
       <c r="H59" s="3">
-        <v>7974300</v>
+        <v>8297200</v>
       </c>
       <c r="I59" s="3">
-        <v>11796300</v>
+        <v>12274000</v>
       </c>
       <c r="J59" s="3">
-        <v>5124200</v>
+        <v>5331700</v>
       </c>
       <c r="K59" s="3">
         <v>5494400</v>
@@ -2522,25 +2522,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>11767700</v>
+        <v>12244200</v>
       </c>
       <c r="E60" s="3">
-        <v>14106200</v>
+        <v>14677400</v>
       </c>
       <c r="F60" s="3">
-        <v>14369700</v>
+        <v>14951600</v>
       </c>
       <c r="G60" s="3">
-        <v>14130100</v>
+        <v>14702200</v>
       </c>
       <c r="H60" s="3">
-        <v>12285200</v>
+        <v>12782700</v>
       </c>
       <c r="I60" s="3">
-        <v>10238900</v>
+        <v>10653500</v>
       </c>
       <c r="J60" s="3">
-        <v>8013700</v>
+        <v>8338200</v>
       </c>
       <c r="K60" s="3">
         <v>8445400</v>
@@ -2561,25 +2561,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>8111500</v>
+        <v>8439900</v>
       </c>
       <c r="E61" s="3">
-        <v>7224200</v>
+        <v>7516800</v>
       </c>
       <c r="F61" s="3">
-        <v>7765600</v>
+        <v>8080100</v>
       </c>
       <c r="G61" s="3">
-        <v>7514000</v>
+        <v>7818300</v>
       </c>
       <c r="H61" s="3">
-        <v>2133400</v>
+        <v>2219800</v>
       </c>
       <c r="I61" s="3">
-        <v>2431500</v>
+        <v>2530000</v>
       </c>
       <c r="J61" s="3">
-        <v>2827400</v>
+        <v>2941900</v>
       </c>
       <c r="K61" s="3">
         <v>3152200</v>
@@ -2600,25 +2600,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2169200</v>
+        <v>2257000</v>
       </c>
       <c r="E62" s="3">
-        <v>1067300</v>
+        <v>1110500</v>
       </c>
       <c r="F62" s="3">
-        <v>3337800</v>
+        <v>3473000</v>
       </c>
       <c r="G62" s="3">
-        <v>2479200</v>
+        <v>2579600</v>
       </c>
       <c r="H62" s="3">
-        <v>2980100</v>
+        <v>3100800</v>
       </c>
       <c r="I62" s="3">
-        <v>3639500</v>
+        <v>3786900</v>
       </c>
       <c r="J62" s="3">
-        <v>1804300</v>
+        <v>1877300</v>
       </c>
       <c r="K62" s="3">
         <v>1818900</v>
@@ -2756,25 +2756,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>22048300</v>
+        <v>22941200</v>
       </c>
       <c r="E66" s="3">
-        <v>22131800</v>
+        <v>23028000</v>
       </c>
       <c r="F66" s="3">
-        <v>24024300</v>
+        <v>24997200</v>
       </c>
       <c r="G66" s="3">
-        <v>24123300</v>
+        <v>25100100</v>
       </c>
       <c r="H66" s="3">
-        <v>17398700</v>
+        <v>18103300</v>
       </c>
       <c r="I66" s="3">
-        <v>15414400</v>
+        <v>16038600</v>
       </c>
       <c r="J66" s="3">
-        <v>12650100</v>
+        <v>13162400</v>
       </c>
       <c r="K66" s="3">
         <v>13416500</v>
@@ -2968,25 +2968,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>7083500</v>
+        <v>7370400</v>
       </c>
       <c r="E72" s="3">
-        <v>5536800</v>
+        <v>5761000</v>
       </c>
       <c r="F72" s="3">
-        <v>6561200</v>
+        <v>6826900</v>
       </c>
       <c r="G72" s="3">
-        <v>6370400</v>
+        <v>6628400</v>
       </c>
       <c r="H72" s="3">
-        <v>6022200</v>
+        <v>6266000</v>
       </c>
       <c r="I72" s="3">
-        <v>5547600</v>
+        <v>5772200</v>
       </c>
       <c r="J72" s="3">
-        <v>4864200</v>
+        <v>5061200</v>
       </c>
       <c r="K72" s="3">
         <v>4602700</v>
@@ -3124,25 +3124,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>10044500</v>
+        <v>10451300</v>
       </c>
       <c r="E76" s="3">
-        <v>7991000</v>
+        <v>8314600</v>
       </c>
       <c r="F76" s="3">
-        <v>9290800</v>
+        <v>9667100</v>
       </c>
       <c r="G76" s="3">
-        <v>9280100</v>
+        <v>9655900</v>
       </c>
       <c r="H76" s="3">
-        <v>8837700</v>
+        <v>9195600</v>
       </c>
       <c r="I76" s="3">
-        <v>8194900</v>
+        <v>8526800</v>
       </c>
       <c r="J76" s="3">
-        <v>7590300</v>
+        <v>7897700</v>
       </c>
       <c r="K76" s="3">
         <v>6757000</v>
@@ -3246,25 +3246,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>807300</v>
+        <v>840000</v>
       </c>
       <c r="E81" s="3">
-        <v>-248000</v>
+        <v>-258100</v>
       </c>
       <c r="F81" s="3">
-        <v>153800</v>
+        <v>160100</v>
       </c>
       <c r="G81" s="3">
-        <v>200300</v>
+        <v>208500</v>
       </c>
       <c r="H81" s="3">
-        <v>347000</v>
+        <v>361100</v>
       </c>
       <c r="I81" s="3">
-        <v>428100</v>
+        <v>445400</v>
       </c>
       <c r="J81" s="3">
-        <v>547400</v>
+        <v>569500</v>
       </c>
       <c r="K81" s="3">
         <v>-202500</v>
@@ -3302,25 +3302,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1454900</v>
+        <v>1549800</v>
       </c>
       <c r="E83" s="3">
-        <v>1489400</v>
+        <v>1558400</v>
       </c>
       <c r="F83" s="3">
-        <v>1497800</v>
+        <v>1565900</v>
       </c>
       <c r="G83" s="3">
-        <v>1504900</v>
+        <v>907000</v>
       </c>
       <c r="H83" s="3">
-        <v>871700</v>
+        <v>779200</v>
       </c>
       <c r="I83" s="3">
-        <v>748900</v>
-      </c>
-      <c r="J83" s="3">
-        <v>696400</v>
+        <v>724600</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>8</v>
@@ -3536,25 +3536,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1203200</v>
+        <v>2907200</v>
       </c>
       <c r="E89" s="3">
-        <v>2794100</v>
+        <v>1702400</v>
       </c>
       <c r="F89" s="3">
-        <v>1636100</v>
+        <v>1294200</v>
       </c>
       <c r="G89" s="3">
-        <v>1243800</v>
+        <v>1693700</v>
       </c>
       <c r="H89" s="3">
-        <v>1627800</v>
+        <v>1430600</v>
       </c>
       <c r="I89" s="3">
-        <v>1375000</v>
+        <v>486400</v>
       </c>
       <c r="J89" s="3">
-        <v>467500</v>
+        <v>1130400</v>
       </c>
       <c r="K89" s="3">
         <v>1145500</v>
@@ -3592,25 +3592,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-496100</v>
+        <v>-524900</v>
       </c>
       <c r="E91" s="3">
-        <v>-504400</v>
+        <v>-644000</v>
       </c>
       <c r="F91" s="3">
-        <v>-618900</v>
+        <v>-588100</v>
       </c>
       <c r="G91" s="3">
-        <v>-565200</v>
+        <v>-696100</v>
       </c>
       <c r="H91" s="3">
-        <v>-669000</v>
+        <v>-786700</v>
       </c>
       <c r="I91" s="3">
-        <v>-756100</v>
+        <v>-801600</v>
       </c>
       <c r="J91" s="3">
-        <v>-770400</v>
+        <v>-1180000</v>
       </c>
       <c r="K91" s="3">
         <v>-1117400</v>
@@ -3709,25 +3709,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-773900</v>
+        <v>-686200</v>
       </c>
       <c r="E94" s="3">
-        <v>-659500</v>
+        <v>-528600</v>
       </c>
       <c r="F94" s="3">
-        <v>-508000</v>
+        <v>-596800</v>
       </c>
       <c r="G94" s="3">
-        <v>-573600</v>
+        <v>-583200</v>
       </c>
       <c r="H94" s="3">
-        <v>-560500</v>
+        <v>-930600</v>
       </c>
       <c r="I94" s="3">
-        <v>-894400</v>
-      </c>
-      <c r="J94" s="3">
-        <v>-477000</v>
+        <v>-496300</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>8</v>
@@ -3765,25 +3765,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-288600</v>
+        <v>-316400</v>
       </c>
       <c r="E96" s="3">
-        <v>-304100</v>
+        <v>-335000</v>
       </c>
       <c r="F96" s="3">
-        <v>-322000</v>
+        <v>-306500</v>
       </c>
       <c r="G96" s="3">
-        <v>-294500</v>
+        <v>-291600</v>
       </c>
       <c r="H96" s="3">
-        <v>-280200</v>
+        <v>-313900</v>
       </c>
       <c r="I96" s="3">
-        <v>-301700</v>
+        <v>-295300</v>
       </c>
       <c r="J96" s="3">
-        <v>-283800</v>
+        <v>-409500</v>
       </c>
       <c r="K96" s="3">
         <v>-390400</v>
@@ -3921,25 +3921,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1214000</v>
+        <v>-1623000</v>
       </c>
       <c r="E100" s="3">
-        <v>-1559800</v>
+        <v>-1330100</v>
       </c>
       <c r="F100" s="3">
-        <v>-1278400</v>
+        <v>-1451700</v>
       </c>
       <c r="G100" s="3">
-        <v>-1395200</v>
+        <v>-302800</v>
       </c>
       <c r="H100" s="3">
-        <v>-291000</v>
+        <v>-578200</v>
       </c>
       <c r="I100" s="3">
-        <v>-555700</v>
-      </c>
-      <c r="J100" s="3">
-        <v>-152600</v>
+        <v>-158800</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>8</v>
@@ -3977,8 +3977,8 @@
       <c r="I101" s="3">
         <v>0</v>
       </c>
-      <c r="J101" s="3">
-        <v>0</v>
+      <c r="J101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>8</v>
@@ -3999,25 +3999,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-784700</v>
+        <v>598100</v>
       </c>
       <c r="E102" s="3">
-        <v>574800</v>
+        <v>-156300</v>
       </c>
       <c r="F102" s="3">
-        <v>-150300</v>
+        <v>-754400</v>
       </c>
       <c r="G102" s="3">
-        <v>-725000</v>
+        <v>807800</v>
       </c>
       <c r="H102" s="3">
-        <v>776300</v>
+        <v>-78200</v>
       </c>
       <c r="I102" s="3">
-        <v>-75100</v>
+        <v>-168700</v>
       </c>
       <c r="J102" s="3">
-        <v>-162200</v>
+        <v>-376000</v>
       </c>
       <c r="K102" s="3">
         <v>1311400</v>

--- a/AAII_Financials/Yearly/JSAIY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/JSAIY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="92">
   <si>
     <t>JSAIY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,178 +665,190 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44989</v>
+      </c>
+      <c r="E7" s="2">
         <v>44625</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44261</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43897</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43533</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43169</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42805</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42441</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42077</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41713</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>41349</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>40985</v>
       </c>
-      <c r="O7" s="2"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>37093700</v>
+        <v>39908500</v>
       </c>
       <c r="E8" s="3">
-        <v>36042800</v>
+        <v>37885900</v>
       </c>
       <c r="F8" s="3">
-        <v>35974500</v>
+        <v>36812500</v>
       </c>
       <c r="G8" s="3">
-        <v>35991900</v>
+        <v>36742800</v>
       </c>
       <c r="H8" s="3">
-        <v>35308200</v>
+        <v>36760600</v>
       </c>
       <c r="I8" s="3">
-        <v>32538700</v>
+        <v>36062300</v>
       </c>
       <c r="J8" s="3">
+        <v>33233700</v>
+      </c>
+      <c r="K8" s="3">
         <v>29166200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>29003100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>33890500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>30126400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>29078300</v>
       </c>
-      <c r="O8" s="3"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>34169200</v>
+        <v>36746600</v>
       </c>
       <c r="E9" s="3">
-        <v>33340300</v>
+        <v>34898900</v>
       </c>
       <c r="F9" s="3">
-        <v>33128100</v>
+        <v>34052400</v>
       </c>
       <c r="G9" s="3">
-        <v>33152900</v>
+        <v>33835600</v>
       </c>
       <c r="H9" s="3">
-        <v>32973000</v>
+        <v>33861000</v>
       </c>
       <c r="I9" s="3">
-        <v>30511300</v>
+        <v>33677200</v>
       </c>
       <c r="J9" s="3">
+        <v>31162900</v>
+      </c>
+      <c r="K9" s="3">
         <v>27359600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>27529500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>31927700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>28475400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>27498800</v>
       </c>
-      <c r="O9" s="3"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2924600</v>
+        <v>3161900</v>
       </c>
       <c r="E10" s="3">
-        <v>2702500</v>
+        <v>2987000</v>
       </c>
       <c r="F10" s="3">
-        <v>2846400</v>
+        <v>2760200</v>
       </c>
       <c r="G10" s="3">
-        <v>2839000</v>
+        <v>2907200</v>
       </c>
       <c r="H10" s="3">
-        <v>2335200</v>
+        <v>2899600</v>
       </c>
       <c r="I10" s="3">
-        <v>2027500</v>
+        <v>2385100</v>
       </c>
       <c r="J10" s="3">
+        <v>2070800</v>
+      </c>
+      <c r="K10" s="3">
         <v>1806600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1473600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1962800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1650900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1579500</v>
       </c>
-      <c r="O10" s="3"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -852,8 +864,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -890,9 +903,12 @@
       <c r="N12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O12" s="3"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P12" s="3"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -929,32 +945,35 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-      <c r="O13" s="3"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-142700</v>
+        <v>551300</v>
       </c>
       <c r="E14" s="3">
-        <v>660100</v>
+        <v>-145700</v>
       </c>
       <c r="F14" s="3">
-        <v>439200</v>
+        <v>674200</v>
       </c>
       <c r="G14" s="3">
-        <v>0</v>
+        <v>448600</v>
       </c>
       <c r="H14" s="3">
-        <v>32300</v>
+        <v>0</v>
       </c>
       <c r="I14" s="3">
-        <v>-101700</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>8</v>
+        <v>32900</v>
+      </c>
+      <c r="J14" s="3">
+        <v>-103900</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>8</v>
@@ -968,9 +987,12 @@
       <c r="N14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O14" s="3"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P14" s="3"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1007,9 +1029,12 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-      <c r="O15" s="3"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1022,86 +1047,93 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>35653100</v>
+        <v>39136800</v>
       </c>
       <c r="E17" s="3">
-        <v>35838000</v>
+        <v>36414600</v>
       </c>
       <c r="F17" s="3">
-        <v>35132000</v>
+        <v>36603400</v>
       </c>
       <c r="G17" s="3">
-        <v>35257300</v>
+        <v>35882300</v>
       </c>
       <c r="H17" s="3">
-        <v>34697700</v>
+        <v>36010300</v>
       </c>
       <c r="I17" s="3">
-        <v>31762000</v>
+        <v>35438800</v>
       </c>
       <c r="J17" s="3">
+        <v>32440300</v>
+      </c>
+      <c r="K17" s="3">
         <v>28289000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>28904300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>32462600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>28986100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>27938300</v>
       </c>
-      <c r="O17" s="3"/>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3"/>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1440600</v>
+        <v>771800</v>
       </c>
       <c r="E18" s="3">
-        <v>204700</v>
+        <v>1471300</v>
       </c>
       <c r="F18" s="3">
-        <v>842500</v>
+        <v>209100</v>
       </c>
       <c r="G18" s="3">
-        <v>734600</v>
+        <v>860500</v>
       </c>
       <c r="H18" s="3">
-        <v>610500</v>
+        <v>750200</v>
       </c>
       <c r="I18" s="3">
-        <v>776700</v>
+        <v>623500</v>
       </c>
       <c r="J18" s="3">
+        <v>793300</v>
+      </c>
+      <c r="K18" s="3">
         <v>877200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>98800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1427800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1140300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1140000</v>
       </c>
-      <c r="O18" s="3"/>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3"/>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1117,70 +1149,74 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>5000</v>
+        <v>22800</v>
       </c>
       <c r="E20" s="3">
-        <v>14900</v>
+        <v>5100</v>
       </c>
       <c r="F20" s="3">
-        <v>-53400</v>
+        <v>15200</v>
       </c>
       <c r="G20" s="3">
-        <v>22300</v>
+        <v>-54500</v>
       </c>
       <c r="H20" s="3">
-        <v>32300</v>
+        <v>22800</v>
       </c>
       <c r="I20" s="3">
-        <v>-13600</v>
+        <v>32900</v>
       </c>
       <c r="J20" s="3">
+        <v>-13900</v>
+      </c>
+      <c r="K20" s="3">
         <v>-48400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-36600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>25500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>23300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>63900</v>
       </c>
-      <c r="O20" s="3"/>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3"/>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>3005000</v>
+        <v>2325500</v>
       </c>
       <c r="E21" s="3">
-        <v>1787900</v>
+        <v>3022500</v>
       </c>
       <c r="F21" s="3">
-        <v>2364900</v>
+        <v>1807200</v>
       </c>
       <c r="G21" s="3">
-        <v>1669600</v>
+        <v>2397700</v>
       </c>
       <c r="H21" s="3">
-        <v>1426900</v>
+        <v>2372400</v>
       </c>
       <c r="I21" s="3">
-        <v>1492300</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>8</v>
+        <v>1582900</v>
+      </c>
+      <c r="J21" s="3">
+        <v>1575300</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>8</v>
@@ -1188,132 +1224,144 @@
       <c r="L21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N21" s="3">
         <v>1835600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1862000</v>
       </c>
-      <c r="O21" s="3"/>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3"/>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>385900</v>
+        <v>380200</v>
       </c>
       <c r="E22" s="3">
-        <v>423100</v>
+        <v>394100</v>
       </c>
       <c r="F22" s="3">
-        <v>472700</v>
+        <v>432100</v>
       </c>
       <c r="G22" s="3">
-        <v>506200</v>
+        <v>482800</v>
       </c>
       <c r="H22" s="3">
-        <v>135200</v>
+        <v>517100</v>
       </c>
       <c r="I22" s="3">
-        <v>139000</v>
+        <v>138100</v>
       </c>
       <c r="J22" s="3">
+        <v>141900</v>
+      </c>
+      <c r="K22" s="3">
         <v>148900</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>150000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>182500</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>165500</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>161700</v>
       </c>
-      <c r="O22" s="3"/>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3"/>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1059600</v>
+        <v>414400</v>
       </c>
       <c r="E23" s="3">
-        <v>-203500</v>
+        <v>1082300</v>
       </c>
       <c r="F23" s="3">
-        <v>316400</v>
+        <v>-207800</v>
       </c>
       <c r="G23" s="3">
-        <v>250600</v>
+        <v>323200</v>
       </c>
       <c r="H23" s="3">
-        <v>507500</v>
+        <v>256000</v>
       </c>
       <c r="I23" s="3">
-        <v>624100</v>
+        <v>518300</v>
       </c>
       <c r="J23" s="3">
+        <v>637500</v>
+      </c>
+      <c r="K23" s="3">
         <v>680000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-87800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1270800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>998000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1042100</v>
       </c>
-      <c r="O23" s="3"/>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3"/>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>219600</v>
+        <v>152100</v>
       </c>
       <c r="E24" s="3">
-        <v>45900</v>
+        <v>224300</v>
       </c>
       <c r="F24" s="3">
-        <v>127800</v>
+        <v>46900</v>
       </c>
       <c r="G24" s="3">
-        <v>19900</v>
+        <v>130500</v>
       </c>
       <c r="H24" s="3">
-        <v>124100</v>
+        <v>20300</v>
       </c>
       <c r="I24" s="3">
-        <v>156300</v>
+        <v>126700</v>
       </c>
       <c r="J24" s="3">
+        <v>159700</v>
+      </c>
+      <c r="K24" s="3">
         <v>95500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>114700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>257600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>219800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>262200</v>
       </c>
-      <c r="O24" s="3"/>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3"/>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1350,87 +1398,96 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-      <c r="O25" s="3"/>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3"/>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>840000</v>
+        <v>262300</v>
       </c>
       <c r="E26" s="3">
-        <v>-249400</v>
+        <v>858000</v>
       </c>
       <c r="F26" s="3">
-        <v>188600</v>
+        <v>-254700</v>
       </c>
       <c r="G26" s="3">
-        <v>230800</v>
+        <v>192600</v>
       </c>
       <c r="H26" s="3">
-        <v>383400</v>
+        <v>235700</v>
       </c>
       <c r="I26" s="3">
-        <v>467800</v>
+        <v>391600</v>
       </c>
       <c r="J26" s="3">
+        <v>477800</v>
+      </c>
+      <c r="K26" s="3">
         <v>584400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-202500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1013200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>778300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>780000</v>
       </c>
-      <c r="O26" s="3"/>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3"/>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>840000</v>
+        <v>262300</v>
       </c>
       <c r="E27" s="3">
-        <v>-258100</v>
+        <v>858000</v>
       </c>
       <c r="F27" s="3">
-        <v>160100</v>
+        <v>-263600</v>
       </c>
       <c r="G27" s="3">
-        <v>208500</v>
+        <v>163500</v>
       </c>
       <c r="H27" s="3">
-        <v>361100</v>
+        <v>212900</v>
       </c>
       <c r="I27" s="3">
-        <v>445400</v>
+        <v>368800</v>
       </c>
       <c r="J27" s="3">
+        <v>455000</v>
+      </c>
+      <c r="K27" s="3">
         <v>569500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-202500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1013200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>778300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>780000</v>
       </c>
-      <c r="O27" s="3"/>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3"/>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1467,9 +1524,12 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-      <c r="O28" s="3"/>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3"/>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1506,9 +1566,12 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-      <c r="O29" s="3"/>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3"/>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1545,9 +1608,12 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-      <c r="O30" s="3"/>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3"/>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1584,87 +1650,96 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-      <c r="O31" s="3"/>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3"/>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-5000</v>
+        <v>-22800</v>
       </c>
       <c r="E32" s="3">
-        <v>-14900</v>
+        <v>-5100</v>
       </c>
       <c r="F32" s="3">
-        <v>53400</v>
+        <v>-15200</v>
       </c>
       <c r="G32" s="3">
-        <v>-22300</v>
+        <v>54500</v>
       </c>
       <c r="H32" s="3">
-        <v>-32300</v>
+        <v>-22800</v>
       </c>
       <c r="I32" s="3">
-        <v>13600</v>
+        <v>-32900</v>
       </c>
       <c r="J32" s="3">
+        <v>13900</v>
+      </c>
+      <c r="K32" s="3">
         <v>48400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>36600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-25500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-23300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-63900</v>
       </c>
-      <c r="O32" s="3"/>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3"/>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>840000</v>
+        <v>262300</v>
       </c>
       <c r="E33" s="3">
-        <v>-258100</v>
+        <v>858000</v>
       </c>
       <c r="F33" s="3">
-        <v>160100</v>
+        <v>-263600</v>
       </c>
       <c r="G33" s="3">
-        <v>208500</v>
+        <v>163500</v>
       </c>
       <c r="H33" s="3">
-        <v>361100</v>
+        <v>212900</v>
       </c>
       <c r="I33" s="3">
-        <v>445400</v>
+        <v>368800</v>
       </c>
       <c r="J33" s="3">
+        <v>455000</v>
+      </c>
+      <c r="K33" s="3">
         <v>569500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-202500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1013200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>778300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>780000</v>
       </c>
-      <c r="O33" s="3"/>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3"/>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1701,92 +1776,101 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-      <c r="O34" s="3"/>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3"/>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>840000</v>
+        <v>262300</v>
       </c>
       <c r="E35" s="3">
-        <v>-258100</v>
+        <v>858000</v>
       </c>
       <c r="F35" s="3">
-        <v>160100</v>
+        <v>-263600</v>
       </c>
       <c r="G35" s="3">
-        <v>208500</v>
+        <v>163500</v>
       </c>
       <c r="H35" s="3">
-        <v>361100</v>
+        <v>212900</v>
       </c>
       <c r="I35" s="3">
-        <v>445400</v>
+        <v>368800</v>
       </c>
       <c r="J35" s="3">
+        <v>455000</v>
+      </c>
+      <c r="K35" s="3">
         <v>569500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-202500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1013200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>778300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>780000</v>
       </c>
-      <c r="O35" s="3"/>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3"/>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44989</v>
+      </c>
+      <c r="E38" s="2">
         <v>44625</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44261</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43897</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43533</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43169</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42805</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42441</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42077</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41713</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>41349</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>40985</v>
       </c>
-      <c r="O38" s="2"/>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2"/>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1802,8 +1886,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1819,73 +1904,77 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>733300</v>
+        <v>1234400</v>
       </c>
       <c r="E41" s="3">
-        <v>897100</v>
+        <v>749000</v>
       </c>
       <c r="F41" s="3">
-        <v>2128000</v>
+        <v>916300</v>
       </c>
       <c r="G41" s="3">
-        <v>1008800</v>
+        <v>2173400</v>
       </c>
       <c r="H41" s="3">
-        <v>1299100</v>
+        <v>1030300</v>
       </c>
       <c r="I41" s="3">
-        <v>1044800</v>
+        <v>1326900</v>
       </c>
       <c r="J41" s="3">
+        <v>1067100</v>
+      </c>
+      <c r="K41" s="3">
         <v>1059600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1567600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2252900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>668400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>963900</v>
       </c>
-      <c r="O41" s="3"/>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3"/>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>533500</v>
+        <v>1063300</v>
       </c>
       <c r="E42" s="3">
-        <v>1168800</v>
+        <v>544900</v>
       </c>
       <c r="F42" s="3">
-        <v>440500</v>
+        <v>1193800</v>
       </c>
       <c r="G42" s="3">
-        <v>644000</v>
+        <v>449900</v>
       </c>
       <c r="H42" s="3">
-        <v>1099300</v>
+        <v>657700</v>
       </c>
       <c r="I42" s="3">
-        <v>423100</v>
+        <v>1122800</v>
       </c>
       <c r="J42" s="3">
+        <v>432100</v>
+      </c>
+      <c r="K42" s="3">
         <v>418100</v>
-      </c>
-      <c r="K42" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L42" s="3" t="s">
         <v>8</v>
@@ -1896,282 +1985,306 @@
       <c r="N42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O42" s="3"/>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P42" s="3"/>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>4558700</v>
+        <v>4989400</v>
       </c>
       <c r="E43" s="3">
-        <v>9371800</v>
+        <v>4656100</v>
       </c>
       <c r="F43" s="3">
-        <v>11604000</v>
+        <v>9571900</v>
       </c>
       <c r="G43" s="3">
-        <v>5092200</v>
+        <v>11851800</v>
       </c>
       <c r="H43" s="3">
-        <v>4897400</v>
+        <v>5201000</v>
       </c>
       <c r="I43" s="3">
-        <v>7896500</v>
+        <v>5002000</v>
       </c>
       <c r="J43" s="3">
+        <v>8065100</v>
+      </c>
+      <c r="K43" s="3">
         <v>2600700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2404400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2342000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>729100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>523000</v>
       </c>
-      <c r="O43" s="3"/>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3"/>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>2229700</v>
+        <v>2406600</v>
       </c>
       <c r="E44" s="3">
-        <v>4032600</v>
+        <v>2277300</v>
       </c>
       <c r="F44" s="3">
-        <v>4298100</v>
+        <v>4118700</v>
       </c>
       <c r="G44" s="3">
-        <v>2393500</v>
+        <v>4389900</v>
       </c>
       <c r="H44" s="3">
-        <v>2245800</v>
+        <v>2444600</v>
       </c>
       <c r="I44" s="3">
-        <v>4404800</v>
+        <v>2293800</v>
       </c>
       <c r="J44" s="3">
+        <v>4498900</v>
+      </c>
+      <c r="K44" s="3">
         <v>1201100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1216200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1422200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>2552000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>2446900</v>
       </c>
-      <c r="O44" s="3"/>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3"/>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>310200</v>
+        <v>309200</v>
       </c>
       <c r="E45" s="3">
-        <v>198500</v>
+        <v>316800</v>
       </c>
       <c r="F45" s="3">
-        <v>228300</v>
+        <v>202800</v>
       </c>
       <c r="G45" s="3">
-        <v>229500</v>
+        <v>233200</v>
       </c>
       <c r="H45" s="3">
-        <v>207200</v>
+        <v>234500</v>
       </c>
       <c r="I45" s="3">
-        <v>310200</v>
+        <v>211600</v>
       </c>
       <c r="J45" s="3">
+        <v>316800</v>
+      </c>
+      <c r="K45" s="3">
         <v>196000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>204900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>155700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>196500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>169600</v>
       </c>
-      <c r="O45" s="3"/>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3"/>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>8365500</v>
+        <v>10002800</v>
       </c>
       <c r="E46" s="3">
-        <v>8868000</v>
+        <v>8544100</v>
       </c>
       <c r="F46" s="3">
-        <v>9407700</v>
+        <v>9057400</v>
       </c>
       <c r="G46" s="3">
-        <v>9368000</v>
+        <v>9608700</v>
       </c>
       <c r="H46" s="3">
-        <v>9749000</v>
+        <v>9568100</v>
       </c>
       <c r="I46" s="3">
-        <v>7831900</v>
+        <v>9957200</v>
       </c>
       <c r="J46" s="3">
+        <v>7999200</v>
+      </c>
+      <c r="K46" s="3">
         <v>5475700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>5393200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>6172700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2457600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2650400</v>
       </c>
-      <c r="O46" s="3"/>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3"/>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>3317900</v>
+        <v>3108700</v>
       </c>
       <c r="E47" s="3">
-        <v>6715200</v>
+        <v>3388800</v>
       </c>
       <c r="F47" s="3">
-        <v>9884200</v>
+        <v>6858600</v>
       </c>
       <c r="G47" s="3">
-        <v>5270900</v>
+        <v>10095300</v>
       </c>
       <c r="H47" s="3">
-        <v>3894900</v>
+        <v>5383500</v>
       </c>
       <c r="I47" s="3">
-        <v>5747400</v>
+        <v>3978100</v>
       </c>
       <c r="J47" s="3">
+        <v>5870100</v>
+      </c>
+      <c r="K47" s="3">
         <v>2987800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>2486200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>2797700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>981200</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>1020000</v>
       </c>
-      <c r="O47" s="3"/>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3"/>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>17324000</v>
+        <v>17166800</v>
       </c>
       <c r="E48" s="3">
-        <v>33089700</v>
+        <v>17694000</v>
       </c>
       <c r="F48" s="3">
-        <v>34136900</v>
+        <v>33796400</v>
       </c>
       <c r="G48" s="3">
-        <v>17602000</v>
+        <v>34866000</v>
       </c>
       <c r="H48" s="3">
-        <v>12281400</v>
+        <v>17977900</v>
       </c>
       <c r="I48" s="3">
-        <v>24830900</v>
+        <v>12543700</v>
       </c>
       <c r="J48" s="3">
+        <v>25361200</v>
+      </c>
+      <c r="K48" s="3">
         <v>12115200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>11769600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>13981300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>18666900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>24335800</v>
       </c>
-      <c r="O48" s="3"/>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3"/>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1248200</v>
+        <v>1297700</v>
       </c>
       <c r="E49" s="3">
-        <v>2268200</v>
+        <v>1274900</v>
       </c>
       <c r="F49" s="3">
-        <v>2464200</v>
+        <v>2316600</v>
       </c>
       <c r="G49" s="3">
-        <v>1294200</v>
+        <v>2516900</v>
       </c>
       <c r="H49" s="3">
-        <v>1330100</v>
+        <v>1321800</v>
       </c>
       <c r="I49" s="3">
-        <v>1917000</v>
+        <v>1358500</v>
       </c>
       <c r="J49" s="3">
+        <v>1958000</v>
+      </c>
+      <c r="K49" s="3">
         <v>408200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>396500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>404700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>420200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>417400</v>
       </c>
-      <c r="O49" s="3"/>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3"/>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2208,9 +2321,12 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-      <c r="O50" s="3"/>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3"/>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2247,48 +2363,54 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-      <c r="O51" s="3"/>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3"/>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>3136700</v>
+        <v>1574000</v>
       </c>
       <c r="E52" s="3">
-        <v>971500</v>
+        <v>3203700</v>
       </c>
       <c r="F52" s="3">
-        <v>1409500</v>
+        <v>992300</v>
       </c>
       <c r="G52" s="3">
-        <v>1220900</v>
+        <v>1439700</v>
       </c>
       <c r="H52" s="3">
-        <v>43400</v>
+        <v>1247000</v>
       </c>
       <c r="I52" s="3">
-        <v>37200</v>
+        <v>44400</v>
       </c>
       <c r="J52" s="3">
+        <v>38000</v>
+      </c>
+      <c r="K52" s="3">
         <v>73200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>128100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>49500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>77600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>48300</v>
       </c>
-      <c r="O52" s="3"/>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3"/>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2325,48 +2447,54 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-      <c r="O53" s="3"/>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3"/>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>33392400</v>
+        <v>33150000</v>
       </c>
       <c r="E54" s="3">
-        <v>31342600</v>
+        <v>34105600</v>
       </c>
       <c r="F54" s="3">
-        <v>34664200</v>
+        <v>32012000</v>
       </c>
       <c r="G54" s="3">
-        <v>34756000</v>
+        <v>35404600</v>
       </c>
       <c r="H54" s="3">
-        <v>27298800</v>
+        <v>35498300</v>
       </c>
       <c r="I54" s="3">
-        <v>24565400</v>
+        <v>27881900</v>
       </c>
       <c r="J54" s="3">
+        <v>25090000</v>
+      </c>
+      <c r="K54" s="3">
         <v>21060100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>20173500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>23405900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>16412200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>16095200</v>
       </c>
-      <c r="O54" s="3"/>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3"/>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2382,8 +2510,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2399,242 +2528,261 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>3679000</v>
+        <v>4259400</v>
       </c>
       <c r="E57" s="3">
-        <v>9133500</v>
+        <v>3757500</v>
       </c>
       <c r="F57" s="3">
-        <v>8977200</v>
+        <v>9328600</v>
       </c>
       <c r="G57" s="3">
-        <v>3777000</v>
+        <v>9168900</v>
       </c>
       <c r="H57" s="3">
-        <v>3538800</v>
+        <v>3857700</v>
       </c>
       <c r="I57" s="3">
-        <v>7973400</v>
+        <v>3614300</v>
       </c>
       <c r="J57" s="3">
+        <v>8143700</v>
+      </c>
+      <c r="K57" s="3">
         <v>2583300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2548400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2612300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>5990900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>3573800</v>
       </c>
-      <c r="O57" s="3"/>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3"/>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>719700</v>
+        <v>2009900</v>
       </c>
       <c r="E58" s="3">
-        <v>1091900</v>
+        <v>735000</v>
       </c>
       <c r="F58" s="3">
-        <v>877200</v>
+        <v>1115200</v>
       </c>
       <c r="G58" s="3">
-        <v>1837600</v>
+        <v>896000</v>
       </c>
       <c r="H58" s="3">
-        <v>946700</v>
+        <v>1876900</v>
       </c>
       <c r="I58" s="3">
-        <v>577000</v>
+        <v>966900</v>
       </c>
       <c r="J58" s="3">
+        <v>589300</v>
+      </c>
+      <c r="K58" s="3">
         <v>423100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>402600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>755700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>240500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>391300</v>
       </c>
-      <c r="O58" s="3"/>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3"/>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>7845600</v>
+        <v>8449100</v>
       </c>
       <c r="E59" s="3">
-        <v>17572200</v>
+        <v>8013100</v>
       </c>
       <c r="F59" s="3">
-        <v>19010300</v>
+        <v>17947500</v>
       </c>
       <c r="G59" s="3">
-        <v>9107500</v>
+        <v>19416300</v>
       </c>
       <c r="H59" s="3">
-        <v>8297200</v>
+        <v>9302000</v>
       </c>
       <c r="I59" s="3">
-        <v>12274000</v>
+        <v>8474400</v>
       </c>
       <c r="J59" s="3">
+        <v>12536100</v>
+      </c>
+      <c r="K59" s="3">
         <v>5331700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>5494400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>6205300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1347100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1412600</v>
       </c>
-      <c r="O59" s="3"/>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3"/>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>12244200</v>
+        <v>14718400</v>
       </c>
       <c r="E60" s="3">
-        <v>14677400</v>
+        <v>12505700</v>
       </c>
       <c r="F60" s="3">
-        <v>14951600</v>
+        <v>14990900</v>
       </c>
       <c r="G60" s="3">
-        <v>14702200</v>
+        <v>15271000</v>
       </c>
       <c r="H60" s="3">
-        <v>12782700</v>
+        <v>15016200</v>
       </c>
       <c r="I60" s="3">
-        <v>10653500</v>
+        <v>13055700</v>
       </c>
       <c r="J60" s="3">
+        <v>10881000</v>
+      </c>
+      <c r="K60" s="3">
         <v>8338200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>8445400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>9573200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>4027100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>4090300</v>
       </c>
-      <c r="O60" s="3"/>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3"/>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>8439900</v>
+        <v>7044900</v>
       </c>
       <c r="E61" s="3">
-        <v>7516800</v>
+        <v>8620200</v>
       </c>
       <c r="F61" s="3">
-        <v>8080100</v>
+        <v>7677300</v>
       </c>
       <c r="G61" s="3">
-        <v>7818300</v>
+        <v>8252700</v>
       </c>
       <c r="H61" s="3">
-        <v>2219800</v>
+        <v>7985300</v>
       </c>
       <c r="I61" s="3">
-        <v>2530000</v>
+        <v>2267200</v>
       </c>
       <c r="J61" s="3">
+        <v>2584000</v>
+      </c>
+      <c r="K61" s="3">
         <v>2941900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>3152200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>3184000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>3383300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>3413400</v>
       </c>
-      <c r="O61" s="3"/>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3"/>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2257000</v>
+        <v>2195000</v>
       </c>
       <c r="E62" s="3">
-        <v>1110500</v>
+        <v>2305200</v>
       </c>
       <c r="F62" s="3">
-        <v>3473000</v>
+        <v>1134200</v>
       </c>
       <c r="G62" s="3">
-        <v>2579600</v>
+        <v>3547200</v>
       </c>
       <c r="H62" s="3">
-        <v>3100800</v>
+        <v>2634700</v>
       </c>
       <c r="I62" s="3">
-        <v>3786900</v>
+        <v>3167000</v>
       </c>
       <c r="J62" s="3">
+        <v>3867800</v>
+      </c>
+      <c r="K62" s="3">
         <v>1877300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1818900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2151000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1678100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1129500</v>
       </c>
-      <c r="O62" s="3"/>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3"/>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2671,9 +2819,12 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-      <c r="O63" s="3"/>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3"/>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2710,9 +2861,12 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-      <c r="O64" s="3"/>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3"/>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2749,48 +2903,54 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-      <c r="O65" s="3"/>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3"/>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>22941200</v>
+        <v>23958300</v>
       </c>
       <c r="E66" s="3">
-        <v>23028000</v>
+        <v>23431100</v>
       </c>
       <c r="F66" s="3">
-        <v>24997200</v>
+        <v>23519800</v>
       </c>
       <c r="G66" s="3">
-        <v>25100100</v>
+        <v>25531000</v>
       </c>
       <c r="H66" s="3">
-        <v>18103300</v>
+        <v>25636200</v>
       </c>
       <c r="I66" s="3">
-        <v>16038600</v>
+        <v>18489900</v>
       </c>
       <c r="J66" s="3">
+        <v>16381100</v>
+      </c>
+      <c r="K66" s="3">
         <v>13162400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>13416500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>14911000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>8866100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>8633200</v>
       </c>
-      <c r="O66" s="3"/>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3"/>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2806,8 +2966,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2844,9 +3005,12 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-      <c r="O68" s="3"/>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3"/>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2883,9 +3047,12 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-      <c r="O69" s="3"/>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3"/>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2922,9 +3089,12 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-      <c r="O70" s="3"/>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3"/>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2961,48 +3131,54 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-      <c r="O71" s="3"/>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3"/>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>7370400</v>
+        <v>6195800</v>
       </c>
       <c r="E72" s="3">
-        <v>5761000</v>
+        <v>7527800</v>
       </c>
       <c r="F72" s="3">
-        <v>6826900</v>
+        <v>5884100</v>
       </c>
       <c r="G72" s="3">
-        <v>6628400</v>
+        <v>6972700</v>
       </c>
       <c r="H72" s="3">
-        <v>6266000</v>
+        <v>6769900</v>
       </c>
       <c r="I72" s="3">
-        <v>5772200</v>
+        <v>6399900</v>
       </c>
       <c r="J72" s="3">
+        <v>5895500</v>
+      </c>
+      <c r="K72" s="3">
         <v>5061200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>4602700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>6002900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>4479600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>4771200</v>
       </c>
-      <c r="O72" s="3"/>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3"/>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3039,9 +3215,12 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-      <c r="O73" s="3"/>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3"/>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3078,9 +3257,12 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-      <c r="O74" s="3"/>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3"/>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3117,48 +3299,54 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-      <c r="O75" s="3"/>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3"/>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>10451300</v>
+        <v>9191700</v>
       </c>
       <c r="E76" s="3">
-        <v>8314600</v>
+        <v>10674500</v>
       </c>
       <c r="F76" s="3">
-        <v>9667100</v>
+        <v>8492200</v>
       </c>
       <c r="G76" s="3">
-        <v>9655900</v>
+        <v>9873500</v>
       </c>
       <c r="H76" s="3">
-        <v>9195600</v>
+        <v>9862100</v>
       </c>
       <c r="I76" s="3">
-        <v>8526800</v>
+        <v>9392000</v>
       </c>
       <c r="J76" s="3">
+        <v>8708900</v>
+      </c>
+      <c r="K76" s="3">
         <v>7897700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>6757000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>8494900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>7546100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>7462000</v>
       </c>
-      <c r="O76" s="3"/>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3"/>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3195,92 +3383,101 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-      <c r="O77" s="3"/>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3"/>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44989</v>
+      </c>
+      <c r="E80" s="2">
         <v>44625</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44261</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43897</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43533</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43169</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42805</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42441</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42077</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41713</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>41349</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>40985</v>
       </c>
-      <c r="O80" s="2"/>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2"/>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>840000</v>
+        <v>262300</v>
       </c>
       <c r="E81" s="3">
-        <v>-258100</v>
+        <v>858000</v>
       </c>
       <c r="F81" s="3">
-        <v>160100</v>
+        <v>-263600</v>
       </c>
       <c r="G81" s="3">
-        <v>208500</v>
+        <v>163500</v>
       </c>
       <c r="H81" s="3">
-        <v>361100</v>
+        <v>212900</v>
       </c>
       <c r="I81" s="3">
-        <v>445400</v>
+        <v>368800</v>
       </c>
       <c r="J81" s="3">
+        <v>455000</v>
+      </c>
+      <c r="K81" s="3">
         <v>569500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-202500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1013200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>778300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>780000</v>
       </c>
-      <c r="O81" s="3"/>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3"/>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3296,31 +3493,32 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1549800</v>
+        <v>1530900</v>
       </c>
       <c r="E83" s="3">
-        <v>1558400</v>
+        <v>1546100</v>
       </c>
       <c r="F83" s="3">
-        <v>1565900</v>
+        <v>1582900</v>
       </c>
       <c r="G83" s="3">
-        <v>907000</v>
+        <v>1591700</v>
       </c>
       <c r="H83" s="3">
-        <v>779200</v>
+        <v>1599300</v>
       </c>
       <c r="I83" s="3">
-        <v>724600</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>8</v>
+        <v>926400</v>
+      </c>
+      <c r="J83" s="3">
+        <v>795900</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>8</v>
@@ -3328,15 +3526,18 @@
       <c r="L83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M83" s="3">
+      <c r="M83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N83" s="3">
         <v>668400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>650900</v>
       </c>
-      <c r="O83" s="3"/>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3"/>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3373,9 +3574,12 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-      <c r="O84" s="3"/>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3"/>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3412,9 +3616,12 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-      <c r="O85" s="3"/>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3"/>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3451,9 +3658,12 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-      <c r="O86" s="3"/>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3"/>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3490,9 +3700,12 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-      <c r="O87" s="3"/>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3"/>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3529,48 +3742,54 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-      <c r="O88" s="3"/>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3"/>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2907200</v>
+        <v>2769100</v>
       </c>
       <c r="E89" s="3">
-        <v>1702400</v>
+        <v>1278700</v>
       </c>
       <c r="F89" s="3">
-        <v>1294200</v>
+        <v>2969300</v>
       </c>
       <c r="G89" s="3">
-        <v>1693700</v>
+        <v>1738700</v>
       </c>
       <c r="H89" s="3">
-        <v>1430600</v>
+        <v>1321800</v>
       </c>
       <c r="I89" s="3">
-        <v>486400</v>
+        <v>1729900</v>
       </c>
       <c r="J89" s="3">
+        <v>1461200</v>
+      </c>
+      <c r="K89" s="3">
         <v>1130400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1145500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1328800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1268200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1391700</v>
       </c>
-      <c r="O89" s="3"/>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3"/>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3586,47 +3805,51 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-524900</v>
+        <v>-665300</v>
       </c>
       <c r="E91" s="3">
-        <v>-644000</v>
+        <v>-527200</v>
       </c>
       <c r="F91" s="3">
-        <v>-588100</v>
+        <v>-536100</v>
       </c>
       <c r="G91" s="3">
-        <v>-696100</v>
+        <v>-657700</v>
       </c>
       <c r="H91" s="3">
-        <v>-786700</v>
+        <v>-600700</v>
       </c>
       <c r="I91" s="3">
-        <v>-801600</v>
+        <v>-711000</v>
       </c>
       <c r="J91" s="3">
+        <v>-803500</v>
+      </c>
+      <c r="K91" s="3">
         <v>-1180000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1117400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1296200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1379400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-1600400</v>
       </c>
-      <c r="O91" s="3"/>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3"/>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3663,9 +3886,12 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-      <c r="O92" s="3"/>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3"/>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3702,32 +3928,35 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-      <c r="O93" s="3"/>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3"/>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-686200</v>
+        <v>-917500</v>
       </c>
       <c r="E94" s="3">
-        <v>-528600</v>
+        <v>-822500</v>
       </c>
       <c r="F94" s="3">
-        <v>-596800</v>
+        <v>-700800</v>
       </c>
       <c r="G94" s="3">
-        <v>-583200</v>
+        <v>-539900</v>
       </c>
       <c r="H94" s="3">
-        <v>-930600</v>
+        <v>-609600</v>
       </c>
       <c r="I94" s="3">
-        <v>-496300</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>8</v>
+        <v>-595600</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-950500</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>8</v>
@@ -3735,15 +3964,18 @@
       <c r="L94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M94" s="3">
+      <c r="M94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N94" s="3">
         <v>-1114400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1151700</v>
       </c>
-      <c r="O94" s="3"/>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3"/>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3759,47 +3991,51 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-316400</v>
+        <v>-404300</v>
       </c>
       <c r="E96" s="3">
-        <v>-335000</v>
+        <v>-306700</v>
       </c>
       <c r="F96" s="3">
-        <v>-306500</v>
+        <v>-323200</v>
       </c>
       <c r="G96" s="3">
-        <v>-291600</v>
+        <v>-342200</v>
       </c>
       <c r="H96" s="3">
-        <v>-313900</v>
+        <v>-313000</v>
       </c>
       <c r="I96" s="3">
-        <v>-295300</v>
+        <v>-297800</v>
       </c>
       <c r="J96" s="3">
+        <v>-320600</v>
+      </c>
+      <c r="K96" s="3">
         <v>-409500</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-390400</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-452800</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-398200</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-371700</v>
       </c>
-      <c r="O96" s="3"/>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3"/>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3836,9 +4072,12 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-      <c r="O97" s="3"/>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3"/>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3875,9 +4114,12 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-      <c r="O98" s="3"/>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3"/>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3914,32 +4156,35 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-      <c r="O99" s="3"/>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3"/>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1623000</v>
+        <v>-1216600</v>
       </c>
       <c r="E100" s="3">
-        <v>-1330100</v>
+        <v>-1290100</v>
       </c>
       <c r="F100" s="3">
-        <v>-1451700</v>
+        <v>-1657600</v>
       </c>
       <c r="G100" s="3">
-        <v>-302800</v>
+        <v>-1358500</v>
       </c>
       <c r="H100" s="3">
-        <v>-578200</v>
+        <v>-1482700</v>
       </c>
       <c r="I100" s="3">
-        <v>-158800</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>8</v>
+        <v>-309200</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-590600</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>8</v>
@@ -3947,15 +4192,18 @@
       <c r="L100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M100" s="3">
+      <c r="M100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N100" s="3">
         <v>-457700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>71700</v>
       </c>
-      <c r="O100" s="3"/>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3"/>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3977,8 +4225,8 @@
       <c r="I101" s="3">
         <v>0</v>
       </c>
-      <c r="J101" s="3" t="s">
-        <v>8</v>
+      <c r="J101" s="3">
+        <v>0</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>8</v>
@@ -3986,52 +4234,58 @@
       <c r="L101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
+      <c r="M101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N101" s="3">
         <v>0</v>
       </c>
-      <c r="O101" s="3"/>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3"/>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>598100</v>
+        <v>634900</v>
       </c>
       <c r="E102" s="3">
-        <v>-156300</v>
+        <v>-833900</v>
       </c>
       <c r="F102" s="3">
-        <v>-754400</v>
+        <v>610800</v>
       </c>
       <c r="G102" s="3">
-        <v>807800</v>
+        <v>-159700</v>
       </c>
       <c r="H102" s="3">
-        <v>-78200</v>
+        <v>-770500</v>
       </c>
       <c r="I102" s="3">
-        <v>-168700</v>
+        <v>825000</v>
       </c>
       <c r="J102" s="3">
+        <v>-79800</v>
+      </c>
+      <c r="K102" s="3">
         <v>-376000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1311400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1521200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-303800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>311700</v>
       </c>
-      <c r="O102" s="3"/>
+      <c r="P102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/JSAIY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/JSAIY_YR_FIN.xlsx
@@ -727,25 +727,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>39908500</v>
+        <v>39067700</v>
       </c>
       <c r="E8" s="3">
-        <v>37885900</v>
+        <v>37087700</v>
       </c>
       <c r="F8" s="3">
-        <v>36812500</v>
+        <v>36036900</v>
       </c>
       <c r="G8" s="3">
-        <v>36742800</v>
+        <v>35968700</v>
       </c>
       <c r="H8" s="3">
-        <v>36760600</v>
+        <v>35986100</v>
       </c>
       <c r="I8" s="3">
-        <v>36062300</v>
+        <v>35302500</v>
       </c>
       <c r="J8" s="3">
-        <v>33233700</v>
+        <v>32533500</v>
       </c>
       <c r="K8" s="3">
         <v>29166200</v>
@@ -769,25 +769,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>36746600</v>
+        <v>35972400</v>
       </c>
       <c r="E9" s="3">
-        <v>34898900</v>
+        <v>34163600</v>
       </c>
       <c r="F9" s="3">
-        <v>34052400</v>
+        <v>33334900</v>
       </c>
       <c r="G9" s="3">
-        <v>33835600</v>
+        <v>33122800</v>
       </c>
       <c r="H9" s="3">
-        <v>33861000</v>
+        <v>33147600</v>
       </c>
       <c r="I9" s="3">
-        <v>33677200</v>
+        <v>32967700</v>
       </c>
       <c r="J9" s="3">
-        <v>31162900</v>
+        <v>30506400</v>
       </c>
       <c r="K9" s="3">
         <v>27359600</v>
@@ -811,25 +811,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>3161900</v>
+        <v>3095300</v>
       </c>
       <c r="E10" s="3">
-        <v>2987000</v>
+        <v>2924100</v>
       </c>
       <c r="F10" s="3">
-        <v>2760200</v>
+        <v>2702000</v>
       </c>
       <c r="G10" s="3">
-        <v>2907200</v>
+        <v>2845900</v>
       </c>
       <c r="H10" s="3">
-        <v>2899600</v>
+        <v>2838500</v>
       </c>
       <c r="I10" s="3">
-        <v>2385100</v>
+        <v>2334800</v>
       </c>
       <c r="J10" s="3">
-        <v>2070800</v>
+        <v>2027100</v>
       </c>
       <c r="K10" s="3">
         <v>1806600</v>
@@ -955,25 +955,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>551300</v>
+        <v>539700</v>
       </c>
       <c r="E14" s="3">
-        <v>-145700</v>
+        <v>-142700</v>
       </c>
       <c r="F14" s="3">
-        <v>674200</v>
+        <v>660000</v>
       </c>
       <c r="G14" s="3">
-        <v>448600</v>
+        <v>439200</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
       </c>
       <c r="I14" s="3">
-        <v>32900</v>
+        <v>32300</v>
       </c>
       <c r="J14" s="3">
-        <v>-103900</v>
+        <v>-101700</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>8</v>
@@ -1054,25 +1054,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>39136800</v>
+        <v>38312200</v>
       </c>
       <c r="E17" s="3">
-        <v>36414600</v>
+        <v>35647400</v>
       </c>
       <c r="F17" s="3">
-        <v>36603400</v>
+        <v>35832200</v>
       </c>
       <c r="G17" s="3">
-        <v>35882300</v>
+        <v>35126300</v>
       </c>
       <c r="H17" s="3">
-        <v>36010300</v>
+        <v>35251600</v>
       </c>
       <c r="I17" s="3">
-        <v>35438800</v>
+        <v>34692100</v>
       </c>
       <c r="J17" s="3">
-        <v>32440300</v>
+        <v>31756900</v>
       </c>
       <c r="K17" s="3">
         <v>28289000</v>
@@ -1096,25 +1096,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>771800</v>
+        <v>755500</v>
       </c>
       <c r="E18" s="3">
-        <v>1471300</v>
+        <v>1440300</v>
       </c>
       <c r="F18" s="3">
-        <v>209100</v>
+        <v>204700</v>
       </c>
       <c r="G18" s="3">
-        <v>860500</v>
+        <v>842400</v>
       </c>
       <c r="H18" s="3">
-        <v>750200</v>
+        <v>734400</v>
       </c>
       <c r="I18" s="3">
-        <v>623500</v>
+        <v>610400</v>
       </c>
       <c r="J18" s="3">
-        <v>793300</v>
+        <v>776600</v>
       </c>
       <c r="K18" s="3">
         <v>877200</v>
@@ -1156,25 +1156,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>22800</v>
+        <v>22300</v>
       </c>
       <c r="E20" s="3">
-        <v>5100</v>
+        <v>5000</v>
       </c>
       <c r="F20" s="3">
-        <v>15200</v>
+        <v>14900</v>
       </c>
       <c r="G20" s="3">
-        <v>-54500</v>
+        <v>-53300</v>
       </c>
       <c r="H20" s="3">
-        <v>22800</v>
+        <v>22300</v>
       </c>
       <c r="I20" s="3">
-        <v>32900</v>
+        <v>32300</v>
       </c>
       <c r="J20" s="3">
-        <v>-13900</v>
+        <v>-13600</v>
       </c>
       <c r="K20" s="3">
         <v>-48400</v>
@@ -1198,25 +1198,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2325500</v>
+        <v>2278000</v>
       </c>
       <c r="E21" s="3">
-        <v>3022500</v>
+        <v>2960300</v>
       </c>
       <c r="F21" s="3">
-        <v>1807200</v>
+        <v>1770600</v>
       </c>
       <c r="G21" s="3">
-        <v>2397700</v>
+        <v>2348700</v>
       </c>
       <c r="H21" s="3">
-        <v>2372400</v>
+        <v>2323900</v>
       </c>
       <c r="I21" s="3">
-        <v>1582900</v>
+        <v>1550400</v>
       </c>
       <c r="J21" s="3">
-        <v>1575300</v>
+        <v>1542800</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>8</v>
@@ -1240,25 +1240,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>380200</v>
+        <v>372200</v>
       </c>
       <c r="E22" s="3">
-        <v>394100</v>
+        <v>385800</v>
       </c>
       <c r="F22" s="3">
-        <v>432100</v>
+        <v>423000</v>
       </c>
       <c r="G22" s="3">
-        <v>482800</v>
+        <v>472700</v>
       </c>
       <c r="H22" s="3">
-        <v>517100</v>
+        <v>506200</v>
       </c>
       <c r="I22" s="3">
-        <v>138100</v>
+        <v>135200</v>
       </c>
       <c r="J22" s="3">
-        <v>141900</v>
+        <v>138900</v>
       </c>
       <c r="K22" s="3">
         <v>148900</v>
@@ -1282,25 +1282,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>414400</v>
+        <v>405700</v>
       </c>
       <c r="E23" s="3">
-        <v>1082300</v>
+        <v>1059500</v>
       </c>
       <c r="F23" s="3">
-        <v>-207800</v>
+        <v>-203500</v>
       </c>
       <c r="G23" s="3">
-        <v>323200</v>
+        <v>316400</v>
       </c>
       <c r="H23" s="3">
-        <v>256000</v>
+        <v>250600</v>
       </c>
       <c r="I23" s="3">
-        <v>518300</v>
+        <v>507400</v>
       </c>
       <c r="J23" s="3">
-        <v>637500</v>
+        <v>624000</v>
       </c>
       <c r="K23" s="3">
         <v>680000</v>
@@ -1324,25 +1324,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>152100</v>
+        <v>148900</v>
       </c>
       <c r="E24" s="3">
-        <v>224300</v>
+        <v>219600</v>
       </c>
       <c r="F24" s="3">
-        <v>46900</v>
+        <v>45900</v>
       </c>
       <c r="G24" s="3">
-        <v>130500</v>
+        <v>127800</v>
       </c>
       <c r="H24" s="3">
-        <v>20300</v>
+        <v>19800</v>
       </c>
       <c r="I24" s="3">
-        <v>126700</v>
+        <v>124100</v>
       </c>
       <c r="J24" s="3">
-        <v>159700</v>
+        <v>156300</v>
       </c>
       <c r="K24" s="3">
         <v>95500</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>262300</v>
+        <v>256800</v>
       </c>
       <c r="E26" s="3">
-        <v>858000</v>
+        <v>839900</v>
       </c>
       <c r="F26" s="3">
-        <v>-254700</v>
+        <v>-249400</v>
       </c>
       <c r="G26" s="3">
-        <v>192600</v>
+        <v>188600</v>
       </c>
       <c r="H26" s="3">
-        <v>235700</v>
+        <v>230800</v>
       </c>
       <c r="I26" s="3">
-        <v>391600</v>
+        <v>383300</v>
       </c>
       <c r="J26" s="3">
-        <v>477800</v>
+        <v>467700</v>
       </c>
       <c r="K26" s="3">
         <v>584400</v>
@@ -1450,25 +1450,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>262300</v>
+        <v>256800</v>
       </c>
       <c r="E27" s="3">
-        <v>858000</v>
+        <v>839900</v>
       </c>
       <c r="F27" s="3">
-        <v>-263600</v>
+        <v>-258000</v>
       </c>
       <c r="G27" s="3">
-        <v>163500</v>
+        <v>160000</v>
       </c>
       <c r="H27" s="3">
-        <v>212900</v>
+        <v>208400</v>
       </c>
       <c r="I27" s="3">
-        <v>368800</v>
+        <v>361000</v>
       </c>
       <c r="J27" s="3">
-        <v>455000</v>
+        <v>445400</v>
       </c>
       <c r="K27" s="3">
         <v>569500</v>
@@ -1660,25 +1660,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-22800</v>
+        <v>-22300</v>
       </c>
       <c r="E32" s="3">
-        <v>-5100</v>
+        <v>-5000</v>
       </c>
       <c r="F32" s="3">
-        <v>-15200</v>
+        <v>-14900</v>
       </c>
       <c r="G32" s="3">
-        <v>54500</v>
+        <v>53300</v>
       </c>
       <c r="H32" s="3">
-        <v>-22800</v>
+        <v>-22300</v>
       </c>
       <c r="I32" s="3">
-        <v>-32900</v>
+        <v>-32300</v>
       </c>
       <c r="J32" s="3">
-        <v>13900</v>
+        <v>13600</v>
       </c>
       <c r="K32" s="3">
         <v>48400</v>
@@ -1702,25 +1702,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>262300</v>
+        <v>256800</v>
       </c>
       <c r="E33" s="3">
-        <v>858000</v>
+        <v>839900</v>
       </c>
       <c r="F33" s="3">
-        <v>-263600</v>
+        <v>-258000</v>
       </c>
       <c r="G33" s="3">
-        <v>163500</v>
+        <v>160000</v>
       </c>
       <c r="H33" s="3">
-        <v>212900</v>
+        <v>208400</v>
       </c>
       <c r="I33" s="3">
-        <v>368800</v>
+        <v>361000</v>
       </c>
       <c r="J33" s="3">
-        <v>455000</v>
+        <v>445400</v>
       </c>
       <c r="K33" s="3">
         <v>569500</v>
@@ -1786,25 +1786,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>262300</v>
+        <v>256800</v>
       </c>
       <c r="E35" s="3">
-        <v>858000</v>
+        <v>839900</v>
       </c>
       <c r="F35" s="3">
-        <v>-263600</v>
+        <v>-258000</v>
       </c>
       <c r="G35" s="3">
-        <v>163500</v>
+        <v>160000</v>
       </c>
       <c r="H35" s="3">
-        <v>212900</v>
+        <v>208400</v>
       </c>
       <c r="I35" s="3">
-        <v>368800</v>
+        <v>361000</v>
       </c>
       <c r="J35" s="3">
-        <v>455000</v>
+        <v>445400</v>
       </c>
       <c r="K35" s="3">
         <v>569500</v>
@@ -1911,25 +1911,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1234400</v>
+        <v>1208300</v>
       </c>
       <c r="E41" s="3">
-        <v>749000</v>
+        <v>733200</v>
       </c>
       <c r="F41" s="3">
-        <v>916300</v>
+        <v>897000</v>
       </c>
       <c r="G41" s="3">
-        <v>2173400</v>
+        <v>2127600</v>
       </c>
       <c r="H41" s="3">
-        <v>1030300</v>
+        <v>1008600</v>
       </c>
       <c r="I41" s="3">
-        <v>1326900</v>
+        <v>1298900</v>
       </c>
       <c r="J41" s="3">
-        <v>1067100</v>
+        <v>1044600</v>
       </c>
       <c r="K41" s="3">
         <v>1059600</v>
@@ -1953,25 +1953,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1063300</v>
+        <v>1040900</v>
       </c>
       <c r="E42" s="3">
-        <v>544900</v>
+        <v>533500</v>
       </c>
       <c r="F42" s="3">
-        <v>1193800</v>
+        <v>1168600</v>
       </c>
       <c r="G42" s="3">
-        <v>449900</v>
+        <v>440400</v>
       </c>
       <c r="H42" s="3">
-        <v>657700</v>
+        <v>643900</v>
       </c>
       <c r="I42" s="3">
-        <v>1122800</v>
+        <v>1099200</v>
       </c>
       <c r="J42" s="3">
-        <v>432100</v>
+        <v>423000</v>
       </c>
       <c r="K42" s="3">
         <v>418100</v>
@@ -1995,25 +1995,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>4989400</v>
+        <v>4884200</v>
       </c>
       <c r="E43" s="3">
-        <v>4656100</v>
+        <v>4558000</v>
       </c>
       <c r="F43" s="3">
-        <v>9571900</v>
+        <v>9370300</v>
       </c>
       <c r="G43" s="3">
-        <v>11851800</v>
+        <v>11602100</v>
       </c>
       <c r="H43" s="3">
-        <v>5201000</v>
+        <v>5091400</v>
       </c>
       <c r="I43" s="3">
-        <v>5002000</v>
+        <v>4896600</v>
       </c>
       <c r="J43" s="3">
-        <v>8065100</v>
+        <v>7895200</v>
       </c>
       <c r="K43" s="3">
         <v>2600700</v>
@@ -2037,25 +2037,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>2406600</v>
+        <v>2355900</v>
       </c>
       <c r="E44" s="3">
-        <v>2277300</v>
+        <v>2229400</v>
       </c>
       <c r="F44" s="3">
-        <v>4118700</v>
+        <v>4031900</v>
       </c>
       <c r="G44" s="3">
-        <v>4389900</v>
+        <v>4297400</v>
       </c>
       <c r="H44" s="3">
-        <v>2444600</v>
+        <v>2393100</v>
       </c>
       <c r="I44" s="3">
-        <v>2293800</v>
+        <v>2245500</v>
       </c>
       <c r="J44" s="3">
-        <v>4498900</v>
+        <v>4404100</v>
       </c>
       <c r="K44" s="3">
         <v>1201100</v>
@@ -2079,25 +2079,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>309200</v>
+        <v>302700</v>
       </c>
       <c r="E45" s="3">
-        <v>316800</v>
+        <v>310100</v>
       </c>
       <c r="F45" s="3">
-        <v>202800</v>
+        <v>198500</v>
       </c>
       <c r="G45" s="3">
-        <v>233200</v>
+        <v>228300</v>
       </c>
       <c r="H45" s="3">
-        <v>234500</v>
+        <v>229500</v>
       </c>
       <c r="I45" s="3">
-        <v>211600</v>
+        <v>207200</v>
       </c>
       <c r="J45" s="3">
-        <v>316800</v>
+        <v>310100</v>
       </c>
       <c r="K45" s="3">
         <v>196000</v>
@@ -2121,25 +2121,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>10002800</v>
+        <v>9792100</v>
       </c>
       <c r="E46" s="3">
-        <v>8544100</v>
+        <v>8364100</v>
       </c>
       <c r="F46" s="3">
-        <v>9057400</v>
+        <v>8866600</v>
       </c>
       <c r="G46" s="3">
-        <v>9608700</v>
+        <v>9406200</v>
       </c>
       <c r="H46" s="3">
-        <v>9568100</v>
+        <v>9366500</v>
       </c>
       <c r="I46" s="3">
-        <v>9957200</v>
+        <v>9747400</v>
       </c>
       <c r="J46" s="3">
-        <v>7999200</v>
+        <v>7830700</v>
       </c>
       <c r="K46" s="3">
         <v>5475700</v>
@@ -2163,25 +2163,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>3108700</v>
+        <v>3043200</v>
       </c>
       <c r="E47" s="3">
-        <v>3388800</v>
+        <v>3317400</v>
       </c>
       <c r="F47" s="3">
-        <v>6858600</v>
+        <v>6714100</v>
       </c>
       <c r="G47" s="3">
-        <v>10095300</v>
+        <v>9882600</v>
       </c>
       <c r="H47" s="3">
-        <v>5383500</v>
+        <v>5270100</v>
       </c>
       <c r="I47" s="3">
-        <v>3978100</v>
+        <v>3894200</v>
       </c>
       <c r="J47" s="3">
-        <v>5870100</v>
+        <v>5746500</v>
       </c>
       <c r="K47" s="3">
         <v>2987800</v>
@@ -2205,25 +2205,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>17166800</v>
+        <v>16805200</v>
       </c>
       <c r="E48" s="3">
-        <v>17694000</v>
+        <v>17321300</v>
       </c>
       <c r="F48" s="3">
-        <v>33796400</v>
+        <v>33084300</v>
       </c>
       <c r="G48" s="3">
-        <v>34866000</v>
+        <v>34131400</v>
       </c>
       <c r="H48" s="3">
-        <v>17977900</v>
+        <v>17599200</v>
       </c>
       <c r="I48" s="3">
-        <v>12543700</v>
+        <v>12279500</v>
       </c>
       <c r="J48" s="3">
-        <v>25361200</v>
+        <v>24826900</v>
       </c>
       <c r="K48" s="3">
         <v>12115200</v>
@@ -2247,25 +2247,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1297700</v>
+        <v>1270400</v>
       </c>
       <c r="E49" s="3">
-        <v>1274900</v>
+        <v>1248000</v>
       </c>
       <c r="F49" s="3">
-        <v>2316600</v>
+        <v>2267800</v>
       </c>
       <c r="G49" s="3">
-        <v>2516900</v>
+        <v>2463800</v>
       </c>
       <c r="H49" s="3">
-        <v>1321800</v>
+        <v>1293900</v>
       </c>
       <c r="I49" s="3">
-        <v>1358500</v>
+        <v>1329900</v>
       </c>
       <c r="J49" s="3">
-        <v>1958000</v>
+        <v>1916700</v>
       </c>
       <c r="K49" s="3">
         <v>408200</v>
@@ -2373,25 +2373,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1574000</v>
+        <v>1540800</v>
       </c>
       <c r="E52" s="3">
-        <v>3203700</v>
+        <v>3136200</v>
       </c>
       <c r="F52" s="3">
-        <v>992300</v>
+        <v>971400</v>
       </c>
       <c r="G52" s="3">
-        <v>1439700</v>
+        <v>1409300</v>
       </c>
       <c r="H52" s="3">
-        <v>1247000</v>
+        <v>1220800</v>
       </c>
       <c r="I52" s="3">
-        <v>44400</v>
+        <v>43400</v>
       </c>
       <c r="J52" s="3">
-        <v>38000</v>
+        <v>37200</v>
       </c>
       <c r="K52" s="3">
         <v>73200</v>
@@ -2457,25 +2457,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>33150000</v>
+        <v>32451600</v>
       </c>
       <c r="E54" s="3">
-        <v>34105600</v>
+        <v>33387000</v>
       </c>
       <c r="F54" s="3">
-        <v>32012000</v>
+        <v>31337600</v>
       </c>
       <c r="G54" s="3">
-        <v>35404600</v>
+        <v>34658600</v>
       </c>
       <c r="H54" s="3">
-        <v>35498300</v>
+        <v>34750400</v>
       </c>
       <c r="I54" s="3">
-        <v>27881900</v>
+        <v>27294400</v>
       </c>
       <c r="J54" s="3">
-        <v>25090000</v>
+        <v>24561400</v>
       </c>
       <c r="K54" s="3">
         <v>21060100</v>
@@ -2535,25 +2535,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>4259400</v>
+        <v>4169700</v>
       </c>
       <c r="E57" s="3">
-        <v>3757500</v>
+        <v>3678400</v>
       </c>
       <c r="F57" s="3">
-        <v>9328600</v>
+        <v>9132100</v>
       </c>
       <c r="G57" s="3">
-        <v>9168900</v>
+        <v>8975700</v>
       </c>
       <c r="H57" s="3">
-        <v>3857700</v>
+        <v>3776400</v>
       </c>
       <c r="I57" s="3">
-        <v>3614300</v>
+        <v>3538200</v>
       </c>
       <c r="J57" s="3">
-        <v>8143700</v>
+        <v>7972100</v>
       </c>
       <c r="K57" s="3">
         <v>2583300</v>
@@ -2577,25 +2577,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2009900</v>
+        <v>1967600</v>
       </c>
       <c r="E58" s="3">
-        <v>735000</v>
+        <v>719500</v>
       </c>
       <c r="F58" s="3">
-        <v>1115200</v>
+        <v>1091700</v>
       </c>
       <c r="G58" s="3">
-        <v>896000</v>
+        <v>877100</v>
       </c>
       <c r="H58" s="3">
-        <v>1876900</v>
+        <v>1837300</v>
       </c>
       <c r="I58" s="3">
-        <v>966900</v>
+        <v>946600</v>
       </c>
       <c r="J58" s="3">
-        <v>589300</v>
+        <v>576900</v>
       </c>
       <c r="K58" s="3">
         <v>423100</v>
@@ -2619,25 +2619,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>8449100</v>
+        <v>8271100</v>
       </c>
       <c r="E59" s="3">
-        <v>8013100</v>
+        <v>7844300</v>
       </c>
       <c r="F59" s="3">
-        <v>17947500</v>
+        <v>17569400</v>
       </c>
       <c r="G59" s="3">
-        <v>19416300</v>
+        <v>19007200</v>
       </c>
       <c r="H59" s="3">
-        <v>9302000</v>
+        <v>9106000</v>
       </c>
       <c r="I59" s="3">
-        <v>8474400</v>
+        <v>8295900</v>
       </c>
       <c r="J59" s="3">
-        <v>12536100</v>
+        <v>12272000</v>
       </c>
       <c r="K59" s="3">
         <v>5331700</v>
@@ -2661,25 +2661,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>14718400</v>
+        <v>14408300</v>
       </c>
       <c r="E60" s="3">
-        <v>12505700</v>
+        <v>12242200</v>
       </c>
       <c r="F60" s="3">
-        <v>14990900</v>
+        <v>14675100</v>
       </c>
       <c r="G60" s="3">
-        <v>15271000</v>
+        <v>14949200</v>
       </c>
       <c r="H60" s="3">
-        <v>15016200</v>
+        <v>14699900</v>
       </c>
       <c r="I60" s="3">
-        <v>13055700</v>
+        <v>12780700</v>
       </c>
       <c r="J60" s="3">
-        <v>10881000</v>
+        <v>10651800</v>
       </c>
       <c r="K60" s="3">
         <v>8338200</v>
@@ -2703,25 +2703,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>7044900</v>
+        <v>6896500</v>
       </c>
       <c r="E61" s="3">
-        <v>8620200</v>
+        <v>8438600</v>
       </c>
       <c r="F61" s="3">
-        <v>7677300</v>
+        <v>7515600</v>
       </c>
       <c r="G61" s="3">
-        <v>8252700</v>
+        <v>8078800</v>
       </c>
       <c r="H61" s="3">
-        <v>7985300</v>
+        <v>7817000</v>
       </c>
       <c r="I61" s="3">
-        <v>2267200</v>
+        <v>2219400</v>
       </c>
       <c r="J61" s="3">
-        <v>2584000</v>
+        <v>2529600</v>
       </c>
       <c r="K61" s="3">
         <v>2941900</v>
@@ -2745,25 +2745,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2195000</v>
+        <v>2148700</v>
       </c>
       <c r="E62" s="3">
-        <v>2305200</v>
+        <v>2256700</v>
       </c>
       <c r="F62" s="3">
-        <v>1134200</v>
+        <v>1110300</v>
       </c>
       <c r="G62" s="3">
-        <v>3547200</v>
+        <v>3472400</v>
       </c>
       <c r="H62" s="3">
-        <v>2634700</v>
+        <v>2579200</v>
       </c>
       <c r="I62" s="3">
-        <v>3167000</v>
+        <v>3100300</v>
       </c>
       <c r="J62" s="3">
-        <v>3867800</v>
+        <v>3786300</v>
       </c>
       <c r="K62" s="3">
         <v>1877300</v>
@@ -2913,25 +2913,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>23958300</v>
+        <v>23453500</v>
       </c>
       <c r="E66" s="3">
-        <v>23431100</v>
+        <v>22937500</v>
       </c>
       <c r="F66" s="3">
-        <v>23519800</v>
+        <v>23024300</v>
       </c>
       <c r="G66" s="3">
-        <v>25531000</v>
+        <v>24993100</v>
       </c>
       <c r="H66" s="3">
-        <v>25636200</v>
+        <v>25096100</v>
       </c>
       <c r="I66" s="3">
-        <v>18489900</v>
+        <v>18100400</v>
       </c>
       <c r="J66" s="3">
-        <v>16381100</v>
+        <v>16036000</v>
       </c>
       <c r="K66" s="3">
         <v>13162400</v>
@@ -3141,25 +3141,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>6195800</v>
+        <v>6065300</v>
       </c>
       <c r="E72" s="3">
-        <v>7527800</v>
+        <v>7369200</v>
       </c>
       <c r="F72" s="3">
-        <v>5884100</v>
+        <v>5760100</v>
       </c>
       <c r="G72" s="3">
-        <v>6972700</v>
+        <v>6825800</v>
       </c>
       <c r="H72" s="3">
-        <v>6769900</v>
+        <v>6627300</v>
       </c>
       <c r="I72" s="3">
-        <v>6399900</v>
+        <v>6265000</v>
       </c>
       <c r="J72" s="3">
-        <v>5895500</v>
+        <v>5771300</v>
       </c>
       <c r="K72" s="3">
         <v>5061200</v>
@@ -3309,25 +3309,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>9191700</v>
+        <v>8998100</v>
       </c>
       <c r="E76" s="3">
-        <v>10674500</v>
+        <v>10449600</v>
       </c>
       <c r="F76" s="3">
-        <v>8492200</v>
+        <v>8313300</v>
       </c>
       <c r="G76" s="3">
-        <v>9873500</v>
+        <v>9665500</v>
       </c>
       <c r="H76" s="3">
-        <v>9862100</v>
+        <v>9654300</v>
       </c>
       <c r="I76" s="3">
-        <v>9392000</v>
+        <v>9194100</v>
       </c>
       <c r="J76" s="3">
-        <v>8708900</v>
+        <v>8525400</v>
       </c>
       <c r="K76" s="3">
         <v>7897700</v>
@@ -3440,25 +3440,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>262300</v>
+        <v>256800</v>
       </c>
       <c r="E81" s="3">
-        <v>858000</v>
+        <v>839900</v>
       </c>
       <c r="F81" s="3">
-        <v>-263600</v>
+        <v>-258000</v>
       </c>
       <c r="G81" s="3">
-        <v>163500</v>
+        <v>160000</v>
       </c>
       <c r="H81" s="3">
-        <v>212900</v>
+        <v>208400</v>
       </c>
       <c r="I81" s="3">
-        <v>368800</v>
+        <v>361000</v>
       </c>
       <c r="J81" s="3">
-        <v>455000</v>
+        <v>445400</v>
       </c>
       <c r="K81" s="3">
         <v>569500</v>
@@ -3500,25 +3500,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1530900</v>
+        <v>1498600</v>
       </c>
       <c r="E83" s="3">
-        <v>1546100</v>
+        <v>1513500</v>
       </c>
       <c r="F83" s="3">
-        <v>1582900</v>
+        <v>1549500</v>
       </c>
       <c r="G83" s="3">
-        <v>1591700</v>
+        <v>1558200</v>
       </c>
       <c r="H83" s="3">
-        <v>1599300</v>
+        <v>1565600</v>
       </c>
       <c r="I83" s="3">
-        <v>926400</v>
+        <v>906900</v>
       </c>
       <c r="J83" s="3">
-        <v>795900</v>
+        <v>779100</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>8</v>
@@ -3752,25 +3752,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2769100</v>
+        <v>2710700</v>
       </c>
       <c r="E89" s="3">
-        <v>1278700</v>
+        <v>1251800</v>
       </c>
       <c r="F89" s="3">
-        <v>2969300</v>
+        <v>2906700</v>
       </c>
       <c r="G89" s="3">
-        <v>1738700</v>
+        <v>1702100</v>
       </c>
       <c r="H89" s="3">
-        <v>1321800</v>
+        <v>1293900</v>
       </c>
       <c r="I89" s="3">
-        <v>1729900</v>
+        <v>1693400</v>
       </c>
       <c r="J89" s="3">
-        <v>1461200</v>
+        <v>1430400</v>
       </c>
       <c r="K89" s="3">
         <v>1130400</v>
@@ -3812,25 +3812,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-665300</v>
+        <v>-651300</v>
       </c>
       <c r="E91" s="3">
-        <v>-527200</v>
+        <v>-516100</v>
       </c>
       <c r="F91" s="3">
-        <v>-536100</v>
+        <v>-524800</v>
       </c>
       <c r="G91" s="3">
-        <v>-657700</v>
+        <v>-643900</v>
       </c>
       <c r="H91" s="3">
-        <v>-600700</v>
+        <v>-588000</v>
       </c>
       <c r="I91" s="3">
-        <v>-711000</v>
+        <v>-696000</v>
       </c>
       <c r="J91" s="3">
-        <v>-803500</v>
+        <v>-786500</v>
       </c>
       <c r="K91" s="3">
         <v>-1180000</v>
@@ -3938,25 +3938,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-917500</v>
+        <v>-898200</v>
       </c>
       <c r="E94" s="3">
-        <v>-822500</v>
+        <v>-805100</v>
       </c>
       <c r="F94" s="3">
-        <v>-700800</v>
+        <v>-686100</v>
       </c>
       <c r="G94" s="3">
-        <v>-539900</v>
+        <v>-528500</v>
       </c>
       <c r="H94" s="3">
-        <v>-609600</v>
+        <v>-596700</v>
       </c>
       <c r="I94" s="3">
-        <v>-595600</v>
+        <v>-583100</v>
       </c>
       <c r="J94" s="3">
-        <v>-950500</v>
+        <v>-930500</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>8</v>
@@ -3998,25 +3998,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-404300</v>
+        <v>-395800</v>
       </c>
       <c r="E96" s="3">
-        <v>-306700</v>
+        <v>-300200</v>
       </c>
       <c r="F96" s="3">
-        <v>-323200</v>
+        <v>-316400</v>
       </c>
       <c r="G96" s="3">
-        <v>-342200</v>
+        <v>-335000</v>
       </c>
       <c r="H96" s="3">
-        <v>-313000</v>
+        <v>-306400</v>
       </c>
       <c r="I96" s="3">
-        <v>-297800</v>
+        <v>-291500</v>
       </c>
       <c r="J96" s="3">
-        <v>-320600</v>
+        <v>-313900</v>
       </c>
       <c r="K96" s="3">
         <v>-409500</v>
@@ -4166,25 +4166,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1216600</v>
+        <v>-1191000</v>
       </c>
       <c r="E100" s="3">
-        <v>-1290100</v>
+        <v>-1262900</v>
       </c>
       <c r="F100" s="3">
-        <v>-1657600</v>
+        <v>-1622700</v>
       </c>
       <c r="G100" s="3">
-        <v>-1358500</v>
+        <v>-1329900</v>
       </c>
       <c r="H100" s="3">
-        <v>-1482700</v>
+        <v>-1451500</v>
       </c>
       <c r="I100" s="3">
-        <v>-309200</v>
+        <v>-302700</v>
       </c>
       <c r="J100" s="3">
-        <v>-590600</v>
+        <v>-578100</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>8</v>
@@ -4250,25 +4250,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>634900</v>
+        <v>621500</v>
       </c>
       <c r="E102" s="3">
-        <v>-833900</v>
+        <v>-816300</v>
       </c>
       <c r="F102" s="3">
-        <v>610800</v>
+        <v>598000</v>
       </c>
       <c r="G102" s="3">
-        <v>-159700</v>
+        <v>-156300</v>
       </c>
       <c r="H102" s="3">
-        <v>-770500</v>
+        <v>-754300</v>
       </c>
       <c r="I102" s="3">
-        <v>825000</v>
+        <v>807600</v>
       </c>
       <c r="J102" s="3">
-        <v>-79800</v>
+        <v>-78200</v>
       </c>
       <c r="K102" s="3">
         <v>-376000</v>
